--- a/Offline/BusinessManagement/MarketingMasterPlan-May-2023.xlsx
+++ b/Offline/BusinessManagement/MarketingMasterPlan-May-2023.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showObjects="none"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Anodiam\Docs\Offline\BusinessManagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="779"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="779"/>
   </bookViews>
   <sheets>
     <sheet name="MarketingPlan" sheetId="14" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="477">
   <si>
     <t>Medium</t>
   </si>
@@ -1320,9 +1320,6 @@
     <t>1. G</t>
   </si>
   <si>
-    <t>1. H</t>
-  </si>
-  <si>
     <t>2. G</t>
   </si>
   <si>
@@ -1332,81 +1329,30 @@
     <t>3. G</t>
   </si>
   <si>
-    <t>3. H</t>
-  </si>
-  <si>
     <t>4. G</t>
   </si>
   <si>
-    <t>4. H</t>
-  </si>
-  <si>
     <t>2. J</t>
   </si>
   <si>
     <t>AI-Junior-School Proposals</t>
   </si>
   <si>
-    <t>1. J</t>
-  </si>
-  <si>
     <t>Generic-Merch</t>
   </si>
   <si>
-    <t>AI-Junior-Teacher-Portfolio-Catalog</t>
-  </si>
-  <si>
-    <t>AI-Junior-Pricing-Offer-Vs-Faculty-Class-Timing-Catatlog</t>
-  </si>
-  <si>
     <t>5. G</t>
   </si>
   <si>
     <t>5. H</t>
   </si>
   <si>
-    <t>IT-AI-Teacher-Portfolio-Catalog</t>
-  </si>
-  <si>
-    <t>Commerce-Teacher-Portfolio-Catalog</t>
-  </si>
-  <si>
-    <t>IIT-NEET-VIII-XII-Teacher-Portfolio-Catalog</t>
-  </si>
-  <si>
-    <t>IT-AI-Pricing-Offer-Vs-Faculty-Class-Timing-Catatlog</t>
-  </si>
-  <si>
-    <t>Commerce-Pricing-Offer-Vs-Faculty-Class-Timing-Catatlog</t>
-  </si>
-  <si>
-    <t>IIT-NEET-VIII-XII-Pricing-Offer-Vs-Faculty-Class-Timing-Catatlog</t>
-  </si>
-  <si>
-    <t>1. K</t>
-  </si>
-  <si>
-    <t>Complete-Pricing-Offer-Vs-Faculty-Class-Timing-Catatlog</t>
-  </si>
-  <si>
     <t>Planned</t>
   </si>
   <si>
     <t>6. A</t>
   </si>
   <si>
-    <t>Misc-Teacher-Vacancy-FB-Post</t>
-  </si>
-  <si>
-    <t>Misc-Teacher-Vacancy-FB-Reels</t>
-  </si>
-  <si>
-    <t>Misc-Non-Teaching-Vacancy-FB-Post</t>
-  </si>
-  <si>
-    <t>Misc-Teaching-Vacancy-FB-Reels</t>
-  </si>
-  <si>
     <t>6. B</t>
   </si>
   <si>
@@ -1416,15 +1362,9 @@
     <t>6. D</t>
   </si>
   <si>
-    <t>2. K</t>
-  </si>
-  <si>
     <t>AI-Junior-Sample-Projects</t>
   </si>
   <si>
-    <t>5. I</t>
-  </si>
-  <si>
     <t>IT-AI-Sample-Projects</t>
   </si>
   <si>
@@ -1434,18 +1374,12 @@
     <t>Generic-Internal-Signages</t>
   </si>
   <si>
-    <t>1. A; 1.G; 1. J</t>
-  </si>
-  <si>
     <t>&lt;-- Back to MarketingPlan</t>
   </si>
   <si>
     <t>Generic-Wall-Poster</t>
   </si>
   <si>
-    <t>Generic-Standies X 2</t>
-  </si>
-  <si>
     <t>AI-Junior-Wall-Poster</t>
   </si>
   <si>
@@ -1461,9 +1395,6 @@
     <t>High School Commerce Students</t>
   </si>
   <si>
-    <t xml:space="preserve">1A; 1B; 1G; 1J; 4a; 4B; 4G; 4H; </t>
-  </si>
-  <si>
     <t>6. E</t>
   </si>
   <si>
@@ -1482,14 +1413,88 @@
     <t>6. J</t>
   </si>
   <si>
-    <t>Grooming-Professional-Training-Flyer</t>
+    <t>6. K</t>
+  </si>
+  <si>
+    <t>6. L</t>
+  </si>
+  <si>
+    <t>6. M</t>
+  </si>
+  <si>
+    <t>6. N</t>
+  </si>
+  <si>
+    <t>6. O</t>
+  </si>
+  <si>
+    <t>Generic-Standee X 2</t>
+  </si>
+  <si>
+    <t>Generic-FB-Post
+Generic-Insta-Reel</t>
+  </si>
+  <si>
+    <t>Generic-Flex
+Generic-Sun-Pack</t>
+  </si>
+  <si>
+    <t>AI-Junior-Teacher-Catalog</t>
+  </si>
+  <si>
+    <t>IIT-NEET-VIII-XII-Teacher-Catalog</t>
+  </si>
+  <si>
+    <t>Commerce-Teacher-Catalog</t>
+  </si>
+  <si>
+    <t>IT-AI-Teacher-Catalog</t>
+  </si>
+  <si>
+    <t>Groomingl-Flyer</t>
+  </si>
+  <si>
+    <t>Grooming-Sun-Pack</t>
+  </si>
+  <si>
+    <t>Grooming-FB-Post</t>
+  </si>
+  <si>
+    <t>Grooming-Insta-Reel</t>
+  </si>
+  <si>
+    <t>Grooming-Teacher-Catalog</t>
+  </si>
+  <si>
+    <t>Vacancy-FB-Post</t>
+  </si>
+  <si>
+    <t>Vacancy-FB-Reels</t>
+  </si>
+  <si>
+    <t>Price-Offer-Faculty-Timing</t>
+  </si>
+  <si>
+    <t>English-Flyer</t>
+  </si>
+  <si>
+    <t>English-FB-Post</t>
+  </si>
+  <si>
+    <t>English-Insta-Reel</t>
+  </si>
+  <si>
+    <t>English-Teacher-Catalog</t>
+  </si>
+  <si>
+    <t>English-Sun-Pack</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1585,7 +1590,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Oxygen"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Oxygen"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Oxygen"/>
     </font>
   </fonts>
@@ -2345,7 +2360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2822,12 +2837,10 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2870,8 +2883,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3157,25 +3178,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.6640625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="172" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="172" customWidth="1"/>
-    <col min="3" max="11" width="13.28515625" style="172" customWidth="1"/>
-    <col min="12" max="12" width="1.42578125" style="172" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" style="172" customWidth="1"/>
-    <col min="14" max="14" width="26.85546875" style="172" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="172" customWidth="1"/>
-    <col min="16" max="46" width="13.7109375" style="172" customWidth="1"/>
-    <col min="47" max="16384" width="14.7109375" style="172"/>
+    <col min="1" max="1" width="11.44140625" style="172" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" style="172" customWidth="1"/>
+    <col min="3" max="11" width="13.33203125" style="172" customWidth="1"/>
+    <col min="12" max="12" width="1.44140625" style="172" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" style="172" customWidth="1"/>
+    <col min="14" max="14" width="27.5546875" style="172" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" style="172" customWidth="1"/>
+    <col min="16" max="46" width="13.6640625" style="172" customWidth="1"/>
+    <col min="47" max="16384" width="14.6640625" style="172"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="36" x14ac:dyDescent="0.25">
       <c r="A1" s="175" t="s">
         <v>264</v>
       </c>
@@ -3183,7 +3204,7 @@
         <v>419</v>
       </c>
       <c r="C1" s="175" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="D1" s="175" t="s">
         <v>291</v>
@@ -3220,24 +3241,30 @@
         <v>340</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="180" t="s">
         <v>265</v>
       </c>
       <c r="B2" s="175" t="s">
-        <v>465</v>
-      </c>
-      <c r="C2" s="178" t="s">
+        <v>443</v>
+      </c>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="194" t="s">
         <v>459</v>
       </c>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="195"/>
-      <c r="K2" s="195"/>
+      <c r="F2" s="194" t="s">
+        <v>344</v>
+      </c>
+      <c r="G2" s="194" t="s">
+        <v>458</v>
+      </c>
+      <c r="H2" s="196"/>
+      <c r="I2" s="194" t="s">
+        <v>458</v>
+      </c>
+      <c r="J2" s="196"/>
+      <c r="K2" s="196"/>
       <c r="L2" s="173"/>
       <c r="M2" s="177" t="s">
         <v>389</v>
@@ -3249,20 +3276,22 @@
         <v>343</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="182"/>
       <c r="B3" s="175" t="s">
-        <v>457</v>
-      </c>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="178"/>
-      <c r="I3" s="178"/>
-      <c r="J3" s="178"/>
-      <c r="K3" s="178"/>
+        <v>437</v>
+      </c>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="194" t="s">
+        <v>459</v>
+      </c>
+      <c r="F3" s="197"/>
+      <c r="G3" s="197"/>
+      <c r="H3" s="197"/>
+      <c r="I3" s="197"/>
+      <c r="J3" s="197"/>
+      <c r="K3" s="197"/>
       <c r="L3" s="173"/>
       <c r="M3" s="177" t="s">
         <v>390</v>
@@ -3271,23 +3300,27 @@
         <v>369</v>
       </c>
       <c r="O3" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="182"/>
       <c r="B4" s="175" t="s">
-        <v>466</v>
-      </c>
-      <c r="C4" s="178"/>
-      <c r="D4" s="178"/>
-      <c r="E4" s="178"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="178"/>
-      <c r="H4" s="178"/>
-      <c r="I4" s="178"/>
-      <c r="J4" s="178"/>
-      <c r="K4" s="178"/>
+        <v>444</v>
+      </c>
+      <c r="C4" s="195"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="197"/>
+      <c r="F4" s="197"/>
+      <c r="G4" s="194" t="s">
+        <v>458</v>
+      </c>
+      <c r="H4" s="197"/>
+      <c r="I4" s="194" t="s">
+        <v>458</v>
+      </c>
+      <c r="J4" s="197"/>
+      <c r="K4" s="197"/>
       <c r="L4" s="173"/>
       <c r="M4" s="177" t="s">
         <v>391</v>
@@ -3296,50 +3329,56 @@
         <v>371</v>
       </c>
       <c r="O4" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="181"/>
       <c r="B5" s="175" t="s">
         <v>283</v>
       </c>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
-      <c r="J5" s="178"/>
-      <c r="K5" s="178"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="197"/>
+      <c r="F5" s="197"/>
+      <c r="G5" s="194" t="s">
+        <v>458</v>
+      </c>
+      <c r="H5" s="194" t="s">
+        <v>458</v>
+      </c>
+      <c r="I5" s="194" t="s">
+        <v>458</v>
+      </c>
+      <c r="J5" s="197"/>
+      <c r="K5" s="197"/>
       <c r="L5" s="173"/>
       <c r="M5" s="177" t="s">
         <v>392</v>
       </c>
       <c r="N5" s="177" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="O5" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="180" t="s">
         <v>260</v>
       </c>
       <c r="B6" s="175" t="s">
         <v>278</v>
       </c>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
-      <c r="J6" s="178"/>
-      <c r="K6" s="178"/>
+      <c r="C6" s="194"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="194"/>
+      <c r="G6" s="194"/>
+      <c r="H6" s="194"/>
+      <c r="I6" s="194"/>
+      <c r="J6" s="194"/>
+      <c r="K6" s="194"/>
       <c r="L6" s="173"/>
       <c r="M6" s="177" t="s">
         <v>393</v>
@@ -3348,23 +3387,23 @@
         <v>372</v>
       </c>
       <c r="O6" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="182"/>
       <c r="B7" s="175" t="s">
         <v>277</v>
       </c>
-      <c r="C7" s="178"/>
-      <c r="D7" s="178"/>
-      <c r="E7" s="178"/>
-      <c r="F7" s="178"/>
-      <c r="G7" s="178"/>
-      <c r="H7" s="178"/>
-      <c r="I7" s="178"/>
-      <c r="J7" s="178"/>
-      <c r="K7" s="178"/>
+      <c r="C7" s="194"/>
+      <c r="D7" s="194"/>
+      <c r="E7" s="194"/>
+      <c r="F7" s="194"/>
+      <c r="G7" s="194"/>
+      <c r="H7" s="194"/>
+      <c r="I7" s="194"/>
+      <c r="J7" s="194"/>
+      <c r="K7" s="194"/>
       <c r="L7" s="173"/>
       <c r="M7" s="177" t="s">
         <v>394</v>
@@ -3373,743 +3412,735 @@
         <v>373</v>
       </c>
       <c r="O7" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="182"/>
       <c r="B8" s="175" t="s">
         <v>289</v>
       </c>
-      <c r="C8" s="178"/>
-      <c r="D8" s="178"/>
-      <c r="E8" s="178"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="178"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="178"/>
-      <c r="K8" s="178"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="194"/>
+      <c r="E8" s="194"/>
+      <c r="F8" s="194"/>
+      <c r="G8" s="194"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="194"/>
+      <c r="K8" s="194"/>
       <c r="L8" s="173"/>
       <c r="M8" s="177" t="s">
         <v>420</v>
       </c>
       <c r="N8" s="177" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="O8" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="181"/>
       <c r="B9" s="175" t="s">
         <v>282</v>
       </c>
-      <c r="C9" s="178"/>
-      <c r="D9" s="178"/>
-      <c r="E9" s="178"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="178"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="178"/>
-      <c r="J9" s="178"/>
-      <c r="K9" s="178"/>
+      <c r="C9" s="194"/>
+      <c r="D9" s="194"/>
+      <c r="E9" s="194"/>
+      <c r="F9" s="194"/>
+      <c r="G9" s="194"/>
+      <c r="H9" s="194"/>
+      <c r="I9" s="194"/>
+      <c r="J9" s="194"/>
+      <c r="K9" s="194"/>
       <c r="L9" s="173"/>
       <c r="M9" s="177" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
       <c r="N9" s="177" t="s">
-        <v>458</v>
+        <v>342</v>
       </c>
       <c r="O9" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="175" t="s">
         <v>266</v>
       </c>
       <c r="B10" s="175" t="s">
         <v>281</v>
       </c>
-      <c r="C10" s="178">
-        <v>1</v>
-      </c>
-      <c r="D10" s="178"/>
-      <c r="E10" s="178"/>
-      <c r="F10" s="178"/>
-      <c r="G10" s="178"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="178"/>
-      <c r="K10" s="178"/>
+      <c r="C10" s="194"/>
+      <c r="D10" s="194"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="194"/>
+      <c r="G10" s="194"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
+      <c r="J10" s="194"/>
+      <c r="K10" s="194"/>
       <c r="L10" s="173"/>
       <c r="M10" s="177" t="s">
+        <v>396</v>
+      </c>
+      <c r="N10" s="177" t="s">
+        <v>366</v>
+      </c>
+      <c r="O10" s="177" t="s">
         <v>430</v>
       </c>
-      <c r="N10" s="177" t="s">
-        <v>431</v>
-      </c>
-      <c r="O10" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="175" t="s">
         <v>297</v>
       </c>
       <c r="B11" s="175" t="s">
         <v>279</v>
       </c>
-      <c r="C11" s="178">
-        <v>1</v>
-      </c>
-      <c r="D11" s="178"/>
-      <c r="E11" s="178"/>
-      <c r="F11" s="178"/>
-      <c r="G11" s="178"/>
-      <c r="H11" s="178"/>
-      <c r="I11" s="178"/>
-      <c r="J11" s="178"/>
-      <c r="K11" s="178"/>
+      <c r="C11" s="194"/>
+      <c r="D11" s="194"/>
+      <c r="E11" s="194"/>
+      <c r="F11" s="194"/>
+      <c r="G11" s="194"/>
+      <c r="H11" s="194"/>
+      <c r="I11" s="194"/>
+      <c r="J11" s="194"/>
+      <c r="K11" s="194"/>
       <c r="L11" s="173"/>
       <c r="M11" s="177" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="N11" s="177" t="s">
-        <v>443</v>
+        <v>374</v>
       </c>
       <c r="O11" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="175" t="s">
         <v>298</v>
       </c>
       <c r="B12" s="175" t="s">
         <v>280</v>
       </c>
-      <c r="C12" s="178"/>
-      <c r="D12" s="178"/>
-      <c r="E12" s="178"/>
-      <c r="F12" s="178"/>
-      <c r="G12" s="178"/>
-      <c r="H12" s="178"/>
-      <c r="I12" s="178"/>
-      <c r="J12" s="178"/>
-      <c r="K12" s="178"/>
+      <c r="C12" s="194"/>
+      <c r="D12" s="194"/>
+      <c r="E12" s="194"/>
+      <c r="F12" s="194"/>
+      <c r="G12" s="194"/>
+      <c r="H12" s="194"/>
+      <c r="I12" s="194"/>
+      <c r="J12" s="194"/>
+      <c r="K12" s="194"/>
       <c r="L12" s="173"/>
       <c r="M12" s="177" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="N12" s="177" t="s">
-        <v>342</v>
+        <v>441</v>
       </c>
       <c r="O12" s="177" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="180" t="s">
         <v>261</v>
       </c>
       <c r="B13" s="175" t="s">
-        <v>467</v>
-      </c>
-      <c r="C13" s="178" t="s">
-        <v>468</v>
-      </c>
-      <c r="D13" s="178"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="178"/>
-      <c r="G13" s="178"/>
-      <c r="H13" s="178"/>
-      <c r="I13" s="178"/>
-      <c r="J13" s="178"/>
-      <c r="K13" s="178"/>
+        <v>445</v>
+      </c>
+      <c r="C13" s="194"/>
+      <c r="D13" s="194"/>
+      <c r="E13" s="194"/>
+      <c r="F13" s="194"/>
+      <c r="G13" s="194"/>
+      <c r="H13" s="194"/>
+      <c r="I13" s="194"/>
+      <c r="J13" s="194"/>
+      <c r="K13" s="194"/>
       <c r="L13" s="173"/>
       <c r="M13" s="177" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="N13" s="177" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="O13" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="182"/>
       <c r="B14" s="175" t="s">
         <v>290</v>
       </c>
-      <c r="C14" s="178"/>
-      <c r="D14" s="178"/>
-      <c r="E14" s="178"/>
-      <c r="F14" s="178"/>
-      <c r="G14" s="178"/>
-      <c r="H14" s="178"/>
-      <c r="I14" s="178"/>
-      <c r="J14" s="178"/>
-      <c r="K14" s="178"/>
+      <c r="C14" s="194"/>
+      <c r="D14" s="194"/>
+      <c r="E14" s="194"/>
+      <c r="F14" s="194"/>
+      <c r="G14" s="194"/>
+      <c r="H14" s="194"/>
+      <c r="I14" s="194"/>
+      <c r="J14" s="194"/>
+      <c r="K14" s="194"/>
       <c r="L14" s="173"/>
       <c r="M14" s="177" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="N14" s="177" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="O14" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="182"/>
       <c r="B15" s="175" t="s">
         <v>287</v>
       </c>
-      <c r="C15" s="178"/>
-      <c r="D15" s="178"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="178"/>
-      <c r="G15" s="178"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="178"/>
-      <c r="K15" s="178"/>
+      <c r="C15" s="194"/>
+      <c r="D15" s="194"/>
+      <c r="E15" s="194"/>
+      <c r="F15" s="194"/>
+      <c r="G15" s="194"/>
+      <c r="H15" s="194"/>
+      <c r="I15" s="194"/>
+      <c r="J15" s="194"/>
+      <c r="K15" s="194"/>
       <c r="L15" s="173"/>
       <c r="M15" s="177" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
       <c r="N15" s="177" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="O15" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="181"/>
       <c r="B16" s="175" t="s">
         <v>284</v>
       </c>
-      <c r="C16" s="178"/>
-      <c r="D16" s="178"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="178"/>
-      <c r="K16" s="178"/>
+      <c r="C16" s="194"/>
+      <c r="D16" s="194"/>
+      <c r="E16" s="194"/>
+      <c r="F16" s="194"/>
+      <c r="G16" s="194"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="194"/>
+      <c r="J16" s="194"/>
+      <c r="K16" s="194"/>
       <c r="L16" s="173"/>
       <c r="M16" s="177" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="N16" s="177" t="s">
-        <v>375</v>
+        <v>426</v>
       </c>
       <c r="O16" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="180" t="s">
         <v>262</v>
       </c>
       <c r="B17" s="175" t="s">
         <v>285</v>
       </c>
-      <c r="C17" s="178"/>
-      <c r="D17" s="178"/>
-      <c r="E17" s="178"/>
-      <c r="F17" s="178"/>
-      <c r="G17" s="178"/>
-      <c r="H17" s="178"/>
-      <c r="I17" s="178"/>
-      <c r="J17" s="178"/>
-      <c r="K17" s="178"/>
+      <c r="C17" s="194"/>
+      <c r="D17" s="194"/>
+      <c r="E17" s="194"/>
+      <c r="F17" s="194"/>
+      <c r="G17" s="194"/>
+      <c r="H17" s="194"/>
+      <c r="I17" s="194"/>
+      <c r="J17" s="194"/>
+      <c r="K17" s="194"/>
       <c r="L17" s="173"/>
       <c r="M17" s="177" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="N17" s="177" t="s">
-        <v>376</v>
+        <v>435</v>
       </c>
       <c r="O17" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="181"/>
       <c r="B18" s="175" t="s">
         <v>286</v>
       </c>
-      <c r="C18" s="178"/>
-      <c r="D18" s="178"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="178"/>
-      <c r="G18" s="178"/>
-      <c r="H18" s="178"/>
-      <c r="I18" s="178"/>
-      <c r="J18" s="178"/>
-      <c r="K18" s="178"/>
+      <c r="C18" s="194"/>
+      <c r="D18" s="194"/>
+      <c r="E18" s="194"/>
+      <c r="F18" s="194"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="194"/>
+      <c r="I18" s="194"/>
+      <c r="J18" s="194"/>
+      <c r="K18" s="194"/>
       <c r="L18" s="173"/>
       <c r="M18" s="177" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="N18" s="177" t="s">
-        <v>432</v>
+        <v>365</v>
       </c>
       <c r="O18" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="175" t="s">
         <v>263</v>
       </c>
       <c r="B19" s="175" t="s">
         <v>288</v>
       </c>
-      <c r="C19" s="178"/>
-      <c r="D19" s="178"/>
-      <c r="E19" s="178"/>
-      <c r="F19" s="178"/>
-      <c r="G19" s="178"/>
-      <c r="H19" s="178"/>
-      <c r="I19" s="178"/>
-      <c r="J19" s="178"/>
-      <c r="K19" s="178"/>
+      <c r="C19" s="194"/>
+      <c r="D19" s="194"/>
+      <c r="E19" s="194"/>
+      <c r="F19" s="194"/>
+      <c r="G19" s="194"/>
+      <c r="H19" s="194"/>
+      <c r="I19" s="194"/>
+      <c r="J19" s="194"/>
+      <c r="K19" s="194"/>
       <c r="L19" s="173"/>
       <c r="M19" s="177" t="s">
+        <v>402</v>
+      </c>
+      <c r="N19" s="177" t="s">
+        <v>368</v>
+      </c>
+      <c r="O19" s="177" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M20" s="177" t="s">
+        <v>403</v>
+      </c>
+      <c r="N20" s="177" t="s">
+        <v>377</v>
+      </c>
+      <c r="O20" s="177" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M21" s="177" t="s">
+        <v>404</v>
+      </c>
+      <c r="N21" s="177" t="s">
+        <v>378</v>
+      </c>
+      <c r="O21" s="177" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="177" t="s">
+        <v>405</v>
+      </c>
+      <c r="N22" s="177" t="s">
+        <v>379</v>
+      </c>
+      <c r="O22" s="177" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M23" s="177" t="s">
+        <v>406</v>
+      </c>
+      <c r="N23" s="177" t="s">
+        <v>380</v>
+      </c>
+      <c r="O23" s="177" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M24" s="177" t="s">
         <v>423</v>
       </c>
-      <c r="N19" s="177" t="s">
+      <c r="N24" s="177" t="s">
+        <v>461</v>
+      </c>
+      <c r="O24" s="177" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M25" s="177" t="s">
+        <v>407</v>
+      </c>
+      <c r="N25" s="177" t="s">
+        <v>363</v>
+      </c>
+      <c r="O25" s="177" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M26" s="177" t="s">
+        <v>408</v>
+      </c>
+      <c r="N26" s="177" t="s">
+        <v>367</v>
+      </c>
+      <c r="O26" s="177" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M27" s="177" t="s">
+        <v>409</v>
+      </c>
+      <c r="N27" s="177" t="s">
+        <v>381</v>
+      </c>
+      <c r="O27" s="177" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M28" s="177" t="s">
+        <v>410</v>
+      </c>
+      <c r="N28" s="177" t="s">
+        <v>382</v>
+      </c>
+      <c r="O28" s="177" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M29" s="177" t="s">
+        <v>411</v>
+      </c>
+      <c r="N29" s="177" t="s">
+        <v>383</v>
+      </c>
+      <c r="O29" s="177" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M30" s="177" t="s">
+        <v>412</v>
+      </c>
+      <c r="N30" s="177" t="s">
+        <v>384</v>
+      </c>
+      <c r="O30" s="177" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M31" s="177" t="s">
+        <v>424</v>
+      </c>
+      <c r="N31" s="177" t="s">
+        <v>462</v>
+      </c>
+      <c r="O31" s="177" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M32" s="177" t="s">
+        <v>413</v>
+      </c>
+      <c r="N32" s="177" t="s">
+        <v>364</v>
+      </c>
+      <c r="O32" s="177" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="33" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M33" s="177" t="s">
+        <v>414</v>
+      </c>
+      <c r="N33" s="177" t="s">
+        <v>370</v>
+      </c>
+      <c r="O33" s="177" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="34" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M34" s="177" t="s">
+        <v>415</v>
+      </c>
+      <c r="N34" s="177" t="s">
+        <v>385</v>
+      </c>
+      <c r="O34" s="177" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="35" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M35" s="177" t="s">
+        <v>416</v>
+      </c>
+      <c r="N35" s="177" t="s">
+        <v>386</v>
+      </c>
+      <c r="O35" s="177" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="36" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M36" s="177" t="s">
+        <v>417</v>
+      </c>
+      <c r="N36" s="177" t="s">
+        <v>387</v>
+      </c>
+      <c r="O36" s="177" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="37" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M37" s="177" t="s">
+        <v>418</v>
+      </c>
+      <c r="N37" s="177" t="s">
+        <v>388</v>
+      </c>
+      <c r="O37" s="177" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="38" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M38" s="177" t="s">
+        <v>428</v>
+      </c>
+      <c r="N38" s="177" t="s">
+        <v>463</v>
+      </c>
+      <c r="O38" s="177" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="39" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M39" s="177" t="s">
+        <v>429</v>
+      </c>
+      <c r="N39" s="177" t="s">
+        <v>436</v>
+      </c>
+      <c r="O39" s="177" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="40" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M40" s="177" t="s">
+        <v>431</v>
+      </c>
+      <c r="N40" s="177" t="s">
+        <v>469</v>
+      </c>
+      <c r="O40" s="177" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="41" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M41" s="177" t="s">
+        <v>432</v>
+      </c>
+      <c r="N41" s="177" t="s">
+        <v>470</v>
+      </c>
+      <c r="O41" s="177" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="42" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M42" s="177" t="s">
         <v>433</v>
       </c>
-      <c r="O19" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M20" s="177" t="s">
-        <v>428</v>
-      </c>
-      <c r="N20" s="177" t="s">
-        <v>429</v>
-      </c>
-      <c r="O20" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M21" s="177" t="s">
-        <v>453</v>
-      </c>
-      <c r="N21" s="177" t="s">
-        <v>454</v>
-      </c>
-      <c r="O21" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M22" s="177" t="s">
-        <v>401</v>
-      </c>
-      <c r="N22" s="177" t="s">
-        <v>365</v>
-      </c>
-      <c r="O22" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M23" s="177" t="s">
-        <v>402</v>
-      </c>
-      <c r="N23" s="177" t="s">
-        <v>368</v>
-      </c>
-      <c r="O23" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M24" s="177" t="s">
-        <v>403</v>
-      </c>
-      <c r="N24" s="177" t="s">
-        <v>377</v>
-      </c>
-      <c r="O24" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M25" s="177" t="s">
-        <v>404</v>
-      </c>
-      <c r="N25" s="177" t="s">
-        <v>378</v>
-      </c>
-      <c r="O25" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M26" s="177" t="s">
-        <v>405</v>
-      </c>
-      <c r="N26" s="177" t="s">
-        <v>379</v>
-      </c>
-      <c r="O26" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M27" s="177" t="s">
-        <v>406</v>
-      </c>
-      <c r="N27" s="177" t="s">
-        <v>380</v>
-      </c>
-      <c r="O27" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M28" s="177" t="s">
-        <v>424</v>
-      </c>
-      <c r="N28" s="177" t="s">
-        <v>438</v>
-      </c>
-      <c r="O28" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M29" s="177" t="s">
-        <v>425</v>
-      </c>
-      <c r="N29" s="177" t="s">
-        <v>441</v>
-      </c>
-      <c r="O29" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M30" s="177" t="s">
-        <v>407</v>
-      </c>
-      <c r="N30" s="177" t="s">
-        <v>363</v>
-      </c>
-      <c r="O30" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M31" s="177" t="s">
-        <v>408</v>
-      </c>
-      <c r="N31" s="177" t="s">
-        <v>367</v>
-      </c>
-      <c r="O31" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M32" s="177" t="s">
-        <v>409</v>
-      </c>
-      <c r="N32" s="177" t="s">
-        <v>381</v>
-      </c>
-      <c r="O32" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="33" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M33" s="177" t="s">
-        <v>410</v>
-      </c>
-      <c r="N33" s="177" t="s">
-        <v>382</v>
-      </c>
-      <c r="O33" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="34" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M34" s="177" t="s">
-        <v>411</v>
-      </c>
-      <c r="N34" s="177" t="s">
-        <v>383</v>
-      </c>
-      <c r="O34" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="35" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M35" s="177" t="s">
-        <v>412</v>
-      </c>
-      <c r="N35" s="177" t="s">
-        <v>384</v>
-      </c>
-      <c r="O35" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="36" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M36" s="177" t="s">
-        <v>426</v>
-      </c>
-      <c r="N36" s="177" t="s">
-        <v>437</v>
-      </c>
-      <c r="O36" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="37" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M37" s="177" t="s">
-        <v>427</v>
-      </c>
-      <c r="N37" s="177" t="s">
-        <v>440</v>
-      </c>
-      <c r="O37" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="38" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M38" s="177" t="s">
-        <v>413</v>
-      </c>
-      <c r="N38" s="177" t="s">
-        <v>364</v>
-      </c>
-      <c r="O38" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="39" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M39" s="177" t="s">
-        <v>414</v>
-      </c>
-      <c r="N39" s="177" t="s">
-        <v>370</v>
-      </c>
-      <c r="O39" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="40" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M40" s="177" t="s">
-        <v>415</v>
-      </c>
-      <c r="N40" s="177" t="s">
-        <v>385</v>
-      </c>
-      <c r="O40" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="41" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M41" s="177" t="s">
-        <v>416</v>
-      </c>
-      <c r="N41" s="177" t="s">
-        <v>386</v>
-      </c>
-      <c r="O41" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="42" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M42" s="177" t="s">
-        <v>417</v>
-      </c>
       <c r="N42" s="177" t="s">
-        <v>387</v>
+        <v>464</v>
       </c>
       <c r="O42" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="43" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="43" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M43" s="177" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="N43" s="177" t="s">
-        <v>388</v>
+        <v>465</v>
       </c>
       <c r="O43" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="44" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="44" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M44" s="177" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="N44" s="177" t="s">
-        <v>436</v>
+        <v>466</v>
       </c>
       <c r="O44" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="45" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="45" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M45" s="177" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="N45" s="177" t="s">
-        <v>439</v>
+        <v>467</v>
       </c>
       <c r="O45" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="46" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="46" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M46" s="177" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="N46" s="177" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="O46" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="47" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="47" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M47" s="177" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="N47" s="177" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="O47" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="48" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="48" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M48" s="177" t="s">
         <v>450</v>
       </c>
       <c r="N48" s="177" t="s">
-        <v>447</v>
+        <v>476</v>
       </c>
       <c r="O48" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="49" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="49" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M49" s="177" t="s">
         <v>451</v>
       </c>
       <c r="N49" s="177" t="s">
-        <v>448</v>
+        <v>473</v>
       </c>
       <c r="O49" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="50" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="50" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M50" s="177" t="s">
         <v>452</v>
       </c>
       <c r="N50" s="177" t="s">
-        <v>449</v>
+        <v>474</v>
       </c>
       <c r="O50" s="177" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="51" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="51" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M51" s="177" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="N51" s="177" t="s">
         <v>475</v>
       </c>
-      <c r="O51" s="177"/>
-    </row>
-    <row r="52" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O51" s="177" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="52" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M52" s="177" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="N52" s="177" t="s">
-        <v>475</v>
-      </c>
-      <c r="O52" s="177"/>
-    </row>
-    <row r="53" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+      <c r="O52" s="177" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="53" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M53" s="177" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="N53" s="177" t="s">
-        <v>475</v>
-      </c>
-      <c r="O53" s="177"/>
-    </row>
-    <row r="54" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>438</v>
+      </c>
+      <c r="O53" s="177" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="54" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M54" s="177" t="s">
-        <v>472</v>
-      </c>
-      <c r="N54" s="177"/>
-      <c r="O54" s="177"/>
-    </row>
-    <row r="55" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M55" s="177" t="s">
-        <v>473</v>
-      </c>
-      <c r="N55" s="177"/>
-      <c r="O55" s="177"/>
-    </row>
-    <row r="56" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M56" s="177" t="s">
-        <v>474</v>
-      </c>
-      <c r="N56" s="177"/>
-      <c r="O56" s="177"/>
-    </row>
-    <row r="57" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>456</v>
+      </c>
+      <c r="N54" s="177" t="s">
+        <v>427</v>
+      </c>
+      <c r="O54" s="177" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="55" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A17:A18"/>
@@ -4133,34 +4164,34 @@
       <selection activeCell="W2" sqref="W2:W12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="168" t="s">
         <v>184</v>
       </c>
@@ -4231,7 +4262,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="169">
         <v>1</v>
       </c>
@@ -4301,7 +4332,7 @@
         <v>0.6048</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="169">
         <v>2</v>
       </c>
@@ -4371,7 +4402,7 @@
         <v>0.58879999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="169">
         <v>3</v>
       </c>
@@ -4441,7 +4472,7 @@
         <v>0.51200000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="169">
         <v>4</v>
       </c>
@@ -4511,7 +4542,7 @@
         <v>0.312</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="169"/>
       <c r="B6" s="169" t="s">
         <v>215</v>
@@ -4561,7 +4592,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="169"/>
       <c r="B7" s="169" t="s">
         <v>216</v>
@@ -4611,7 +4642,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="169"/>
       <c r="B8" s="169" t="s">
         <v>217</v>
@@ -4661,7 +4692,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="169"/>
       <c r="B9" s="169"/>
       <c r="C9" s="169"/>
@@ -4709,7 +4740,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="169"/>
       <c r="B10" s="169"/>
       <c r="C10" s="169"/>
@@ -4757,7 +4788,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="169"/>
       <c r="B11" s="169"/>
       <c r="C11" s="169"/>
@@ -4805,7 +4836,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="169"/>
       <c r="B12" s="169"/>
       <c r="C12" s="169"/>
@@ -4853,7 +4884,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="169"/>
       <c r="B13" s="169"/>
       <c r="C13" s="169"/>
@@ -4901,7 +4932,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="169"/>
       <c r="B14" s="169"/>
       <c r="C14" s="169"/>
@@ -4949,7 +4980,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="169"/>
       <c r="B15" s="169"/>
       <c r="C15" s="169"/>
@@ -4997,7 +5028,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="169"/>
       <c r="B16" s="169"/>
       <c r="C16" s="169"/>
@@ -5045,7 +5076,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="169"/>
       <c r="B17" s="169"/>
       <c r="C17" s="169"/>
@@ -5093,7 +5124,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="169"/>
       <c r="B18" s="169"/>
       <c r="C18" s="169"/>
@@ -5141,7 +5172,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="169"/>
       <c r="B19" s="169"/>
       <c r="C19" s="169"/>
@@ -5189,7 +5220,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="169"/>
       <c r="B20" s="169"/>
       <c r="C20" s="169"/>
@@ -5237,7 +5268,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="169"/>
       <c r="B21" s="169"/>
       <c r="C21" s="169"/>
@@ -5285,7 +5316,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="169"/>
       <c r="B22" s="169"/>
       <c r="C22" s="169"/>
@@ -5333,7 +5364,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="169"/>
       <c r="B23" s="169"/>
       <c r="C23" s="169"/>
@@ -5381,7 +5412,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="169"/>
       <c r="B24" s="169"/>
       <c r="C24" s="169"/>
@@ -5429,7 +5460,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="169"/>
       <c r="B25" s="169"/>
       <c r="C25" s="169"/>
@@ -5477,7 +5508,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="169"/>
       <c r="B26" s="169"/>
       <c r="C26" s="169"/>
@@ -5525,7 +5556,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="169"/>
       <c r="B27" s="169"/>
       <c r="C27" s="169"/>
@@ -5573,7 +5604,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="169"/>
       <c r="B28" s="169"/>
       <c r="C28" s="169"/>
@@ -5621,7 +5652,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="169"/>
       <c r="B29" s="169"/>
       <c r="C29" s="169"/>
@@ -5669,7 +5700,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="169"/>
       <c r="B30" s="169"/>
       <c r="C30" s="169"/>
@@ -5717,7 +5748,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="169"/>
       <c r="B31" s="169"/>
       <c r="C31" s="169"/>
@@ -5765,7 +5796,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="169"/>
       <c r="B32" s="169"/>
       <c r="C32" s="169"/>
@@ -5813,7 +5844,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="169"/>
       <c r="B33" s="169"/>
       <c r="C33" s="169"/>
@@ -5861,7 +5892,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="169"/>
       <c r="B34" s="169"/>
       <c r="C34" s="169"/>
@@ -5909,7 +5940,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="169"/>
       <c r="B35" s="169"/>
       <c r="C35" s="169"/>
@@ -5957,7 +5988,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="169"/>
       <c r="B36" s="169"/>
       <c r="C36" s="169"/>
@@ -6005,7 +6036,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="169"/>
       <c r="B37" s="169"/>
       <c r="C37" s="169"/>
@@ -6053,7 +6084,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="169"/>
       <c r="B38" s="169"/>
       <c r="C38" s="169"/>
@@ -6101,7 +6132,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="169"/>
       <c r="B39" s="169"/>
       <c r="C39" s="169"/>
@@ -6149,7 +6180,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="169"/>
       <c r="B40" s="169"/>
       <c r="C40" s="169"/>
@@ -6197,7 +6228,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="169"/>
       <c r="B41" s="169"/>
       <c r="C41" s="169"/>
@@ -6245,7 +6276,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="169"/>
       <c r="B42" s="169"/>
       <c r="C42" s="169"/>
@@ -6293,7 +6324,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="169"/>
       <c r="B43" s="169"/>
       <c r="C43" s="169"/>
@@ -6341,7 +6372,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1</v>
       </c>
@@ -6361,7 +6392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F56" t="s">
         <v>222</v>
       </c>
@@ -6372,7 +6403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F57" t="s">
         <v>224</v>
       </c>
@@ -6383,7 +6414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F58" t="s">
         <v>225</v>
       </c>
@@ -6394,7 +6425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F59" t="s">
         <v>227</v>
       </c>
@@ -6405,7 +6436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F60" t="s">
         <v>228</v>
       </c>
@@ -6416,7 +6447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F61" t="s">
         <v>229</v>
       </c>
@@ -6427,7 +6458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F62" t="s">
         <v>230</v>
       </c>
@@ -6438,7 +6469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F63" t="s">
         <v>232</v>
       </c>
@@ -6449,7 +6480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F64" t="s">
         <v>233</v>
       </c>
@@ -6460,7 +6491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F65" t="s">
         <v>234</v>
       </c>
@@ -6471,7 +6502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F66" t="s">
         <v>236</v>
       </c>
@@ -6482,7 +6513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F67" t="s">
         <v>238</v>
       </c>
@@ -6493,7 +6524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F68" t="s">
         <v>239</v>
       </c>
@@ -6504,7 +6535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F69" t="s">
         <v>240</v>
       </c>
@@ -6515,7 +6546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F70" t="s">
         <v>242</v>
       </c>
@@ -6526,7 +6557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2</v>
       </c>
@@ -6546,7 +6577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F79" t="s">
         <v>247</v>
       </c>
@@ -6557,7 +6588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F80" t="s">
         <v>249</v>
       </c>
@@ -6568,7 +6599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F81" t="s">
         <v>251</v>
       </c>
@@ -6579,7 +6610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F82" t="s">
         <v>253</v>
       </c>
@@ -6590,7 +6621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F83" t="s">
         <v>254</v>
       </c>
@@ -6601,7 +6632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F84" t="s">
         <v>256</v>
       </c>
@@ -6612,7 +6643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F85" t="s">
         <v>258</v>
       </c>
@@ -6639,14 +6670,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="174" t="s">
         <v>337</v>
       </c>
@@ -6657,103 +6688,103 @@
         <v>339</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C14" s="174" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="179" t="s">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C23" s="178" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="24" spans="3:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="C24" s="179" t="s">
+    <row r="24" spans="3:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="C24" s="178" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="179" t="s">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C25" s="178" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="179" t="s">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C26" s="178" t="s">
         <v>361</v>
       </c>
     </row>
@@ -6771,18 +6802,18 @@
       <selection activeCell="D2" sqref="D2:D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="52.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="52.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="194" t="s">
-        <v>460</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="179" t="s">
+        <v>439</v>
       </c>
       <c r="B1" s="174" t="s">
         <v>337</v>
@@ -6794,112 +6825,112 @@
         <v>339</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>329</v>
       </c>
@@ -6920,14 +6951,14 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="4" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="4" width="52.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="174" t="s">
         <v>337</v>
       </c>
@@ -6938,87 +6969,87 @@
         <v>339</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>334</v>
       </c>
@@ -7036,24 +7067,24 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" style="137" customWidth="1"/>
-    <col min="2" max="2" width="3.85546875" style="137" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="95.28515625" style="137" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" style="137" customWidth="1"/>
-    <col min="5" max="5" width="3.85546875" style="137" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="137" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="137"/>
+    <col min="2" max="2" width="3.88671875" style="137" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="95.33203125" style="137" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.88671875" style="137" customWidth="1"/>
+    <col min="5" max="5" width="3.88671875" style="137" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" style="137" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="137"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="140"/>
       <c r="C1" s="140"/>
       <c r="E1" s="140"/>
       <c r="F1" s="140"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="138"/>
       <c r="B2" s="143" t="s">
         <v>29</v>
@@ -7064,7 +7095,7 @@
       <c r="D2" s="142"/>
       <c r="G2" s="139"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="138"/>
       <c r="B3" s="145">
         <v>1</v>
@@ -7075,7 +7106,7 @@
       <c r="D3" s="142"/>
       <c r="G3" s="139"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="138"/>
       <c r="B4" s="145">
         <v>2</v>
@@ -7086,7 +7117,7 @@
       <c r="D4" s="142"/>
       <c r="G4" s="139"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="138"/>
       <c r="B5" s="145">
         <v>3</v>
@@ -7097,7 +7128,7 @@
       <c r="D5" s="142"/>
       <c r="G5" s="139"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="138"/>
       <c r="B6" s="145">
         <v>4</v>
@@ -7108,7 +7139,7 @@
       <c r="D6" s="142"/>
       <c r="G6" s="139"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="138"/>
       <c r="B7" s="145">
         <v>5</v>
@@ -7119,7 +7150,7 @@
       <c r="D7" s="142"/>
       <c r="G7" s="139"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="138"/>
       <c r="B8" s="145">
         <v>6</v>
@@ -7130,7 +7161,7 @@
       <c r="D8" s="142"/>
       <c r="G8" s="139"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="138"/>
       <c r="B9" s="147">
         <v>7</v>
@@ -7141,7 +7172,7 @@
       <c r="D9" s="142"/>
       <c r="G9" s="139"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="138"/>
       <c r="B10" s="147">
         <v>8</v>
@@ -7152,7 +7183,7 @@
       <c r="D10" s="142"/>
       <c r="G10" s="139"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="138"/>
       <c r="B11" s="147">
         <v>9</v>
@@ -7163,7 +7194,7 @@
       <c r="D11" s="142"/>
       <c r="G11" s="139"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="138"/>
       <c r="B12" s="147">
         <v>10</v>
@@ -7174,7 +7205,7 @@
       <c r="D12" s="142"/>
       <c r="G12" s="139"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="138"/>
       <c r="B13" s="147">
         <v>11</v>
@@ -7185,7 +7216,7 @@
       <c r="D13" s="142"/>
       <c r="G13" s="139"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="138"/>
       <c r="B14" s="147">
         <v>12</v>
@@ -7196,7 +7227,7 @@
       <c r="D14" s="142"/>
       <c r="G14" s="139"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="138"/>
       <c r="B15" s="149">
         <v>13</v>
@@ -7207,7 +7238,7 @@
       <c r="D15" s="142"/>
       <c r="G15" s="139"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="138"/>
       <c r="B16" s="149">
         <v>14</v>
@@ -7218,7 +7249,7 @@
       <c r="D16" s="142"/>
       <c r="G16" s="139"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="138"/>
       <c r="B17" s="149">
         <v>15</v>
@@ -7229,7 +7260,7 @@
       <c r="D17" s="142"/>
       <c r="G17" s="139"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="138"/>
       <c r="B18" s="149">
         <v>16</v>
@@ -7240,7 +7271,7 @@
       <c r="D18" s="142"/>
       <c r="G18" s="139"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="138"/>
       <c r="B19" s="149">
         <v>17</v>
@@ -7251,7 +7282,7 @@
       <c r="D19" s="142"/>
       <c r="G19" s="139"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="138"/>
       <c r="B20" s="149">
         <v>18</v>
@@ -7262,7 +7293,7 @@
       <c r="D20" s="142"/>
       <c r="G20" s="139"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="138"/>
       <c r="B21" s="151">
         <v>19</v>
@@ -7273,13 +7304,13 @@
       <c r="D21" s="142"/>
       <c r="G21" s="139"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="141"/>
       <c r="C22" s="141"/>
       <c r="D22" s="138"/>
       <c r="G22" s="139"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B23" s="143" t="s">
         <v>29</v>
       </c>
@@ -7289,7 +7320,7 @@
       <c r="D23" s="138"/>
       <c r="G23" s="139"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24" s="153">
         <v>1</v>
       </c>
@@ -7299,7 +7330,7 @@
       <c r="D24" s="138"/>
       <c r="G24" s="139"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25" s="153">
         <v>2</v>
       </c>
@@ -7309,7 +7340,7 @@
       <c r="D25" s="138"/>
       <c r="G25" s="139"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26" s="153">
         <v>3</v>
       </c>
@@ -7319,7 +7350,7 @@
       <c r="D26" s="138"/>
       <c r="G26" s="139"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27" s="153">
         <v>4</v>
       </c>
@@ -7329,7 +7360,7 @@
       <c r="D27" s="138"/>
       <c r="G27" s="139"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28" s="153">
         <v>5</v>
       </c>
@@ -7339,7 +7370,7 @@
       <c r="D28" s="138"/>
       <c r="G28" s="139"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29" s="153">
         <v>6</v>
       </c>
@@ -7349,7 +7380,7 @@
       <c r="D29" s="138"/>
       <c r="G29" s="139"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B30" s="153">
         <v>7</v>
       </c>
@@ -7359,7 +7390,7 @@
       <c r="D30" s="138"/>
       <c r="G30" s="139"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31" s="153">
         <v>8</v>
       </c>
@@ -7369,7 +7400,7 @@
       <c r="D31" s="138"/>
       <c r="G31" s="139"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B32" s="154">
         <v>9</v>
       </c>
@@ -7379,7 +7410,7 @@
       <c r="D32" s="138"/>
       <c r="G32" s="139"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="154">
         <v>10</v>
       </c>
@@ -7389,7 +7420,7 @@
       <c r="D33" s="138"/>
       <c r="G33" s="139"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="154">
         <v>11</v>
       </c>
@@ -7399,7 +7430,7 @@
       <c r="D34" s="138"/>
       <c r="G34" s="139"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="154">
         <v>12</v>
       </c>
@@ -7409,7 +7440,7 @@
       <c r="D35" s="138"/>
       <c r="G35" s="139"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="154">
         <v>13</v>
       </c>
@@ -7419,7 +7450,7 @@
       <c r="D36" s="138"/>
       <c r="G36" s="139"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="154">
         <v>14</v>
       </c>
@@ -7429,7 +7460,7 @@
       <c r="D37" s="138"/>
       <c r="G37" s="139"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="154">
         <v>15</v>
       </c>
@@ -7439,7 +7470,7 @@
       <c r="D38" s="138"/>
       <c r="G38" s="139"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="154">
         <v>16</v>
       </c>
@@ -7449,7 +7480,7 @@
       <c r="D39" s="138"/>
       <c r="G39" s="139"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="154">
         <v>17</v>
       </c>
@@ -7459,7 +7490,7 @@
       <c r="D40" s="138"/>
       <c r="G40" s="139"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="154">
         <v>18</v>
       </c>
@@ -7469,7 +7500,7 @@
       <c r="D41" s="138"/>
       <c r="G41" s="139"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="154">
         <v>19</v>
       </c>
@@ -7479,7 +7510,7 @@
       <c r="D42" s="138"/>
       <c r="G42" s="139"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="154">
         <v>20</v>
       </c>
@@ -7489,7 +7520,7 @@
       <c r="D43" s="138"/>
       <c r="G43" s="139"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="154">
         <v>21</v>
       </c>
@@ -7499,7 +7530,7 @@
       <c r="D44" s="138"/>
       <c r="G44" s="139"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="154">
         <v>22</v>
       </c>
@@ -7509,7 +7540,7 @@
       <c r="D45" s="138"/>
       <c r="G45" s="139"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="154">
         <v>23</v>
       </c>
@@ -7519,7 +7550,7 @@
       <c r="D46" s="138"/>
       <c r="G46" s="139"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="154">
         <v>24</v>
       </c>
@@ -7529,7 +7560,7 @@
       <c r="D47" s="138"/>
       <c r="G47" s="139"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="154">
         <v>25</v>
       </c>
@@ -7539,7 +7570,7 @@
       <c r="D48" s="138"/>
       <c r="G48" s="139"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="156">
         <v>26</v>
       </c>
@@ -7549,7 +7580,7 @@
       <c r="D49" s="138"/>
       <c r="G49" s="139"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="156">
         <v>27</v>
       </c>
@@ -7559,7 +7590,7 @@
       <c r="D50" s="138"/>
       <c r="G50" s="139"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="156">
         <v>28</v>
       </c>
@@ -7569,7 +7600,7 @@
       <c r="D51" s="138"/>
       <c r="G51" s="139"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="156">
         <v>29</v>
       </c>
@@ -7579,7 +7610,7 @@
       <c r="D52" s="138"/>
       <c r="G52" s="139"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="156">
         <v>30</v>
       </c>
@@ -7589,7 +7620,7 @@
       <c r="D53" s="138"/>
       <c r="G53" s="139"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="156">
         <v>31</v>
       </c>
@@ -7599,7 +7630,7 @@
       <c r="D54" s="138"/>
       <c r="G54" s="139"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="156">
         <v>32</v>
       </c>
@@ -7609,7 +7640,7 @@
       <c r="D55" s="138"/>
       <c r="G55" s="139"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56" s="156">
         <v>33</v>
       </c>
@@ -7619,7 +7650,7 @@
       <c r="D56" s="138"/>
       <c r="G56" s="139"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="156">
         <v>34</v>
       </c>
@@ -7629,7 +7660,7 @@
       <c r="D57" s="138"/>
       <c r="G57" s="139"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58" s="156">
         <v>35</v>
       </c>
@@ -7639,7 +7670,7 @@
       <c r="D58" s="138"/>
       <c r="G58" s="139"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" s="156">
         <v>36</v>
       </c>
@@ -7649,7 +7680,7 @@
       <c r="D59" s="138"/>
       <c r="G59" s="139"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60" s="156">
         <v>37</v>
       </c>
@@ -7659,7 +7690,7 @@
       <c r="D60" s="138"/>
       <c r="G60" s="139"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61" s="156">
         <v>38</v>
       </c>
@@ -7669,7 +7700,7 @@
       <c r="D61" s="138"/>
       <c r="G61" s="139"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B62" s="156">
         <v>39</v>
       </c>
@@ -7679,7 +7710,7 @@
       <c r="D62" s="138"/>
       <c r="G62" s="139"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63" s="156">
         <v>40</v>
       </c>
@@ -7689,7 +7720,7 @@
       <c r="D63" s="138"/>
       <c r="G63" s="139"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64" s="154">
         <v>41</v>
       </c>
@@ -7699,7 +7730,7 @@
       <c r="D64" s="138"/>
       <c r="G64" s="139"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B65" s="154">
         <v>42</v>
       </c>
@@ -7709,7 +7740,7 @@
       <c r="D65" s="138"/>
       <c r="G65" s="139"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66" s="154">
         <v>43</v>
       </c>
@@ -7719,7 +7750,7 @@
       <c r="D66" s="138"/>
       <c r="G66" s="139"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" s="154">
         <v>44</v>
       </c>
@@ -7729,7 +7760,7 @@
       <c r="D67" s="138"/>
       <c r="G67" s="139"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" s="154">
         <v>45</v>
       </c>
@@ -7739,7 +7770,7 @@
       <c r="D68" s="138"/>
       <c r="G68" s="139"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" s="154">
         <v>46</v>
       </c>
@@ -7749,7 +7780,7 @@
       <c r="D69" s="138"/>
       <c r="G69" s="139"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70" s="154">
         <v>47</v>
       </c>
@@ -7759,7 +7790,7 @@
       <c r="D70" s="138"/>
       <c r="G70" s="139"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71" s="154">
         <v>48</v>
       </c>
@@ -7769,7 +7800,7 @@
       <c r="D71" s="138"/>
       <c r="G71" s="139"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" s="158">
         <v>49</v>
       </c>
@@ -7777,7 +7808,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="158">
         <v>50</v>
       </c>
@@ -7785,7 +7816,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="158">
         <v>51</v>
       </c>
@@ -7795,7 +7826,7 @@
       <c r="D74" s="138"/>
       <c r="G74" s="139"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" s="154">
         <v>52</v>
       </c>
@@ -7805,7 +7836,7 @@
       <c r="D75" s="138"/>
       <c r="G75" s="139"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76" s="154">
         <v>53</v>
       </c>
@@ -7815,7 +7846,7 @@
       <c r="D76" s="138"/>
       <c r="G76" s="139"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" s="160">
         <v>54</v>
       </c>
@@ -7825,7 +7856,7 @@
       <c r="D77" s="138"/>
       <c r="G77" s="139"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78" s="160">
         <v>55</v>
       </c>
@@ -7835,7 +7866,7 @@
       <c r="E78" s="141"/>
       <c r="F78" s="141"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" s="160">
         <v>56</v>
       </c>
@@ -7843,7 +7874,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B80" s="160">
         <v>57</v>
       </c>
@@ -7851,7 +7882,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B81" s="160">
         <v>58</v>
       </c>
@@ -7859,7 +7890,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B82" s="160">
         <v>59</v>
       </c>
@@ -7867,7 +7898,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B83" s="160">
         <v>60</v>
       </c>
@@ -7875,7 +7906,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B84" s="160">
         <v>61</v>
       </c>
@@ -7883,7 +7914,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B85" s="160">
         <v>62</v>
       </c>
@@ -7891,7 +7922,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B86" s="160">
         <v>63</v>
       </c>
@@ -7899,7 +7930,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B87" s="160">
         <v>64</v>
       </c>
@@ -7907,7 +7938,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B88" s="160">
         <v>65</v>
       </c>
@@ -7915,7 +7946,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B89" s="160">
         <v>66</v>
       </c>
@@ -7923,7 +7954,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B90" s="160">
         <v>67</v>
       </c>
@@ -7931,7 +7962,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B91" s="160">
         <v>68</v>
       </c>
@@ -7939,7 +7970,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B92" s="160">
         <v>69</v>
       </c>
@@ -7947,7 +7978,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B93" s="160">
         <v>70</v>
       </c>
@@ -7955,7 +7986,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B94" s="160">
         <v>71</v>
       </c>
@@ -7963,7 +7994,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B95" s="160">
         <v>72</v>
       </c>
@@ -7971,7 +8002,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B96" s="160">
         <v>73</v>
       </c>
@@ -7979,7 +8010,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B97" s="160">
         <v>74</v>
       </c>
@@ -7987,7 +8018,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B98" s="160">
         <v>75</v>
       </c>
@@ -7995,7 +8026,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B99" s="162">
         <v>76</v>
       </c>
@@ -8003,7 +8034,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="100" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B100" s="164">
         <v>77</v>
       </c>
@@ -8011,7 +8042,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="101" spans="2:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="2:3" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8029,32 +8060,32 @@
       <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.85546875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="2.85546875" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.85546875" style="1"/>
+    <col min="14" max="14" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="5.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.88671875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="2.88671875" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -8075,7 +8106,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="185" t="s">
         <v>29</v>
@@ -8118,7 +8149,7 @@
       </c>
       <c r="U2" s="4"/>
     </row>
-    <row r="3" spans="1:26" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="186"/>
       <c r="C3" s="188"/>
@@ -8166,7 +8197,7 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="34">
         <v>1</v>
@@ -8231,7 +8262,7 @@
       <c r="U4" s="8"/>
       <c r="V4" s="9"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="42">
         <v>2</v>
@@ -8296,7 +8327,7 @@
       <c r="U5" s="8"/>
       <c r="V5" s="9"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="42">
         <v>3</v>
@@ -8361,7 +8392,7 @@
       <c r="U6" s="8"/>
       <c r="V6" s="9"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="42">
         <v>4</v>
@@ -8426,7 +8457,7 @@
       <c r="U7" s="8"/>
       <c r="V7" s="9"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="42">
         <v>5</v>
@@ -8491,7 +8522,7 @@
       <c r="U8" s="8"/>
       <c r="V8" s="9"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="42">
         <v>6</v>
@@ -8556,7 +8587,7 @@
       <c r="U9" s="8"/>
       <c r="V9" s="9"/>
     </row>
-    <row r="10" spans="1:26" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="44">
         <v>7</v>
@@ -8621,7 +8652,7 @@
       <c r="U10" s="8"/>
       <c r="V10" s="9"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="34">
         <v>8</v>
@@ -8686,7 +8717,7 @@
       <c r="U11" s="8"/>
       <c r="V11" s="9"/>
     </row>
-    <row r="12" spans="1:26" ht="24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="42">
         <v>9</v>
@@ -8751,7 +8782,7 @@
       <c r="U12" s="8"/>
       <c r="V12" s="9"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="42">
         <v>10</v>
@@ -8816,7 +8847,7 @@
       <c r="U13" s="8"/>
       <c r="V13" s="9"/>
     </row>
-    <row r="14" spans="1:26" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="44">
         <v>11</v>
@@ -8881,7 +8912,7 @@
       <c r="U14" s="8"/>
       <c r="V14" s="9"/>
     </row>
-    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="57">
         <v>12</v>
@@ -8927,7 +8958,7 @@
       <c r="U15" s="8"/>
       <c r="V15" s="9"/>
     </row>
-    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="64">
         <v>13</v>
@@ -8973,7 +9004,7 @@
       <c r="U16" s="8"/>
       <c r="V16" s="9"/>
     </row>
-    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="64">
         <v>14</v>
@@ -9019,7 +9050,7 @@
       <c r="U17" s="8"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="64">
         <v>15</v>
@@ -9065,7 +9096,7 @@
       <c r="U18" s="8"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="64">
         <v>16</v>
@@ -9111,7 +9142,7 @@
       <c r="U19" s="8"/>
       <c r="V19" s="9"/>
     </row>
-    <row r="20" spans="1:22" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" ht="12.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="91">
         <v>17</v>
@@ -9157,7 +9188,7 @@
       <c r="U20" s="8"/>
       <c r="V20" s="9"/>
     </row>
-    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="107">
         <v>18</v>
@@ -9203,7 +9234,7 @@
       <c r="U21" s="8"/>
       <c r="V21" s="9"/>
     </row>
-    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="115">
         <v>19</v>
@@ -9249,7 +9280,7 @@
       <c r="U22" s="8"/>
       <c r="V22" s="9"/>
     </row>
-    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="115">
         <v>20</v>
@@ -9295,7 +9326,7 @@
       <c r="U23" s="8"/>
       <c r="V23" s="9"/>
     </row>
-    <row r="24" spans="1:22" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" ht="12.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="117">
         <v>21</v>
@@ -9341,7 +9372,7 @@
       <c r="U24" s="8"/>
       <c r="V24" s="9"/>
     </row>
-    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="99">
         <v>22</v>
@@ -9387,7 +9418,7 @@
       <c r="U25" s="8"/>
       <c r="V25" s="9"/>
     </row>
-    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="76">
         <v>23</v>
@@ -9433,7 +9464,7 @@
       <c r="U26" s="8"/>
       <c r="V26" s="9"/>
     </row>
-    <row r="27" spans="1:22" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" ht="12.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="78">
         <v>24</v>
@@ -9479,7 +9510,7 @@
       <c r="U27" s="8"/>
       <c r="V27" s="9"/>
     </row>
-    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="71">
         <v>25</v>
@@ -9525,7 +9556,7 @@
       <c r="U28" s="8"/>
       <c r="V28" s="9"/>
     </row>
-    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="76">
         <v>26</v>
@@ -9571,7 +9602,7 @@
       <c r="U29" s="8"/>
       <c r="V29" s="9"/>
     </row>
-    <row r="30" spans="1:22" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" ht="12.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="78">
         <v>27</v>
@@ -9617,7 +9648,7 @@
       <c r="U30" s="8"/>
       <c r="V30" s="9"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -9694,14 +9725,14 @@
       <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="458" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="458" width="3.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:458" ht="51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:458" ht="57" x14ac:dyDescent="0.3">
       <c r="C1" s="133">
         <v>45052</v>
       </c>
@@ -10186,7 +10217,7 @@
       <c r="QO1" s="128"/>
       <c r="QP1" s="128"/>
     </row>
-    <row r="2" spans="1:458" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:458" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -10222,7 +10253,7 @@
       <c r="AC2" s="132"/>
       <c r="AD2" s="132"/>
     </row>
-    <row r="3" spans="1:458" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>66</v>
       </c>
@@ -10255,7 +10286,7 @@
       <c r="AC3" s="132"/>
       <c r="AD3" s="132"/>
     </row>
-    <row r="4" spans="1:458" ht="168" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:458" ht="168" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>61</v>
       </c>
@@ -10300,7 +10331,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:458" ht="108" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:458" ht="96" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>60</v>
       </c>
@@ -10339,7 +10370,7 @@
       <c r="AO5" s="173"/>
       <c r="AP5" s="173"/>
     </row>
-    <row r="6" spans="1:458" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:458" ht="108" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>62</v>
       </c>
@@ -10378,7 +10409,7 @@
       <c r="AO6" s="173"/>
       <c r="AP6" s="173"/>
     </row>
-    <row r="7" spans="1:458" ht="144" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:458" ht="144" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>63</v>
       </c>
@@ -10417,7 +10448,7 @@
       <c r="AO7" s="173"/>
       <c r="AP7" s="173"/>
     </row>
-    <row r="8" spans="1:458" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>67</v>
       </c>
@@ -10450,7 +10481,7 @@
       <c r="AC8" s="132"/>
       <c r="AD8" s="132"/>
     </row>
-    <row r="9" spans="1:458" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>68</v>
       </c>
@@ -10483,7 +10514,7 @@
       <c r="AC9" s="132"/>
       <c r="AD9" s="132"/>
     </row>
-    <row r="10" spans="1:458" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>69</v>
       </c>
@@ -10516,7 +10547,7 @@
       <c r="AC10" s="132"/>
       <c r="AD10" s="132"/>
     </row>
-    <row r="11" spans="1:458" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>70</v>
       </c>
@@ -10549,7 +10580,7 @@
       <c r="AC11" s="132"/>
       <c r="AD11" s="132"/>
     </row>
-    <row r="12" spans="1:458" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>71</v>
       </c>
@@ -10582,7 +10613,7 @@
       <c r="AC12" s="132"/>
       <c r="AD12" s="132"/>
     </row>
-    <row r="13" spans="1:458" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>72</v>
       </c>
@@ -10615,7 +10646,7 @@
       <c r="AC13" s="132"/>
       <c r="AD13" s="132"/>
     </row>
-    <row r="14" spans="1:458" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>73</v>
       </c>
@@ -10648,7 +10679,7 @@
       <c r="AC14" s="132"/>
       <c r="AD14" s="132"/>
     </row>
-    <row r="15" spans="1:458" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>74</v>
       </c>
@@ -10681,7 +10712,7 @@
       <c r="AC15" s="132"/>
       <c r="AD15" s="132"/>
     </row>
-    <row r="16" spans="1:458" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>75</v>
       </c>
@@ -10714,7 +10745,7 @@
       <c r="AC16" s="132"/>
       <c r="AD16" s="132"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>76</v>
       </c>
@@ -10747,7 +10778,7 @@
       <c r="AC17" s="132"/>
       <c r="AD17" s="132"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -10783,7 +10814,7 @@
       <c r="AC18" s="132"/>
       <c r="AD18" s="132"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>78</v>
       </c>
@@ -10816,7 +10847,7 @@
       <c r="AC19" s="132"/>
       <c r="AD19" s="132"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>61</v>
       </c>
@@ -10849,7 +10880,7 @@
       <c r="AC20" s="132"/>
       <c r="AD20" s="132"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>60</v>
       </c>
@@ -10882,7 +10913,7 @@
       <c r="AC21" s="132"/>
       <c r="AD21" s="132"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>62</v>
       </c>
@@ -10915,7 +10946,7 @@
       <c r="AC22" s="132"/>
       <c r="AD22" s="132"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>63</v>
       </c>
@@ -10948,7 +10979,7 @@
       <c r="AC23" s="132"/>
       <c r="AD23" s="132"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>79</v>
       </c>
@@ -10981,7 +11012,7 @@
       <c r="AC24" s="132"/>
       <c r="AD24" s="132"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>80</v>
       </c>
@@ -11014,7 +11045,7 @@
       <c r="AC25" s="132"/>
       <c r="AD25" s="132"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>81</v>
       </c>
@@ -11047,7 +11078,7 @@
       <c r="AC26" s="132"/>
       <c r="AD26" s="132"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>82</v>
       </c>
@@ -11080,7 +11111,7 @@
       <c r="AC27" s="132"/>
       <c r="AD27" s="132"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>83</v>
       </c>
@@ -11113,7 +11144,7 @@
       <c r="AC28" s="132"/>
       <c r="AD28" s="132"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>84</v>
       </c>
@@ -11146,7 +11177,7 @@
       <c r="AC29" s="132"/>
       <c r="AD29" s="132"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>85</v>
       </c>
@@ -11179,7 +11210,7 @@
       <c r="AC30" s="132"/>
       <c r="AD30" s="132"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>86</v>
       </c>
@@ -11212,7 +11243,7 @@
       <c r="AC31" s="132"/>
       <c r="AD31" s="132"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>87</v>
       </c>
@@ -11245,7 +11276,7 @@
       <c r="AC32" s="132"/>
       <c r="AD32" s="132"/>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>88</v>
       </c>

--- a/Offline/BusinessManagement/MarketingMasterPlan-May-2023.xlsx
+++ b/Offline/BusinessManagement/MarketingMasterPlan-May-2023.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showObjects="none"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Anodiam\Docs\Offline\BusinessManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="779"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="779"/>
   </bookViews>
   <sheets>
     <sheet name="MarketingPlan" sheetId="14" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="476">
   <si>
     <t>Medium</t>
   </si>
@@ -852,9 +852,6 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>User Subtype</t>
-  </si>
-  <si>
     <t>AI School Tuition</t>
   </si>
   <si>
@@ -885,15 +882,6 @@
     <t>Anodiam Website</t>
   </si>
   <si>
-    <t>Receiver of Generic Flyer</t>
-  </si>
-  <si>
-    <t>Viewer of Flex / Sunpack</t>
-  </si>
-  <si>
-    <t>Tragetted Road Show</t>
-  </si>
-  <si>
     <t>Respond to Justdial Leads</t>
   </si>
   <si>
@@ -933,18 +921,12 @@
     <t>High School Arts/Sci Students</t>
   </si>
   <si>
-    <t>Visit FB/WA Post/Website</t>
-  </si>
-  <si>
     <t>Engg Fresher/NonExp</t>
   </si>
   <si>
     <t>B.Com, B.B.A Students</t>
   </si>
   <si>
-    <t>High School Com Students</t>
-  </si>
-  <si>
     <t>Office Councelling</t>
   </si>
   <si>
@@ -1102,10 +1084,6 @@
   </si>
   <si>
     <t>WIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                Actions
-Connect Pt</t>
   </si>
   <si>
     <t>Generic-Flyer</t>
@@ -1194,9 +1172,6 @@
     <t>Generic-Sun-Pack</t>
   </si>
   <si>
-    <t>Generic-Wal-Poster</t>
-  </si>
-  <si>
     <t>Generic-FB-Post</t>
   </si>
   <si>
@@ -1206,9 +1181,6 @@
     <t>AI-Junior-Sun-Pack</t>
   </si>
   <si>
-    <t>AI-Junior-Wal-Poster</t>
-  </si>
-  <si>
     <t>AI-Junior-FB-Post</t>
   </si>
   <si>
@@ -1341,20 +1313,183 @@
     <t>5. F</t>
   </si>
   <si>
-    <t>Teacher-Portfolio</t>
-  </si>
-  <si>
-    <t>Pricing-And-Offer-Catatlog</t>
-  </si>
-  <si>
-    <t>School Proposals</t>
+    <t xml:space="preserve">        Anodiam Action
+User Subtype</t>
+  </si>
+  <si>
+    <t>1. G</t>
+  </si>
+  <si>
+    <t>1. H</t>
+  </si>
+  <si>
+    <t>2. G</t>
+  </si>
+  <si>
+    <t>2. H</t>
+  </si>
+  <si>
+    <t>3. G</t>
+  </si>
+  <si>
+    <t>3. H</t>
+  </si>
+  <si>
+    <t>4. G</t>
+  </si>
+  <si>
+    <t>4. H</t>
+  </si>
+  <si>
+    <t>2. J</t>
+  </si>
+  <si>
+    <t>AI-Junior-School Proposals</t>
+  </si>
+  <si>
+    <t>1. J</t>
+  </si>
+  <si>
+    <t>Generic-Merch</t>
+  </si>
+  <si>
+    <t>AI-Junior-Teacher-Portfolio-Catalog</t>
+  </si>
+  <si>
+    <t>AI-Junior-Pricing-Offer-Vs-Faculty-Class-Timing-Catatlog</t>
+  </si>
+  <si>
+    <t>5. G</t>
+  </si>
+  <si>
+    <t>5. H</t>
+  </si>
+  <si>
+    <t>IT-AI-Teacher-Portfolio-Catalog</t>
+  </si>
+  <si>
+    <t>Commerce-Teacher-Portfolio-Catalog</t>
+  </si>
+  <si>
+    <t>IIT-NEET-VIII-XII-Teacher-Portfolio-Catalog</t>
+  </si>
+  <si>
+    <t>IT-AI-Pricing-Offer-Vs-Faculty-Class-Timing-Catatlog</t>
+  </si>
+  <si>
+    <t>Commerce-Pricing-Offer-Vs-Faculty-Class-Timing-Catatlog</t>
+  </si>
+  <si>
+    <t>IIT-NEET-VIII-XII-Pricing-Offer-Vs-Faculty-Class-Timing-Catatlog</t>
+  </si>
+  <si>
+    <t>1. K</t>
+  </si>
+  <si>
+    <t>Complete-Pricing-Offer-Vs-Faculty-Class-Timing-Catatlog</t>
+  </si>
+  <si>
+    <t>Planned</t>
+  </si>
+  <si>
+    <t>6. A</t>
+  </si>
+  <si>
+    <t>Misc-Teacher-Vacancy-FB-Post</t>
+  </si>
+  <si>
+    <t>Misc-Teacher-Vacancy-FB-Reels</t>
+  </si>
+  <si>
+    <t>Misc-Non-Teaching-Vacancy-FB-Post</t>
+  </si>
+  <si>
+    <t>Misc-Teaching-Vacancy-FB-Reels</t>
+  </si>
+  <si>
+    <t>6. B</t>
+  </si>
+  <si>
+    <t>6. C</t>
+  </si>
+  <si>
+    <t>6. D</t>
+  </si>
+  <si>
+    <t>2. K</t>
+  </si>
+  <si>
+    <t>AI-Junior-Sample-Projects</t>
+  </si>
+  <si>
+    <t>5. I</t>
+  </si>
+  <si>
+    <t>IT-AI-Sample-Projects</t>
+  </si>
+  <si>
+    <t>Viewer of Flex / Sunpack / Wall Poster</t>
+  </si>
+  <si>
+    <t>Generic-Internal-Signages</t>
+  </si>
+  <si>
+    <t>1. A; 1.G; 1. J</t>
+  </si>
+  <si>
+    <t>&lt;-- Back to MarketingPlan</t>
+  </si>
+  <si>
+    <t>Generic-Wall-Poster</t>
+  </si>
+  <si>
+    <t>Generic-Standies X 2</t>
+  </si>
+  <si>
+    <t>AI-Junior-Wall-Poster</t>
+  </si>
+  <si>
+    <t>Road Show</t>
+  </si>
+  <si>
+    <t>Complete Stranger</t>
+  </si>
+  <si>
+    <t>Viewer of FB/WA Post/Website</t>
+  </si>
+  <si>
+    <t>High School Commerce Students</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A; 1B; 1G; 1J; 4a; 4B; 4G; 4H; </t>
+  </si>
+  <si>
+    <t>6. E</t>
+  </si>
+  <si>
+    <t>6. F</t>
+  </si>
+  <si>
+    <t>6. G</t>
+  </si>
+  <si>
+    <t>6. H</t>
+  </si>
+  <si>
+    <t>6. I</t>
+  </si>
+  <si>
+    <t>6. J</t>
+  </si>
+  <si>
+    <t>Grooming-Professional-Training-Flyer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1439,6 +1574,18 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Oxygen"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Oxygen"/>
     </font>
   </fonts>
@@ -2194,10 +2341,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2722,8 +2870,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3002,109 +3155,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P83"/>
+  <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.77734375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="172" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="172" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" style="172"/>
-    <col min="4" max="12" width="13.33203125" style="172" customWidth="1"/>
-    <col min="13" max="13" width="1.44140625" style="172" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" style="172" customWidth="1"/>
-    <col min="15" max="15" width="24.44140625" style="172" customWidth="1"/>
-    <col min="16" max="16" width="9.109375" style="172" customWidth="1"/>
-    <col min="17" max="47" width="13.77734375" style="172" customWidth="1"/>
-    <col min="48" max="16384" width="14.77734375" style="172"/>
+    <col min="1" max="1" width="11.42578125" style="172" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="172" customWidth="1"/>
+    <col min="3" max="11" width="13.28515625" style="172" customWidth="1"/>
+    <col min="12" max="12" width="1.42578125" style="172" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" style="172" customWidth="1"/>
+    <col min="14" max="14" width="26.85546875" style="172" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="172" customWidth="1"/>
+    <col min="16" max="46" width="13.7109375" style="172" customWidth="1"/>
+    <col min="47" max="16384" width="14.7109375" style="172"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="36" x14ac:dyDescent="0.2">
       <c r="A1" s="175" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="175" t="s">
-        <v>266</v>
-      </c>
-      <c r="C1" s="176" t="s">
-        <v>350</v>
+      <c r="B1" s="176" t="s">
+        <v>419</v>
+      </c>
+      <c r="C1" s="175" t="s">
+        <v>464</v>
       </c>
       <c r="D1" s="175" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="E1" s="175" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F1" s="175" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="G1" s="175" t="s">
+        <v>293</v>
+      </c>
+      <c r="H1" s="175" t="s">
+        <v>276</v>
+      </c>
+      <c r="I1" s="175" t="s">
         <v>275</v>
       </c>
-      <c r="H1" s="175" t="s">
-        <v>299</v>
-      </c>
-      <c r="I1" s="175" t="s">
-        <v>280</v>
-      </c>
       <c r="J1" s="175" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="K1" s="175" t="s">
-        <v>300</v>
-      </c>
-      <c r="L1" s="175" t="s">
-        <v>301</v>
-      </c>
-      <c r="M1" s="173"/>
+        <v>295</v>
+      </c>
+      <c r="L1" s="173"/>
+      <c r="M1" s="175" t="s">
+        <v>341</v>
+      </c>
       <c r="N1" s="175" t="s">
-        <v>347</v>
+        <v>296</v>
       </c>
       <c r="O1" s="175" t="s">
-        <v>302</v>
-      </c>
-      <c r="P1" s="175" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="24" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="180" t="s">
         <v>265</v>
       </c>
       <c r="B2" s="175" t="s">
-        <v>277</v>
-      </c>
-      <c r="C2" s="175"/>
+        <v>465</v>
+      </c>
+      <c r="C2" s="178" t="s">
+        <v>459</v>
+      </c>
       <c r="D2" s="178"/>
       <c r="E2" s="178"/>
       <c r="F2" s="178"/>
       <c r="G2" s="178"/>
       <c r="H2" s="178"/>
       <c r="I2" s="178"/>
-      <c r="J2" s="178"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="178"/>
-      <c r="M2" s="173"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="173"/>
+      <c r="M2" s="177" t="s">
+        <v>389</v>
+      </c>
       <c r="N2" s="177" t="s">
-        <v>398</v>
+        <v>344</v>
       </c>
       <c r="O2" s="177" t="s">
-        <v>351</v>
-      </c>
-      <c r="P2" s="177" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="24" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="182"/>
       <c r="B3" s="175" t="s">
-        <v>278</v>
-      </c>
-      <c r="C3" s="175"/>
+        <v>457</v>
+      </c>
+      <c r="C3" s="178"/>
       <c r="D3" s="178"/>
       <c r="E3" s="178"/>
       <c r="F3" s="178"/>
@@ -3113,24 +3263,23 @@
       <c r="I3" s="178"/>
       <c r="J3" s="178"/>
       <c r="K3" s="178"/>
-      <c r="L3" s="178"/>
-      <c r="M3" s="173"/>
+      <c r="L3" s="173"/>
+      <c r="M3" s="177" t="s">
+        <v>390</v>
+      </c>
       <c r="N3" s="177" t="s">
-        <v>399</v>
+        <v>369</v>
       </c>
       <c r="O3" s="177" t="s">
-        <v>376</v>
-      </c>
-      <c r="P3" s="177" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="24" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="182"/>
       <c r="B4" s="175" t="s">
-        <v>293</v>
-      </c>
-      <c r="C4" s="175"/>
+        <v>466</v>
+      </c>
+      <c r="C4" s="178"/>
       <c r="D4" s="178"/>
       <c r="E4" s="178"/>
       <c r="F4" s="178"/>
@@ -3139,22 +3288,23 @@
       <c r="I4" s="178"/>
       <c r="J4" s="178"/>
       <c r="K4" s="178"/>
-      <c r="L4" s="178"/>
-      <c r="M4" s="173"/>
+      <c r="L4" s="173"/>
+      <c r="M4" s="177" t="s">
+        <v>391</v>
+      </c>
       <c r="N4" s="177" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="O4" s="177" t="s">
-        <v>378</v>
-      </c>
-      <c r="P4" s="177"/>
-    </row>
-    <row r="5" spans="1:16" ht="24" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="181"/>
       <c r="B5" s="175" t="s">
-        <v>287</v>
-      </c>
-      <c r="C5" s="175"/>
+        <v>283</v>
+      </c>
+      <c r="C5" s="178"/>
       <c r="D5" s="178"/>
       <c r="E5" s="178"/>
       <c r="F5" s="178"/>
@@ -3163,24 +3313,25 @@
       <c r="I5" s="178"/>
       <c r="J5" s="178"/>
       <c r="K5" s="178"/>
-      <c r="L5" s="178"/>
-      <c r="M5" s="173"/>
+      <c r="L5" s="173"/>
+      <c r="M5" s="177" t="s">
+        <v>392</v>
+      </c>
       <c r="N5" s="177" t="s">
-        <v>401</v>
+        <v>461</v>
       </c>
       <c r="O5" s="177" t="s">
-        <v>379</v>
-      </c>
-      <c r="P5" s="177"/>
-    </row>
-    <row r="6" spans="1:16" ht="24" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="180" t="s">
         <v>260</v>
       </c>
       <c r="B6" s="175" t="s">
-        <v>282</v>
-      </c>
-      <c r="C6" s="175"/>
+        <v>278</v>
+      </c>
+      <c r="C6" s="178"/>
       <c r="D6" s="178"/>
       <c r="E6" s="178"/>
       <c r="F6" s="178"/>
@@ -3189,22 +3340,23 @@
       <c r="I6" s="178"/>
       <c r="J6" s="178"/>
       <c r="K6" s="178"/>
-      <c r="L6" s="178"/>
-      <c r="M6" s="173"/>
+      <c r="L6" s="173"/>
+      <c r="M6" s="177" t="s">
+        <v>393</v>
+      </c>
       <c r="N6" s="177" t="s">
-        <v>402</v>
+        <v>372</v>
       </c>
       <c r="O6" s="177" t="s">
-        <v>380</v>
-      </c>
-      <c r="P6" s="177"/>
-    </row>
-    <row r="7" spans="1:16" ht="24" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="182"/>
       <c r="B7" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="C7" s="175"/>
+        <v>277</v>
+      </c>
+      <c r="C7" s="178"/>
       <c r="D7" s="178"/>
       <c r="E7" s="178"/>
       <c r="F7" s="178"/>
@@ -3213,22 +3365,23 @@
       <c r="I7" s="178"/>
       <c r="J7" s="178"/>
       <c r="K7" s="178"/>
-      <c r="L7" s="178"/>
-      <c r="M7" s="173"/>
+      <c r="L7" s="173"/>
+      <c r="M7" s="177" t="s">
+        <v>394</v>
+      </c>
       <c r="N7" s="177" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
       <c r="O7" s="177" t="s">
-        <v>381</v>
-      </c>
-      <c r="P7" s="177"/>
-    </row>
-    <row r="8" spans="1:16" ht="24" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="182"/>
       <c r="B8" s="175" t="s">
-        <v>294</v>
-      </c>
-      <c r="C8" s="175"/>
+        <v>289</v>
+      </c>
+      <c r="C8" s="178"/>
       <c r="D8" s="178"/>
       <c r="E8" s="178"/>
       <c r="F8" s="178"/>
@@ -3237,22 +3390,23 @@
       <c r="I8" s="178"/>
       <c r="J8" s="178"/>
       <c r="K8" s="178"/>
-      <c r="L8" s="178"/>
-      <c r="M8" s="173"/>
+      <c r="L8" s="173"/>
+      <c r="M8" s="177" t="s">
+        <v>420</v>
+      </c>
       <c r="N8" s="177" t="s">
-        <v>404</v>
+        <v>462</v>
       </c>
       <c r="O8" s="177" t="s">
-        <v>348</v>
-      </c>
-      <c r="P8" s="177"/>
-    </row>
-    <row r="9" spans="1:16" ht="24" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="181"/>
       <c r="B9" s="175" t="s">
-        <v>286</v>
-      </c>
-      <c r="C9" s="175"/>
+        <v>282</v>
+      </c>
+      <c r="C9" s="178"/>
       <c r="D9" s="178"/>
       <c r="E9" s="178"/>
       <c r="F9" s="178"/>
@@ -3261,27 +3415,28 @@
       <c r="I9" s="178"/>
       <c r="J9" s="178"/>
       <c r="K9" s="178"/>
-      <c r="L9" s="178"/>
-      <c r="M9" s="173"/>
+      <c r="L9" s="173"/>
+      <c r="M9" s="177" t="s">
+        <v>421</v>
+      </c>
       <c r="N9" s="177" t="s">
-        <v>405</v>
+        <v>458</v>
       </c>
       <c r="O9" s="177" t="s">
-        <v>373</v>
-      </c>
-      <c r="P9" s="177"/>
-    </row>
-    <row r="10" spans="1:16" ht="24" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="175" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B10" s="175" t="s">
-        <v>285</v>
-      </c>
-      <c r="C10" s="175"/>
-      <c r="D10" s="178">
-        <v>1</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="C10" s="178">
+        <v>1</v>
+      </c>
+      <c r="D10" s="178"/>
       <c r="E10" s="178"/>
       <c r="F10" s="178"/>
       <c r="G10" s="178"/>
@@ -3289,27 +3444,28 @@
       <c r="I10" s="178"/>
       <c r="J10" s="178"/>
       <c r="K10" s="178"/>
-      <c r="L10" s="178"/>
-      <c r="M10" s="173"/>
+      <c r="L10" s="173"/>
+      <c r="M10" s="177" t="s">
+        <v>430</v>
+      </c>
       <c r="N10" s="177" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="O10" s="177" t="s">
-        <v>382</v>
-      </c>
-      <c r="P10" s="177"/>
-    </row>
-    <row r="11" spans="1:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="175" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B11" s="175" t="s">
-        <v>283</v>
-      </c>
-      <c r="C11" s="175"/>
-      <c r="D11" s="178">
-        <v>1</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="C11" s="178">
+        <v>1</v>
+      </c>
+      <c r="D11" s="178"/>
       <c r="E11" s="178"/>
       <c r="F11" s="178"/>
       <c r="G11" s="178"/>
@@ -3317,24 +3473,25 @@
       <c r="I11" s="178"/>
       <c r="J11" s="178"/>
       <c r="K11" s="178"/>
-      <c r="L11" s="178"/>
-      <c r="M11" s="173"/>
+      <c r="L11" s="173"/>
+      <c r="M11" s="177" t="s">
+        <v>442</v>
+      </c>
       <c r="N11" s="177" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="O11" s="177" t="s">
-        <v>383</v>
-      </c>
-      <c r="P11" s="177"/>
-    </row>
-    <row r="12" spans="1:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="175" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B12" s="175" t="s">
-        <v>284</v>
-      </c>
-      <c r="C12" s="175"/>
+        <v>280</v>
+      </c>
+      <c r="C12" s="178"/>
       <c r="D12" s="178"/>
       <c r="E12" s="178"/>
       <c r="F12" s="178"/>
@@ -3343,24 +3500,27 @@
       <c r="I12" s="178"/>
       <c r="J12" s="178"/>
       <c r="K12" s="178"/>
-      <c r="L12" s="178"/>
-      <c r="M12" s="173"/>
+      <c r="L12" s="173"/>
+      <c r="M12" s="177" t="s">
+        <v>395</v>
+      </c>
       <c r="N12" s="177" t="s">
-        <v>408</v>
+        <v>342</v>
       </c>
       <c r="O12" s="177" t="s">
-        <v>384</v>
-      </c>
-      <c r="P12" s="177"/>
-    </row>
-    <row r="13" spans="1:16" ht="24" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="180" t="s">
         <v>261</v>
       </c>
       <c r="B13" s="175" t="s">
-        <v>296</v>
-      </c>
-      <c r="C13" s="175"/>
+        <v>467</v>
+      </c>
+      <c r="C13" s="178" t="s">
+        <v>468</v>
+      </c>
       <c r="D13" s="178"/>
       <c r="E13" s="178"/>
       <c r="F13" s="178"/>
@@ -3369,22 +3529,23 @@
       <c r="I13" s="178"/>
       <c r="J13" s="178"/>
       <c r="K13" s="178"/>
-      <c r="L13" s="178"/>
-      <c r="M13" s="173"/>
+      <c r="L13" s="173"/>
+      <c r="M13" s="177" t="s">
+        <v>396</v>
+      </c>
       <c r="N13" s="177" t="s">
-        <v>409</v>
+        <v>366</v>
       </c>
       <c r="O13" s="177" t="s">
-        <v>385</v>
-      </c>
-      <c r="P13" s="177"/>
-    </row>
-    <row r="14" spans="1:16" ht="24" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="182"/>
       <c r="B14" s="175" t="s">
-        <v>295</v>
-      </c>
-      <c r="C14" s="175"/>
+        <v>290</v>
+      </c>
+      <c r="C14" s="178"/>
       <c r="D14" s="178"/>
       <c r="E14" s="178"/>
       <c r="F14" s="178"/>
@@ -3393,22 +3554,23 @@
       <c r="I14" s="178"/>
       <c r="J14" s="178"/>
       <c r="K14" s="178"/>
-      <c r="L14" s="178"/>
-      <c r="M14" s="173"/>
+      <c r="L14" s="173"/>
+      <c r="M14" s="177" t="s">
+        <v>397</v>
+      </c>
       <c r="N14" s="177" t="s">
-        <v>410</v>
+        <v>374</v>
       </c>
       <c r="O14" s="177" t="s">
-        <v>372</v>
-      </c>
-      <c r="P14" s="177"/>
-    </row>
-    <row r="15" spans="1:16" ht="24" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="182"/>
       <c r="B15" s="175" t="s">
-        <v>291</v>
-      </c>
-      <c r="C15" s="175"/>
+        <v>287</v>
+      </c>
+      <c r="C15" s="178"/>
       <c r="D15" s="178"/>
       <c r="E15" s="178"/>
       <c r="F15" s="178"/>
@@ -3417,22 +3579,23 @@
       <c r="I15" s="178"/>
       <c r="J15" s="178"/>
       <c r="K15" s="178"/>
-      <c r="L15" s="178"/>
-      <c r="M15" s="173"/>
+      <c r="L15" s="173"/>
+      <c r="M15" s="177" t="s">
+        <v>398</v>
+      </c>
       <c r="N15" s="177" t="s">
-        <v>411</v>
+        <v>463</v>
       </c>
       <c r="O15" s="177" t="s">
-        <v>375</v>
-      </c>
-      <c r="P15" s="177"/>
-    </row>
-    <row r="16" spans="1:16" ht="24" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="181"/>
       <c r="B16" s="175" t="s">
-        <v>288</v>
-      </c>
-      <c r="C16" s="175"/>
+        <v>284</v>
+      </c>
+      <c r="C16" s="178"/>
       <c r="D16" s="178"/>
       <c r="E16" s="178"/>
       <c r="F16" s="178"/>
@@ -3441,24 +3604,25 @@
       <c r="I16" s="178"/>
       <c r="J16" s="178"/>
       <c r="K16" s="178"/>
-      <c r="L16" s="178"/>
-      <c r="M16" s="173"/>
+      <c r="L16" s="173"/>
+      <c r="M16" s="177" t="s">
+        <v>399</v>
+      </c>
       <c r="N16" s="177" t="s">
-        <v>412</v>
+        <v>375</v>
       </c>
       <c r="O16" s="177" t="s">
-        <v>386</v>
-      </c>
-      <c r="P16" s="177"/>
-    </row>
-    <row r="17" spans="1:16" ht="24" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="180" t="s">
         <v>262</v>
       </c>
       <c r="B17" s="175" t="s">
-        <v>289</v>
-      </c>
-      <c r="C17" s="175"/>
+        <v>285</v>
+      </c>
+      <c r="C17" s="178"/>
       <c r="D17" s="178"/>
       <c r="E17" s="178"/>
       <c r="F17" s="178"/>
@@ -3467,22 +3631,23 @@
       <c r="I17" s="178"/>
       <c r="J17" s="178"/>
       <c r="K17" s="178"/>
-      <c r="L17" s="178"/>
-      <c r="M17" s="173"/>
+      <c r="L17" s="173"/>
+      <c r="M17" s="177" t="s">
+        <v>400</v>
+      </c>
       <c r="N17" s="177" t="s">
-        <v>413</v>
+        <v>376</v>
       </c>
       <c r="O17" s="177" t="s">
-        <v>387</v>
-      </c>
-      <c r="P17" s="177"/>
-    </row>
-    <row r="18" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="181"/>
       <c r="B18" s="175" t="s">
-        <v>290</v>
-      </c>
-      <c r="C18" s="175"/>
+        <v>286</v>
+      </c>
+      <c r="C18" s="178"/>
       <c r="D18" s="178"/>
       <c r="E18" s="178"/>
       <c r="F18" s="178"/>
@@ -3491,24 +3656,25 @@
       <c r="I18" s="178"/>
       <c r="J18" s="178"/>
       <c r="K18" s="178"/>
-      <c r="L18" s="178"/>
-      <c r="M18" s="173"/>
+      <c r="L18" s="173"/>
+      <c r="M18" s="177" t="s">
+        <v>422</v>
+      </c>
       <c r="N18" s="177" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="O18" s="177" t="s">
-        <v>388</v>
-      </c>
-      <c r="P18" s="177"/>
-    </row>
-    <row r="19" spans="1:16" ht="24" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="175" t="s">
         <v>263</v>
       </c>
       <c r="B19" s="175" t="s">
-        <v>292</v>
-      </c>
-      <c r="C19" s="175"/>
+        <v>288</v>
+      </c>
+      <c r="C19" s="178"/>
       <c r="D19" s="178"/>
       <c r="E19" s="178"/>
       <c r="F19" s="178"/>
@@ -3517,476 +3683,433 @@
       <c r="I19" s="178"/>
       <c r="J19" s="178"/>
       <c r="K19" s="178"/>
-      <c r="L19" s="178"/>
-      <c r="M19" s="173"/>
+      <c r="L19" s="173"/>
+      <c r="M19" s="177" t="s">
+        <v>423</v>
+      </c>
       <c r="N19" s="177" t="s">
+        <v>433</v>
+      </c>
+      <c r="O19" s="177" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M20" s="177" t="s">
+        <v>428</v>
+      </c>
+      <c r="N20" s="177" t="s">
+        <v>429</v>
+      </c>
+      <c r="O20" s="177" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M21" s="177" t="s">
+        <v>453</v>
+      </c>
+      <c r="N21" s="177" t="s">
+        <v>454</v>
+      </c>
+      <c r="O21" s="177" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M22" s="177" t="s">
+        <v>401</v>
+      </c>
+      <c r="N22" s="177" t="s">
+        <v>365</v>
+      </c>
+      <c r="O22" s="177" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M23" s="177" t="s">
+        <v>402</v>
+      </c>
+      <c r="N23" s="177" t="s">
+        <v>368</v>
+      </c>
+      <c r="O23" s="177" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M24" s="177" t="s">
+        <v>403</v>
+      </c>
+      <c r="N24" s="177" t="s">
+        <v>377</v>
+      </c>
+      <c r="O24" s="177" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M25" s="177" t="s">
+        <v>404</v>
+      </c>
+      <c r="N25" s="177" t="s">
+        <v>378</v>
+      </c>
+      <c r="O25" s="177" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M26" s="177" t="s">
+        <v>405</v>
+      </c>
+      <c r="N26" s="177" t="s">
+        <v>379</v>
+      </c>
+      <c r="O26" s="177" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M27" s="177" t="s">
+        <v>406</v>
+      </c>
+      <c r="N27" s="177" t="s">
+        <v>380</v>
+      </c>
+      <c r="O27" s="177" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M28" s="177" t="s">
+        <v>424</v>
+      </c>
+      <c r="N28" s="177" t="s">
+        <v>438</v>
+      </c>
+      <c r="O28" s="177" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M29" s="177" t="s">
+        <v>425</v>
+      </c>
+      <c r="N29" s="177" t="s">
+        <v>441</v>
+      </c>
+      <c r="O29" s="177" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M30" s="177" t="s">
+        <v>407</v>
+      </c>
+      <c r="N30" s="177" t="s">
+        <v>363</v>
+      </c>
+      <c r="O30" s="177" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M31" s="177" t="s">
+        <v>408</v>
+      </c>
+      <c r="N31" s="177" t="s">
+        <v>367</v>
+      </c>
+      <c r="O31" s="177" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M32" s="177" t="s">
+        <v>409</v>
+      </c>
+      <c r="N32" s="177" t="s">
+        <v>381</v>
+      </c>
+      <c r="O32" s="177" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="33" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M33" s="177" t="s">
+        <v>410</v>
+      </c>
+      <c r="N33" s="177" t="s">
+        <v>382</v>
+      </c>
+      <c r="O33" s="177" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="34" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M34" s="177" t="s">
+        <v>411</v>
+      </c>
+      <c r="N34" s="177" t="s">
+        <v>383</v>
+      </c>
+      <c r="O34" s="177" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="35" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M35" s="177" t="s">
+        <v>412</v>
+      </c>
+      <c r="N35" s="177" t="s">
+        <v>384</v>
+      </c>
+      <c r="O35" s="177" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="36" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M36" s="177" t="s">
+        <v>426</v>
+      </c>
+      <c r="N36" s="177" t="s">
+        <v>437</v>
+      </c>
+      <c r="O36" s="177" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="37" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M37" s="177" t="s">
+        <v>427</v>
+      </c>
+      <c r="N37" s="177" t="s">
+        <v>440</v>
+      </c>
+      <c r="O37" s="177" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="38" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M38" s="177" t="s">
+        <v>413</v>
+      </c>
+      <c r="N38" s="177" t="s">
+        <v>364</v>
+      </c>
+      <c r="O38" s="177" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="39" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M39" s="177" t="s">
+        <v>414</v>
+      </c>
+      <c r="N39" s="177" t="s">
+        <v>370</v>
+      </c>
+      <c r="O39" s="177" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="40" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M40" s="177" t="s">
         <v>415</v>
       </c>
-      <c r="O19" s="177" t="s">
-        <v>389</v>
-      </c>
-      <c r="P19" s="177"/>
-    </row>
-    <row r="20" spans="1:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N20" s="177" t="s">
+      <c r="N40" s="177" t="s">
+        <v>385</v>
+      </c>
+      <c r="O40" s="177" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="41" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M41" s="177" t="s">
         <v>416</v>
       </c>
-      <c r="O20" s="177" t="s">
-        <v>370</v>
-      </c>
-      <c r="P20" s="177"/>
-    </row>
-    <row r="21" spans="1:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N21" s="177" t="s">
+      <c r="N41" s="177" t="s">
+        <v>386</v>
+      </c>
+      <c r="O41" s="177" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="42" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M42" s="177" t="s">
         <v>417</v>
       </c>
-      <c r="O21" s="177" t="s">
-        <v>374</v>
-      </c>
-      <c r="P21" s="177"/>
-    </row>
-    <row r="22" spans="1:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N22" s="177" t="s">
+      <c r="N42" s="177" t="s">
+        <v>387</v>
+      </c>
+      <c r="O42" s="177" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="43" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M43" s="177" t="s">
         <v>418</v>
       </c>
-      <c r="O22" s="177" t="s">
-        <v>390</v>
-      </c>
-      <c r="P22" s="177"/>
-    </row>
-    <row r="23" spans="1:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N23" s="177" t="s">
-        <v>419</v>
-      </c>
-      <c r="O23" s="177" t="s">
-        <v>391</v>
-      </c>
-      <c r="P23" s="177"/>
-    </row>
-    <row r="24" spans="1:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N24" s="177" t="s">
-        <v>420</v>
-      </c>
-      <c r="O24" s="177" t="s">
-        <v>392</v>
-      </c>
-      <c r="P24" s="177"/>
-    </row>
-    <row r="25" spans="1:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N25" s="177" t="s">
-        <v>421</v>
-      </c>
-      <c r="O25" s="177" t="s">
-        <v>393</v>
-      </c>
-      <c r="P25" s="177"/>
-    </row>
-    <row r="26" spans="1:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N26" s="177" t="s">
-        <v>422</v>
-      </c>
-      <c r="O26" s="177" t="s">
-        <v>371</v>
-      </c>
-      <c r="P26" s="177"/>
-    </row>
-    <row r="27" spans="1:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N27" s="177" t="s">
-        <v>423</v>
-      </c>
-      <c r="O27" s="177" t="s">
-        <v>377</v>
-      </c>
-      <c r="P27" s="177"/>
-    </row>
-    <row r="28" spans="1:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N28" s="177" t="s">
-        <v>424</v>
-      </c>
-      <c r="O28" s="177" t="s">
-        <v>394</v>
-      </c>
-      <c r="P28" s="177"/>
-    </row>
-    <row r="29" spans="1:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N29" s="177" t="s">
-        <v>425</v>
-      </c>
-      <c r="O29" s="177" t="s">
-        <v>395</v>
-      </c>
-      <c r="P29" s="177"/>
-    </row>
-    <row r="30" spans="1:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N30" s="177" t="s">
-        <v>426</v>
-      </c>
-      <c r="O30" s="177" t="s">
-        <v>396</v>
-      </c>
-      <c r="P30" s="177"/>
-    </row>
-    <row r="31" spans="1:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N31" s="177" t="s">
-        <v>427</v>
-      </c>
-      <c r="O31" s="177" t="s">
-        <v>397</v>
-      </c>
-      <c r="P31" s="177"/>
-    </row>
-    <row r="32" spans="1:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N32" s="177"/>
-      <c r="O32" s="177" t="s">
-        <v>428</v>
-      </c>
-      <c r="P32" s="177"/>
-    </row>
-    <row r="33" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N33" s="177"/>
-      <c r="O33" s="177" t="s">
-        <v>429</v>
-      </c>
-      <c r="P33" s="177"/>
-    </row>
-    <row r="34" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N34" s="177"/>
-      <c r="O34" s="177" t="s">
-        <v>430</v>
-      </c>
-      <c r="P34" s="177"/>
-    </row>
-    <row r="35" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N35" s="177"/>
-      <c r="O35" s="177"/>
-      <c r="P35" s="177"/>
-    </row>
-    <row r="36" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N36" s="177"/>
-      <c r="O36" s="177"/>
-      <c r="P36" s="177"/>
-    </row>
-    <row r="37" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N37" s="177"/>
-      <c r="O37" s="177"/>
-      <c r="P37" s="177"/>
-    </row>
-    <row r="38" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N38" s="177"/>
-      <c r="O38" s="177"/>
-      <c r="P38" s="177"/>
-    </row>
-    <row r="39" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N39" s="177"/>
-      <c r="O39" s="177"/>
-      <c r="P39" s="177"/>
-    </row>
-    <row r="40" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N40" s="177"/>
-      <c r="O40" s="177"/>
-      <c r="P40" s="177"/>
-    </row>
-    <row r="41" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N41" s="177">
-        <v>40</v>
-      </c>
-      <c r="O41" s="177"/>
-      <c r="P41" s="177"/>
-    </row>
-    <row r="42" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N42" s="177">
-        <v>41</v>
-      </c>
-      <c r="O42" s="177"/>
-      <c r="P42" s="177"/>
-    </row>
-    <row r="43" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N43" s="177">
-        <v>42</v>
-      </c>
-      <c r="O43" s="177"/>
-      <c r="P43" s="177"/>
-    </row>
-    <row r="44" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N44" s="177">
-        <v>43</v>
-      </c>
-      <c r="O44" s="177"/>
-      <c r="P44" s="177"/>
-    </row>
-    <row r="45" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N45" s="177">
-        <v>44</v>
-      </c>
-      <c r="O45" s="177"/>
-      <c r="P45" s="177"/>
-    </row>
-    <row r="46" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N46" s="177">
-        <v>45</v>
-      </c>
-      <c r="O46" s="177"/>
-      <c r="P46" s="177"/>
-    </row>
-    <row r="47" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N47" s="177">
-        <v>46</v>
-      </c>
-      <c r="O47" s="177"/>
-      <c r="P47" s="177"/>
-    </row>
-    <row r="48" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N48" s="177">
-        <v>47</v>
-      </c>
-      <c r="O48" s="177"/>
-      <c r="P48" s="177"/>
-    </row>
-    <row r="49" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N49" s="177">
-        <v>48</v>
-      </c>
-      <c r="O49" s="177"/>
-      <c r="P49" s="177"/>
-    </row>
-    <row r="50" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N50" s="177">
-        <v>49</v>
-      </c>
-      <c r="O50" s="177"/>
-      <c r="P50" s="177"/>
-    </row>
-    <row r="51" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N51" s="177">
-        <v>50</v>
+      <c r="N43" s="177" t="s">
+        <v>388</v>
+      </c>
+      <c r="O43" s="177" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="44" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M44" s="177" t="s">
+        <v>434</v>
+      </c>
+      <c r="N44" s="177" t="s">
+        <v>436</v>
+      </c>
+      <c r="O44" s="177" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="45" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M45" s="177" t="s">
+        <v>435</v>
+      </c>
+      <c r="N45" s="177" t="s">
+        <v>439</v>
+      </c>
+      <c r="O45" s="177" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="46" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M46" s="177" t="s">
+        <v>455</v>
+      </c>
+      <c r="N46" s="177" t="s">
+        <v>456</v>
+      </c>
+      <c r="O46" s="177" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="47" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M47" s="177" t="s">
+        <v>445</v>
+      </c>
+      <c r="N47" s="177" t="s">
+        <v>446</v>
+      </c>
+      <c r="O47" s="177" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="48" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M48" s="177" t="s">
+        <v>450</v>
+      </c>
+      <c r="N48" s="177" t="s">
+        <v>447</v>
+      </c>
+      <c r="O48" s="177" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="49" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M49" s="177" t="s">
+        <v>451</v>
+      </c>
+      <c r="N49" s="177" t="s">
+        <v>448</v>
+      </c>
+      <c r="O49" s="177" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="50" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M50" s="177" t="s">
+        <v>452</v>
+      </c>
+      <c r="N50" s="177" t="s">
+        <v>449</v>
+      </c>
+      <c r="O50" s="177" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="51" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M51" s="177" t="s">
+        <v>469</v>
+      </c>
+      <c r="N51" s="177" t="s">
+        <v>475</v>
       </c>
       <c r="O51" s="177"/>
-      <c r="P51" s="177"/>
-    </row>
-    <row r="52" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N52" s="177">
-        <v>51</v>
+    </row>
+    <row r="52" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M52" s="177" t="s">
+        <v>470</v>
+      </c>
+      <c r="N52" s="177" t="s">
+        <v>475</v>
       </c>
       <c r="O52" s="177"/>
-      <c r="P52" s="177"/>
-    </row>
-    <row r="53" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N53" s="177">
-        <v>52</v>
+    </row>
+    <row r="53" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M53" s="177" t="s">
+        <v>471</v>
+      </c>
+      <c r="N53" s="177" t="s">
+        <v>475</v>
       </c>
       <c r="O53" s="177"/>
-      <c r="P53" s="177"/>
-    </row>
-    <row r="54" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N54" s="177">
-        <v>53</v>
-      </c>
+    </row>
+    <row r="54" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M54" s="177" t="s">
+        <v>472</v>
+      </c>
+      <c r="N54" s="177"/>
       <c r="O54" s="177"/>
-      <c r="P54" s="177"/>
-    </row>
-    <row r="55" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N55" s="177">
-        <v>54</v>
-      </c>
+    </row>
+    <row r="55" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M55" s="177" t="s">
+        <v>473</v>
+      </c>
+      <c r="N55" s="177"/>
       <c r="O55" s="177"/>
-      <c r="P55" s="177"/>
-    </row>
-    <row r="56" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N56" s="177">
-        <v>55</v>
-      </c>
+    </row>
+    <row r="56" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M56" s="177" t="s">
+        <v>474</v>
+      </c>
+      <c r="N56" s="177"/>
       <c r="O56" s="177"/>
-      <c r="P56" s="177"/>
-    </row>
-    <row r="57" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N57" s="177">
-        <v>56</v>
-      </c>
-      <c r="O57" s="177"/>
-      <c r="P57" s="177"/>
-    </row>
-    <row r="58" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N58" s="177">
-        <v>57</v>
-      </c>
-      <c r="O58" s="177"/>
-      <c r="P58" s="177"/>
-    </row>
-    <row r="59" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N59" s="177">
-        <v>58</v>
-      </c>
-      <c r="O59" s="177"/>
-      <c r="P59" s="177"/>
-    </row>
-    <row r="60" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N60" s="177">
-        <v>59</v>
-      </c>
-      <c r="O60" s="177"/>
-      <c r="P60" s="177"/>
-    </row>
-    <row r="61" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N61" s="177">
-        <v>60</v>
-      </c>
-      <c r="O61" s="177"/>
-      <c r="P61" s="177"/>
-    </row>
-    <row r="62" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N62" s="177">
-        <v>61</v>
-      </c>
-      <c r="O62" s="177"/>
-      <c r="P62" s="177"/>
-    </row>
-    <row r="63" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N63" s="177">
-        <v>62</v>
-      </c>
-      <c r="O63" s="177"/>
-      <c r="P63" s="177"/>
-    </row>
-    <row r="64" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N64" s="177">
-        <v>63</v>
-      </c>
-      <c r="O64" s="177"/>
-      <c r="P64" s="177"/>
-    </row>
-    <row r="65" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N65" s="177">
-        <v>64</v>
-      </c>
-      <c r="O65" s="177"/>
-      <c r="P65" s="177"/>
-    </row>
-    <row r="66" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N66" s="177">
-        <v>65</v>
-      </c>
-      <c r="O66" s="177"/>
-      <c r="P66" s="177"/>
-    </row>
-    <row r="67" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N67" s="177">
-        <v>66</v>
-      </c>
-      <c r="O67" s="177"/>
-      <c r="P67" s="177"/>
-    </row>
-    <row r="68" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N68" s="177">
-        <v>67</v>
-      </c>
-      <c r="O68" s="177"/>
-      <c r="P68" s="177"/>
-    </row>
-    <row r="69" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N69" s="177">
-        <v>68</v>
-      </c>
-      <c r="O69" s="177"/>
-      <c r="P69" s="177"/>
-    </row>
-    <row r="70" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N70" s="177">
-        <v>69</v>
-      </c>
-      <c r="O70" s="177"/>
-      <c r="P70" s="177"/>
-    </row>
-    <row r="71" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N71" s="177">
-        <v>70</v>
-      </c>
-      <c r="O71" s="177"/>
-      <c r="P71" s="177"/>
-    </row>
-    <row r="72" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N72" s="177">
-        <v>71</v>
-      </c>
-      <c r="O72" s="177"/>
-      <c r="P72" s="177"/>
-    </row>
-    <row r="73" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N73" s="177">
-        <v>72</v>
-      </c>
-      <c r="O73" s="177"/>
-      <c r="P73" s="177"/>
-    </row>
-    <row r="74" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N74" s="177">
-        <v>73</v>
-      </c>
-      <c r="O74" s="177"/>
-      <c r="P74" s="177"/>
-    </row>
-    <row r="75" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N75" s="177">
-        <v>74</v>
-      </c>
-      <c r="O75" s="177"/>
-      <c r="P75" s="177"/>
-    </row>
-    <row r="76" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N76" s="177">
-        <v>75</v>
-      </c>
-      <c r="O76" s="177"/>
-      <c r="P76" s="177"/>
-    </row>
-    <row r="77" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N77" s="177">
-        <v>76</v>
-      </c>
-      <c r="O77" s="177"/>
-      <c r="P77" s="177"/>
-    </row>
-    <row r="78" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N78" s="177">
-        <v>77</v>
-      </c>
-      <c r="O78" s="177"/>
-      <c r="P78" s="177"/>
-    </row>
-    <row r="79" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N79" s="177">
-        <v>78</v>
-      </c>
-      <c r="O79" s="177"/>
-      <c r="P79" s="177"/>
-    </row>
-    <row r="80" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N80" s="177">
-        <v>79</v>
-      </c>
-      <c r="O80" s="177"/>
-      <c r="P80" s="177"/>
-    </row>
-    <row r="81" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N81" s="177">
-        <v>80</v>
-      </c>
-      <c r="O81" s="177"/>
-      <c r="P81" s="177"/>
-    </row>
-    <row r="82" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N82" s="177">
-        <v>81</v>
-      </c>
-      <c r="O82" s="177"/>
-      <c r="P82" s="177"/>
-    </row>
-    <row r="83" spans="14:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N83" s="177">
-        <v>82</v>
-      </c>
-      <c r="O83" s="177"/>
-      <c r="P83" s="177"/>
-    </row>
+    </row>
+    <row r="57" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A17:A18"/>
@@ -3995,7 +4118,7 @@
     <mergeCell ref="A13:A16"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="O2" location="Generic!A1" display="Generic-Flyer"/>
+    <hyperlink ref="N2" location="Generic!A1" display="Generic-Flyer"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4010,34 +4133,34 @@
       <selection activeCell="W2" sqref="W2:W12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="168" t="s">
         <v>184</v>
       </c>
@@ -4108,7 +4231,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="169">
         <v>1</v>
       </c>
@@ -4178,7 +4301,7 @@
         <v>0.6048</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="169">
         <v>2</v>
       </c>
@@ -4248,7 +4371,7 @@
         <v>0.58879999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="169">
         <v>3</v>
       </c>
@@ -4318,7 +4441,7 @@
         <v>0.51200000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="169">
         <v>4</v>
       </c>
@@ -4388,7 +4511,7 @@
         <v>0.312</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="169"/>
       <c r="B6" s="169" t="s">
         <v>215</v>
@@ -4438,7 +4561,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="169"/>
       <c r="B7" s="169" t="s">
         <v>216</v>
@@ -4488,7 +4611,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="169"/>
       <c r="B8" s="169" t="s">
         <v>217</v>
@@ -4538,7 +4661,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="169"/>
       <c r="B9" s="169"/>
       <c r="C9" s="169"/>
@@ -4586,7 +4709,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="169"/>
       <c r="B10" s="169"/>
       <c r="C10" s="169"/>
@@ -4634,7 +4757,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="169"/>
       <c r="B11" s="169"/>
       <c r="C11" s="169"/>
@@ -4682,7 +4805,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="169"/>
       <c r="B12" s="169"/>
       <c r="C12" s="169"/>
@@ -4730,7 +4853,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="169"/>
       <c r="B13" s="169"/>
       <c r="C13" s="169"/>
@@ -4778,7 +4901,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="169"/>
       <c r="B14" s="169"/>
       <c r="C14" s="169"/>
@@ -4826,7 +4949,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="169"/>
       <c r="B15" s="169"/>
       <c r="C15" s="169"/>
@@ -4874,7 +4997,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="169"/>
       <c r="B16" s="169"/>
       <c r="C16" s="169"/>
@@ -4922,7 +5045,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="169"/>
       <c r="B17" s="169"/>
       <c r="C17" s="169"/>
@@ -4970,7 +5093,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="169"/>
       <c r="B18" s="169"/>
       <c r="C18" s="169"/>
@@ -5018,7 +5141,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="169"/>
       <c r="B19" s="169"/>
       <c r="C19" s="169"/>
@@ -5066,7 +5189,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="169"/>
       <c r="B20" s="169"/>
       <c r="C20" s="169"/>
@@ -5114,7 +5237,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="169"/>
       <c r="B21" s="169"/>
       <c r="C21" s="169"/>
@@ -5162,7 +5285,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="169"/>
       <c r="B22" s="169"/>
       <c r="C22" s="169"/>
@@ -5210,7 +5333,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="169"/>
       <c r="B23" s="169"/>
       <c r="C23" s="169"/>
@@ -5258,7 +5381,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="169"/>
       <c r="B24" s="169"/>
       <c r="C24" s="169"/>
@@ -5306,7 +5429,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="169"/>
       <c r="B25" s="169"/>
       <c r="C25" s="169"/>
@@ -5354,7 +5477,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="169"/>
       <c r="B26" s="169"/>
       <c r="C26" s="169"/>
@@ -5402,7 +5525,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="169"/>
       <c r="B27" s="169"/>
       <c r="C27" s="169"/>
@@ -5450,7 +5573,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="169"/>
       <c r="B28" s="169"/>
       <c r="C28" s="169"/>
@@ -5498,7 +5621,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="169"/>
       <c r="B29" s="169"/>
       <c r="C29" s="169"/>
@@ -5546,7 +5669,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="169"/>
       <c r="B30" s="169"/>
       <c r="C30" s="169"/>
@@ -5594,7 +5717,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="169"/>
       <c r="B31" s="169"/>
       <c r="C31" s="169"/>
@@ -5642,7 +5765,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="169"/>
       <c r="B32" s="169"/>
       <c r="C32" s="169"/>
@@ -5690,7 +5813,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="169"/>
       <c r="B33" s="169"/>
       <c r="C33" s="169"/>
@@ -5738,7 +5861,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="169"/>
       <c r="B34" s="169"/>
       <c r="C34" s="169"/>
@@ -5786,7 +5909,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="169"/>
       <c r="B35" s="169"/>
       <c r="C35" s="169"/>
@@ -5834,7 +5957,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="169"/>
       <c r="B36" s="169"/>
       <c r="C36" s="169"/>
@@ -5882,7 +6005,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="169"/>
       <c r="B37" s="169"/>
       <c r="C37" s="169"/>
@@ -5930,7 +6053,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="169"/>
       <c r="B38" s="169"/>
       <c r="C38" s="169"/>
@@ -5978,7 +6101,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="169"/>
       <c r="B39" s="169"/>
       <c r="C39" s="169"/>
@@ -6026,7 +6149,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="169"/>
       <c r="B40" s="169"/>
       <c r="C40" s="169"/>
@@ -6074,7 +6197,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="169"/>
       <c r="B41" s="169"/>
       <c r="C41" s="169"/>
@@ -6122,7 +6245,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="169"/>
       <c r="B42" s="169"/>
       <c r="C42" s="169"/>
@@ -6170,7 +6293,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="169"/>
       <c r="B43" s="169"/>
       <c r="C43" s="169"/>
@@ -6218,7 +6341,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -6238,7 +6361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F56" t="s">
         <v>222</v>
       </c>
@@ -6249,7 +6372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F57" t="s">
         <v>224</v>
       </c>
@@ -6260,7 +6383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F58" t="s">
         <v>225</v>
       </c>
@@ -6271,7 +6394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F59" t="s">
         <v>227</v>
       </c>
@@ -6282,7 +6405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F60" t="s">
         <v>228</v>
       </c>
@@ -6293,7 +6416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F61" t="s">
         <v>229</v>
       </c>
@@ -6304,7 +6427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F62" t="s">
         <v>230</v>
       </c>
@@ -6315,7 +6438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F63" t="s">
         <v>232</v>
       </c>
@@ -6326,7 +6449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F64" t="s">
         <v>233</v>
       </c>
@@ -6337,7 +6460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F65" t="s">
         <v>234</v>
       </c>
@@ -6348,7 +6471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F66" t="s">
         <v>236</v>
       </c>
@@ -6359,7 +6482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F67" t="s">
         <v>238</v>
       </c>
@@ -6370,7 +6493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F68" t="s">
         <v>239</v>
       </c>
@@ -6381,7 +6504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F69" t="s">
         <v>240</v>
       </c>
@@ -6392,7 +6515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F70" t="s">
         <v>242</v>
       </c>
@@ -6403,7 +6526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2</v>
       </c>
@@ -6423,7 +6546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F79" t="s">
         <v>247</v>
       </c>
@@ -6434,7 +6557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F80" t="s">
         <v>249</v>
       </c>
@@ -6445,7 +6568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F81" t="s">
         <v>251</v>
       </c>
@@ -6456,7 +6579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F82" t="s">
         <v>253</v>
       </c>
@@ -6467,7 +6590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F83" t="s">
         <v>254</v>
       </c>
@@ -6478,7 +6601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F84" t="s">
         <v>256</v>
       </c>
@@ -6489,7 +6612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F85" t="s">
         <v>258</v>
       </c>
@@ -6514,126 +6637,124 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="174" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B1" s="174" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C1" s="174" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="174" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="179" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
+    <row r="24" spans="3:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C24" s="179" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="179" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C14" s="174" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="179" t="s">
         <v>361</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C23" s="179" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="C24" s="179" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C25" s="179" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C26" s="179" t="s">
-        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -6644,142 +6765,149 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="52.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="174" t="s">
-        <v>343</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="194" t="s">
+        <v>460</v>
       </c>
       <c r="B1" s="174" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C1" s="174" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D1" s="174" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
-        <v>335</v>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="MarketingPlan!A1" display="&lt;-- MarketingPlan"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6792,107 +6920,107 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="4" width="52.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="4" width="52.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="174" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B1" s="174" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C1" s="174" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -6908,24 +7036,24 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="137" customWidth="1"/>
-    <col min="2" max="2" width="3.88671875" style="137" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="95.33203125" style="137" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.88671875" style="137" customWidth="1"/>
-    <col min="5" max="5" width="3.88671875" style="137" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="137" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="137"/>
+    <col min="2" max="2" width="3.85546875" style="137" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="95.28515625" style="137" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" style="137" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" style="137" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="137" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="137"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="140"/>
       <c r="C1" s="140"/>
       <c r="E1" s="140"/>
       <c r="F1" s="140"/>
     </row>
-    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="138"/>
       <c r="B2" s="143" t="s">
         <v>29</v>
@@ -6936,7 +7064,7 @@
       <c r="D2" s="142"/>
       <c r="G2" s="139"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="138"/>
       <c r="B3" s="145">
         <v>1</v>
@@ -6947,7 +7075,7 @@
       <c r="D3" s="142"/>
       <c r="G3" s="139"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="138"/>
       <c r="B4" s="145">
         <v>2</v>
@@ -6958,7 +7086,7 @@
       <c r="D4" s="142"/>
       <c r="G4" s="139"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="138"/>
       <c r="B5" s="145">
         <v>3</v>
@@ -6969,7 +7097,7 @@
       <c r="D5" s="142"/>
       <c r="G5" s="139"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="138"/>
       <c r="B6" s="145">
         <v>4</v>
@@ -6980,7 +7108,7 @@
       <c r="D6" s="142"/>
       <c r="G6" s="139"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="138"/>
       <c r="B7" s="145">
         <v>5</v>
@@ -6991,7 +7119,7 @@
       <c r="D7" s="142"/>
       <c r="G7" s="139"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="138"/>
       <c r="B8" s="145">
         <v>6</v>
@@ -7002,7 +7130,7 @@
       <c r="D8" s="142"/>
       <c r="G8" s="139"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="138"/>
       <c r="B9" s="147">
         <v>7</v>
@@ -7013,7 +7141,7 @@
       <c r="D9" s="142"/>
       <c r="G9" s="139"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="138"/>
       <c r="B10" s="147">
         <v>8</v>
@@ -7024,7 +7152,7 @@
       <c r="D10" s="142"/>
       <c r="G10" s="139"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="138"/>
       <c r="B11" s="147">
         <v>9</v>
@@ -7035,7 +7163,7 @@
       <c r="D11" s="142"/>
       <c r="G11" s="139"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="138"/>
       <c r="B12" s="147">
         <v>10</v>
@@ -7046,7 +7174,7 @@
       <c r="D12" s="142"/>
       <c r="G12" s="139"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="138"/>
       <c r="B13" s="147">
         <v>11</v>
@@ -7057,7 +7185,7 @@
       <c r="D13" s="142"/>
       <c r="G13" s="139"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="138"/>
       <c r="B14" s="147">
         <v>12</v>
@@ -7068,7 +7196,7 @@
       <c r="D14" s="142"/>
       <c r="G14" s="139"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="138"/>
       <c r="B15" s="149">
         <v>13</v>
@@ -7079,7 +7207,7 @@
       <c r="D15" s="142"/>
       <c r="G15" s="139"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="138"/>
       <c r="B16" s="149">
         <v>14</v>
@@ -7090,7 +7218,7 @@
       <c r="D16" s="142"/>
       <c r="G16" s="139"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="138"/>
       <c r="B17" s="149">
         <v>15</v>
@@ -7101,7 +7229,7 @@
       <c r="D17" s="142"/>
       <c r="G17" s="139"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="138"/>
       <c r="B18" s="149">
         <v>16</v>
@@ -7112,7 +7240,7 @@
       <c r="D18" s="142"/>
       <c r="G18" s="139"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="138"/>
       <c r="B19" s="149">
         <v>17</v>
@@ -7123,7 +7251,7 @@
       <c r="D19" s="142"/>
       <c r="G19" s="139"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="138"/>
       <c r="B20" s="149">
         <v>18</v>
@@ -7134,7 +7262,7 @@
       <c r="D20" s="142"/>
       <c r="G20" s="139"/>
     </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="138"/>
       <c r="B21" s="151">
         <v>19</v>
@@ -7145,13 +7273,13 @@
       <c r="D21" s="142"/>
       <c r="G21" s="139"/>
     </row>
-    <row r="22" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="141"/>
       <c r="C22" s="141"/>
       <c r="D22" s="138"/>
       <c r="G22" s="139"/>
     </row>
-    <row r="23" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B23" s="143" t="s">
         <v>29</v>
       </c>
@@ -7161,7 +7289,7 @@
       <c r="D23" s="138"/>
       <c r="G23" s="139"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="153">
         <v>1</v>
       </c>
@@ -7171,7 +7299,7 @@
       <c r="D24" s="138"/>
       <c r="G24" s="139"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" s="153">
         <v>2</v>
       </c>
@@ -7181,7 +7309,7 @@
       <c r="D25" s="138"/>
       <c r="G25" s="139"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" s="153">
         <v>3</v>
       </c>
@@ -7191,7 +7319,7 @@
       <c r="D26" s="138"/>
       <c r="G26" s="139"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" s="153">
         <v>4</v>
       </c>
@@ -7201,7 +7329,7 @@
       <c r="D27" s="138"/>
       <c r="G27" s="139"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="153">
         <v>5</v>
       </c>
@@ -7211,7 +7339,7 @@
       <c r="D28" s="138"/>
       <c r="G28" s="139"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="153">
         <v>6</v>
       </c>
@@ -7221,7 +7349,7 @@
       <c r="D29" s="138"/>
       <c r="G29" s="139"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="153">
         <v>7</v>
       </c>
@@ -7231,7 +7359,7 @@
       <c r="D30" s="138"/>
       <c r="G30" s="139"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="153">
         <v>8</v>
       </c>
@@ -7241,7 +7369,7 @@
       <c r="D31" s="138"/>
       <c r="G31" s="139"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="154">
         <v>9</v>
       </c>
@@ -7251,7 +7379,7 @@
       <c r="D32" s="138"/>
       <c r="G32" s="139"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="154">
         <v>10</v>
       </c>
@@ -7261,7 +7389,7 @@
       <c r="D33" s="138"/>
       <c r="G33" s="139"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="154">
         <v>11</v>
       </c>
@@ -7271,7 +7399,7 @@
       <c r="D34" s="138"/>
       <c r="G34" s="139"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="154">
         <v>12</v>
       </c>
@@ -7281,7 +7409,7 @@
       <c r="D35" s="138"/>
       <c r="G35" s="139"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="154">
         <v>13</v>
       </c>
@@ -7291,7 +7419,7 @@
       <c r="D36" s="138"/>
       <c r="G36" s="139"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="154">
         <v>14</v>
       </c>
@@ -7301,7 +7429,7 @@
       <c r="D37" s="138"/>
       <c r="G37" s="139"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="154">
         <v>15</v>
       </c>
@@ -7311,7 +7439,7 @@
       <c r="D38" s="138"/>
       <c r="G38" s="139"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="154">
         <v>16</v>
       </c>
@@ -7321,7 +7449,7 @@
       <c r="D39" s="138"/>
       <c r="G39" s="139"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="154">
         <v>17</v>
       </c>
@@ -7331,7 +7459,7 @@
       <c r="D40" s="138"/>
       <c r="G40" s="139"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="154">
         <v>18</v>
       </c>
@@ -7341,7 +7469,7 @@
       <c r="D41" s="138"/>
       <c r="G41" s="139"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="154">
         <v>19</v>
       </c>
@@ -7351,7 +7479,7 @@
       <c r="D42" s="138"/>
       <c r="G42" s="139"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="154">
         <v>20</v>
       </c>
@@ -7361,7 +7489,7 @@
       <c r="D43" s="138"/>
       <c r="G43" s="139"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="154">
         <v>21</v>
       </c>
@@ -7371,7 +7499,7 @@
       <c r="D44" s="138"/>
       <c r="G44" s="139"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="154">
         <v>22</v>
       </c>
@@ -7381,7 +7509,7 @@
       <c r="D45" s="138"/>
       <c r="G45" s="139"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="154">
         <v>23</v>
       </c>
@@ -7391,7 +7519,7 @@
       <c r="D46" s="138"/>
       <c r="G46" s="139"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="154">
         <v>24</v>
       </c>
@@ -7401,7 +7529,7 @@
       <c r="D47" s="138"/>
       <c r="G47" s="139"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="154">
         <v>25</v>
       </c>
@@ -7411,7 +7539,7 @@
       <c r="D48" s="138"/>
       <c r="G48" s="139"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="156">
         <v>26</v>
       </c>
@@ -7421,7 +7549,7 @@
       <c r="D49" s="138"/>
       <c r="G49" s="139"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="156">
         <v>27</v>
       </c>
@@ -7431,7 +7559,7 @@
       <c r="D50" s="138"/>
       <c r="G50" s="139"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="156">
         <v>28</v>
       </c>
@@ -7441,7 +7569,7 @@
       <c r="D51" s="138"/>
       <c r="G51" s="139"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="156">
         <v>29</v>
       </c>
@@ -7451,7 +7579,7 @@
       <c r="D52" s="138"/>
       <c r="G52" s="139"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="156">
         <v>30</v>
       </c>
@@ -7461,7 +7589,7 @@
       <c r="D53" s="138"/>
       <c r="G53" s="139"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="156">
         <v>31</v>
       </c>
@@ -7471,7 +7599,7 @@
       <c r="D54" s="138"/>
       <c r="G54" s="139"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="156">
         <v>32</v>
       </c>
@@ -7481,7 +7609,7 @@
       <c r="D55" s="138"/>
       <c r="G55" s="139"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="156">
         <v>33</v>
       </c>
@@ -7491,7 +7619,7 @@
       <c r="D56" s="138"/>
       <c r="G56" s="139"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="156">
         <v>34</v>
       </c>
@@ -7501,7 +7629,7 @@
       <c r="D57" s="138"/>
       <c r="G57" s="139"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="156">
         <v>35</v>
       </c>
@@ -7511,7 +7639,7 @@
       <c r="D58" s="138"/>
       <c r="G58" s="139"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="156">
         <v>36</v>
       </c>
@@ -7521,7 +7649,7 @@
       <c r="D59" s="138"/>
       <c r="G59" s="139"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="156">
         <v>37</v>
       </c>
@@ -7531,7 +7659,7 @@
       <c r="D60" s="138"/>
       <c r="G60" s="139"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="156">
         <v>38</v>
       </c>
@@ -7541,7 +7669,7 @@
       <c r="D61" s="138"/>
       <c r="G61" s="139"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="156">
         <v>39</v>
       </c>
@@ -7551,7 +7679,7 @@
       <c r="D62" s="138"/>
       <c r="G62" s="139"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="156">
         <v>40</v>
       </c>
@@ -7561,7 +7689,7 @@
       <c r="D63" s="138"/>
       <c r="G63" s="139"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="154">
         <v>41</v>
       </c>
@@ -7571,7 +7699,7 @@
       <c r="D64" s="138"/>
       <c r="G64" s="139"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="154">
         <v>42</v>
       </c>
@@ -7581,7 +7709,7 @@
       <c r="D65" s="138"/>
       <c r="G65" s="139"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="154">
         <v>43</v>
       </c>
@@ -7591,7 +7719,7 @@
       <c r="D66" s="138"/>
       <c r="G66" s="139"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="154">
         <v>44</v>
       </c>
@@ -7601,7 +7729,7 @@
       <c r="D67" s="138"/>
       <c r="G67" s="139"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="154">
         <v>45</v>
       </c>
@@ -7611,7 +7739,7 @@
       <c r="D68" s="138"/>
       <c r="G68" s="139"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="154">
         <v>46</v>
       </c>
@@ -7621,7 +7749,7 @@
       <c r="D69" s="138"/>
       <c r="G69" s="139"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="154">
         <v>47</v>
       </c>
@@ -7631,7 +7759,7 @@
       <c r="D70" s="138"/>
       <c r="G70" s="139"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="154">
         <v>48</v>
       </c>
@@ -7641,7 +7769,7 @@
       <c r="D71" s="138"/>
       <c r="G71" s="139"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="158">
         <v>49</v>
       </c>
@@ -7649,7 +7777,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="158">
         <v>50</v>
       </c>
@@ -7657,7 +7785,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="158">
         <v>51</v>
       </c>
@@ -7667,7 +7795,7 @@
       <c r="D74" s="138"/>
       <c r="G74" s="139"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="154">
         <v>52</v>
       </c>
@@ -7677,7 +7805,7 @@
       <c r="D75" s="138"/>
       <c r="G75" s="139"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="154">
         <v>53</v>
       </c>
@@ -7687,7 +7815,7 @@
       <c r="D76" s="138"/>
       <c r="G76" s="139"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="160">
         <v>54</v>
       </c>
@@ -7697,7 +7825,7 @@
       <c r="D77" s="138"/>
       <c r="G77" s="139"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="160">
         <v>55</v>
       </c>
@@ -7707,7 +7835,7 @@
       <c r="E78" s="141"/>
       <c r="F78" s="141"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="160">
         <v>56</v>
       </c>
@@ -7715,7 +7843,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="160">
         <v>57</v>
       </c>
@@ -7723,7 +7851,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="160">
         <v>58</v>
       </c>
@@ -7731,7 +7859,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="160">
         <v>59</v>
       </c>
@@ -7739,7 +7867,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="160">
         <v>60</v>
       </c>
@@ -7747,7 +7875,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="160">
         <v>61</v>
       </c>
@@ -7755,7 +7883,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="160">
         <v>62</v>
       </c>
@@ -7763,7 +7891,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="160">
         <v>63</v>
       </c>
@@ -7771,7 +7899,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="160">
         <v>64</v>
       </c>
@@ -7779,7 +7907,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="160">
         <v>65</v>
       </c>
@@ -7787,7 +7915,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="160">
         <v>66</v>
       </c>
@@ -7795,7 +7923,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="160">
         <v>67</v>
       </c>
@@ -7803,7 +7931,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="160">
         <v>68</v>
       </c>
@@ -7811,7 +7939,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="160">
         <v>69</v>
       </c>
@@ -7819,7 +7947,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="160">
         <v>70</v>
       </c>
@@ -7827,7 +7955,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="160">
         <v>71</v>
       </c>
@@ -7835,7 +7963,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="160">
         <v>72</v>
       </c>
@@ -7843,7 +7971,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="160">
         <v>73</v>
       </c>
@@ -7851,7 +7979,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="160">
         <v>74</v>
       </c>
@@ -7859,7 +7987,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="160">
         <v>75</v>
       </c>
@@ -7867,7 +7995,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="162">
         <v>76</v>
       </c>
@@ -7875,7 +8003,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="100" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="164">
         <v>77</v>
       </c>
@@ -7883,7 +8011,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="101" spans="2:3" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="101" spans="2:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7901,32 +8029,32 @@
       <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="5.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.88671875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="2.88671875" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.85546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="2.85546875" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -7947,7 +8075,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="185" t="s">
         <v>29</v>
@@ -7990,7 +8118,7 @@
       </c>
       <c r="U2" s="4"/>
     </row>
-    <row r="3" spans="1:26" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="186"/>
       <c r="C3" s="188"/>
@@ -8038,7 +8166,7 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="34">
         <v>1</v>
@@ -8103,7 +8231,7 @@
       <c r="U4" s="8"/>
       <c r="V4" s="9"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="42">
         <v>2</v>
@@ -8168,7 +8296,7 @@
       <c r="U5" s="8"/>
       <c r="V5" s="9"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="42">
         <v>3</v>
@@ -8233,7 +8361,7 @@
       <c r="U6" s="8"/>
       <c r="V6" s="9"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="42">
         <v>4</v>
@@ -8298,7 +8426,7 @@
       <c r="U7" s="8"/>
       <c r="V7" s="9"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="42">
         <v>5</v>
@@ -8363,7 +8491,7 @@
       <c r="U8" s="8"/>
       <c r="V8" s="9"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="42">
         <v>6</v>
@@ -8428,7 +8556,7 @@
       <c r="U9" s="8"/>
       <c r="V9" s="9"/>
     </row>
-    <row r="10" spans="1:26" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="44">
         <v>7</v>
@@ -8493,7 +8621,7 @@
       <c r="U10" s="8"/>
       <c r="V10" s="9"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="34">
         <v>8</v>
@@ -8558,7 +8686,7 @@
       <c r="U11" s="8"/>
       <c r="V11" s="9"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="24" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="42">
         <v>9</v>
@@ -8623,7 +8751,7 @@
       <c r="U12" s="8"/>
       <c r="V12" s="9"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="42">
         <v>10</v>
@@ -8688,7 +8816,7 @@
       <c r="U13" s="8"/>
       <c r="V13" s="9"/>
     </row>
-    <row r="14" spans="1:26" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="44">
         <v>11</v>
@@ -8753,7 +8881,7 @@
       <c r="U14" s="8"/>
       <c r="V14" s="9"/>
     </row>
-    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="57">
         <v>12</v>
@@ -8799,7 +8927,7 @@
       <c r="U15" s="8"/>
       <c r="V15" s="9"/>
     </row>
-    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="64">
         <v>13</v>
@@ -8845,7 +8973,7 @@
       <c r="U16" s="8"/>
       <c r="V16" s="9"/>
     </row>
-    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="64">
         <v>14</v>
@@ -8891,7 +9019,7 @@
       <c r="U17" s="8"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="64">
         <v>15</v>
@@ -8937,7 +9065,7 @@
       <c r="U18" s="8"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="64">
         <v>16</v>
@@ -8983,7 +9111,7 @@
       <c r="U19" s="8"/>
       <c r="V19" s="9"/>
     </row>
-    <row r="20" spans="1:22" ht="12.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="91">
         <v>17</v>
@@ -9029,7 +9157,7 @@
       <c r="U20" s="8"/>
       <c r="V20" s="9"/>
     </row>
-    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="107">
         <v>18</v>
@@ -9075,7 +9203,7 @@
       <c r="U21" s="8"/>
       <c r="V21" s="9"/>
     </row>
-    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="115">
         <v>19</v>
@@ -9121,7 +9249,7 @@
       <c r="U22" s="8"/>
       <c r="V22" s="9"/>
     </row>
-    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="115">
         <v>20</v>
@@ -9167,7 +9295,7 @@
       <c r="U23" s="8"/>
       <c r="V23" s="9"/>
     </row>
-    <row r="24" spans="1:22" ht="12.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="117">
         <v>21</v>
@@ -9213,7 +9341,7 @@
       <c r="U24" s="8"/>
       <c r="V24" s="9"/>
     </row>
-    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="99">
         <v>22</v>
@@ -9259,7 +9387,7 @@
       <c r="U25" s="8"/>
       <c r="V25" s="9"/>
     </row>
-    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="76">
         <v>23</v>
@@ -9305,7 +9433,7 @@
       <c r="U26" s="8"/>
       <c r="V26" s="9"/>
     </row>
-    <row r="27" spans="1:22" ht="12.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="78">
         <v>24</v>
@@ -9351,7 +9479,7 @@
       <c r="U27" s="8"/>
       <c r="V27" s="9"/>
     </row>
-    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="71">
         <v>25</v>
@@ -9397,7 +9525,7 @@
       <c r="U28" s="8"/>
       <c r="V28" s="9"/>
     </row>
-    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="76">
         <v>26</v>
@@ -9443,7 +9571,7 @@
       <c r="U29" s="8"/>
       <c r="V29" s="9"/>
     </row>
-    <row r="30" spans="1:22" ht="12.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="78">
         <v>27</v>
@@ -9489,7 +9617,7 @@
       <c r="U30" s="8"/>
       <c r="V30" s="9"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -9566,14 +9694,14 @@
       <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="458" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="458" width="3.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:458" ht="57" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:458" ht="51" x14ac:dyDescent="0.25">
       <c r="C1" s="133">
         <v>45052</v>
       </c>
@@ -10058,7 +10186,7 @@
       <c r="QO1" s="128"/>
       <c r="QP1" s="128"/>
     </row>
-    <row r="2" spans="1:458" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:458" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -10094,7 +10222,7 @@
       <c r="AC2" s="132"/>
       <c r="AD2" s="132"/>
     </row>
-    <row r="3" spans="1:458" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:458" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>66</v>
       </c>
@@ -10127,7 +10255,7 @@
       <c r="AC3" s="132"/>
       <c r="AD3" s="132"/>
     </row>
-    <row r="4" spans="1:458" ht="168" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:458" ht="168" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>61</v>
       </c>
@@ -10160,19 +10288,19 @@
       <c r="AC4" s="132"/>
       <c r="AD4" s="132"/>
       <c r="AM4" s="171" t="s">
+        <v>269</v>
+      </c>
+      <c r="AN4" s="171" t="s">
         <v>270</v>
       </c>
-      <c r="AN4" s="171" t="s">
-        <v>271</v>
-      </c>
       <c r="AO4" s="171" t="s">
+        <v>272</v>
+      </c>
+      <c r="AP4" s="171" t="s">
         <v>273</v>
       </c>
-      <c r="AP4" s="171" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="5" spans="1:458" ht="96" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:458" ht="108" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>60</v>
       </c>
@@ -10205,13 +10333,13 @@
       <c r="AC5" s="132"/>
       <c r="AD5" s="132"/>
       <c r="AM5" s="171" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AN5" s="173"/>
       <c r="AO5" s="173"/>
       <c r="AP5" s="173"/>
     </row>
-    <row r="6" spans="1:458" ht="108" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:458" ht="120" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>62</v>
       </c>
@@ -10244,13 +10372,13 @@
       <c r="AC6" s="132"/>
       <c r="AD6" s="132"/>
       <c r="AM6" s="171" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AN6" s="173"/>
       <c r="AO6" s="173"/>
       <c r="AP6" s="173"/>
     </row>
-    <row r="7" spans="1:458" ht="144" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:458" ht="144" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>63</v>
       </c>
@@ -10283,13 +10411,13 @@
       <c r="AC7" s="132"/>
       <c r="AD7" s="132"/>
       <c r="AM7" s="171" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AN7" s="173"/>
       <c r="AO7" s="173"/>
       <c r="AP7" s="173"/>
     </row>
-    <row r="8" spans="1:458" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:458" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>67</v>
       </c>
@@ -10322,7 +10450,7 @@
       <c r="AC8" s="132"/>
       <c r="AD8" s="132"/>
     </row>
-    <row r="9" spans="1:458" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:458" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>68</v>
       </c>
@@ -10355,7 +10483,7 @@
       <c r="AC9" s="132"/>
       <c r="AD9" s="132"/>
     </row>
-    <row r="10" spans="1:458" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:458" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>69</v>
       </c>
@@ -10388,7 +10516,7 @@
       <c r="AC10" s="132"/>
       <c r="AD10" s="132"/>
     </row>
-    <row r="11" spans="1:458" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:458" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>70</v>
       </c>
@@ -10421,7 +10549,7 @@
       <c r="AC11" s="132"/>
       <c r="AD11" s="132"/>
     </row>
-    <row r="12" spans="1:458" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:458" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>71</v>
       </c>
@@ -10454,7 +10582,7 @@
       <c r="AC12" s="132"/>
       <c r="AD12" s="132"/>
     </row>
-    <row r="13" spans="1:458" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:458" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>72</v>
       </c>
@@ -10487,7 +10615,7 @@
       <c r="AC13" s="132"/>
       <c r="AD13" s="132"/>
     </row>
-    <row r="14" spans="1:458" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:458" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>73</v>
       </c>
@@ -10520,7 +10648,7 @@
       <c r="AC14" s="132"/>
       <c r="AD14" s="132"/>
     </row>
-    <row r="15" spans="1:458" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:458" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>74</v>
       </c>
@@ -10553,7 +10681,7 @@
       <c r="AC15" s="132"/>
       <c r="AD15" s="132"/>
     </row>
-    <row r="16" spans="1:458" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:458" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>75</v>
       </c>
@@ -10586,7 +10714,7 @@
       <c r="AC16" s="132"/>
       <c r="AD16" s="132"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>76</v>
       </c>
@@ -10619,7 +10747,7 @@
       <c r="AC17" s="132"/>
       <c r="AD17" s="132"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -10655,7 +10783,7 @@
       <c r="AC18" s="132"/>
       <c r="AD18" s="132"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>78</v>
       </c>
@@ -10688,7 +10816,7 @@
       <c r="AC19" s="132"/>
       <c r="AD19" s="132"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>61</v>
       </c>
@@ -10721,7 +10849,7 @@
       <c r="AC20" s="132"/>
       <c r="AD20" s="132"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>60</v>
       </c>
@@ -10754,7 +10882,7 @@
       <c r="AC21" s="132"/>
       <c r="AD21" s="132"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>62</v>
       </c>
@@ -10787,7 +10915,7 @@
       <c r="AC22" s="132"/>
       <c r="AD22" s="132"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>63</v>
       </c>
@@ -10820,7 +10948,7 @@
       <c r="AC23" s="132"/>
       <c r="AD23" s="132"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>79</v>
       </c>
@@ -10853,7 +10981,7 @@
       <c r="AC24" s="132"/>
       <c r="AD24" s="132"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>80</v>
       </c>
@@ -10886,7 +11014,7 @@
       <c r="AC25" s="132"/>
       <c r="AD25" s="132"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>81</v>
       </c>
@@ -10919,7 +11047,7 @@
       <c r="AC26" s="132"/>
       <c r="AD26" s="132"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>82</v>
       </c>
@@ -10952,7 +11080,7 @@
       <c r="AC27" s="132"/>
       <c r="AD27" s="132"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>83</v>
       </c>
@@ -10985,7 +11113,7 @@
       <c r="AC28" s="132"/>
       <c r="AD28" s="132"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>84</v>
       </c>
@@ -11018,7 +11146,7 @@
       <c r="AC29" s="132"/>
       <c r="AD29" s="132"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>85</v>
       </c>
@@ -11051,7 +11179,7 @@
       <c r="AC30" s="132"/>
       <c r="AD30" s="132"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>86</v>
       </c>
@@ -11084,7 +11212,7 @@
       <c r="AC31" s="132"/>
       <c r="AD31" s="132"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>87</v>
       </c>
@@ -11117,7 +11245,7 @@
       <c r="AC32" s="132"/>
       <c r="AD32" s="132"/>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>88</v>
       </c>

--- a/Offline/BusinessManagement/MarketingMasterPlan-May-2023.xlsx
+++ b/Offline/BusinessManagement/MarketingMasterPlan-May-2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="779"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="779" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MarketingPlan" sheetId="14" r:id="rId1"/>
@@ -1107,15 +1107,6 @@
     <t>Conveniently located in Patuli</t>
   </si>
   <si>
-    <t>Largest Coaching Centre in Eastern India</t>
-  </si>
-  <si>
-    <t>Smart Classrooms, Air Conditioned</t>
-  </si>
-  <si>
-    <t>Best Teachers in Town with Latest Teaching Techinques</t>
-  </si>
-  <si>
     <t>Edtech App arriving soon</t>
   </si>
   <si>
@@ -1488,6 +1479,15 @@
   </si>
   <si>
     <t>English-Sun-Pack</t>
+  </si>
+  <si>
+    <t>Largest Coaching Centre in Eastern India, 400+ different courses</t>
+  </si>
+  <si>
+    <t>15 Classrooms, Smart Displays, Air Conditioned, CCTV</t>
+  </si>
+  <si>
+    <t>40+ Best Teachers in Town, handpicked, Latest Teaching Techinques</t>
   </si>
 </sst>
 </file>
@@ -2841,6 +2841,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2882,18 +2894,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3178,7 +3178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
@@ -3201,10 +3201,10 @@
         <v>264</v>
       </c>
       <c r="B1" s="176" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C1" s="175" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D1" s="175" t="s">
         <v>291</v>
@@ -3242,32 +3242,32 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="184" t="s">
         <v>265</v>
       </c>
       <c r="B2" s="175" t="s">
-        <v>443</v>
-      </c>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="194" t="s">
-        <v>459</v>
-      </c>
-      <c r="F2" s="194" t="s">
+        <v>440</v>
+      </c>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="180" t="s">
+        <v>456</v>
+      </c>
+      <c r="F2" s="180" t="s">
         <v>344</v>
       </c>
-      <c r="G2" s="194" t="s">
-        <v>458</v>
-      </c>
-      <c r="H2" s="196"/>
-      <c r="I2" s="194" t="s">
-        <v>458</v>
-      </c>
-      <c r="J2" s="196"/>
-      <c r="K2" s="196"/>
+      <c r="G2" s="180" t="s">
+        <v>455</v>
+      </c>
+      <c r="H2" s="182"/>
+      <c r="I2" s="180" t="s">
+        <v>455</v>
+      </c>
+      <c r="J2" s="182"/>
+      <c r="K2" s="182"/>
       <c r="L2" s="173"/>
       <c r="M2" s="177" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="N2" s="177" t="s">
         <v>344</v>
@@ -3277,186 +3277,186 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="182"/>
+      <c r="A3" s="186"/>
       <c r="B3" s="175" t="s">
-        <v>437</v>
-      </c>
-      <c r="C3" s="195"/>
-      <c r="D3" s="195"/>
-      <c r="E3" s="194" t="s">
-        <v>459</v>
-      </c>
-      <c r="F3" s="197"/>
-      <c r="G3" s="197"/>
-      <c r="H3" s="197"/>
-      <c r="I3" s="197"/>
-      <c r="J3" s="197"/>
-      <c r="K3" s="197"/>
+        <v>434</v>
+      </c>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="180" t="s">
+        <v>456</v>
+      </c>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="183"/>
       <c r="L3" s="173"/>
       <c r="M3" s="177" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="N3" s="177" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="O3" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="182"/>
+      <c r="A4" s="186"/>
       <c r="B4" s="175" t="s">
-        <v>444</v>
-      </c>
-      <c r="C4" s="195"/>
-      <c r="D4" s="195"/>
-      <c r="E4" s="197"/>
-      <c r="F4" s="197"/>
-      <c r="G4" s="194" t="s">
-        <v>458</v>
-      </c>
-      <c r="H4" s="197"/>
-      <c r="I4" s="194" t="s">
-        <v>458</v>
-      </c>
-      <c r="J4" s="197"/>
-      <c r="K4" s="197"/>
+        <v>441</v>
+      </c>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="180" t="s">
+        <v>455</v>
+      </c>
+      <c r="H4" s="183"/>
+      <c r="I4" s="180" t="s">
+        <v>455</v>
+      </c>
+      <c r="J4" s="183"/>
+      <c r="K4" s="183"/>
       <c r="L4" s="173"/>
       <c r="M4" s="177" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="N4" s="177" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="O4" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="181"/>
+      <c r="A5" s="185"/>
       <c r="B5" s="175" t="s">
         <v>283</v>
       </c>
-      <c r="C5" s="195"/>
-      <c r="D5" s="195"/>
-      <c r="E5" s="197"/>
-      <c r="F5" s="197"/>
-      <c r="G5" s="194" t="s">
-        <v>458</v>
-      </c>
-      <c r="H5" s="194" t="s">
-        <v>458</v>
-      </c>
-      <c r="I5" s="194" t="s">
-        <v>458</v>
-      </c>
-      <c r="J5" s="197"/>
-      <c r="K5" s="197"/>
+      <c r="C5" s="181"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="183"/>
+      <c r="F5" s="183"/>
+      <c r="G5" s="180" t="s">
+        <v>455</v>
+      </c>
+      <c r="H5" s="180" t="s">
+        <v>455</v>
+      </c>
+      <c r="I5" s="180" t="s">
+        <v>455</v>
+      </c>
+      <c r="J5" s="183"/>
+      <c r="K5" s="183"/>
       <c r="L5" s="173"/>
       <c r="M5" s="177" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="N5" s="177" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="O5" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="180" t="s">
+      <c r="A6" s="184" t="s">
         <v>260</v>
       </c>
       <c r="B6" s="175" t="s">
         <v>278</v>
       </c>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
-      <c r="G6" s="194"/>
-      <c r="H6" s="194"/>
-      <c r="I6" s="194"/>
-      <c r="J6" s="194"/>
-      <c r="K6" s="194"/>
+      <c r="C6" s="180"/>
+      <c r="D6" s="180"/>
+      <c r="E6" s="180"/>
+      <c r="F6" s="180"/>
+      <c r="G6" s="180"/>
+      <c r="H6" s="180"/>
+      <c r="I6" s="180"/>
+      <c r="J6" s="180"/>
+      <c r="K6" s="180"/>
       <c r="L6" s="173"/>
       <c r="M6" s="177" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="N6" s="177" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="O6" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="182"/>
+      <c r="A7" s="186"/>
       <c r="B7" s="175" t="s">
         <v>277</v>
       </c>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="194"/>
-      <c r="G7" s="194"/>
-      <c r="H7" s="194"/>
-      <c r="I7" s="194"/>
-      <c r="J7" s="194"/>
-      <c r="K7" s="194"/>
+      <c r="C7" s="180"/>
+      <c r="D7" s="180"/>
+      <c r="E7" s="180"/>
+      <c r="F7" s="180"/>
+      <c r="G7" s="180"/>
+      <c r="H7" s="180"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="180"/>
+      <c r="K7" s="180"/>
       <c r="L7" s="173"/>
       <c r="M7" s="177" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="N7" s="177" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="O7" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="182"/>
+      <c r="A8" s="186"/>
       <c r="B8" s="175" t="s">
         <v>289</v>
       </c>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="194"/>
-      <c r="G8" s="194"/>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
-      <c r="J8" s="194"/>
-      <c r="K8" s="194"/>
+      <c r="C8" s="180"/>
+      <c r="D8" s="180"/>
+      <c r="E8" s="180"/>
+      <c r="F8" s="180"/>
+      <c r="G8" s="180"/>
+      <c r="H8" s="180"/>
+      <c r="I8" s="180"/>
+      <c r="J8" s="180"/>
+      <c r="K8" s="180"/>
       <c r="L8" s="173"/>
       <c r="M8" s="177" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="N8" s="177" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="O8" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="181"/>
+      <c r="A9" s="185"/>
       <c r="B9" s="175" t="s">
         <v>282</v>
       </c>
-      <c r="C9" s="194"/>
-      <c r="D9" s="194"/>
-      <c r="E9" s="194"/>
-      <c r="F9" s="194"/>
-      <c r="G9" s="194"/>
-      <c r="H9" s="194"/>
-      <c r="I9" s="194"/>
-      <c r="J9" s="194"/>
-      <c r="K9" s="194"/>
+      <c r="C9" s="180"/>
+      <c r="D9" s="180"/>
+      <c r="E9" s="180"/>
+      <c r="F9" s="180"/>
+      <c r="G9" s="180"/>
+      <c r="H9" s="180"/>
+      <c r="I9" s="180"/>
+      <c r="J9" s="180"/>
+      <c r="K9" s="180"/>
       <c r="L9" s="173"/>
       <c r="M9" s="177" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N9" s="177" t="s">
         <v>342</v>
@@ -3472,24 +3472,24 @@
       <c r="B10" s="175" t="s">
         <v>281</v>
       </c>
-      <c r="C10" s="194"/>
-      <c r="D10" s="194"/>
-      <c r="E10" s="194"/>
-      <c r="F10" s="194"/>
-      <c r="G10" s="194"/>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
-      <c r="J10" s="194"/>
-      <c r="K10" s="194"/>
+      <c r="C10" s="180"/>
+      <c r="D10" s="180"/>
+      <c r="E10" s="180"/>
+      <c r="F10" s="180"/>
+      <c r="G10" s="180"/>
+      <c r="H10" s="180"/>
+      <c r="I10" s="180"/>
+      <c r="J10" s="180"/>
+      <c r="K10" s="180"/>
       <c r="L10" s="173"/>
       <c r="M10" s="177" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="N10" s="177" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="O10" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -3499,24 +3499,24 @@
       <c r="B11" s="175" t="s">
         <v>279</v>
       </c>
-      <c r="C11" s="194"/>
-      <c r="D11" s="194"/>
-      <c r="E11" s="194"/>
-      <c r="F11" s="194"/>
-      <c r="G11" s="194"/>
-      <c r="H11" s="194"/>
-      <c r="I11" s="194"/>
-      <c r="J11" s="194"/>
-      <c r="K11" s="194"/>
+      <c r="C11" s="180"/>
+      <c r="D11" s="180"/>
+      <c r="E11" s="180"/>
+      <c r="F11" s="180"/>
+      <c r="G11" s="180"/>
+      <c r="H11" s="180"/>
+      <c r="I11" s="180"/>
+      <c r="J11" s="180"/>
+      <c r="K11" s="180"/>
       <c r="L11" s="173"/>
       <c r="M11" s="177" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="N11" s="177" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="O11" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -3526,178 +3526,178 @@
       <c r="B12" s="175" t="s">
         <v>280</v>
       </c>
-      <c r="C12" s="194"/>
-      <c r="D12" s="194"/>
-      <c r="E12" s="194"/>
-      <c r="F12" s="194"/>
-      <c r="G12" s="194"/>
-      <c r="H12" s="194"/>
-      <c r="I12" s="194"/>
-      <c r="J12" s="194"/>
-      <c r="K12" s="194"/>
+      <c r="C12" s="180"/>
+      <c r="D12" s="180"/>
+      <c r="E12" s="180"/>
+      <c r="F12" s="180"/>
+      <c r="G12" s="180"/>
+      <c r="H12" s="180"/>
+      <c r="I12" s="180"/>
+      <c r="J12" s="180"/>
+      <c r="K12" s="180"/>
       <c r="L12" s="173"/>
       <c r="M12" s="177" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="N12" s="177" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="O12" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="180" t="s">
+      <c r="A13" s="184" t="s">
         <v>261</v>
       </c>
       <c r="B13" s="175" t="s">
-        <v>445</v>
-      </c>
-      <c r="C13" s="194"/>
-      <c r="D13" s="194"/>
-      <c r="E13" s="194"/>
-      <c r="F13" s="194"/>
-      <c r="G13" s="194"/>
-      <c r="H13" s="194"/>
-      <c r="I13" s="194"/>
-      <c r="J13" s="194"/>
-      <c r="K13" s="194"/>
+        <v>442</v>
+      </c>
+      <c r="C13" s="180"/>
+      <c r="D13" s="180"/>
+      <c r="E13" s="180"/>
+      <c r="F13" s="180"/>
+      <c r="G13" s="180"/>
+      <c r="H13" s="180"/>
+      <c r="I13" s="180"/>
+      <c r="J13" s="180"/>
+      <c r="K13" s="180"/>
       <c r="L13" s="173"/>
       <c r="M13" s="177" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="N13" s="177" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="O13" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="182"/>
+      <c r="A14" s="186"/>
       <c r="B14" s="175" t="s">
         <v>290</v>
       </c>
-      <c r="C14" s="194"/>
-      <c r="D14" s="194"/>
-      <c r="E14" s="194"/>
-      <c r="F14" s="194"/>
-      <c r="G14" s="194"/>
-      <c r="H14" s="194"/>
-      <c r="I14" s="194"/>
-      <c r="J14" s="194"/>
-      <c r="K14" s="194"/>
+      <c r="C14" s="180"/>
+      <c r="D14" s="180"/>
+      <c r="E14" s="180"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="180"/>
+      <c r="H14" s="180"/>
+      <c r="I14" s="180"/>
+      <c r="J14" s="180"/>
+      <c r="K14" s="180"/>
       <c r="L14" s="173"/>
       <c r="M14" s="177" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="N14" s="177" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="O14" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="182"/>
+      <c r="A15" s="186"/>
       <c r="B15" s="175" t="s">
         <v>287</v>
       </c>
-      <c r="C15" s="194"/>
-      <c r="D15" s="194"/>
-      <c r="E15" s="194"/>
-      <c r="F15" s="194"/>
-      <c r="G15" s="194"/>
-      <c r="H15" s="194"/>
-      <c r="I15" s="194"/>
-      <c r="J15" s="194"/>
-      <c r="K15" s="194"/>
+      <c r="C15" s="180"/>
+      <c r="D15" s="180"/>
+      <c r="E15" s="180"/>
+      <c r="F15" s="180"/>
+      <c r="G15" s="180"/>
+      <c r="H15" s="180"/>
+      <c r="I15" s="180"/>
+      <c r="J15" s="180"/>
+      <c r="K15" s="180"/>
       <c r="L15" s="173"/>
       <c r="M15" s="177" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N15" s="177" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="O15" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="181"/>
+      <c r="A16" s="185"/>
       <c r="B16" s="175" t="s">
         <v>284</v>
       </c>
-      <c r="C16" s="194"/>
-      <c r="D16" s="194"/>
-      <c r="E16" s="194"/>
-      <c r="F16" s="194"/>
-      <c r="G16" s="194"/>
-      <c r="H16" s="194"/>
-      <c r="I16" s="194"/>
-      <c r="J16" s="194"/>
-      <c r="K16" s="194"/>
+      <c r="C16" s="180"/>
+      <c r="D16" s="180"/>
+      <c r="E16" s="180"/>
+      <c r="F16" s="180"/>
+      <c r="G16" s="180"/>
+      <c r="H16" s="180"/>
+      <c r="I16" s="180"/>
+      <c r="J16" s="180"/>
+      <c r="K16" s="180"/>
       <c r="L16" s="173"/>
       <c r="M16" s="177" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="N16" s="177" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="O16" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="180" t="s">
+      <c r="A17" s="184" t="s">
         <v>262</v>
       </c>
       <c r="B17" s="175" t="s">
         <v>285</v>
       </c>
-      <c r="C17" s="194"/>
-      <c r="D17" s="194"/>
-      <c r="E17" s="194"/>
-      <c r="F17" s="194"/>
-      <c r="G17" s="194"/>
-      <c r="H17" s="194"/>
-      <c r="I17" s="194"/>
-      <c r="J17" s="194"/>
-      <c r="K17" s="194"/>
+      <c r="C17" s="180"/>
+      <c r="D17" s="180"/>
+      <c r="E17" s="180"/>
+      <c r="F17" s="180"/>
+      <c r="G17" s="180"/>
+      <c r="H17" s="180"/>
+      <c r="I17" s="180"/>
+      <c r="J17" s="180"/>
+      <c r="K17" s="180"/>
       <c r="L17" s="173"/>
       <c r="M17" s="177" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="N17" s="177" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="O17" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="181"/>
+      <c r="A18" s="185"/>
       <c r="B18" s="175" t="s">
         <v>286</v>
       </c>
-      <c r="C18" s="194"/>
-      <c r="D18" s="194"/>
-      <c r="E18" s="194"/>
-      <c r="F18" s="194"/>
-      <c r="G18" s="194"/>
-      <c r="H18" s="194"/>
-      <c r="I18" s="194"/>
-      <c r="J18" s="194"/>
-      <c r="K18" s="194"/>
+      <c r="C18" s="180"/>
+      <c r="D18" s="180"/>
+      <c r="E18" s="180"/>
+      <c r="F18" s="180"/>
+      <c r="G18" s="180"/>
+      <c r="H18" s="180"/>
+      <c r="I18" s="180"/>
+      <c r="J18" s="180"/>
+      <c r="K18" s="180"/>
       <c r="L18" s="173"/>
       <c r="M18" s="177" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="N18" s="177" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="O18" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -3707,409 +3707,409 @@
       <c r="B19" s="175" t="s">
         <v>288</v>
       </c>
-      <c r="C19" s="194"/>
-      <c r="D19" s="194"/>
-      <c r="E19" s="194"/>
-      <c r="F19" s="194"/>
-      <c r="G19" s="194"/>
-      <c r="H19" s="194"/>
-      <c r="I19" s="194"/>
-      <c r="J19" s="194"/>
-      <c r="K19" s="194"/>
+      <c r="C19" s="180"/>
+      <c r="D19" s="180"/>
+      <c r="E19" s="180"/>
+      <c r="F19" s="180"/>
+      <c r="G19" s="180"/>
+      <c r="H19" s="180"/>
+      <c r="I19" s="180"/>
+      <c r="J19" s="180"/>
+      <c r="K19" s="180"/>
       <c r="L19" s="173"/>
       <c r="M19" s="177" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="N19" s="177" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="O19" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M20" s="177" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="N20" s="177" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="O20" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M21" s="177" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="N21" s="177" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="O21" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M22" s="177" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="N22" s="177" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="O22" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M23" s="177" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="N23" s="177" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="O23" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M24" s="177" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="N24" s="177" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="O24" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M25" s="177" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="N25" s="177" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="O25" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M26" s="177" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="N26" s="177" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="O26" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M27" s="177" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="N27" s="177" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="O27" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M28" s="177" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="N28" s="177" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="O28" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M29" s="177" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="N29" s="177" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="O29" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M30" s="177" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="N30" s="177" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="O30" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M31" s="177" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="N31" s="177" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="O31" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M32" s="177" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="N32" s="177" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="O32" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="33" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M33" s="177" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="N33" s="177" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="O33" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="34" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M34" s="177" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="N34" s="177" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="O34" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="35" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M35" s="177" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="N35" s="177" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="O35" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="36" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M36" s="177" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="N36" s="177" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="O36" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="37" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M37" s="177" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="N37" s="177" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O37" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="38" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M38" s="177" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N38" s="177" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="O38" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="39" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M39" s="177" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="N39" s="177" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="O39" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="40" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M40" s="177" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="N40" s="177" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="O40" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="41" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M41" s="177" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="N41" s="177" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="O41" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="42" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M42" s="177" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="N42" s="177" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="O42" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="43" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M43" s="177" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="N43" s="177" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="O43" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="44" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M44" s="177" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="N44" s="177" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="O44" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="45" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M45" s="177" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="N45" s="177" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="O45" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="46" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M46" s="177" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="N46" s="177" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="O46" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="47" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M47" s="177" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="N47" s="177" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="O47" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="48" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M48" s="177" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="N48" s="177" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="O48" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="49" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M49" s="177" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="N49" s="177" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="O49" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="50" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M50" s="177" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="N50" s="177" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="O50" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="51" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M51" s="177" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="N51" s="177" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="O51" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="52" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M52" s="177" t="s">
+        <v>451</v>
+      </c>
+      <c r="N52" s="177" t="s">
         <v>454</v>
       </c>
-      <c r="N52" s="177" t="s">
-        <v>457</v>
-      </c>
       <c r="O52" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="53" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M53" s="177" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="N53" s="177" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="O53" s="177" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="54" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M54" s="177" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="N54" s="177" t="s">
+        <v>424</v>
+      </c>
+      <c r="O54" s="177" t="s">
         <v>427</v>
-      </c>
-      <c r="O54" s="177" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="55" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6668,7 +6668,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6690,12 +6692,12 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -6725,12 +6727,12 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>351</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>353</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -6740,22 +6742,22 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>352</v>
+        <v>475</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.3">
@@ -6770,22 +6772,22 @@
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C23" s="178" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="3:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="C24" s="178" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C25" s="178" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C26" s="178" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -6813,7 +6815,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="179" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B1" s="174" t="s">
         <v>337</v>
@@ -8108,57 +8110,57 @@
     </row>
     <row r="2" spans="1:26" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="189" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="187" t="s">
+      <c r="C2" s="191" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="187" t="s">
+      <c r="D2" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="187" t="s">
+      <c r="E2" s="191" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="187" t="s">
+      <c r="F2" s="191" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="187" t="s">
+      <c r="G2" s="191" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="189" t="s">
+      <c r="H2" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="187" t="s">
+      <c r="I2" s="191" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="191" t="s">
+      <c r="J2" s="195" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="192"/>
-      <c r="L2" s="192"/>
-      <c r="M2" s="192"/>
-      <c r="N2" s="192"/>
-      <c r="O2" s="192"/>
-      <c r="P2" s="192"/>
-      <c r="Q2" s="192"/>
-      <c r="R2" s="192"/>
-      <c r="S2" s="193"/>
-      <c r="T2" s="183" t="s">
+      <c r="K2" s="196"/>
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="196"/>
+      <c r="O2" s="196"/>
+      <c r="P2" s="196"/>
+      <c r="Q2" s="196"/>
+      <c r="R2" s="196"/>
+      <c r="S2" s="197"/>
+      <c r="T2" s="187" t="s">
         <v>24</v>
       </c>
       <c r="U2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
-      <c r="B3" s="186"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="188"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="188"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="194"/>
+      <c r="I3" s="192"/>
       <c r="J3" s="32" t="s">
         <v>22</v>
       </c>
@@ -8189,7 +8191,7 @@
       <c r="S3" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="T3" s="184"/>
+      <c r="T3" s="188"/>
       <c r="U3" s="5"/>
       <c r="V3" s="6"/>
       <c r="W3" s="7"/>

--- a/Offline/BusinessManagement/MarketingMasterPlan-May-2023.xlsx
+++ b/Offline/BusinessManagement/MarketingMasterPlan-May-2023.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr showObjects="none"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Offline\BusinessManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE24E707-BFF5-4F6E-B662-BE5358FA39A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="779" activeTab="2"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="779" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MarketingPlan" sheetId="14" r:id="rId1"/>
@@ -21,26 +22,17 @@
     <sheet name="Home" sheetId="1" r:id="rId7"/>
     <sheet name="Artworks" sheetId="12" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="479">
   <si>
     <t>Medium</t>
   </si>
@@ -1489,11 +1481,17 @@
   <si>
     <t>40+ Best Teachers in Town, handpicked, Latest Teaching Techinques</t>
   </si>
+  <si>
+    <t>1. H</t>
+  </si>
+  <si>
+    <t>Student-Contact-Form</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3175,28 +3173,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6640625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.6640625" defaultRowHeight="11.65" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="172" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" style="172" customWidth="1"/>
+    <col min="1" max="1" width="11.46484375" style="172" customWidth="1"/>
+    <col min="2" max="2" width="20.1328125" style="172" customWidth="1"/>
     <col min="3" max="11" width="13.33203125" style="172" customWidth="1"/>
-    <col min="12" max="12" width="1.44140625" style="172" customWidth="1"/>
-    <col min="13" max="13" width="9.5546875" style="172" customWidth="1"/>
-    <col min="14" max="14" width="27.5546875" style="172" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.109375" style="172" customWidth="1"/>
+    <col min="12" max="12" width="1.46484375" style="172" customWidth="1"/>
+    <col min="13" max="13" width="9.53125" style="172" customWidth="1"/>
+    <col min="14" max="14" width="27.53125" style="172" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.1328125" style="172" customWidth="1"/>
     <col min="16" max="46" width="13.6640625" style="172" customWidth="1"/>
     <col min="47" max="16384" width="14.6640625" style="172"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="34.9" x14ac:dyDescent="0.35">
       <c r="A1" s="175" t="s">
         <v>264</v>
       </c>
@@ -3241,7 +3239,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="184" t="s">
         <v>265</v>
       </c>
@@ -3276,7 +3274,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="186"/>
       <c r="B3" s="175" t="s">
         <v>434</v>
@@ -3303,7 +3301,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="186"/>
       <c r="B4" s="175" t="s">
         <v>441</v>
@@ -3332,7 +3330,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="185"/>
       <c r="B5" s="175" t="s">
         <v>283</v>
@@ -3363,7 +3361,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="184" t="s">
         <v>260</v>
       </c>
@@ -3373,12 +3371,12 @@
       <c r="C6" s="180"/>
       <c r="D6" s="180"/>
       <c r="E6" s="180"/>
-      <c r="F6" s="180"/>
+      <c r="F6" s="183"/>
       <c r="G6" s="180"/>
       <c r="H6" s="180"/>
       <c r="I6" s="180"/>
       <c r="J6" s="180"/>
-      <c r="K6" s="180"/>
+      <c r="K6" s="183"/>
       <c r="L6" s="173"/>
       <c r="M6" s="177" t="s">
         <v>390</v>
@@ -3390,7 +3388,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="186"/>
       <c r="B7" s="175" t="s">
         <v>277</v>
@@ -3402,8 +3400,8 @@
       <c r="G7" s="180"/>
       <c r="H7" s="180"/>
       <c r="I7" s="180"/>
-      <c r="J7" s="180"/>
-      <c r="K7" s="180"/>
+      <c r="J7" s="183"/>
+      <c r="K7" s="183"/>
       <c r="L7" s="173"/>
       <c r="M7" s="177" t="s">
         <v>391</v>
@@ -3415,7 +3413,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="186"/>
       <c r="B8" s="175" t="s">
         <v>289</v>
@@ -3428,7 +3426,7 @@
       <c r="H8" s="180"/>
       <c r="I8" s="180"/>
       <c r="J8" s="180"/>
-      <c r="K8" s="180"/>
+      <c r="K8" s="183"/>
       <c r="L8" s="173"/>
       <c r="M8" s="177" t="s">
         <v>417</v>
@@ -3440,7 +3438,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="185"/>
       <c r="B9" s="175" t="s">
         <v>282</v>
@@ -3452,20 +3450,20 @@
       <c r="G9" s="180"/>
       <c r="H9" s="180"/>
       <c r="I9" s="180"/>
-      <c r="J9" s="180"/>
-      <c r="K9" s="180"/>
+      <c r="J9" s="183"/>
+      <c r="K9" s="183"/>
       <c r="L9" s="173"/>
       <c r="M9" s="177" t="s">
-        <v>392</v>
+        <v>477</v>
       </c>
       <c r="N9" s="177" t="s">
-        <v>342</v>
+        <v>478</v>
       </c>
       <c r="O9" s="177" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="175" t="s">
         <v>266</v>
       </c>
@@ -3480,19 +3478,19 @@
       <c r="H10" s="180"/>
       <c r="I10" s="180"/>
       <c r="J10" s="180"/>
-      <c r="K10" s="180"/>
+      <c r="K10" s="183"/>
       <c r="L10" s="173"/>
       <c r="M10" s="177" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N10" s="177" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="O10" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="175" t="s">
         <v>297</v>
       </c>
@@ -3507,19 +3505,19 @@
       <c r="H11" s="180"/>
       <c r="I11" s="180"/>
       <c r="J11" s="180"/>
-      <c r="K11" s="180"/>
+      <c r="K11" s="183"/>
       <c r="L11" s="173"/>
       <c r="M11" s="177" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="N11" s="177" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="O11" s="177" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="175" t="s">
         <v>298</v>
       </c>
@@ -3537,16 +3535,16 @@
       <c r="K12" s="180"/>
       <c r="L12" s="173"/>
       <c r="M12" s="177" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N12" s="177" t="s">
-        <v>438</v>
+        <v>371</v>
       </c>
       <c r="O12" s="177" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="184" t="s">
         <v>261</v>
       </c>
@@ -3561,19 +3559,19 @@
       <c r="H13" s="180"/>
       <c r="I13" s="180"/>
       <c r="J13" s="180"/>
-      <c r="K13" s="180"/>
+      <c r="K13" s="183"/>
       <c r="L13" s="173"/>
       <c r="M13" s="177" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N13" s="177" t="s">
-        <v>372</v>
+        <v>438</v>
       </c>
       <c r="O13" s="177" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="186"/>
       <c r="B14" s="175" t="s">
         <v>290</v>
@@ -3586,19 +3584,19 @@
       <c r="H14" s="180"/>
       <c r="I14" s="180"/>
       <c r="J14" s="180"/>
-      <c r="K14" s="180"/>
+      <c r="K14" s="183"/>
       <c r="L14" s="173"/>
       <c r="M14" s="177" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="N14" s="177" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O14" s="177" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="186"/>
       <c r="B15" s="175" t="s">
         <v>287</v>
@@ -3611,19 +3609,19 @@
       <c r="H15" s="180"/>
       <c r="I15" s="180"/>
       <c r="J15" s="180"/>
-      <c r="K15" s="180"/>
+      <c r="K15" s="183"/>
       <c r="L15" s="173"/>
       <c r="M15" s="177" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="N15" s="177" t="s">
-        <v>457</v>
+        <v>373</v>
       </c>
       <c r="O15" s="177" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="185"/>
       <c r="B16" s="175" t="s">
         <v>284</v>
@@ -3635,20 +3633,20 @@
       <c r="G16" s="180"/>
       <c r="H16" s="180"/>
       <c r="I16" s="180"/>
-      <c r="J16" s="180"/>
-      <c r="K16" s="180"/>
+      <c r="J16" s="183"/>
+      <c r="K16" s="183"/>
       <c r="L16" s="173"/>
       <c r="M16" s="177" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N16" s="177" t="s">
-        <v>423</v>
+        <v>457</v>
       </c>
       <c r="O16" s="177" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="184" t="s">
         <v>262</v>
       </c>
@@ -3663,19 +3661,19 @@
       <c r="H17" s="180"/>
       <c r="I17" s="180"/>
       <c r="J17" s="180"/>
-      <c r="K17" s="180"/>
+      <c r="K17" s="183"/>
       <c r="L17" s="173"/>
       <c r="M17" s="177" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="N17" s="177" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="O17" s="177" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="185"/>
       <c r="B18" s="175" t="s">
         <v>286</v>
@@ -3687,20 +3685,20 @@
       <c r="G18" s="180"/>
       <c r="H18" s="180"/>
       <c r="I18" s="180"/>
-      <c r="J18" s="180"/>
-      <c r="K18" s="180"/>
+      <c r="J18" s="183"/>
+      <c r="K18" s="183"/>
       <c r="L18" s="173"/>
       <c r="M18" s="177" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="N18" s="177" t="s">
-        <v>362</v>
+        <v>432</v>
       </c>
       <c r="O18" s="177" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="175" t="s">
         <v>263</v>
       </c>
@@ -3715,432 +3713,442 @@
       <c r="H19" s="180"/>
       <c r="I19" s="180"/>
       <c r="J19" s="180"/>
-      <c r="K19" s="180"/>
+      <c r="K19" s="183"/>
       <c r="L19" s="173"/>
       <c r="M19" s="177" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N19" s="177" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="O19" s="177" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="M20" s="177" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N20" s="177" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="O20" s="177" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="M21" s="177" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="N21" s="177" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O21" s="177" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="M22" s="177" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N22" s="177" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O22" s="177" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="M23" s="177" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="N23" s="177" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O23" s="177" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="M24" s="177" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="N24" s="177" t="s">
-        <v>458</v>
+        <v>377</v>
       </c>
       <c r="O24" s="177" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="M25" s="177" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="N25" s="177" t="s">
-        <v>360</v>
+        <v>458</v>
       </c>
       <c r="O25" s="177" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="M26" s="177" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N26" s="177" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="O26" s="177" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="M27" s="177" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N27" s="177" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="O27" s="177" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="M28" s="177" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N28" s="177" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O28" s="177" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="M29" s="177" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N29" s="177" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O29" s="177" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="M30" s="177" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N30" s="177" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O30" s="177" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="M31" s="177" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="N31" s="177" t="s">
-        <v>459</v>
+        <v>381</v>
       </c>
       <c r="O31" s="177" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="M32" s="177" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="N32" s="177" t="s">
-        <v>361</v>
+        <v>459</v>
       </c>
       <c r="O32" s="177" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="33" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="M33" s="177" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N33" s="177" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="O33" s="177" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="34" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="M34" s="177" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="N34" s="177" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="O34" s="177" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="35" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="M35" s="177" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="N35" s="177" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O35" s="177" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="36" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="M36" s="177" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N36" s="177" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O36" s="177" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="37" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="M37" s="177" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="N37" s="177" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O37" s="177" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="38" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="M38" s="177" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="N38" s="177" t="s">
-        <v>460</v>
+        <v>385</v>
       </c>
       <c r="O38" s="177" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="39" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="M39" s="177" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N39" s="177" t="s">
-        <v>433</v>
+        <v>460</v>
       </c>
       <c r="O39" s="177" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="40" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="M40" s="177" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="N40" s="177" t="s">
-        <v>466</v>
+        <v>433</v>
       </c>
       <c r="O40" s="177" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="41" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="M41" s="177" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N41" s="177" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O41" s="177" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="42" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="M42" s="177" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="N42" s="177" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="O42" s="177" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="43" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="M43" s="177" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="N43" s="177" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O43" s="177" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="44" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="M44" s="177" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="N44" s="177" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="O44" s="177" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="45" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="M45" s="177" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="N45" s="177" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="O45" s="177" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="46" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="M46" s="177" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N46" s="177" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O46" s="177" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="47" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="M47" s="177" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="N47" s="177" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="O47" s="177" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="48" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="M48" s="177" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="N48" s="177" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="O48" s="177" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="49" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="M49" s="177" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="N49" s="177" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="O49" s="177" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="50" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="M50" s="177" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="N50" s="177" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O50" s="177" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="51" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="M51" s="177" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N51" s="177" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O51" s="177" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="52" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="M52" s="177" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="N52" s="177" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="O52" s="177" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="53" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="M53" s="177" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N53" s="177" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="O53" s="177" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="54" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="M54" s="177" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N54" s="177" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="O54" s="177" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="55" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M55" s="177" t="s">
+        <v>453</v>
+      </c>
+      <c r="N55" s="177" t="s">
+        <v>424</v>
+      </c>
+      <c r="O55" s="177" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="56" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A17:A18"/>
@@ -4149,7 +4157,7 @@
     <mergeCell ref="A13:A16"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="N2" location="Generic!A1" display="Generic-Flyer"/>
+    <hyperlink ref="N2" location="Generic!A1" display="Generic-Flyer" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4157,41 +4165,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W85"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="W2" sqref="W2:W12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.86328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.1328125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.46484375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A1" s="168" t="s">
         <v>184</v>
       </c>
@@ -4262,7 +4270,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A2" s="169">
         <v>1</v>
       </c>
@@ -4332,7 +4340,7 @@
         <v>0.6048</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A3" s="169">
         <v>2</v>
       </c>
@@ -4402,7 +4410,7 @@
         <v>0.58879999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A4" s="169">
         <v>3</v>
       </c>
@@ -4472,7 +4480,7 @@
         <v>0.51200000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A5" s="169">
         <v>4</v>
       </c>
@@ -4542,7 +4550,7 @@
         <v>0.312</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A6" s="169"/>
       <c r="B6" s="169" t="s">
         <v>215</v>
@@ -4592,7 +4600,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A7" s="169"/>
       <c r="B7" s="169" t="s">
         <v>216</v>
@@ -4642,7 +4650,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A8" s="169"/>
       <c r="B8" s="169" t="s">
         <v>217</v>
@@ -4692,7 +4700,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A9" s="169"/>
       <c r="B9" s="169"/>
       <c r="C9" s="169"/>
@@ -4740,7 +4748,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A10" s="169"/>
       <c r="B10" s="169"/>
       <c r="C10" s="169"/>
@@ -4788,7 +4796,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A11" s="169"/>
       <c r="B11" s="169"/>
       <c r="C11" s="169"/>
@@ -4836,7 +4844,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A12" s="169"/>
       <c r="B12" s="169"/>
       <c r="C12" s="169"/>
@@ -4884,7 +4892,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A13" s="169"/>
       <c r="B13" s="169"/>
       <c r="C13" s="169"/>
@@ -4932,7 +4940,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A14" s="169"/>
       <c r="B14" s="169"/>
       <c r="C14" s="169"/>
@@ -4980,7 +4988,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A15" s="169"/>
       <c r="B15" s="169"/>
       <c r="C15" s="169"/>
@@ -5028,7 +5036,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A16" s="169"/>
       <c r="B16" s="169"/>
       <c r="C16" s="169"/>
@@ -5076,7 +5084,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A17" s="169"/>
       <c r="B17" s="169"/>
       <c r="C17" s="169"/>
@@ -5124,7 +5132,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A18" s="169"/>
       <c r="B18" s="169"/>
       <c r="C18" s="169"/>
@@ -5172,7 +5180,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A19" s="169"/>
       <c r="B19" s="169"/>
       <c r="C19" s="169"/>
@@ -5220,7 +5228,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A20" s="169"/>
       <c r="B20" s="169"/>
       <c r="C20" s="169"/>
@@ -5268,7 +5276,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A21" s="169"/>
       <c r="B21" s="169"/>
       <c r="C21" s="169"/>
@@ -5316,7 +5324,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A22" s="169"/>
       <c r="B22" s="169"/>
       <c r="C22" s="169"/>
@@ -5364,7 +5372,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A23" s="169"/>
       <c r="B23" s="169"/>
       <c r="C23" s="169"/>
@@ -5412,7 +5420,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A24" s="169"/>
       <c r="B24" s="169"/>
       <c r="C24" s="169"/>
@@ -5460,7 +5468,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A25" s="169"/>
       <c r="B25" s="169"/>
       <c r="C25" s="169"/>
@@ -5508,7 +5516,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A26" s="169"/>
       <c r="B26" s="169"/>
       <c r="C26" s="169"/>
@@ -5556,7 +5564,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A27" s="169"/>
       <c r="B27" s="169"/>
       <c r="C27" s="169"/>
@@ -5604,7 +5612,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A28" s="169"/>
       <c r="B28" s="169"/>
       <c r="C28" s="169"/>
@@ -5652,7 +5660,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A29" s="169"/>
       <c r="B29" s="169"/>
       <c r="C29" s="169"/>
@@ -5700,7 +5708,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A30" s="169"/>
       <c r="B30" s="169"/>
       <c r="C30" s="169"/>
@@ -5748,7 +5756,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A31" s="169"/>
       <c r="B31" s="169"/>
       <c r="C31" s="169"/>
@@ -5796,7 +5804,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A32" s="169"/>
       <c r="B32" s="169"/>
       <c r="C32" s="169"/>
@@ -5844,7 +5852,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A33" s="169"/>
       <c r="B33" s="169"/>
       <c r="C33" s="169"/>
@@ -5892,7 +5900,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A34" s="169"/>
       <c r="B34" s="169"/>
       <c r="C34" s="169"/>
@@ -5940,7 +5948,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A35" s="169"/>
       <c r="B35" s="169"/>
       <c r="C35" s="169"/>
@@ -5988,7 +5996,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A36" s="169"/>
       <c r="B36" s="169"/>
       <c r="C36" s="169"/>
@@ -6036,7 +6044,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A37" s="169"/>
       <c r="B37" s="169"/>
       <c r="C37" s="169"/>
@@ -6084,7 +6092,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A38" s="169"/>
       <c r="B38" s="169"/>
       <c r="C38" s="169"/>
@@ -6132,7 +6140,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A39" s="169"/>
       <c r="B39" s="169"/>
       <c r="C39" s="169"/>
@@ -6180,7 +6188,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A40" s="169"/>
       <c r="B40" s="169"/>
       <c r="C40" s="169"/>
@@ -6228,7 +6236,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A41" s="169"/>
       <c r="B41" s="169"/>
       <c r="C41" s="169"/>
@@ -6276,7 +6284,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A42" s="169"/>
       <c r="B42" s="169"/>
       <c r="C42" s="169"/>
@@ -6324,7 +6332,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A43" s="169"/>
       <c r="B43" s="169"/>
       <c r="C43" s="169"/>
@@ -6372,7 +6380,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>1</v>
       </c>
@@ -6392,7 +6400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F56" t="s">
         <v>222</v>
       </c>
@@ -6403,7 +6411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F57" t="s">
         <v>224</v>
       </c>
@@ -6414,7 +6422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F58" t="s">
         <v>225</v>
       </c>
@@ -6425,7 +6433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F59" t="s">
         <v>227</v>
       </c>
@@ -6436,7 +6444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F60" t="s">
         <v>228</v>
       </c>
@@ -6447,7 +6455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F61" t="s">
         <v>229</v>
       </c>
@@ -6458,7 +6466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F62" t="s">
         <v>230</v>
       </c>
@@ -6469,7 +6477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F63" t="s">
         <v>232</v>
       </c>
@@ -6480,7 +6488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F64" t="s">
         <v>233</v>
       </c>
@@ -6491,7 +6499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F65" t="s">
         <v>234</v>
       </c>
@@ -6502,7 +6510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F66" t="s">
         <v>236</v>
       </c>
@@ -6513,7 +6521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F67" t="s">
         <v>238</v>
       </c>
@@ -6524,7 +6532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F68" t="s">
         <v>239</v>
       </c>
@@ -6535,7 +6543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F69" t="s">
         <v>240</v>
       </c>
@@ -6546,7 +6554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F70" t="s">
         <v>242</v>
       </c>
@@ -6557,7 +6565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>2</v>
       </c>
@@ -6577,7 +6585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F79" t="s">
         <v>247</v>
       </c>
@@ -6588,7 +6596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F80" t="s">
         <v>249</v>
       </c>
@@ -6599,7 +6607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F81" t="s">
         <v>251</v>
       </c>
@@ -6610,7 +6618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F82" t="s">
         <v>253</v>
       </c>
@@ -6621,7 +6629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F83" t="s">
         <v>254</v>
       </c>
@@ -6632,7 +6640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F84" t="s">
         <v>256</v>
       </c>
@@ -6643,7 +6651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F85" t="s">
         <v>258</v>
       </c>
@@ -6656,7 +6664,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2:V43">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2:V43" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1, 2, 3, 4, 5"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6665,21 +6673,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="79.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="174" t="s">
         <v>337</v>
       </c>
@@ -6690,102 +6698,102 @@
         <v>339</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C14" s="174" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C23" s="178" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="24" spans="3:3" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:3" ht="41.65" x14ac:dyDescent="0.45">
       <c r="C24" s="178" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C25" s="178" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C26" s="178" t="s">
         <v>358</v>
       </c>
@@ -6797,23 +6805,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.86328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="52.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" customWidth="1"/>
+    <col min="4" max="4" width="52.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="179" t="s">
         <v>436</v>
       </c>
@@ -6827,140 +6835,140 @@
         <v>339</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D5" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D6" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D8" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D14" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D15" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D21" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D22" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D23" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D24" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D25" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D27" t="s">
         <v>329</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="MarketingPlan!A1" display="&lt;-- MarketingPlan"/>
+    <hyperlink ref="A1" location="MarketingPlan!A1" display="&lt;-- MarketingPlan" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="4" width="52.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="52.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="174" t="s">
         <v>337</v>
       </c>
@@ -6971,87 +6979,87 @@
         <v>339</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C22" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C24" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
         <v>334</v>
       </c>
@@ -7062,31 +7070,31 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3" style="137" customWidth="1"/>
-    <col min="2" max="2" width="3.88671875" style="137" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.86328125" style="137" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="95.33203125" style="137" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.88671875" style="137" customWidth="1"/>
-    <col min="5" max="5" width="3.88671875" style="137" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.86328125" style="137" customWidth="1"/>
+    <col min="5" max="5" width="3.86328125" style="137" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.6640625" style="137" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="137"/>
+    <col min="7" max="16384" width="8.86328125" style="137"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="140"/>
       <c r="C1" s="140"/>
       <c r="E1" s="140"/>
       <c r="F1" s="140"/>
     </row>
-    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="138"/>
       <c r="B2" s="143" t="s">
         <v>29</v>
@@ -7097,7 +7105,7 @@
       <c r="D2" s="142"/>
       <c r="G2" s="139"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="138"/>
       <c r="B3" s="145">
         <v>1</v>
@@ -7108,7 +7116,7 @@
       <c r="D3" s="142"/>
       <c r="G3" s="139"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="138"/>
       <c r="B4" s="145">
         <v>2</v>
@@ -7119,7 +7127,7 @@
       <c r="D4" s="142"/>
       <c r="G4" s="139"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="138"/>
       <c r="B5" s="145">
         <v>3</v>
@@ -7130,7 +7138,7 @@
       <c r="D5" s="142"/>
       <c r="G5" s="139"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="138"/>
       <c r="B6" s="145">
         <v>4</v>
@@ -7141,7 +7149,7 @@
       <c r="D6" s="142"/>
       <c r="G6" s="139"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="138"/>
       <c r="B7" s="145">
         <v>5</v>
@@ -7152,7 +7160,7 @@
       <c r="D7" s="142"/>
       <c r="G7" s="139"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="138"/>
       <c r="B8" s="145">
         <v>6</v>
@@ -7163,7 +7171,7 @@
       <c r="D8" s="142"/>
       <c r="G8" s="139"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="138"/>
       <c r="B9" s="147">
         <v>7</v>
@@ -7174,7 +7182,7 @@
       <c r="D9" s="142"/>
       <c r="G9" s="139"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="138"/>
       <c r="B10" s="147">
         <v>8</v>
@@ -7185,7 +7193,7 @@
       <c r="D10" s="142"/>
       <c r="G10" s="139"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="138"/>
       <c r="B11" s="147">
         <v>9</v>
@@ -7196,7 +7204,7 @@
       <c r="D11" s="142"/>
       <c r="G11" s="139"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="138"/>
       <c r="B12" s="147">
         <v>10</v>
@@ -7207,7 +7215,7 @@
       <c r="D12" s="142"/>
       <c r="G12" s="139"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="138"/>
       <c r="B13" s="147">
         <v>11</v>
@@ -7218,7 +7226,7 @@
       <c r="D13" s="142"/>
       <c r="G13" s="139"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="138"/>
       <c r="B14" s="147">
         <v>12</v>
@@ -7229,7 +7237,7 @@
       <c r="D14" s="142"/>
       <c r="G14" s="139"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="138"/>
       <c r="B15" s="149">
         <v>13</v>
@@ -7240,7 +7248,7 @@
       <c r="D15" s="142"/>
       <c r="G15" s="139"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="138"/>
       <c r="B16" s="149">
         <v>14</v>
@@ -7251,7 +7259,7 @@
       <c r="D16" s="142"/>
       <c r="G16" s="139"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="138"/>
       <c r="B17" s="149">
         <v>15</v>
@@ -7262,7 +7270,7 @@
       <c r="D17" s="142"/>
       <c r="G17" s="139"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="138"/>
       <c r="B18" s="149">
         <v>16</v>
@@ -7273,7 +7281,7 @@
       <c r="D18" s="142"/>
       <c r="G18" s="139"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="138"/>
       <c r="B19" s="149">
         <v>17</v>
@@ -7284,7 +7292,7 @@
       <c r="D19" s="142"/>
       <c r="G19" s="139"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="138"/>
       <c r="B20" s="149">
         <v>18</v>
@@ -7295,7 +7303,7 @@
       <c r="D20" s="142"/>
       <c r="G20" s="139"/>
     </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="138"/>
       <c r="B21" s="151">
         <v>19</v>
@@ -7306,13 +7314,13 @@
       <c r="D21" s="142"/>
       <c r="G21" s="139"/>
     </row>
-    <row r="22" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B22" s="141"/>
       <c r="C22" s="141"/>
       <c r="D22" s="138"/>
       <c r="G22" s="139"/>
     </row>
-    <row r="23" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B23" s="143" t="s">
         <v>29</v>
       </c>
@@ -7322,7 +7330,7 @@
       <c r="D23" s="138"/>
       <c r="G23" s="139"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B24" s="153">
         <v>1</v>
       </c>
@@ -7332,7 +7340,7 @@
       <c r="D24" s="138"/>
       <c r="G24" s="139"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B25" s="153">
         <v>2</v>
       </c>
@@ -7342,7 +7350,7 @@
       <c r="D25" s="138"/>
       <c r="G25" s="139"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B26" s="153">
         <v>3</v>
       </c>
@@ -7352,7 +7360,7 @@
       <c r="D26" s="138"/>
       <c r="G26" s="139"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B27" s="153">
         <v>4</v>
       </c>
@@ -7362,7 +7370,7 @@
       <c r="D27" s="138"/>
       <c r="G27" s="139"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B28" s="153">
         <v>5</v>
       </c>
@@ -7372,7 +7380,7 @@
       <c r="D28" s="138"/>
       <c r="G28" s="139"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B29" s="153">
         <v>6</v>
       </c>
@@ -7382,7 +7390,7 @@
       <c r="D29" s="138"/>
       <c r="G29" s="139"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B30" s="153">
         <v>7</v>
       </c>
@@ -7392,7 +7400,7 @@
       <c r="D30" s="138"/>
       <c r="G30" s="139"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B31" s="153">
         <v>8</v>
       </c>
@@ -7402,7 +7410,7 @@
       <c r="D31" s="138"/>
       <c r="G31" s="139"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B32" s="154">
         <v>9</v>
       </c>
@@ -7412,7 +7420,7 @@
       <c r="D32" s="138"/>
       <c r="G32" s="139"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B33" s="154">
         <v>10</v>
       </c>
@@ -7422,7 +7430,7 @@
       <c r="D33" s="138"/>
       <c r="G33" s="139"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B34" s="154">
         <v>11</v>
       </c>
@@ -7432,7 +7440,7 @@
       <c r="D34" s="138"/>
       <c r="G34" s="139"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B35" s="154">
         <v>12</v>
       </c>
@@ -7442,7 +7450,7 @@
       <c r="D35" s="138"/>
       <c r="G35" s="139"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B36" s="154">
         <v>13</v>
       </c>
@@ -7452,7 +7460,7 @@
       <c r="D36" s="138"/>
       <c r="G36" s="139"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B37" s="154">
         <v>14</v>
       </c>
@@ -7462,7 +7470,7 @@
       <c r="D37" s="138"/>
       <c r="G37" s="139"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B38" s="154">
         <v>15</v>
       </c>
@@ -7472,7 +7480,7 @@
       <c r="D38" s="138"/>
       <c r="G38" s="139"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B39" s="154">
         <v>16</v>
       </c>
@@ -7482,7 +7490,7 @@
       <c r="D39" s="138"/>
       <c r="G39" s="139"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B40" s="154">
         <v>17</v>
       </c>
@@ -7492,7 +7500,7 @@
       <c r="D40" s="138"/>
       <c r="G40" s="139"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B41" s="154">
         <v>18</v>
       </c>
@@ -7502,7 +7510,7 @@
       <c r="D41" s="138"/>
       <c r="G41" s="139"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B42" s="154">
         <v>19</v>
       </c>
@@ -7512,7 +7520,7 @@
       <c r="D42" s="138"/>
       <c r="G42" s="139"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B43" s="154">
         <v>20</v>
       </c>
@@ -7522,7 +7530,7 @@
       <c r="D43" s="138"/>
       <c r="G43" s="139"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B44" s="154">
         <v>21</v>
       </c>
@@ -7532,7 +7540,7 @@
       <c r="D44" s="138"/>
       <c r="G44" s="139"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B45" s="154">
         <v>22</v>
       </c>
@@ -7542,7 +7550,7 @@
       <c r="D45" s="138"/>
       <c r="G45" s="139"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B46" s="154">
         <v>23</v>
       </c>
@@ -7552,7 +7560,7 @@
       <c r="D46" s="138"/>
       <c r="G46" s="139"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B47" s="154">
         <v>24</v>
       </c>
@@ -7562,7 +7570,7 @@
       <c r="D47" s="138"/>
       <c r="G47" s="139"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B48" s="154">
         <v>25</v>
       </c>
@@ -7572,7 +7580,7 @@
       <c r="D48" s="138"/>
       <c r="G48" s="139"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B49" s="156">
         <v>26</v>
       </c>
@@ -7582,7 +7590,7 @@
       <c r="D49" s="138"/>
       <c r="G49" s="139"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B50" s="156">
         <v>27</v>
       </c>
@@ -7592,7 +7600,7 @@
       <c r="D50" s="138"/>
       <c r="G50" s="139"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B51" s="156">
         <v>28</v>
       </c>
@@ -7602,7 +7610,7 @@
       <c r="D51" s="138"/>
       <c r="G51" s="139"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B52" s="156">
         <v>29</v>
       </c>
@@ -7612,7 +7620,7 @@
       <c r="D52" s="138"/>
       <c r="G52" s="139"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B53" s="156">
         <v>30</v>
       </c>
@@ -7622,7 +7630,7 @@
       <c r="D53" s="138"/>
       <c r="G53" s="139"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B54" s="156">
         <v>31</v>
       </c>
@@ -7632,7 +7640,7 @@
       <c r="D54" s="138"/>
       <c r="G54" s="139"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B55" s="156">
         <v>32</v>
       </c>
@@ -7642,7 +7650,7 @@
       <c r="D55" s="138"/>
       <c r="G55" s="139"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B56" s="156">
         <v>33</v>
       </c>
@@ -7652,7 +7660,7 @@
       <c r="D56" s="138"/>
       <c r="G56" s="139"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B57" s="156">
         <v>34</v>
       </c>
@@ -7662,7 +7670,7 @@
       <c r="D57" s="138"/>
       <c r="G57" s="139"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B58" s="156">
         <v>35</v>
       </c>
@@ -7672,7 +7680,7 @@
       <c r="D58" s="138"/>
       <c r="G58" s="139"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B59" s="156">
         <v>36</v>
       </c>
@@ -7682,7 +7690,7 @@
       <c r="D59" s="138"/>
       <c r="G59" s="139"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B60" s="156">
         <v>37</v>
       </c>
@@ -7692,7 +7700,7 @@
       <c r="D60" s="138"/>
       <c r="G60" s="139"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B61" s="156">
         <v>38</v>
       </c>
@@ -7702,7 +7710,7 @@
       <c r="D61" s="138"/>
       <c r="G61" s="139"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B62" s="156">
         <v>39</v>
       </c>
@@ -7712,7 +7720,7 @@
       <c r="D62" s="138"/>
       <c r="G62" s="139"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B63" s="156">
         <v>40</v>
       </c>
@@ -7722,7 +7730,7 @@
       <c r="D63" s="138"/>
       <c r="G63" s="139"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B64" s="154">
         <v>41</v>
       </c>
@@ -7732,7 +7740,7 @@
       <c r="D64" s="138"/>
       <c r="G64" s="139"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B65" s="154">
         <v>42</v>
       </c>
@@ -7742,7 +7750,7 @@
       <c r="D65" s="138"/>
       <c r="G65" s="139"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B66" s="154">
         <v>43</v>
       </c>
@@ -7752,7 +7760,7 @@
       <c r="D66" s="138"/>
       <c r="G66" s="139"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B67" s="154">
         <v>44</v>
       </c>
@@ -7762,7 +7770,7 @@
       <c r="D67" s="138"/>
       <c r="G67" s="139"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B68" s="154">
         <v>45</v>
       </c>
@@ -7772,7 +7780,7 @@
       <c r="D68" s="138"/>
       <c r="G68" s="139"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B69" s="154">
         <v>46</v>
       </c>
@@ -7782,7 +7790,7 @@
       <c r="D69" s="138"/>
       <c r="G69" s="139"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B70" s="154">
         <v>47</v>
       </c>
@@ -7792,7 +7800,7 @@
       <c r="D70" s="138"/>
       <c r="G70" s="139"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B71" s="154">
         <v>48</v>
       </c>
@@ -7802,7 +7810,7 @@
       <c r="D71" s="138"/>
       <c r="G71" s="139"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B72" s="158">
         <v>49</v>
       </c>
@@ -7810,7 +7818,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B73" s="158">
         <v>50</v>
       </c>
@@ -7818,7 +7826,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B74" s="158">
         <v>51</v>
       </c>
@@ -7828,7 +7836,7 @@
       <c r="D74" s="138"/>
       <c r="G74" s="139"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B75" s="154">
         <v>52</v>
       </c>
@@ -7838,7 +7846,7 @@
       <c r="D75" s="138"/>
       <c r="G75" s="139"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B76" s="154">
         <v>53</v>
       </c>
@@ -7848,7 +7856,7 @@
       <c r="D76" s="138"/>
       <c r="G76" s="139"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B77" s="160">
         <v>54</v>
       </c>
@@ -7858,7 +7866,7 @@
       <c r="D77" s="138"/>
       <c r="G77" s="139"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B78" s="160">
         <v>55</v>
       </c>
@@ -7868,7 +7876,7 @@
       <c r="E78" s="141"/>
       <c r="F78" s="141"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B79" s="160">
         <v>56</v>
       </c>
@@ -7876,7 +7884,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B80" s="160">
         <v>57</v>
       </c>
@@ -7884,7 +7892,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B81" s="160">
         <v>58</v>
       </c>
@@ -7892,7 +7900,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B82" s="160">
         <v>59</v>
       </c>
@@ -7900,7 +7908,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B83" s="160">
         <v>60</v>
       </c>
@@ -7908,7 +7916,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B84" s="160">
         <v>61</v>
       </c>
@@ -7916,7 +7924,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B85" s="160">
         <v>62</v>
       </c>
@@ -7924,7 +7932,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B86" s="160">
         <v>63</v>
       </c>
@@ -7932,7 +7940,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B87" s="160">
         <v>64</v>
       </c>
@@ -7940,7 +7948,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B88" s="160">
         <v>65</v>
       </c>
@@ -7948,7 +7956,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B89" s="160">
         <v>66</v>
       </c>
@@ -7956,7 +7964,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B90" s="160">
         <v>67</v>
       </c>
@@ -7964,7 +7972,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B91" s="160">
         <v>68</v>
       </c>
@@ -7972,7 +7980,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B92" s="160">
         <v>69</v>
       </c>
@@ -7980,7 +7988,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B93" s="160">
         <v>70</v>
       </c>
@@ -7988,7 +7996,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B94" s="160">
         <v>71</v>
       </c>
@@ -7996,7 +8004,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B95" s="160">
         <v>72</v>
       </c>
@@ -8004,7 +8012,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B96" s="160">
         <v>73</v>
       </c>
@@ -8012,7 +8020,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B97" s="160">
         <v>74</v>
       </c>
@@ -8020,7 +8028,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B98" s="160">
         <v>75</v>
       </c>
@@ -8028,7 +8036,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B99" s="162">
         <v>76</v>
       </c>
@@ -8036,7 +8044,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="100" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B100" s="164">
         <v>77</v>
       </c>
@@ -8044,7 +8052,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="101" spans="2:3" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="101" spans="2:3" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8052,7 +8060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Z31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -8062,32 +8070,32 @@
       <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="11.65" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.53125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.86328125" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.53125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="5.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.53125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.1328125" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.1328125" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="5.1328125" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.88671875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="2.88671875" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.88671875" style="1"/>
+    <col min="20" max="20" width="36.86328125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="2.86328125" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="12" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -8108,7 +8116,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="16.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3"/>
       <c r="B2" s="189" t="s">
         <v>29</v>
@@ -8151,7 +8159,7 @@
       </c>
       <c r="U2" s="4"/>
     </row>
-    <row r="3" spans="1:26" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3"/>
       <c r="B3" s="190"/>
       <c r="C3" s="192"/>
@@ -8199,7 +8207,7 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" s="3"/>
       <c r="B4" s="34">
         <v>1</v>
@@ -8264,7 +8272,7 @@
       <c r="U4" s="8"/>
       <c r="V4" s="9"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="42">
         <v>2</v>
@@ -8329,7 +8337,7 @@
       <c r="U5" s="8"/>
       <c r="V5" s="9"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="42">
         <v>3</v>
@@ -8394,7 +8402,7 @@
       <c r="U6" s="8"/>
       <c r="V6" s="9"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="42">
         <v>4</v>
@@ -8459,7 +8467,7 @@
       <c r="U7" s="8"/>
       <c r="V7" s="9"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="42">
         <v>5</v>
@@ -8524,7 +8532,7 @@
       <c r="U8" s="8"/>
       <c r="V8" s="9"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
       <c r="B9" s="42">
         <v>6</v>
@@ -8589,7 +8597,7 @@
       <c r="U9" s="8"/>
       <c r="V9" s="9"/>
     </row>
-    <row r="10" spans="1:26" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="12" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3"/>
       <c r="B10" s="44">
         <v>7</v>
@@ -8654,7 +8662,7 @@
       <c r="U10" s="8"/>
       <c r="V10" s="9"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="34">
         <v>8</v>
@@ -8719,7 +8727,7 @@
       <c r="U11" s="8"/>
       <c r="V11" s="9"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="42">
         <v>9</v>
@@ -8784,7 +8792,7 @@
       <c r="U12" s="8"/>
       <c r="V12" s="9"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="42">
         <v>10</v>
@@ -8849,7 +8857,7 @@
       <c r="U13" s="8"/>
       <c r="V13" s="9"/>
     </row>
-    <row r="14" spans="1:26" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="12" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="3"/>
       <c r="B14" s="44">
         <v>11</v>
@@ -8914,7 +8922,7 @@
       <c r="U14" s="8"/>
       <c r="V14" s="9"/>
     </row>
-    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="57">
         <v>12</v>
@@ -8960,7 +8968,7 @@
       <c r="U15" s="8"/>
       <c r="V15" s="9"/>
     </row>
-    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="64">
         <v>13</v>
@@ -9006,7 +9014,7 @@
       <c r="U16" s="8"/>
       <c r="V16" s="9"/>
     </row>
-    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="64">
         <v>14</v>
@@ -9052,7 +9060,7 @@
       <c r="U17" s="8"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="64">
         <v>15</v>
@@ -9098,7 +9106,7 @@
       <c r="U18" s="8"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="64">
         <v>16</v>
@@ -9144,7 +9152,7 @@
       <c r="U19" s="8"/>
       <c r="V19" s="9"/>
     </row>
-    <row r="20" spans="1:22" ht="12.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="3"/>
       <c r="B20" s="91">
         <v>17</v>
@@ -9190,7 +9198,7 @@
       <c r="U20" s="8"/>
       <c r="V20" s="9"/>
     </row>
-    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="107">
         <v>18</v>
@@ -9236,7 +9244,7 @@
       <c r="U21" s="8"/>
       <c r="V21" s="9"/>
     </row>
-    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="115">
         <v>19</v>
@@ -9282,7 +9290,7 @@
       <c r="U22" s="8"/>
       <c r="V22" s="9"/>
     </row>
-    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="115">
         <v>20</v>
@@ -9328,7 +9336,7 @@
       <c r="U23" s="8"/>
       <c r="V23" s="9"/>
     </row>
-    <row r="24" spans="1:22" ht="12.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="3"/>
       <c r="B24" s="117">
         <v>21</v>
@@ -9374,7 +9382,7 @@
       <c r="U24" s="8"/>
       <c r="V24" s="9"/>
     </row>
-    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="99">
         <v>22</v>
@@ -9420,7 +9428,7 @@
       <c r="U25" s="8"/>
       <c r="V25" s="9"/>
     </row>
-    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="B26" s="76">
         <v>23</v>
@@ -9466,7 +9474,7 @@
       <c r="U26" s="8"/>
       <c r="V26" s="9"/>
     </row>
-    <row r="27" spans="1:22" ht="12.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="3"/>
       <c r="B27" s="78">
         <v>24</v>
@@ -9512,7 +9520,7 @@
       <c r="U27" s="8"/>
       <c r="V27" s="9"/>
     </row>
-    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" s="71">
         <v>25</v>
@@ -9558,7 +9566,7 @@
       <c r="U28" s="8"/>
       <c r="V28" s="9"/>
     </row>
-    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" s="76">
         <v>26</v>
@@ -9604,7 +9612,7 @@
       <c r="U29" s="8"/>
       <c r="V29" s="9"/>
     </row>
-    <row r="30" spans="1:22" ht="12.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="3"/>
       <c r="B30" s="78">
         <v>27</v>
@@ -9650,7 +9658,7 @@
       <c r="U30" s="8"/>
       <c r="V30" s="9"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -9686,28 +9694,28 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="8">
-    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H5 T22:T23 T6:T16 I21 I24 G6:H27">
+    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H5 T22:T23 T6:T16 I21 I24 G6:H27" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>45051</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H27 E4:F30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H27 E4:F30" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>"Yes, No, Partial, N/A"</formula1>
     </dataValidation>
-    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Date Field" error="Date Field" sqref="G15:G26 T8 T10:T27">
+    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Date Field" error="Date Field" sqref="G15:G26 T8 T10:T27" xr:uid="{00000000-0002-0000-0600-000002000000}">
       <formula1>45051</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C27" xr:uid="{00000000-0002-0000-0600-000003000000}">
       <formula1>"Digital, Traditional"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M4:M30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M4:M30" xr:uid="{00000000-0002-0000-0600-000004000000}">
       <formula1>"New, Planned, WIP, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" errorTitle="Invalid Input" error="Please select 1-5 from dropdown" sqref="O4:Q30">
+    <dataValidation type="list" showErrorMessage="1" errorTitle="Invalid Input" error="Please select 1-5 from dropdown" sqref="O4:Q30" xr:uid="{00000000-0002-0000-0600-000005000000}">
       <formula1>"1, 2, 3, 4, 5"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Value" error="Please enter a positive whole number!" sqref="N4:R30">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Value" error="Please enter a positive whole number!" sqref="N4:R30" xr:uid="{00000000-0002-0000-0600-000006000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I30" xr:uid="{00000000-0002-0000-0600-000007000000}">
       <formula1>"Daily Twice, Daily, Weekly Twice, Weekly, Fortnightly, Monthly, One off, N/A, TBD"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9717,7 +9725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:QP33"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -9727,14 +9735,14 @@
       <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="458" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="458" width="3.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:458" ht="57" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:458" ht="51.75" x14ac:dyDescent="0.45">
       <c r="C1" s="133">
         <v>45052</v>
       </c>
@@ -10219,7 +10227,7 @@
       <c r="QO1" s="128"/>
       <c r="QP1" s="128"/>
     </row>
-    <row r="2" spans="1:458" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:458" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -10255,7 +10263,7 @@
       <c r="AC2" s="132"/>
       <c r="AD2" s="132"/>
     </row>
-    <row r="3" spans="1:458" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:458" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>66</v>
       </c>
@@ -10288,7 +10296,7 @@
       <c r="AC3" s="132"/>
       <c r="AD3" s="132"/>
     </row>
-    <row r="4" spans="1:458" ht="168" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:458" ht="151.15" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>61</v>
       </c>
@@ -10333,7 +10341,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:458" ht="96" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:458" ht="93" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>60</v>
       </c>
@@ -10372,7 +10380,7 @@
       <c r="AO5" s="173"/>
       <c r="AP5" s="173"/>
     </row>
-    <row r="6" spans="1:458" ht="108" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:458" ht="93" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>62</v>
       </c>
@@ -10411,7 +10419,7 @@
       <c r="AO6" s="173"/>
       <c r="AP6" s="173"/>
     </row>
-    <row r="7" spans="1:458" ht="144" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:458" ht="116.25" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>63</v>
       </c>
@@ -10450,7 +10458,7 @@
       <c r="AO7" s="173"/>
       <c r="AP7" s="173"/>
     </row>
-    <row r="8" spans="1:458" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:458" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>67</v>
       </c>
@@ -10483,7 +10491,7 @@
       <c r="AC8" s="132"/>
       <c r="AD8" s="132"/>
     </row>
-    <row r="9" spans="1:458" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:458" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>68</v>
       </c>
@@ -10516,7 +10524,7 @@
       <c r="AC9" s="132"/>
       <c r="AD9" s="132"/>
     </row>
-    <row r="10" spans="1:458" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:458" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>69</v>
       </c>
@@ -10549,7 +10557,7 @@
       <c r="AC10" s="132"/>
       <c r="AD10" s="132"/>
     </row>
-    <row r="11" spans="1:458" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:458" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>70</v>
       </c>
@@ -10582,7 +10590,7 @@
       <c r="AC11" s="132"/>
       <c r="AD11" s="132"/>
     </row>
-    <row r="12" spans="1:458" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:458" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>71</v>
       </c>
@@ -10615,7 +10623,7 @@
       <c r="AC12" s="132"/>
       <c r="AD12" s="132"/>
     </row>
-    <row r="13" spans="1:458" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:458" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>72</v>
       </c>
@@ -10648,7 +10656,7 @@
       <c r="AC13" s="132"/>
       <c r="AD13" s="132"/>
     </row>
-    <row r="14" spans="1:458" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:458" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>73</v>
       </c>
@@ -10681,7 +10689,7 @@
       <c r="AC14" s="132"/>
       <c r="AD14" s="132"/>
     </row>
-    <row r="15" spans="1:458" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:458" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>74</v>
       </c>
@@ -10714,7 +10722,7 @@
       <c r="AC15" s="132"/>
       <c r="AD15" s="132"/>
     </row>
-    <row r="16" spans="1:458" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:458" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>75</v>
       </c>
@@ -10747,7 +10755,7 @@
       <c r="AC16" s="132"/>
       <c r="AD16" s="132"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>76</v>
       </c>
@@ -10780,7 +10788,7 @@
       <c r="AC17" s="132"/>
       <c r="AD17" s="132"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -10816,7 +10824,7 @@
       <c r="AC18" s="132"/>
       <c r="AD18" s="132"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>78</v>
       </c>
@@ -10849,7 +10857,7 @@
       <c r="AC19" s="132"/>
       <c r="AD19" s="132"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>61</v>
       </c>
@@ -10882,7 +10890,7 @@
       <c r="AC20" s="132"/>
       <c r="AD20" s="132"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>60</v>
       </c>
@@ -10915,7 +10923,7 @@
       <c r="AC21" s="132"/>
       <c r="AD21" s="132"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>62</v>
       </c>
@@ -10948,7 +10956,7 @@
       <c r="AC22" s="132"/>
       <c r="AD22" s="132"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>63</v>
       </c>
@@ -10981,7 +10989,7 @@
       <c r="AC23" s="132"/>
       <c r="AD23" s="132"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>79</v>
       </c>
@@ -11014,7 +11022,7 @@
       <c r="AC24" s="132"/>
       <c r="AD24" s="132"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>80</v>
       </c>
@@ -11047,7 +11055,7 @@
       <c r="AC25" s="132"/>
       <c r="AD25" s="132"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>81</v>
       </c>
@@ -11080,7 +11088,7 @@
       <c r="AC26" s="132"/>
       <c r="AD26" s="132"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>82</v>
       </c>
@@ -11113,7 +11121,7 @@
       <c r="AC27" s="132"/>
       <c r="AD27" s="132"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>83</v>
       </c>
@@ -11146,7 +11154,7 @@
       <c r="AC28" s="132"/>
       <c r="AD28" s="132"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>84</v>
       </c>
@@ -11179,7 +11187,7 @@
       <c r="AC29" s="132"/>
       <c r="AD29" s="132"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>85</v>
       </c>
@@ -11212,7 +11220,7 @@
       <c r="AC30" s="132"/>
       <c r="AD30" s="132"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>86</v>
       </c>
@@ -11245,7 +11253,7 @@
       <c r="AC31" s="132"/>
       <c r="AD31" s="132"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>87</v>
       </c>
@@ -11278,7 +11286,7 @@
       <c r="AC32" s="132"/>
       <c r="AD32" s="132"/>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>88</v>
       </c>

--- a/Offline/BusinessManagement/MarketingMasterPlan-May-2023.xlsx
+++ b/Offline/BusinessManagement/MarketingMasterPlan-May-2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Offline\BusinessManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE24E707-BFF5-4F6E-B662-BE5358FA39A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32275CF-4DB9-4B88-9571-CA4C8D5EEC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="779" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="779" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MarketingPlan" sheetId="14" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="477">
   <si>
     <t>Medium</t>
   </si>
@@ -844,9 +844,6 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>AI School Tuition</t>
-  </si>
-  <si>
     <t>All Subjects &amp; Faculties</t>
   </si>
   <si>
@@ -874,30 +871,18 @@
     <t>Anodiam Website</t>
   </si>
   <si>
-    <t>Respond to Justdial Leads</t>
-  </si>
-  <si>
     <t>Engg Project Work Students</t>
   </si>
   <si>
     <t>Engg College General Students</t>
   </si>
   <si>
-    <t>High &amp; Junior School Students</t>
-  </si>
-  <si>
     <t>High School Authoritioes</t>
   </si>
   <si>
-    <t>High School AI Students</t>
-  </si>
-  <si>
     <t>ExP from IT Parks and Open Markrt</t>
   </si>
   <si>
-    <t>Justdial Users, Callers and Leads</t>
-  </si>
-  <si>
     <t>Commerce N/ExP from Open Markrt</t>
   </si>
   <si>
@@ -935,12 +920,6 @@
   </si>
   <si>
     <t>Artefact Name</t>
-  </si>
-  <si>
-    <t>AI Extra Curricular</t>
-  </si>
-  <si>
-    <t>AI School Proposals</t>
   </si>
   <si>
     <t>Join the AI Party</t>
@@ -1122,9 +1101,6 @@
     <t>anirban@anodiam.com</t>
   </si>
   <si>
-    <t xml:space="preserve"> 9163685448 / 9073 700094</t>
-  </si>
-  <si>
     <t>International Style Education Management</t>
   </si>
   <si>
@@ -1296,10 +1272,6 @@
     <t>5. F</t>
   </si>
   <si>
-    <t xml:space="preserve">        Anodiam Action
-User Subtype</t>
-  </si>
-  <si>
     <t>1. G</t>
   </si>
   <si>
@@ -1351,21 +1323,12 @@
     <t>IT-AI-Sample-Projects</t>
   </si>
   <si>
-    <t>Viewer of Flex / Sunpack / Wall Poster</t>
-  </si>
-  <si>
     <t>Generic-Internal-Signages</t>
   </si>
   <si>
     <t>&lt;-- Back to MarketingPlan</t>
   </si>
   <si>
-    <t>Generic-Wall-Poster</t>
-  </si>
-  <si>
-    <t>AI-Junior-Wall-Poster</t>
-  </si>
-  <si>
     <t>Road Show</t>
   </si>
   <si>
@@ -1414,14 +1377,6 @@
     <t>Generic-Standee X 2</t>
   </si>
   <si>
-    <t>Generic-FB-Post
-Generic-Insta-Reel</t>
-  </si>
-  <si>
-    <t>Generic-Flex
-Generic-Sun-Pack</t>
-  </si>
-  <si>
     <t>AI-Junior-Teacher-Catalog</t>
   </si>
   <si>
@@ -1486,6 +1441,43 @@
   </si>
   <si>
     <t>Student-Contact-Form</t>
+  </si>
+  <si>
+    <t>QR Code of FB page for Discount</t>
+  </si>
+  <si>
+    <t>School Students Extra Curricular</t>
+  </si>
+  <si>
+    <t>High School AI Syllabus Students</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>Justdial Leads</t>
+  </si>
+  <si>
+    <t>Viewer of Flex/Sunpack/Poster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Anodiam Action
+ User Subtype</t>
+  </si>
+  <si>
+    <t>Generic-Poster</t>
+  </si>
+  <si>
+    <t>AI-Junior-Poster</t>
+  </si>
+  <si>
+    <t>Justdial</t>
+  </si>
+  <si>
+    <t>Pamphlet Handout</t>
+  </si>
+  <si>
+    <t>9073 700094</t>
   </si>
 </sst>
 </file>
@@ -3174,962 +3166,959 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O83"/>
+  <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6640625" defaultRowHeight="11.65" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="14.6640625" defaultRowHeight="12.4" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.46484375" style="172" customWidth="1"/>
-    <col min="2" max="2" width="20.1328125" style="172" customWidth="1"/>
-    <col min="3" max="11" width="13.33203125" style="172" customWidth="1"/>
-    <col min="12" max="12" width="1.46484375" style="172" customWidth="1"/>
-    <col min="13" max="13" width="9.53125" style="172" customWidth="1"/>
-    <col min="14" max="14" width="27.53125" style="172" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.1328125" style="172" customWidth="1"/>
-    <col min="16" max="46" width="13.6640625" style="172" customWidth="1"/>
-    <col min="47" max="16384" width="14.6640625" style="172"/>
+    <col min="1" max="1" width="9.19921875" style="172" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="172" customWidth="1"/>
+    <col min="3" max="12" width="11.3984375" style="172" customWidth="1"/>
+    <col min="13" max="13" width="1.46484375" style="172" customWidth="1"/>
+    <col min="14" max="14" width="7.1328125" style="172" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.06640625" style="172" customWidth="1"/>
+    <col min="16" max="16" width="6.796875" style="172" bestFit="1" customWidth="1"/>
+    <col min="17" max="47" width="13.6640625" style="172" customWidth="1"/>
+    <col min="48" max="16384" width="14.6640625" style="172"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="34.9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="37.15" x14ac:dyDescent="0.4">
       <c r="A1" s="175" t="s">
         <v>264</v>
       </c>
       <c r="B1" s="176" t="s">
-        <v>416</v>
+        <v>471</v>
       </c>
       <c r="C1" s="175" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="D1" s="175" t="s">
+        <v>286</v>
+      </c>
+      <c r="E1" s="175" t="s">
+        <v>287</v>
+      </c>
+      <c r="F1" s="175" t="s">
+        <v>475</v>
+      </c>
+      <c r="G1" s="175" t="s">
+        <v>273</v>
+      </c>
+      <c r="H1" s="175" t="s">
+        <v>288</v>
+      </c>
+      <c r="I1" s="175" t="s">
+        <v>474</v>
+      </c>
+      <c r="J1" s="175" t="s">
+        <v>274</v>
+      </c>
+      <c r="K1" s="175" t="s">
+        <v>289</v>
+      </c>
+      <c r="L1" s="175" t="s">
+        <v>290</v>
+      </c>
+      <c r="M1" s="173"/>
+      <c r="N1" s="175" t="s">
+        <v>334</v>
+      </c>
+      <c r="O1" s="175" t="s">
         <v>291</v>
       </c>
-      <c r="E1" s="175" t="s">
-        <v>292</v>
-      </c>
-      <c r="F1" s="175" t="s">
-        <v>274</v>
-      </c>
-      <c r="G1" s="175" t="s">
-        <v>293</v>
-      </c>
-      <c r="H1" s="175" t="s">
-        <v>276</v>
-      </c>
-      <c r="I1" s="175" t="s">
-        <v>275</v>
-      </c>
-      <c r="J1" s="175" t="s">
-        <v>294</v>
-      </c>
-      <c r="K1" s="175" t="s">
-        <v>295</v>
-      </c>
-      <c r="L1" s="173"/>
-      <c r="M1" s="175" t="s">
-        <v>341</v>
-      </c>
-      <c r="N1" s="175" t="s">
-        <v>296</v>
-      </c>
-      <c r="O1" s="175" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P1" s="175" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="184" t="s">
         <v>265</v>
       </c>
       <c r="B2" s="175" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="C2" s="181"/>
       <c r="D2" s="181"/>
-      <c r="E2" s="180" t="s">
-        <v>456</v>
-      </c>
-      <c r="F2" s="180" t="s">
-        <v>344</v>
-      </c>
-      <c r="G2" s="180" t="s">
-        <v>455</v>
-      </c>
-      <c r="H2" s="182"/>
-      <c r="I2" s="180" t="s">
-        <v>455</v>
-      </c>
-      <c r="J2" s="182"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="180"/>
       <c r="K2" s="182"/>
-      <c r="L2" s="173"/>
-      <c r="M2" s="177" t="s">
-        <v>386</v>
-      </c>
+      <c r="L2" s="182"/>
+      <c r="M2" s="173"/>
       <c r="N2" s="177" t="s">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="O2" s="177" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>337</v>
+      </c>
+      <c r="P2" s="177" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="186"/>
       <c r="B3" s="175" t="s">
-        <v>434</v>
+        <v>470</v>
       </c>
       <c r="C3" s="181"/>
       <c r="D3" s="181"/>
-      <c r="E3" s="180" t="s">
-        <v>456</v>
-      </c>
+      <c r="E3" s="180"/>
       <c r="F3" s="183"/>
       <c r="G3" s="183"/>
       <c r="H3" s="183"/>
       <c r="I3" s="183"/>
       <c r="J3" s="183"/>
       <c r="K3" s="183"/>
-      <c r="L3" s="173"/>
-      <c r="M3" s="177" t="s">
-        <v>387</v>
-      </c>
+      <c r="L3" s="183"/>
+      <c r="M3" s="173"/>
       <c r="N3" s="177" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="O3" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>358</v>
+      </c>
+      <c r="P3" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="186"/>
       <c r="B4" s="175" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="C4" s="181"/>
       <c r="D4" s="181"/>
       <c r="E4" s="183"/>
       <c r="F4" s="183"/>
-      <c r="G4" s="180" t="s">
-        <v>455</v>
-      </c>
-      <c r="H4" s="183"/>
-      <c r="I4" s="180" t="s">
-        <v>455</v>
-      </c>
-      <c r="J4" s="183"/>
+      <c r="G4" s="183"/>
+      <c r="H4" s="180"/>
+      <c r="I4" s="183"/>
+      <c r="J4" s="180"/>
       <c r="K4" s="183"/>
-      <c r="L4" s="173"/>
-      <c r="M4" s="177" t="s">
-        <v>388</v>
-      </c>
+      <c r="L4" s="183"/>
+      <c r="M4" s="173"/>
       <c r="N4" s="177" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="O4" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>360</v>
+      </c>
+      <c r="P4" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="185"/>
       <c r="B5" s="175" t="s">
-        <v>283</v>
+        <v>469</v>
       </c>
       <c r="C5" s="181"/>
       <c r="D5" s="181"/>
       <c r="E5" s="183"/>
       <c r="F5" s="183"/>
-      <c r="G5" s="180" t="s">
-        <v>455</v>
-      </c>
-      <c r="H5" s="180" t="s">
-        <v>455</v>
-      </c>
-      <c r="I5" s="180" t="s">
-        <v>455</v>
-      </c>
-      <c r="J5" s="183"/>
+      <c r="G5" s="183"/>
+      <c r="H5" s="180"/>
+      <c r="I5" s="180"/>
+      <c r="J5" s="180"/>
       <c r="K5" s="183"/>
-      <c r="L5" s="173"/>
-      <c r="M5" s="177" t="s">
-        <v>389</v>
-      </c>
+      <c r="L5" s="183"/>
+      <c r="M5" s="173"/>
       <c r="N5" s="177" t="s">
-        <v>437</v>
+        <v>381</v>
       </c>
       <c r="O5" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+        <v>472</v>
+      </c>
+      <c r="P5" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="184" t="s">
         <v>260</v>
       </c>
       <c r="B6" s="175" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C6" s="180"/>
       <c r="D6" s="180"/>
       <c r="E6" s="180"/>
-      <c r="F6" s="183"/>
-      <c r="G6" s="180"/>
+      <c r="F6" s="180"/>
+      <c r="G6" s="183"/>
       <c r="H6" s="180"/>
-      <c r="I6" s="180"/>
+      <c r="I6" s="183"/>
       <c r="J6" s="180"/>
-      <c r="K6" s="183"/>
-      <c r="L6" s="173"/>
-      <c r="M6" s="177" t="s">
-        <v>390</v>
-      </c>
+      <c r="K6" s="180"/>
+      <c r="L6" s="183"/>
+      <c r="M6" s="173"/>
       <c r="N6" s="177" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="O6" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+        <v>361</v>
+      </c>
+      <c r="P6" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="186"/>
       <c r="B7" s="175" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C7" s="180"/>
       <c r="D7" s="180"/>
       <c r="E7" s="180"/>
       <c r="F7" s="180"/>
-      <c r="G7" s="180"/>
+      <c r="G7" s="183"/>
       <c r="H7" s="180"/>
-      <c r="I7" s="180"/>
-      <c r="J7" s="183"/>
+      <c r="I7" s="183"/>
+      <c r="J7" s="180"/>
       <c r="K7" s="183"/>
-      <c r="L7" s="173"/>
-      <c r="M7" s="177" t="s">
-        <v>391</v>
-      </c>
+      <c r="L7" s="183"/>
+      <c r="M7" s="173"/>
       <c r="N7" s="177" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="O7" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+        <v>362</v>
+      </c>
+      <c r="P7" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="186"/>
       <c r="B8" s="175" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C8" s="180"/>
       <c r="D8" s="180"/>
       <c r="E8" s="180"/>
       <c r="F8" s="180"/>
-      <c r="G8" s="180"/>
+      <c r="G8" s="183"/>
       <c r="H8" s="180"/>
-      <c r="I8" s="180"/>
+      <c r="I8" s="183"/>
       <c r="J8" s="180"/>
-      <c r="K8" s="183"/>
-      <c r="L8" s="173"/>
-      <c r="M8" s="177" t="s">
-        <v>417</v>
-      </c>
+      <c r="K8" s="180"/>
+      <c r="L8" s="183"/>
+      <c r="M8" s="173"/>
       <c r="N8" s="177" t="s">
-        <v>468</v>
+        <v>408</v>
       </c>
       <c r="O8" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+        <v>454</v>
+      </c>
+      <c r="P8" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="185"/>
       <c r="B9" s="175" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C9" s="180"/>
       <c r="D9" s="180"/>
       <c r="E9" s="180"/>
       <c r="F9" s="180"/>
-      <c r="G9" s="180"/>
+      <c r="G9" s="183"/>
       <c r="H9" s="180"/>
-      <c r="I9" s="180"/>
-      <c r="J9" s="183"/>
+      <c r="I9" s="183"/>
+      <c r="J9" s="180"/>
       <c r="K9" s="183"/>
-      <c r="L9" s="173"/>
-      <c r="M9" s="177" t="s">
-        <v>477</v>
-      </c>
+      <c r="L9" s="183"/>
+      <c r="M9" s="173"/>
       <c r="N9" s="177" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="O9" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="175" t="s">
-        <v>266</v>
+        <v>464</v>
+      </c>
+      <c r="P9" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="184" t="s">
+        <v>468</v>
       </c>
       <c r="B10" s="175" t="s">
-        <v>281</v>
+        <v>467</v>
       </c>
       <c r="C10" s="180"/>
       <c r="D10" s="180"/>
       <c r="E10" s="180"/>
       <c r="F10" s="180"/>
-      <c r="G10" s="180"/>
+      <c r="G10" s="183"/>
       <c r="H10" s="180"/>
-      <c r="I10" s="180"/>
+      <c r="I10" s="183"/>
       <c r="J10" s="180"/>
-      <c r="K10" s="183"/>
-      <c r="L10" s="173"/>
-      <c r="M10" s="177" t="s">
-        <v>392</v>
-      </c>
+      <c r="K10" s="180"/>
+      <c r="L10" s="183"/>
+      <c r="M10" s="173"/>
       <c r="N10" s="177" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="O10" s="177" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="175" t="s">
-        <v>297</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="P10" s="177" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="186"/>
       <c r="B11" s="175" t="s">
-        <v>279</v>
+        <v>466</v>
       </c>
       <c r="C11" s="180"/>
       <c r="D11" s="180"/>
       <c r="E11" s="180"/>
       <c r="F11" s="180"/>
-      <c r="G11" s="180"/>
+      <c r="G11" s="183"/>
       <c r="H11" s="180"/>
-      <c r="I11" s="180"/>
+      <c r="I11" s="183"/>
       <c r="J11" s="180"/>
-      <c r="K11" s="183"/>
-      <c r="L11" s="173"/>
-      <c r="M11" s="177" t="s">
-        <v>393</v>
-      </c>
+      <c r="K11" s="180"/>
+      <c r="L11" s="183"/>
+      <c r="M11" s="173"/>
       <c r="N11" s="177" t="s">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="O11" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="175" t="s">
-        <v>298</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="P11" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="185"/>
       <c r="B12" s="175" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C12" s="180"/>
-      <c r="D12" s="180"/>
-      <c r="E12" s="180"/>
-      <c r="F12" s="180"/>
-      <c r="G12" s="180"/>
+      <c r="D12" s="183"/>
+      <c r="E12" s="183"/>
+      <c r="F12" s="183"/>
+      <c r="G12" s="183"/>
       <c r="H12" s="180"/>
-      <c r="I12" s="180"/>
+      <c r="I12" s="183"/>
       <c r="J12" s="180"/>
       <c r="K12" s="180"/>
-      <c r="L12" s="173"/>
-      <c r="M12" s="177" t="s">
-        <v>394</v>
-      </c>
+      <c r="L12" s="180"/>
+      <c r="M12" s="173"/>
       <c r="N12" s="177" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="O12" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+        <v>363</v>
+      </c>
+      <c r="P12" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="184" t="s">
         <v>261</v>
       </c>
       <c r="B13" s="175" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="C13" s="180"/>
       <c r="D13" s="180"/>
       <c r="E13" s="180"/>
       <c r="F13" s="180"/>
-      <c r="G13" s="180"/>
+      <c r="G13" s="183"/>
       <c r="H13" s="180"/>
-      <c r="I13" s="180"/>
+      <c r="I13" s="183"/>
       <c r="J13" s="180"/>
-      <c r="K13" s="183"/>
-      <c r="L13" s="173"/>
-      <c r="M13" s="177" t="s">
-        <v>395</v>
-      </c>
+      <c r="K13" s="180"/>
+      <c r="L13" s="183"/>
+      <c r="M13" s="173"/>
       <c r="N13" s="177" t="s">
-        <v>438</v>
+        <v>387</v>
       </c>
       <c r="O13" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+        <v>473</v>
+      </c>
+      <c r="P13" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="186"/>
       <c r="B14" s="175" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C14" s="180"/>
       <c r="D14" s="180"/>
       <c r="E14" s="180"/>
       <c r="F14" s="180"/>
-      <c r="G14" s="180"/>
+      <c r="G14" s="183"/>
       <c r="H14" s="180"/>
-      <c r="I14" s="180"/>
+      <c r="I14" s="183"/>
       <c r="J14" s="180"/>
-      <c r="K14" s="183"/>
-      <c r="L14" s="173"/>
-      <c r="M14" s="177" t="s">
-        <v>396</v>
-      </c>
+      <c r="K14" s="180"/>
+      <c r="L14" s="183"/>
+      <c r="M14" s="173"/>
       <c r="N14" s="177" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="O14" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+        <v>364</v>
+      </c>
+      <c r="P14" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="186"/>
       <c r="B15" s="175" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C15" s="180"/>
       <c r="D15" s="180"/>
       <c r="E15" s="180"/>
       <c r="F15" s="180"/>
-      <c r="G15" s="180"/>
+      <c r="G15" s="183"/>
       <c r="H15" s="180"/>
-      <c r="I15" s="180"/>
+      <c r="I15" s="183"/>
       <c r="J15" s="180"/>
-      <c r="K15" s="183"/>
-      <c r="L15" s="173"/>
-      <c r="M15" s="177" t="s">
-        <v>397</v>
-      </c>
+      <c r="K15" s="180"/>
+      <c r="L15" s="183"/>
+      <c r="M15" s="173"/>
       <c r="N15" s="177" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="O15" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+        <v>365</v>
+      </c>
+      <c r="P15" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="185"/>
       <c r="B16" s="175" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C16" s="180"/>
       <c r="D16" s="180"/>
       <c r="E16" s="180"/>
       <c r="F16" s="180"/>
-      <c r="G16" s="180"/>
+      <c r="G16" s="183"/>
       <c r="H16" s="180"/>
-      <c r="I16" s="180"/>
-      <c r="J16" s="183"/>
+      <c r="I16" s="183"/>
+      <c r="J16" s="180"/>
       <c r="K16" s="183"/>
-      <c r="L16" s="173"/>
-      <c r="M16" s="177" t="s">
+      <c r="L16" s="183"/>
+      <c r="M16" s="173"/>
+      <c r="N16" s="177" t="s">
+        <v>409</v>
+      </c>
+      <c r="O16" s="177" t="s">
+        <v>443</v>
+      </c>
+      <c r="P16" s="177" t="s">
         <v>418</v>
       </c>
-      <c r="N16" s="177" t="s">
-        <v>457</v>
-      </c>
-      <c r="O16" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="184" t="s">
         <v>262</v>
       </c>
       <c r="B17" s="175" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C17" s="180"/>
       <c r="D17" s="180"/>
       <c r="E17" s="180"/>
       <c r="F17" s="180"/>
-      <c r="G17" s="180"/>
+      <c r="G17" s="183"/>
       <c r="H17" s="180"/>
-      <c r="I17" s="180"/>
+      <c r="I17" s="183"/>
       <c r="J17" s="180"/>
-      <c r="K17" s="183"/>
-      <c r="L17" s="173"/>
-      <c r="M17" s="177" t="s">
-        <v>419</v>
-      </c>
+      <c r="K17" s="180"/>
+      <c r="L17" s="183"/>
+      <c r="M17" s="173"/>
       <c r="N17" s="177" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="O17" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+        <v>414</v>
+      </c>
+      <c r="P17" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="185"/>
       <c r="B18" s="175" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C18" s="180"/>
       <c r="D18" s="180"/>
       <c r="E18" s="180"/>
       <c r="F18" s="180"/>
-      <c r="G18" s="180"/>
+      <c r="G18" s="183"/>
       <c r="H18" s="180"/>
-      <c r="I18" s="180"/>
-      <c r="J18" s="183"/>
+      <c r="I18" s="183"/>
+      <c r="J18" s="180"/>
       <c r="K18" s="183"/>
-      <c r="L18" s="173"/>
-      <c r="M18" s="177" t="s">
-        <v>422</v>
-      </c>
+      <c r="L18" s="183"/>
+      <c r="M18" s="173"/>
       <c r="N18" s="177" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="O18" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+        <v>423</v>
+      </c>
+      <c r="P18" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="175" t="s">
         <v>263</v>
       </c>
       <c r="B19" s="175" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C19" s="180"/>
       <c r="D19" s="180"/>
       <c r="E19" s="180"/>
       <c r="F19" s="180"/>
-      <c r="G19" s="180"/>
+      <c r="G19" s="183"/>
       <c r="H19" s="180"/>
-      <c r="I19" s="180"/>
+      <c r="I19" s="183"/>
       <c r="J19" s="180"/>
-      <c r="K19" s="183"/>
-      <c r="L19" s="173"/>
-      <c r="M19" s="177" t="s">
+      <c r="K19" s="180"/>
+      <c r="L19" s="183"/>
+      <c r="M19" s="173"/>
+      <c r="N19" s="177" t="s">
+        <v>390</v>
+      </c>
+      <c r="O19" s="177" t="s">
+        <v>354</v>
+      </c>
+      <c r="P19" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N20" s="177" t="s">
+        <v>391</v>
+      </c>
+      <c r="O20" s="177" t="s">
+        <v>357</v>
+      </c>
+      <c r="P20" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N21" s="177" t="s">
+        <v>392</v>
+      </c>
+      <c r="O21" s="177" t="s">
+        <v>366</v>
+      </c>
+      <c r="P21" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N22" s="177" t="s">
+        <v>393</v>
+      </c>
+      <c r="O22" s="177" t="s">
+        <v>367</v>
+      </c>
+      <c r="P22" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N23" s="177" t="s">
+        <v>394</v>
+      </c>
+      <c r="O23" s="177" t="s">
+        <v>368</v>
+      </c>
+      <c r="P23" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N24" s="177" t="s">
+        <v>395</v>
+      </c>
+      <c r="O24" s="177" t="s">
+        <v>369</v>
+      </c>
+      <c r="P24" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N25" s="177" t="s">
+        <v>411</v>
+      </c>
+      <c r="O25" s="177" t="s">
+        <v>444</v>
+      </c>
+      <c r="P25" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N26" s="177" t="s">
+        <v>396</v>
+      </c>
+      <c r="O26" s="177" t="s">
+        <v>352</v>
+      </c>
+      <c r="P26" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N27" s="177" t="s">
+        <v>397</v>
+      </c>
+      <c r="O27" s="177" t="s">
+        <v>356</v>
+      </c>
+      <c r="P27" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N28" s="177" t="s">
         <v>398</v>
       </c>
-      <c r="N19" s="177" t="s">
-        <v>362</v>
-      </c>
-      <c r="O19" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M20" s="177" t="s">
+      <c r="O28" s="177" t="s">
+        <v>370</v>
+      </c>
+      <c r="P28" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N29" s="177" t="s">
         <v>399</v>
       </c>
-      <c r="N20" s="177" t="s">
-        <v>365</v>
-      </c>
-      <c r="O20" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M21" s="177" t="s">
+      <c r="O29" s="177" t="s">
+        <v>371</v>
+      </c>
+      <c r="P29" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N30" s="177" t="s">
         <v>400</v>
       </c>
-      <c r="N21" s="177" t="s">
+      <c r="O30" s="177" t="s">
+        <v>372</v>
+      </c>
+      <c r="P30" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N31" s="177" t="s">
+        <v>401</v>
+      </c>
+      <c r="O31" s="177" t="s">
+        <v>373</v>
+      </c>
+      <c r="P31" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N32" s="177" t="s">
+        <v>412</v>
+      </c>
+      <c r="O32" s="177" t="s">
+        <v>445</v>
+      </c>
+      <c r="P32" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="33" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N33" s="177" t="s">
+        <v>402</v>
+      </c>
+      <c r="O33" s="177" t="s">
+        <v>353</v>
+      </c>
+      <c r="P33" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="34" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N34" s="177" t="s">
+        <v>403</v>
+      </c>
+      <c r="O34" s="177" t="s">
+        <v>359</v>
+      </c>
+      <c r="P34" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="35" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N35" s="177" t="s">
+        <v>404</v>
+      </c>
+      <c r="O35" s="177" t="s">
         <v>374</v>
       </c>
-      <c r="O21" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M22" s="177" t="s">
-        <v>401</v>
-      </c>
-      <c r="N22" s="177" t="s">
+      <c r="P35" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="36" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N36" s="177" t="s">
+        <v>405</v>
+      </c>
+      <c r="O36" s="177" t="s">
         <v>375</v>
       </c>
-      <c r="O22" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M23" s="177" t="s">
-        <v>402</v>
-      </c>
-      <c r="N23" s="177" t="s">
+      <c r="P36" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="37" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N37" s="177" t="s">
+        <v>406</v>
+      </c>
+      <c r="O37" s="177" t="s">
         <v>376</v>
       </c>
-      <c r="O23" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M24" s="177" t="s">
-        <v>403</v>
-      </c>
-      <c r="N24" s="177" t="s">
+      <c r="P37" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="38" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N38" s="177" t="s">
+        <v>407</v>
+      </c>
+      <c r="O38" s="177" t="s">
         <v>377</v>
       </c>
-      <c r="O24" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M25" s="177" t="s">
+      <c r="P38" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="39" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N39" s="177" t="s">
+        <v>416</v>
+      </c>
+      <c r="O39" s="177" t="s">
+        <v>446</v>
+      </c>
+      <c r="P39" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="40" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N40" s="177" t="s">
+        <v>417</v>
+      </c>
+      <c r="O40" s="177" t="s">
+        <v>424</v>
+      </c>
+      <c r="P40" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="41" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N41" s="177" t="s">
+        <v>419</v>
+      </c>
+      <c r="O41" s="177" t="s">
+        <v>452</v>
+      </c>
+      <c r="P41" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="42" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N42" s="177" t="s">
         <v>420</v>
       </c>
-      <c r="N25" s="177" t="s">
+      <c r="O42" s="177" t="s">
+        <v>453</v>
+      </c>
+      <c r="P42" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="43" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N43" s="177" t="s">
+        <v>421</v>
+      </c>
+      <c r="O43" s="177" t="s">
+        <v>447</v>
+      </c>
+      <c r="P43" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="44" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N44" s="177" t="s">
+        <v>422</v>
+      </c>
+      <c r="O44" s="177" t="s">
+        <v>448</v>
+      </c>
+      <c r="P44" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="45" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N45" s="177" t="s">
+        <v>431</v>
+      </c>
+      <c r="O45" s="177" t="s">
+        <v>449</v>
+      </c>
+      <c r="P45" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="46" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N46" s="177" t="s">
+        <v>432</v>
+      </c>
+      <c r="O46" s="177" t="s">
+        <v>450</v>
+      </c>
+      <c r="P46" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="47" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N47" s="177" t="s">
+        <v>433</v>
+      </c>
+      <c r="O47" s="177" t="s">
+        <v>451</v>
+      </c>
+      <c r="P47" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="48" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N48" s="177" t="s">
+        <v>434</v>
+      </c>
+      <c r="O48" s="177" t="s">
+        <v>455</v>
+      </c>
+      <c r="P48" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="49" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N49" s="177" t="s">
+        <v>435</v>
+      </c>
+      <c r="O49" s="177" t="s">
+        <v>459</v>
+      </c>
+      <c r="P49" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="50" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N50" s="177" t="s">
+        <v>436</v>
+      </c>
+      <c r="O50" s="177" t="s">
+        <v>456</v>
+      </c>
+      <c r="P50" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="51" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N51" s="177" t="s">
+        <v>437</v>
+      </c>
+      <c r="O51" s="177" t="s">
+        <v>457</v>
+      </c>
+      <c r="P51" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="52" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N52" s="177" t="s">
+        <v>438</v>
+      </c>
+      <c r="O52" s="177" t="s">
         <v>458</v>
       </c>
-      <c r="O25" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M26" s="177" t="s">
-        <v>404</v>
-      </c>
-      <c r="N26" s="177" t="s">
-        <v>360</v>
-      </c>
-      <c r="O26" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M27" s="177" t="s">
-        <v>405</v>
-      </c>
-      <c r="N27" s="177" t="s">
-        <v>364</v>
-      </c>
-      <c r="O27" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M28" s="177" t="s">
-        <v>406</v>
-      </c>
-      <c r="N28" s="177" t="s">
-        <v>378</v>
-      </c>
-      <c r="O28" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M29" s="177" t="s">
-        <v>407</v>
-      </c>
-      <c r="N29" s="177" t="s">
-        <v>379</v>
-      </c>
-      <c r="O29" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M30" s="177" t="s">
-        <v>408</v>
-      </c>
-      <c r="N30" s="177" t="s">
-        <v>380</v>
-      </c>
-      <c r="O30" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M31" s="177" t="s">
-        <v>409</v>
-      </c>
-      <c r="N31" s="177" t="s">
-        <v>381</v>
-      </c>
-      <c r="O31" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M32" s="177" t="s">
-        <v>421</v>
-      </c>
-      <c r="N32" s="177" t="s">
-        <v>459</v>
-      </c>
-      <c r="O32" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="33" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M33" s="177" t="s">
-        <v>410</v>
-      </c>
-      <c r="N33" s="177" t="s">
-        <v>361</v>
-      </c>
-      <c r="O33" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="34" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M34" s="177" t="s">
-        <v>411</v>
-      </c>
-      <c r="N34" s="177" t="s">
-        <v>367</v>
-      </c>
-      <c r="O34" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="35" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M35" s="177" t="s">
-        <v>412</v>
-      </c>
-      <c r="N35" s="177" t="s">
-        <v>382</v>
-      </c>
-      <c r="O35" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="36" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M36" s="177" t="s">
-        <v>413</v>
-      </c>
-      <c r="N36" s="177" t="s">
-        <v>383</v>
-      </c>
-      <c r="O36" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="37" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M37" s="177" t="s">
-        <v>414</v>
-      </c>
-      <c r="N37" s="177" t="s">
-        <v>384</v>
-      </c>
-      <c r="O37" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="38" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M38" s="177" t="s">
+      <c r="P52" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="53" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N53" s="177" t="s">
+        <v>439</v>
+      </c>
+      <c r="O53" s="177" t="s">
+        <v>442</v>
+      </c>
+      <c r="P53" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="54" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N54" s="177" t="s">
+        <v>440</v>
+      </c>
+      <c r="O54" s="177" t="s">
+        <v>425</v>
+      </c>
+      <c r="P54" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="55" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N55" s="177" t="s">
+        <v>441</v>
+      </c>
+      <c r="O55" s="177" t="s">
         <v>415</v>
       </c>
-      <c r="N38" s="177" t="s">
-        <v>385</v>
-      </c>
-      <c r="O38" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="39" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M39" s="177" t="s">
-        <v>425</v>
-      </c>
-      <c r="N39" s="177" t="s">
-        <v>460</v>
-      </c>
-      <c r="O39" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="40" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M40" s="177" t="s">
-        <v>426</v>
-      </c>
-      <c r="N40" s="177" t="s">
-        <v>433</v>
-      </c>
-      <c r="O40" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="41" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M41" s="177" t="s">
-        <v>428</v>
-      </c>
-      <c r="N41" s="177" t="s">
-        <v>466</v>
-      </c>
-      <c r="O41" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="42" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M42" s="177" t="s">
-        <v>429</v>
-      </c>
-      <c r="N42" s="177" t="s">
-        <v>467</v>
-      </c>
-      <c r="O42" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="43" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M43" s="177" t="s">
-        <v>430</v>
-      </c>
-      <c r="N43" s="177" t="s">
-        <v>461</v>
-      </c>
-      <c r="O43" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="44" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M44" s="177" t="s">
-        <v>431</v>
-      </c>
-      <c r="N44" s="177" t="s">
-        <v>462</v>
-      </c>
-      <c r="O44" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="45" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M45" s="177" t="s">
-        <v>443</v>
-      </c>
-      <c r="N45" s="177" t="s">
-        <v>463</v>
-      </c>
-      <c r="O45" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="46" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M46" s="177" t="s">
-        <v>444</v>
-      </c>
-      <c r="N46" s="177" t="s">
-        <v>464</v>
-      </c>
-      <c r="O46" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="47" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M47" s="177" t="s">
-        <v>445</v>
-      </c>
-      <c r="N47" s="177" t="s">
-        <v>465</v>
-      </c>
-      <c r="O47" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="48" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M48" s="177" t="s">
-        <v>446</v>
-      </c>
-      <c r="N48" s="177" t="s">
-        <v>469</v>
-      </c>
-      <c r="O48" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="49" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M49" s="177" t="s">
-        <v>447</v>
-      </c>
-      <c r="N49" s="177" t="s">
-        <v>473</v>
-      </c>
-      <c r="O49" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="50" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M50" s="177" t="s">
-        <v>448</v>
-      </c>
-      <c r="N50" s="177" t="s">
-        <v>470</v>
-      </c>
-      <c r="O50" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="51" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M51" s="177" t="s">
-        <v>449</v>
-      </c>
-      <c r="N51" s="177" t="s">
-        <v>471</v>
-      </c>
-      <c r="O51" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="52" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M52" s="177" t="s">
-        <v>450</v>
-      </c>
-      <c r="N52" s="177" t="s">
-        <v>472</v>
-      </c>
-      <c r="O52" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="53" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M53" s="177" t="s">
-        <v>451</v>
-      </c>
-      <c r="N53" s="177" t="s">
-        <v>454</v>
-      </c>
-      <c r="O53" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="54" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M54" s="177" t="s">
-        <v>452</v>
-      </c>
-      <c r="N54" s="177" t="s">
-        <v>435</v>
-      </c>
-      <c r="O54" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="55" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M55" s="177" t="s">
-        <v>453</v>
-      </c>
-      <c r="N55" s="177" t="s">
-        <v>424</v>
-      </c>
-      <c r="O55" s="177" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="56" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" spans="13:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="P55" s="177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="56" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="65" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="66" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="67" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4150,14 +4139,15 @@
     <row r="82" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="83" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A10:A12"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="N2" location="Generic!A1" display="Generic-Flyer" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="O2" location="Generic!A1" display="Generic-Flyer" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6674,10 +6664,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6689,113 +6679,118 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="174" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B1" s="174" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C1" s="174" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C14" s="174" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
-        <v>332</v>
+        <v>465</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C23" s="178" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" ht="41.65" x14ac:dyDescent="0.45">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C22" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C24" s="178" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.45">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" ht="43.9" x14ac:dyDescent="0.45">
       <c r="C25" s="178" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.45">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" ht="14.65" x14ac:dyDescent="0.45">
       <c r="C26" s="178" t="s">
-        <v>358</v>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" ht="14.65" x14ac:dyDescent="0.45">
+      <c r="C27" s="178" t="s">
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -6823,126 +6818,126 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="179" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B1" s="174" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C1" s="174" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D1" s="174" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D2" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D3" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D6" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D8" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D14" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D15" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D22" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D23" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D24" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D25" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D27" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -6970,98 +6965,98 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="174" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B1" s="174" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C1" s="174" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C22" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C24" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -10329,16 +10324,16 @@
       <c r="AC4" s="132"/>
       <c r="AD4" s="132"/>
       <c r="AM4" s="171" t="s">
+        <v>268</v>
+      </c>
+      <c r="AN4" s="171" t="s">
         <v>269</v>
       </c>
-      <c r="AN4" s="171" t="s">
-        <v>270</v>
-      </c>
       <c r="AO4" s="171" t="s">
+        <v>271</v>
+      </c>
+      <c r="AP4" s="171" t="s">
         <v>272</v>
-      </c>
-      <c r="AP4" s="171" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:458" ht="93" x14ac:dyDescent="0.45">
@@ -10374,7 +10369,7 @@
       <c r="AC5" s="132"/>
       <c r="AD5" s="132"/>
       <c r="AM5" s="171" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AN5" s="173"/>
       <c r="AO5" s="173"/>
@@ -10413,7 +10408,7 @@
       <c r="AC6" s="132"/>
       <c r="AD6" s="132"/>
       <c r="AM6" s="171" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AN6" s="173"/>
       <c r="AO6" s="173"/>
@@ -10452,7 +10447,7 @@
       <c r="AC7" s="132"/>
       <c r="AD7" s="132"/>
       <c r="AM7" s="171" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AN7" s="173"/>
       <c r="AO7" s="173"/>

--- a/Offline/BusinessManagement/MarketingMasterPlan-May-2023.xlsx
+++ b/Offline/BusinessManagement/MarketingMasterPlan-May-2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Offline\BusinessManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32275CF-4DB9-4B88-9571-CA4C8D5EEC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE28EA6-CDA7-4FF8-B362-3E323A70ED75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="779" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="779" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MarketingPlan" sheetId="14" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="474">
   <si>
     <t>Medium</t>
   </si>
@@ -1137,9 +1137,6 @@
     <t>Generic-Insta-Reel</t>
   </si>
   <si>
-    <t>AI-Junior-Sun-Pack</t>
-  </si>
-  <si>
     <t>AI-Junior-FB-Post</t>
   </si>
   <si>
@@ -1149,9 +1146,6 @@
     <t>IIT-NEET-VIII-XII-Sun-Pack</t>
   </si>
   <si>
-    <t>IIT-NEET-VIII-XII-Wal-Poster</t>
-  </si>
-  <si>
     <t>IIT-NEET-VIII-XII-FB-Post</t>
   </si>
   <si>
@@ -1161,9 +1155,6 @@
     <t>Commerce-Sun-Pack</t>
   </si>
   <si>
-    <t>Commerce-Wal-Poster</t>
-  </si>
-  <si>
     <t>Commerce-FB-Post</t>
   </si>
   <si>
@@ -1173,9 +1164,6 @@
     <t>IT-AI-Sun-Pack</t>
   </si>
   <si>
-    <t>IT-AI-Wal-Poster</t>
-  </si>
-  <si>
     <t>IT-AI-FB-Post</t>
   </si>
   <si>
@@ -1278,16 +1266,10 @@
     <t>2. G</t>
   </si>
   <si>
-    <t>2. H</t>
-  </si>
-  <si>
     <t>3. G</t>
   </si>
   <si>
     <t>4. G</t>
-  </si>
-  <si>
-    <t>2. J</t>
   </si>
   <si>
     <t>AI-Junior-School Proposals</t>
@@ -1468,9 +1450,6 @@
     <t>Generic-Poster</t>
   </si>
   <si>
-    <t>AI-Junior-Poster</t>
-  </si>
-  <si>
     <t>Justdial</t>
   </si>
   <si>
@@ -1478,6 +1457,18 @@
   </si>
   <si>
     <t>9073 700094</t>
+  </si>
+  <si>
+    <t>Commerce-Poster</t>
+  </si>
+  <si>
+    <t>IT-AI-Poster</t>
+  </si>
+  <si>
+    <t>IIT-NEET-VIII-XII-Poster</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -3168,9 +3159,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6640625" defaultRowHeight="12.4" x14ac:dyDescent="0.4"/>
@@ -3191,10 +3182,10 @@
         <v>264</v>
       </c>
       <c r="B1" s="176" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C1" s="175" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="D1" s="175" t="s">
         <v>286</v>
@@ -3203,7 +3194,7 @@
         <v>287</v>
       </c>
       <c r="F1" s="175" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="G1" s="175" t="s">
         <v>273</v>
@@ -3212,7 +3203,7 @@
         <v>288</v>
       </c>
       <c r="I1" s="175" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="J1" s="175" t="s">
         <v>274</v>
@@ -3239,7 +3230,7 @@
         <v>265</v>
       </c>
       <c r="B2" s="175" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C2" s="181"/>
       <c r="D2" s="181"/>
@@ -3253,19 +3244,19 @@
       <c r="L2" s="182"/>
       <c r="M2" s="173"/>
       <c r="N2" s="177" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="O2" s="177" t="s">
         <v>337</v>
       </c>
       <c r="P2" s="177" t="s">
-        <v>336</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="186"/>
       <c r="B3" s="175" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C3" s="181"/>
       <c r="D3" s="181"/>
@@ -3279,19 +3270,19 @@
       <c r="L3" s="183"/>
       <c r="M3" s="173"/>
       <c r="N3" s="177" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="O3" s="177" t="s">
         <v>358</v>
       </c>
       <c r="P3" s="177" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="186"/>
       <c r="B4" s="175" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C4" s="181"/>
       <c r="D4" s="181"/>
@@ -3305,19 +3296,19 @@
       <c r="L4" s="183"/>
       <c r="M4" s="173"/>
       <c r="N4" s="177" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="O4" s="177" t="s">
         <v>360</v>
       </c>
       <c r="P4" s="177" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="185"/>
       <c r="B5" s="175" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C5" s="181"/>
       <c r="D5" s="181"/>
@@ -3331,13 +3322,13 @@
       <c r="L5" s="183"/>
       <c r="M5" s="173"/>
       <c r="N5" s="177" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="O5" s="177" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="P5" s="177" t="s">
-        <v>418</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -3359,13 +3350,13 @@
       <c r="L6" s="183"/>
       <c r="M6" s="173"/>
       <c r="N6" s="177" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="O6" s="177" t="s">
         <v>361</v>
       </c>
       <c r="P6" s="177" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -3385,13 +3376,13 @@
       <c r="L7" s="183"/>
       <c r="M7" s="173"/>
       <c r="N7" s="177" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="O7" s="177" t="s">
         <v>362</v>
       </c>
       <c r="P7" s="177" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -3411,13 +3402,13 @@
       <c r="L8" s="183"/>
       <c r="M8" s="173"/>
       <c r="N8" s="177" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="O8" s="177" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="P8" s="177" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -3437,21 +3428,21 @@
       <c r="L9" s="183"/>
       <c r="M9" s="173"/>
       <c r="N9" s="177" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="O9" s="177" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="P9" s="177" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="184" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B10" s="175" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C10" s="180"/>
       <c r="D10" s="180"/>
@@ -3465,7 +3456,7 @@
       <c r="L10" s="183"/>
       <c r="M10" s="173"/>
       <c r="N10" s="177" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="O10" s="177" t="s">
         <v>335</v>
@@ -3477,7 +3468,7 @@
     <row r="11" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="186"/>
       <c r="B11" s="175" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C11" s="180"/>
       <c r="D11" s="180"/>
@@ -3491,13 +3482,13 @@
       <c r="L11" s="183"/>
       <c r="M11" s="173"/>
       <c r="N11" s="177" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="O11" s="177" t="s">
         <v>355</v>
       </c>
       <c r="P11" s="177" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -3517,13 +3508,13 @@
       <c r="L12" s="180"/>
       <c r="M12" s="173"/>
       <c r="N12" s="177" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="O12" s="177" t="s">
         <v>363</v>
       </c>
       <c r="P12" s="177" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -3531,7 +3522,7 @@
         <v>261</v>
       </c>
       <c r="B13" s="175" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C13" s="180"/>
       <c r="D13" s="180"/>
@@ -3545,13 +3536,13 @@
       <c r="L13" s="183"/>
       <c r="M13" s="173"/>
       <c r="N13" s="177" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="O13" s="177" t="s">
-        <v>473</v>
+        <v>364</v>
       </c>
       <c r="P13" s="177" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -3571,13 +3562,13 @@
       <c r="L14" s="183"/>
       <c r="M14" s="173"/>
       <c r="N14" s="177" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="O14" s="177" t="s">
-        <v>364</v>
+        <v>437</v>
       </c>
       <c r="P14" s="177" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -3597,13 +3588,13 @@
       <c r="L15" s="183"/>
       <c r="M15" s="173"/>
       <c r="N15" s="177" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="O15" s="177" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
       <c r="P15" s="177" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -3623,13 +3614,13 @@
       <c r="L16" s="183"/>
       <c r="M16" s="173"/>
       <c r="N16" s="177" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="O16" s="177" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
       <c r="P16" s="177" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -3651,13 +3642,13 @@
       <c r="L17" s="183"/>
       <c r="M17" s="173"/>
       <c r="N17" s="177" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="O17" s="177" t="s">
-        <v>414</v>
+        <v>354</v>
       </c>
       <c r="P17" s="177" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -3677,13 +3668,13 @@
       <c r="L18" s="183"/>
       <c r="M18" s="173"/>
       <c r="N18" s="177" t="s">
-        <v>413</v>
+        <v>387</v>
       </c>
       <c r="O18" s="177" t="s">
-        <v>423</v>
+        <v>357</v>
       </c>
       <c r="P18" s="177" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -3705,411 +3696,391 @@
       <c r="L19" s="183"/>
       <c r="M19" s="173"/>
       <c r="N19" s="177" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="O19" s="177" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="P19" s="177" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N20" s="177" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="O20" s="177" t="s">
-        <v>357</v>
+        <v>472</v>
       </c>
       <c r="P20" s="177" t="s">
-        <v>418</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N21" s="177" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="O21" s="177" t="s">
         <v>366</v>
       </c>
       <c r="P21" s="177" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N22" s="177" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="O22" s="177" t="s">
         <v>367</v>
       </c>
       <c r="P22" s="177" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N23" s="177" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="O23" s="177" t="s">
-        <v>368</v>
+        <v>438</v>
       </c>
       <c r="P23" s="177" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N24" s="177" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="O24" s="177" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="P24" s="177" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N25" s="177" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="O25" s="177" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="P25" s="177" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N26" s="177" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="O26" s="177" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="P26" s="177" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N27" s="177" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="O27" s="177" t="s">
-        <v>356</v>
+        <v>470</v>
       </c>
       <c r="P27" s="177" t="s">
-        <v>418</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N28" s="177" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="O28" s="177" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P28" s="177" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N29" s="177" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="O29" s="177" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P29" s="177" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N30" s="177" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="O30" s="177" t="s">
-        <v>372</v>
+        <v>439</v>
       </c>
       <c r="P30" s="177" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N31" s="177" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="O31" s="177" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="P31" s="177" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N32" s="177" t="s">
+        <v>399</v>
+      </c>
+      <c r="O32" s="177" t="s">
+        <v>359</v>
+      </c>
+      <c r="P32" s="177" t="s">
         <v>412</v>
-      </c>
-      <c r="O32" s="177" t="s">
-        <v>445</v>
-      </c>
-      <c r="P32" s="177" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="33" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N33" s="177" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="O33" s="177" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="P33" s="177" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="34" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N34" s="177" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="O34" s="177" t="s">
-        <v>359</v>
+        <v>471</v>
       </c>
       <c r="P34" s="177" t="s">
-        <v>418</v>
+        <v>336</v>
       </c>
     </row>
     <row r="35" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N35" s="177" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="O35" s="177" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="P35" s="177" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="36" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N36" s="177" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="O36" s="177" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="P36" s="177" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="37" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N37" s="177" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="O37" s="177" t="s">
-        <v>376</v>
+        <v>440</v>
       </c>
       <c r="P37" s="177" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="38" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N38" s="177" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="O38" s="177" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="P38" s="177" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="39" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N39" s="177" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="O39" s="177" t="s">
         <v>446</v>
       </c>
       <c r="P39" s="177" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="40" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N40" s="177" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="O40" s="177" t="s">
-        <v>424</v>
+        <v>447</v>
       </c>
       <c r="P40" s="177" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="41" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N41" s="177" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="O41" s="177" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="P41" s="177" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="42" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N42" s="177" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="O42" s="177" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="P42" s="177" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="43" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N43" s="177" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="O43" s="177" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="P43" s="177" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="44" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N44" s="177" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="O44" s="177" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="P44" s="177" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="45" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N45" s="177" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="O45" s="177" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="P45" s="177" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="46" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N46" s="177" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="O46" s="177" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="P46" s="177" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="47" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N47" s="177" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="O47" s="177" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="P47" s="177" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="48" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N48" s="177" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="O48" s="177" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="P48" s="177" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="49" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N49" s="177" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="O49" s="177" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="P49" s="177" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="50" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N50" s="177" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="O50" s="177" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="P50" s="177" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="51" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N51" s="177" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="O51" s="177" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="P51" s="177" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="52" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N52" s="177" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="O52" s="177" t="s">
-        <v>458</v>
+        <v>419</v>
       </c>
       <c r="P52" s="177" t="s">
-        <v>418</v>
+        <v>473</v>
       </c>
     </row>
     <row r="53" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N53" s="177" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="O53" s="177" t="s">
-        <v>442</v>
+        <v>409</v>
       </c>
       <c r="P53" s="177" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="54" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N54" s="177" t="s">
-        <v>440</v>
-      </c>
-      <c r="O54" s="177" t="s">
-        <v>425</v>
-      </c>
-      <c r="P54" s="177" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="55" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N55" s="177" t="s">
-        <v>441</v>
-      </c>
-      <c r="O55" s="177" t="s">
-        <v>415</v>
-      </c>
-      <c r="P55" s="177" t="s">
-        <v>418</v>
-      </c>
-    </row>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="54" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="56" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="57" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="58" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4189,7 +4160,7 @@
     <col min="23" max="23" width="13.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A1" s="168" t="s">
         <v>184</v>
       </c>
@@ -4260,7 +4231,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A2" s="169">
         <v>1</v>
       </c>
@@ -4330,7 +4301,7 @@
         <v>0.6048</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A3" s="169">
         <v>2</v>
       </c>
@@ -4400,7 +4371,7 @@
         <v>0.58879999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A4" s="169">
         <v>3</v>
       </c>
@@ -4470,7 +4441,7 @@
         <v>0.51200000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A5" s="169">
         <v>4</v>
       </c>
@@ -4540,7 +4511,7 @@
         <v>0.312</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A6" s="169"/>
       <c r="B6" s="169" t="s">
         <v>215</v>
@@ -4590,7 +4561,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A7" s="169"/>
       <c r="B7" s="169" t="s">
         <v>216</v>
@@ -4640,7 +4611,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A8" s="169"/>
       <c r="B8" s="169" t="s">
         <v>217</v>
@@ -4690,7 +4661,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A9" s="169"/>
       <c r="B9" s="169"/>
       <c r="C9" s="169"/>
@@ -4738,7 +4709,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A10" s="169"/>
       <c r="B10" s="169"/>
       <c r="C10" s="169"/>
@@ -4786,7 +4757,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A11" s="169"/>
       <c r="B11" s="169"/>
       <c r="C11" s="169"/>
@@ -4834,7 +4805,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A12" s="169"/>
       <c r="B12" s="169"/>
       <c r="C12" s="169"/>
@@ -4882,7 +4853,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A13" s="169"/>
       <c r="B13" s="169"/>
       <c r="C13" s="169"/>
@@ -4930,7 +4901,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A14" s="169"/>
       <c r="B14" s="169"/>
       <c r="C14" s="169"/>
@@ -4978,7 +4949,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A15" s="169"/>
       <c r="B15" s="169"/>
       <c r="C15" s="169"/>
@@ -5026,7 +4997,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A16" s="169"/>
       <c r="B16" s="169"/>
       <c r="C16" s="169"/>
@@ -5074,7 +5045,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A17" s="169"/>
       <c r="B17" s="169"/>
       <c r="C17" s="169"/>
@@ -5122,7 +5093,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A18" s="169"/>
       <c r="B18" s="169"/>
       <c r="C18" s="169"/>
@@ -5170,7 +5141,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A19" s="169"/>
       <c r="B19" s="169"/>
       <c r="C19" s="169"/>
@@ -5218,7 +5189,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A20" s="169"/>
       <c r="B20" s="169"/>
       <c r="C20" s="169"/>
@@ -5266,7 +5237,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A21" s="169"/>
       <c r="B21" s="169"/>
       <c r="C21" s="169"/>
@@ -5314,7 +5285,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A22" s="169"/>
       <c r="B22" s="169"/>
       <c r="C22" s="169"/>
@@ -5362,7 +5333,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A23" s="169"/>
       <c r="B23" s="169"/>
       <c r="C23" s="169"/>
@@ -6666,7 +6637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -6725,12 +6696,12 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -6740,7 +6711,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
@@ -6760,7 +6731,7 @@
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.45">
@@ -6773,7 +6744,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:3" ht="14.65" x14ac:dyDescent="0.45">
       <c r="C24" s="178" t="s">
         <v>348</v>
       </c>
@@ -6790,7 +6761,7 @@
     </row>
     <row r="27" spans="3:3" ht="14.65" x14ac:dyDescent="0.45">
       <c r="C27" s="178" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -6818,7 +6789,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="179" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B1" s="174" t="s">
         <v>330</v>
@@ -8154,7 +8125,7 @@
       </c>
       <c r="U2" s="4"/>
     </row>
-    <row r="3" spans="1:26" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:26" ht="25.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3"/>
       <c r="B3" s="190"/>
       <c r="C3" s="192"/>
@@ -8202,7 +8173,7 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
       <c r="A4" s="3"/>
       <c r="B4" s="34">
         <v>1</v>
@@ -8267,7 +8238,7 @@
       <c r="U4" s="8"/>
       <c r="V4" s="9"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="42">
         <v>2</v>
@@ -8332,7 +8303,7 @@
       <c r="U5" s="8"/>
       <c r="V5" s="9"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="42">
         <v>3</v>
@@ -8397,7 +8368,7 @@
       <c r="U6" s="8"/>
       <c r="V6" s="9"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="42">
         <v>4</v>
@@ -8462,7 +8433,7 @@
       <c r="U7" s="8"/>
       <c r="V7" s="9"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="42">
         <v>5</v>
@@ -8527,7 +8498,7 @@
       <c r="U8" s="8"/>
       <c r="V8" s="9"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
       <c r="B9" s="42">
         <v>6</v>
@@ -8592,7 +8563,7 @@
       <c r="U9" s="8"/>
       <c r="V9" s="9"/>
     </row>
-    <row r="10" spans="1:26" ht="12" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:26" ht="12.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3"/>
       <c r="B10" s="44">
         <v>7</v>
@@ -8657,7 +8628,7 @@
       <c r="U10" s="8"/>
       <c r="V10" s="9"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="34">
         <v>8</v>
@@ -8722,7 +8693,7 @@
       <c r="U11" s="8"/>
       <c r="V11" s="9"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="42">
         <v>9</v>
@@ -8787,7 +8758,7 @@
       <c r="U12" s="8"/>
       <c r="V12" s="9"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="42">
         <v>10</v>
@@ -8852,7 +8823,7 @@
       <c r="U13" s="8"/>
       <c r="V13" s="9"/>
     </row>
-    <row r="14" spans="1:26" ht="12" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:26" ht="12.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="3"/>
       <c r="B14" s="44">
         <v>11</v>
@@ -8917,7 +8888,7 @@
       <c r="U14" s="8"/>
       <c r="V14" s="9"/>
     </row>
-    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:26" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="57">
         <v>12</v>
@@ -8963,7 +8934,7 @@
       <c r="U15" s="8"/>
       <c r="V15" s="9"/>
     </row>
-    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:26" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="64">
         <v>13</v>
@@ -9009,7 +8980,7 @@
       <c r="U16" s="8"/>
       <c r="V16" s="9"/>
     </row>
-    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="64">
         <v>14</v>
@@ -9055,7 +9026,7 @@
       <c r="U17" s="8"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="64">
         <v>15</v>
@@ -9101,7 +9072,7 @@
       <c r="U18" s="8"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="64">
         <v>16</v>
@@ -9147,7 +9118,7 @@
       <c r="U19" s="8"/>
       <c r="V19" s="9"/>
     </row>
-    <row r="20" spans="1:22" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:22" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="3"/>
       <c r="B20" s="91">
         <v>17</v>
@@ -9193,7 +9164,7 @@
       <c r="U20" s="8"/>
       <c r="V20" s="9"/>
     </row>
-    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="107">
         <v>18</v>
@@ -9239,7 +9210,7 @@
       <c r="U21" s="8"/>
       <c r="V21" s="9"/>
     </row>
-    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="115">
         <v>19</v>
@@ -9285,7 +9256,7 @@
       <c r="U22" s="8"/>
       <c r="V22" s="9"/>
     </row>
-    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="115">
         <v>20</v>
@@ -9331,7 +9302,7 @@
       <c r="U23" s="8"/>
       <c r="V23" s="9"/>
     </row>
-    <row r="24" spans="1:22" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:22" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="3"/>
       <c r="B24" s="117">
         <v>21</v>
@@ -9377,7 +9348,7 @@
       <c r="U24" s="8"/>
       <c r="V24" s="9"/>
     </row>
-    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="99">
         <v>22</v>
@@ -9423,7 +9394,7 @@
       <c r="U25" s="8"/>
       <c r="V25" s="9"/>
     </row>
-    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="B26" s="76">
         <v>23</v>
@@ -9469,7 +9440,7 @@
       <c r="U26" s="8"/>
       <c r="V26" s="9"/>
     </row>
-    <row r="27" spans="1:22" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:22" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="3"/>
       <c r="B27" s="78">
         <v>24</v>
@@ -9515,7 +9486,7 @@
       <c r="U27" s="8"/>
       <c r="V27" s="9"/>
     </row>
-    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" s="71">
         <v>25</v>
@@ -9561,7 +9532,7 @@
       <c r="U28" s="8"/>
       <c r="V28" s="9"/>
     </row>
-    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" s="76">
         <v>26</v>
@@ -9607,7 +9578,7 @@
       <c r="U29" s="8"/>
       <c r="V29" s="9"/>
     </row>
-    <row r="30" spans="1:22" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:22" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="3"/>
       <c r="B30" s="78">
         <v>27</v>
@@ -10291,7 +10262,7 @@
       <c r="AC3" s="132"/>
       <c r="AD3" s="132"/>
     </row>
-    <row r="4" spans="1:458" ht="151.15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:458" ht="160.9" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>61</v>
       </c>
@@ -10336,7 +10307,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:458" ht="93" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:458" ht="99" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>60</v>
       </c>
@@ -10375,7 +10346,7 @@
       <c r="AO5" s="173"/>
       <c r="AP5" s="173"/>
     </row>
-    <row r="6" spans="1:458" ht="93" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:458" ht="99" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>62</v>
       </c>
@@ -10414,7 +10385,7 @@
       <c r="AO6" s="173"/>
       <c r="AP6" s="173"/>
     </row>
-    <row r="7" spans="1:458" ht="116.25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:458" ht="123.75" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>63</v>
       </c>

--- a/Offline/BusinessManagement/MarketingMasterPlan-May-2023.xlsx
+++ b/Offline/BusinessManagement/MarketingMasterPlan-May-2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Offline\BusinessManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE28EA6-CDA7-4FF8-B362-3E323A70ED75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED1C167-41BE-451E-92C5-D25C2F0DC686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="779" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,9 @@
     <sheet name="Home" sheetId="1" r:id="rId7"/>
     <sheet name="Artworks" sheetId="12" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MarketingPlan!$N$1:$P$53</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3157,11 +3160,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P28" sqref="P28"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6640625" defaultRowHeight="12.4" x14ac:dyDescent="0.4"/>
@@ -3250,10 +3254,10 @@
         <v>337</v>
       </c>
       <c r="P2" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="186"/>
       <c r="B3" s="175" t="s">
         <v>464</v>
@@ -3279,7 +3283,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="186"/>
       <c r="B4" s="175" t="s">
         <v>423</v>
@@ -3331,7 +3335,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="184" t="s">
         <v>260</v>
       </c>
@@ -3359,7 +3363,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="186"/>
       <c r="B7" s="175" t="s">
         <v>275</v>
@@ -3385,7 +3389,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="186"/>
       <c r="B8" s="175" t="s">
         <v>284</v>
@@ -3411,7 +3415,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="185"/>
       <c r="B9" s="175" t="s">
         <v>278</v>
@@ -3465,7 +3469,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="186"/>
       <c r="B11" s="175" t="s">
         <v>460</v>
@@ -3491,7 +3495,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="185"/>
       <c r="B12" s="175" t="s">
         <v>277</v>
@@ -3517,7 +3521,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="184" t="s">
         <v>261</v>
       </c>
@@ -3545,7 +3549,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="186"/>
       <c r="B14" s="175" t="s">
         <v>285</v>
@@ -3571,7 +3575,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="186"/>
       <c r="B15" s="175" t="s">
         <v>282</v>
@@ -3597,7 +3601,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="185"/>
       <c r="B16" s="175" t="s">
         <v>279</v>
@@ -3648,10 +3652,10 @@
         <v>354</v>
       </c>
       <c r="P17" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="185"/>
       <c r="B18" s="175" t="s">
         <v>281</v>
@@ -3677,7 +3681,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="175" t="s">
         <v>263</v>
       </c>
@@ -3716,7 +3720,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N21" s="177" t="s">
         <v>390</v>
       </c>
@@ -3727,7 +3731,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N22" s="177" t="s">
         <v>391</v>
       </c>
@@ -3738,7 +3742,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N23" s="177" t="s">
         <v>406</v>
       </c>
@@ -3757,10 +3761,10 @@
         <v>352</v>
       </c>
       <c r="P24" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N25" s="177" t="s">
         <v>393</v>
       </c>
@@ -3771,7 +3775,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N26" s="177" t="s">
         <v>394</v>
       </c>
@@ -3793,7 +3797,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N28" s="177" t="s">
         <v>396</v>
       </c>
@@ -3804,7 +3808,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N29" s="177" t="s">
         <v>397</v>
       </c>
@@ -3815,7 +3819,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N30" s="177" t="s">
         <v>407</v>
       </c>
@@ -3834,10 +3838,10 @@
         <v>353</v>
       </c>
       <c r="P31" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N32" s="177" t="s">
         <v>399</v>
       </c>
@@ -3848,7 +3852,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="33" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N33" s="177" t="s">
         <v>400</v>
       </c>
@@ -3870,7 +3874,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="35" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N35" s="177" t="s">
         <v>402</v>
       </c>
@@ -3881,7 +3885,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="36" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N36" s="177" t="s">
         <v>403</v>
       </c>
@@ -3892,7 +3896,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="37" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N37" s="177" t="s">
         <v>410</v>
       </c>
@@ -3903,7 +3907,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="38" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N38" s="177" t="s">
         <v>411</v>
       </c>
@@ -3914,7 +3918,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="39" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N39" s="177" t="s">
         <v>413</v>
       </c>
@@ -3925,7 +3929,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="40" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N40" s="177" t="s">
         <v>414</v>
       </c>
@@ -3936,7 +3940,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="41" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N41" s="177" t="s">
         <v>415</v>
       </c>
@@ -3947,7 +3951,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="42" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N42" s="177" t="s">
         <v>416</v>
       </c>
@@ -3958,7 +3962,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="43" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N43" s="177" t="s">
         <v>425</v>
       </c>
@@ -3969,7 +3973,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="44" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N44" s="177" t="s">
         <v>426</v>
       </c>
@@ -3980,7 +3984,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="45" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N45" s="177" t="s">
         <v>427</v>
       </c>
@@ -3991,7 +3995,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="46" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N46" s="177" t="s">
         <v>428</v>
       </c>
@@ -4002,7 +4006,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="47" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N47" s="177" t="s">
         <v>429</v>
       </c>
@@ -4013,7 +4017,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="48" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N48" s="177" t="s">
         <v>430</v>
       </c>
@@ -4024,7 +4028,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="49" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N49" s="177" t="s">
         <v>431</v>
       </c>
@@ -4035,7 +4039,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="50" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N50" s="177" t="s">
         <v>432</v>
       </c>
@@ -4046,7 +4050,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="51" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N51" s="177" t="s">
         <v>433</v>
       </c>
@@ -4057,7 +4061,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="52" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N52" s="177" t="s">
         <v>434</v>
       </c>
@@ -4068,7 +4072,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="53" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N53" s="177" t="s">
         <v>435</v>
       </c>
@@ -4110,6 +4114,21 @@
     <row r="82" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="83" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
+  <autoFilter ref="N1:P53" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="AI-Junior-Flyer"/>
+        <filter val="Commerce-Flyer"/>
+        <filter val="Commerce-Poster"/>
+        <filter val="Generic-Flyer"/>
+        <filter val="Generic-Poster"/>
+        <filter val="IIT-NEET-VIII-XII-Flyer"/>
+        <filter val="IIT-NEET-VIII-XII-Poster"/>
+        <filter val="IT-AI-Flyer"/>
+        <filter val="IT-AI-Poster"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="5">
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A2:A5"/>

--- a/Offline/BusinessManagement/MarketingMasterPlan-May-2023.xlsx
+++ b/Offline/BusinessManagement/MarketingMasterPlan-May-2023.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showObjects="none"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Offline\BusinessManagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Anodiam\Docs\Offline\BusinessManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED1C167-41BE-451E-92C5-D25C2F0DC686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="779" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19395" windowHeight="10395" tabRatio="779"/>
   </bookViews>
   <sheets>
     <sheet name="MarketingPlan" sheetId="14" r:id="rId1"/>
@@ -23,9 +22,9 @@
     <sheet name="Artworks" sheetId="12" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MarketingPlan!$N$1:$P$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MarketingPlan!$N$1:$Q$53</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="443">
   <si>
     <t>Medium</t>
   </si>
@@ -922,9 +921,6 @@
     <t>AI Appln to Schools</t>
   </si>
   <si>
-    <t>Artefact Name</t>
-  </si>
-  <si>
     <t>Join the AI Party</t>
   </si>
   <si>
@@ -1054,13 +1050,7 @@
     <t xml:space="preserve">Artefact # </t>
   </si>
   <si>
-    <t>AI-Junior-Flyer</t>
-  </si>
-  <si>
     <t>WIP</t>
-  </si>
-  <si>
-    <t>Generic-Flyer</t>
   </si>
   <si>
     <t>CBSE/ICSE/WB VIII to XII all subjects NEET &amp; IIT</t>
@@ -1107,72 +1097,6 @@
     <t>International Style Education Management</t>
   </si>
   <si>
-    <t>Commerce-Flyer</t>
-  </si>
-  <si>
-    <t>IT-AI-Flyer</t>
-  </si>
-  <si>
-    <t>IIT-NEET-VIII-XII-Flyer</t>
-  </si>
-  <si>
-    <t>AI-Junior-Flex</t>
-  </si>
-  <si>
-    <t>Commerce-Flex</t>
-  </si>
-  <si>
-    <t>IIT-NEET-VIII-XII-Flex</t>
-  </si>
-  <si>
-    <t>Generic-Flex</t>
-  </si>
-  <si>
-    <t>IT-AI-Flex</t>
-  </si>
-  <si>
-    <t>Generic-Sun-Pack</t>
-  </si>
-  <si>
-    <t>Generic-FB-Post</t>
-  </si>
-  <si>
-    <t>Generic-Insta-Reel</t>
-  </si>
-  <si>
-    <t>AI-Junior-FB-Post</t>
-  </si>
-  <si>
-    <t>AI-Junior-Insta-Reel</t>
-  </si>
-  <si>
-    <t>IIT-NEET-VIII-XII-Sun-Pack</t>
-  </si>
-  <si>
-    <t>IIT-NEET-VIII-XII-FB-Post</t>
-  </si>
-  <si>
-    <t>IIT-NEET-VIII-XII-Insta-Reel</t>
-  </si>
-  <si>
-    <t>Commerce-Sun-Pack</t>
-  </si>
-  <si>
-    <t>Commerce-FB-Post</t>
-  </si>
-  <si>
-    <t>Commerce-Insta-Reel</t>
-  </si>
-  <si>
-    <t>IT-AI-Sun-Pack</t>
-  </si>
-  <si>
-    <t>IT-AI-FB-Post</t>
-  </si>
-  <si>
-    <t>IT-AI-Insta-Reel</t>
-  </si>
-  <si>
     <t>1. A</t>
   </si>
   <si>
@@ -1275,12 +1199,6 @@
     <t>4. G</t>
   </si>
   <si>
-    <t>AI-Junior-School Proposals</t>
-  </si>
-  <si>
-    <t>Generic-Merch</t>
-  </si>
-  <si>
     <t>5. G</t>
   </si>
   <si>
@@ -1302,15 +1220,6 @@
     <t>6. D</t>
   </si>
   <si>
-    <t>AI-Junior-Sample-Projects</t>
-  </si>
-  <si>
-    <t>IT-AI-Sample-Projects</t>
-  </si>
-  <si>
-    <t>Generic-Internal-Signages</t>
-  </si>
-  <si>
     <t>&lt;-- Back to MarketingPlan</t>
   </si>
   <si>
@@ -1359,58 +1268,7 @@
     <t>6. O</t>
   </si>
   <si>
-    <t>Generic-Standee X 2</t>
-  </si>
-  <si>
-    <t>AI-Junior-Teacher-Catalog</t>
-  </si>
-  <si>
-    <t>IIT-NEET-VIII-XII-Teacher-Catalog</t>
-  </si>
-  <si>
-    <t>Commerce-Teacher-Catalog</t>
-  </si>
-  <si>
-    <t>IT-AI-Teacher-Catalog</t>
-  </si>
-  <si>
-    <t>Groomingl-Flyer</t>
-  </si>
-  <si>
-    <t>Grooming-Sun-Pack</t>
-  </si>
-  <si>
-    <t>Grooming-FB-Post</t>
-  </si>
-  <si>
-    <t>Grooming-Insta-Reel</t>
-  </si>
-  <si>
-    <t>Grooming-Teacher-Catalog</t>
-  </si>
-  <si>
-    <t>Vacancy-FB-Post</t>
-  </si>
-  <si>
-    <t>Vacancy-FB-Reels</t>
-  </si>
-  <si>
     <t>Price-Offer-Faculty-Timing</t>
-  </si>
-  <si>
-    <t>English-Flyer</t>
-  </si>
-  <si>
-    <t>English-FB-Post</t>
-  </si>
-  <si>
-    <t>English-Insta-Reel</t>
-  </si>
-  <si>
-    <t>English-Teacher-Catalog</t>
-  </si>
-  <si>
-    <t>English-Sun-Pack</t>
   </si>
   <si>
     <t>Largest Coaching Centre in Eastern India, 400+ different courses</t>
@@ -1450,9 +1308,6 @@
  User Subtype</t>
   </si>
   <si>
-    <t>Generic-Poster</t>
-  </si>
-  <si>
     <t>Justdial</t>
   </si>
   <si>
@@ -1462,22 +1317,73 @@
     <t>9073 700094</t>
   </si>
   <si>
-    <t>Commerce-Poster</t>
-  </si>
-  <si>
-    <t>IT-AI-Poster</t>
-  </si>
-  <si>
-    <t>IIT-NEET-VIII-XII-Poster</t>
-  </si>
-  <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Artefact</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>AI-Junior</t>
+  </si>
+  <si>
+    <t>Flyer</t>
+  </si>
+  <si>
+    <t>Flex</t>
+  </si>
+  <si>
+    <t>Sun-Pack</t>
+  </si>
+  <si>
+    <t>Poster</t>
+  </si>
+  <si>
+    <t>FB-Post</t>
+  </si>
+  <si>
+    <t>Insta-Reel</t>
+  </si>
+  <si>
+    <t>Teacher-Catalog</t>
+  </si>
+  <si>
+    <t>School Proposals</t>
+  </si>
+  <si>
+    <t>Sample-Projects</t>
+  </si>
+  <si>
+    <t>IIT-NEET-VIII-XII</t>
+  </si>
+  <si>
+    <t>IT-AI</t>
+  </si>
+  <si>
+    <t>Vacancy</t>
+  </si>
+  <si>
+    <t>FB-Reel</t>
+  </si>
+  <si>
+    <t>Grooming</t>
+  </si>
+  <si>
+    <t>Standee X 2</t>
+  </si>
+  <si>
+    <t>Internal-Signages</t>
+  </si>
+  <si>
+    <t>Merch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3159,37 +3065,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:P83"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P24" sqref="P24"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6640625" defaultRowHeight="12.4" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.19921875" style="172" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="172" customWidth="1"/>
-    <col min="3" max="12" width="11.3984375" style="172" customWidth="1"/>
-    <col min="13" max="13" width="1.46484375" style="172" customWidth="1"/>
-    <col min="14" max="14" width="7.1328125" style="172" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.06640625" style="172" customWidth="1"/>
-    <col min="16" max="16" width="6.796875" style="172" bestFit="1" customWidth="1"/>
-    <col min="17" max="47" width="13.6640625" style="172" customWidth="1"/>
-    <col min="48" max="16384" width="14.6640625" style="172"/>
+    <col min="1" max="1" width="9.140625" style="172" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="172" customWidth="1"/>
+    <col min="3" max="12" width="11.42578125" style="172" customWidth="1"/>
+    <col min="13" max="13" width="1.42578125" style="172" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="172" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="172" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21" style="172" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" style="172" bestFit="1" customWidth="1"/>
+    <col min="18" max="48" width="13.7109375" style="172" customWidth="1"/>
+    <col min="49" max="16384" width="14.7109375" style="172"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="37.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="175" t="s">
         <v>264</v>
       </c>
       <c r="B1" s="176" t="s">
-        <v>465</v>
+        <v>418</v>
       </c>
       <c r="C1" s="175" t="s">
-        <v>421</v>
+        <v>391</v>
       </c>
       <c r="D1" s="175" t="s">
         <v>286</v>
@@ -3198,7 +3105,7 @@
         <v>287</v>
       </c>
       <c r="F1" s="175" t="s">
-        <v>468</v>
+        <v>420</v>
       </c>
       <c r="G1" s="175" t="s">
         <v>273</v>
@@ -3207,7 +3114,7 @@
         <v>288</v>
       </c>
       <c r="I1" s="175" t="s">
-        <v>467</v>
+        <v>419</v>
       </c>
       <c r="J1" s="175" t="s">
         <v>274</v>
@@ -3220,21 +3127,24 @@
       </c>
       <c r="M1" s="173"/>
       <c r="N1" s="175" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O1" s="175" t="s">
-        <v>291</v>
+        <v>30</v>
       </c>
       <c r="P1" s="175" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+        <v>423</v>
+      </c>
+      <c r="Q1" s="175" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="184" t="s">
         <v>265</v>
       </c>
       <c r="B2" s="175" t="s">
-        <v>422</v>
+        <v>392</v>
       </c>
       <c r="C2" s="181"/>
       <c r="D2" s="181"/>
@@ -3248,19 +3158,22 @@
       <c r="L2" s="182"/>
       <c r="M2" s="173"/>
       <c r="N2" s="177" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="O2" s="177" t="s">
-        <v>337</v>
+        <v>424</v>
       </c>
       <c r="P2" s="177" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+        <v>426</v>
+      </c>
+      <c r="Q2" s="177" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="186"/>
       <c r="B3" s="175" t="s">
-        <v>464</v>
+        <v>417</v>
       </c>
       <c r="C3" s="181"/>
       <c r="D3" s="181"/>
@@ -3274,19 +3187,22 @@
       <c r="L3" s="183"/>
       <c r="M3" s="173"/>
       <c r="N3" s="177" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="O3" s="177" t="s">
-        <v>358</v>
+        <v>424</v>
       </c>
       <c r="P3" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+        <v>427</v>
+      </c>
+      <c r="Q3" s="177" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="186"/>
       <c r="B4" s="175" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="C4" s="181"/>
       <c r="D4" s="181"/>
@@ -3300,19 +3216,20 @@
       <c r="L4" s="183"/>
       <c r="M4" s="173"/>
       <c r="N4" s="177" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="O4" s="177" t="s">
-        <v>360</v>
+        <v>424</v>
       </c>
       <c r="P4" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+        <v>428</v>
+      </c>
+      <c r="Q4" s="177"/>
+    </row>
+    <row r="5" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="185"/>
       <c r="B5" s="175" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="C5" s="181"/>
       <c r="D5" s="181"/>
@@ -3326,16 +3243,19 @@
       <c r="L5" s="183"/>
       <c r="M5" s="173"/>
       <c r="N5" s="177" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="O5" s="177" t="s">
-        <v>466</v>
+        <v>424</v>
       </c>
       <c r="P5" s="177" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+        <v>429</v>
+      </c>
+      <c r="Q5" s="177" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="184" t="s">
         <v>260</v>
       </c>
@@ -3354,16 +3274,17 @@
       <c r="L6" s="183"/>
       <c r="M6" s="173"/>
       <c r="N6" s="177" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="O6" s="177" t="s">
-        <v>361</v>
+        <v>424</v>
       </c>
       <c r="P6" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+        <v>430</v>
+      </c>
+      <c r="Q6" s="177"/>
+    </row>
+    <row r="7" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="186"/>
       <c r="B7" s="175" t="s">
         <v>275</v>
@@ -3380,16 +3301,19 @@
       <c r="L7" s="183"/>
       <c r="M7" s="173"/>
       <c r="N7" s="177" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="O7" s="177" t="s">
-        <v>362</v>
+        <v>424</v>
       </c>
       <c r="P7" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+        <v>431</v>
+      </c>
+      <c r="Q7" s="177" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="186"/>
       <c r="B8" s="175" t="s">
         <v>284</v>
@@ -3406,16 +3330,17 @@
       <c r="L8" s="183"/>
       <c r="M8" s="173"/>
       <c r="N8" s="177" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="O8" s="177" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="P8" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+        <v>406</v>
+      </c>
+      <c r="Q8" s="177"/>
+    </row>
+    <row r="9" spans="1:17" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="185"/>
       <c r="B9" s="175" t="s">
         <v>278</v>
@@ -3432,21 +3357,22 @@
       <c r="L9" s="183"/>
       <c r="M9" s="173"/>
       <c r="N9" s="177" t="s">
-        <v>457</v>
+        <v>410</v>
       </c>
       <c r="O9" s="177" t="s">
-        <v>458</v>
+        <v>424</v>
       </c>
       <c r="P9" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+        <v>411</v>
+      </c>
+      <c r="Q9" s="177"/>
+    </row>
+    <row r="10" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="184" t="s">
-        <v>462</v>
+        <v>415</v>
       </c>
       <c r="B10" s="175" t="s">
-        <v>461</v>
+        <v>414</v>
       </c>
       <c r="C10" s="180"/>
       <c r="D10" s="180"/>
@@ -3460,19 +3386,22 @@
       <c r="L10" s="183"/>
       <c r="M10" s="173"/>
       <c r="N10" s="177" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="O10" s="177" t="s">
-        <v>335</v>
+        <v>425</v>
       </c>
       <c r="P10" s="177" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+        <v>426</v>
+      </c>
+      <c r="Q10" s="177" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="186"/>
       <c r="B11" s="175" t="s">
-        <v>460</v>
+        <v>413</v>
       </c>
       <c r="C11" s="180"/>
       <c r="D11" s="180"/>
@@ -3486,16 +3415,19 @@
       <c r="L11" s="183"/>
       <c r="M11" s="173"/>
       <c r="N11" s="177" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="O11" s="177" t="s">
-        <v>355</v>
+        <v>425</v>
       </c>
       <c r="P11" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+        <v>427</v>
+      </c>
+      <c r="Q11" s="177" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="185"/>
       <c r="B12" s="175" t="s">
         <v>277</v>
@@ -3512,21 +3444,22 @@
       <c r="L12" s="180"/>
       <c r="M12" s="173"/>
       <c r="N12" s="177" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="O12" s="177" t="s">
-        <v>363</v>
+        <v>425</v>
       </c>
       <c r="P12" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+        <v>430</v>
+      </c>
+      <c r="Q12" s="177"/>
+    </row>
+    <row r="13" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="184" t="s">
         <v>261</v>
       </c>
       <c r="B13" s="175" t="s">
-        <v>424</v>
+        <v>394</v>
       </c>
       <c r="C13" s="180"/>
       <c r="D13" s="180"/>
@@ -3540,16 +3473,19 @@
       <c r="L13" s="183"/>
       <c r="M13" s="173"/>
       <c r="N13" s="177" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="O13" s="177" t="s">
-        <v>364</v>
+        <v>425</v>
       </c>
       <c r="P13" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+        <v>431</v>
+      </c>
+      <c r="Q13" s="177" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="186"/>
       <c r="B14" s="175" t="s">
         <v>285</v>
@@ -3566,16 +3502,17 @@
       <c r="L14" s="183"/>
       <c r="M14" s="173"/>
       <c r="N14" s="177" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="O14" s="177" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="P14" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+        <v>432</v>
+      </c>
+      <c r="Q14" s="177"/>
+    </row>
+    <row r="15" spans="1:17" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="186"/>
       <c r="B15" s="175" t="s">
         <v>282</v>
@@ -3592,16 +3529,17 @@
       <c r="L15" s="183"/>
       <c r="M15" s="173"/>
       <c r="N15" s="177" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="O15" s="177" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="P15" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+        <v>433</v>
+      </c>
+      <c r="Q15" s="177"/>
+    </row>
+    <row r="16" spans="1:17" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="185"/>
       <c r="B16" s="175" t="s">
         <v>279</v>
@@ -3618,16 +3556,17 @@
       <c r="L16" s="183"/>
       <c r="M16" s="173"/>
       <c r="N16" s="177" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="O16" s="177" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="P16" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+        <v>434</v>
+      </c>
+      <c r="Q16" s="177"/>
+    </row>
+    <row r="17" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="184" t="s">
         <v>262</v>
       </c>
@@ -3646,16 +3585,19 @@
       <c r="L17" s="183"/>
       <c r="M17" s="173"/>
       <c r="N17" s="177" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="O17" s="177" t="s">
-        <v>354</v>
+        <v>435</v>
       </c>
       <c r="P17" s="177" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+        <v>426</v>
+      </c>
+      <c r="Q17" s="177" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="185"/>
       <c r="B18" s="175" t="s">
         <v>281</v>
@@ -3672,16 +3614,19 @@
       <c r="L18" s="183"/>
       <c r="M18" s="173"/>
       <c r="N18" s="177" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="O18" s="177" t="s">
-        <v>357</v>
+        <v>435</v>
       </c>
       <c r="P18" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+        <v>427</v>
+      </c>
+      <c r="Q18" s="177" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="175" t="s">
         <v>263</v>
       </c>
@@ -3700,432 +3645,484 @@
       <c r="L19" s="183"/>
       <c r="M19" s="173"/>
       <c r="N19" s="177" t="s">
+        <v>363</v>
+      </c>
+      <c r="O19" s="177" t="s">
+        <v>435</v>
+      </c>
+      <c r="P19" s="177" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q19" s="177"/>
+    </row>
+    <row r="20" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N20" s="177" t="s">
+        <v>364</v>
+      </c>
+      <c r="O20" s="177" t="s">
+        <v>435</v>
+      </c>
+      <c r="P20" s="177" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q20" s="177" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N21" s="177" t="s">
+        <v>365</v>
+      </c>
+      <c r="O21" s="177" t="s">
+        <v>435</v>
+      </c>
+      <c r="P21" s="177" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q21" s="177"/>
+    </row>
+    <row r="22" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N22" s="177" t="s">
+        <v>366</v>
+      </c>
+      <c r="O22" s="177" t="s">
+        <v>435</v>
+      </c>
+      <c r="P22" s="177" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q22" s="177" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N23" s="177" t="s">
+        <v>381</v>
+      </c>
+      <c r="O23" s="177" t="s">
+        <v>435</v>
+      </c>
+      <c r="P23" s="177" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q23" s="177"/>
+    </row>
+    <row r="24" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N24" s="177" t="s">
+        <v>367</v>
+      </c>
+      <c r="O24" s="177" t="s">
+        <v>261</v>
+      </c>
+      <c r="P24" s="177" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q24" s="177" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N25" s="177" t="s">
+        <v>368</v>
+      </c>
+      <c r="O25" s="177" t="s">
+        <v>261</v>
+      </c>
+      <c r="P25" s="177" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q25" s="177" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N26" s="177" t="s">
+        <v>369</v>
+      </c>
+      <c r="O26" s="177" t="s">
+        <v>261</v>
+      </c>
+      <c r="P26" s="177" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q26" s="177"/>
+    </row>
+    <row r="27" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N27" s="177" t="s">
+        <v>370</v>
+      </c>
+      <c r="O27" s="177" t="s">
+        <v>261</v>
+      </c>
+      <c r="P27" s="177" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q27" s="177" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N28" s="177" t="s">
+        <v>371</v>
+      </c>
+      <c r="O28" s="177" t="s">
+        <v>261</v>
+      </c>
+      <c r="P28" s="177" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q28" s="177"/>
+    </row>
+    <row r="29" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N29" s="177" t="s">
+        <v>372</v>
+      </c>
+      <c r="O29" s="177" t="s">
+        <v>261</v>
+      </c>
+      <c r="P29" s="177" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q29" s="177" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N30" s="177" t="s">
+        <v>382</v>
+      </c>
+      <c r="O30" s="177" t="s">
+        <v>261</v>
+      </c>
+      <c r="P30" s="177" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q30" s="177"/>
+    </row>
+    <row r="31" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N31" s="177" t="s">
+        <v>373</v>
+      </c>
+      <c r="O31" s="177" t="s">
+        <v>436</v>
+      </c>
+      <c r="P31" s="177" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q31" s="177" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N32" s="177" t="s">
+        <v>374</v>
+      </c>
+      <c r="O32" s="177" t="s">
+        <v>436</v>
+      </c>
+      <c r="P32" s="177" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q32" s="177" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="33" spans="14:17" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N33" s="177" t="s">
+        <v>375</v>
+      </c>
+      <c r="O33" s="177" t="s">
+        <v>436</v>
+      </c>
+      <c r="P33" s="177" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q33" s="177"/>
+    </row>
+    <row r="34" spans="14:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N34" s="177" t="s">
+        <v>376</v>
+      </c>
+      <c r="O34" s="177" t="s">
+        <v>436</v>
+      </c>
+      <c r="P34" s="177" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q34" s="177" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="35" spans="14:17" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N35" s="177" t="s">
+        <v>377</v>
+      </c>
+      <c r="O35" s="177" t="s">
+        <v>436</v>
+      </c>
+      <c r="P35" s="177" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q35" s="177"/>
+    </row>
+    <row r="36" spans="14:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N36" s="177" t="s">
+        <v>378</v>
+      </c>
+      <c r="O36" s="177" t="s">
+        <v>436</v>
+      </c>
+      <c r="P36" s="177" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q36" s="177" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="37" spans="14:17" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N37" s="177" t="s">
+        <v>383</v>
+      </c>
+      <c r="O37" s="177" t="s">
+        <v>436</v>
+      </c>
+      <c r="P37" s="177" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q37" s="177"/>
+    </row>
+    <row r="38" spans="14:17" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N38" s="177" t="s">
+        <v>384</v>
+      </c>
+      <c r="O38" s="177" t="s">
+        <v>436</v>
+      </c>
+      <c r="P38" s="177" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q38" s="177"/>
+    </row>
+    <row r="39" spans="14:17" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N39" s="177" t="s">
+        <v>386</v>
+      </c>
+      <c r="O39" s="177" t="s">
+        <v>437</v>
+      </c>
+      <c r="P39" s="177" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q39" s="177"/>
+    </row>
+    <row r="40" spans="14:17" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N40" s="177" t="s">
+        <v>387</v>
+      </c>
+      <c r="O40" s="177" t="s">
+        <v>437</v>
+      </c>
+      <c r="P40" s="177" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q40" s="177"/>
+    </row>
+    <row r="41" spans="14:17" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N41" s="177" t="s">
         <v>388</v>
       </c>
-      <c r="O19" s="177" t="s">
-        <v>365</v>
-      </c>
-      <c r="P19" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N20" s="177" t="s">
+      <c r="O41" s="177" t="s">
+        <v>439</v>
+      </c>
+      <c r="P41" s="177" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q41" s="177"/>
+    </row>
+    <row r="42" spans="14:17" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N42" s="177" t="s">
         <v>389</v>
       </c>
-      <c r="O20" s="177" t="s">
-        <v>472</v>
-      </c>
-      <c r="P20" s="177" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N21" s="177" t="s">
-        <v>390</v>
-      </c>
-      <c r="O21" s="177" t="s">
-        <v>366</v>
-      </c>
-      <c r="P21" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N22" s="177" t="s">
-        <v>391</v>
-      </c>
-      <c r="O22" s="177" t="s">
-        <v>367</v>
-      </c>
-      <c r="P22" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N23" s="177" t="s">
-        <v>406</v>
-      </c>
-      <c r="O23" s="177" t="s">
-        <v>438</v>
-      </c>
-      <c r="P23" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N24" s="177" t="s">
-        <v>392</v>
-      </c>
-      <c r="O24" s="177" t="s">
-        <v>352</v>
-      </c>
-      <c r="P24" s="177" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N25" s="177" t="s">
-        <v>393</v>
-      </c>
-      <c r="O25" s="177" t="s">
-        <v>356</v>
-      </c>
-      <c r="P25" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N26" s="177" t="s">
-        <v>394</v>
-      </c>
-      <c r="O26" s="177" t="s">
-        <v>368</v>
-      </c>
-      <c r="P26" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N27" s="177" t="s">
+      <c r="O42" s="177" t="s">
+        <v>439</v>
+      </c>
+      <c r="P42" s="177" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q42" s="177"/>
+    </row>
+    <row r="43" spans="14:17" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N43" s="177" t="s">
         <v>395</v>
       </c>
-      <c r="O27" s="177" t="s">
-        <v>470</v>
-      </c>
-      <c r="P27" s="177" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N28" s="177" t="s">
+      <c r="O43" s="177" t="s">
+        <v>439</v>
+      </c>
+      <c r="P43" s="177" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q43" s="177"/>
+    </row>
+    <row r="44" spans="14:17" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N44" s="177" t="s">
         <v>396</v>
       </c>
-      <c r="O28" s="177" t="s">
-        <v>369</v>
-      </c>
-      <c r="P28" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N29" s="177" t="s">
+      <c r="O44" s="177" t="s">
+        <v>439</v>
+      </c>
+      <c r="P44" s="177" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q44" s="177"/>
+    </row>
+    <row r="45" spans="14:17" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N45" s="177" t="s">
         <v>397</v>
       </c>
-      <c r="O29" s="177" t="s">
-        <v>370</v>
-      </c>
-      <c r="P29" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N30" s="177" t="s">
-        <v>407</v>
-      </c>
-      <c r="O30" s="177" t="s">
+      <c r="O45" s="177" t="s">
         <v>439</v>
       </c>
-      <c r="P30" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N31" s="177" t="s">
+      <c r="P45" s="177" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q45" s="177"/>
+    </row>
+    <row r="46" spans="14:17" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N46" s="177" t="s">
         <v>398</v>
       </c>
-      <c r="O31" s="177" t="s">
-        <v>353</v>
-      </c>
-      <c r="P31" s="177" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N32" s="177" t="s">
+      <c r="O46" s="177" t="s">
+        <v>244</v>
+      </c>
+      <c r="P46" s="177" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q46" s="177"/>
+    </row>
+    <row r="47" spans="14:17" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N47" s="177" t="s">
         <v>399</v>
       </c>
-      <c r="O32" s="177" t="s">
-        <v>359</v>
-      </c>
-      <c r="P32" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="33" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N33" s="177" t="s">
+      <c r="O47" s="177" t="s">
+        <v>244</v>
+      </c>
+      <c r="P47" s="177" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q47" s="177"/>
+    </row>
+    <row r="48" spans="14:17" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N48" s="177" t="s">
         <v>400</v>
       </c>
-      <c r="O33" s="177" t="s">
-        <v>371</v>
-      </c>
-      <c r="P33" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="34" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N34" s="177" t="s">
+      <c r="O48" s="177" t="s">
+        <v>244</v>
+      </c>
+      <c r="P48" s="177" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q48" s="177"/>
+    </row>
+    <row r="49" spans="14:17" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N49" s="177" t="s">
         <v>401</v>
       </c>
-      <c r="O34" s="177" t="s">
-        <v>471</v>
-      </c>
-      <c r="P34" s="177" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="35" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N35" s="177" t="s">
+      <c r="O49" s="177" t="s">
+        <v>244</v>
+      </c>
+      <c r="P49" s="177" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q49" s="177"/>
+    </row>
+    <row r="50" spans="14:17" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N50" s="177" t="s">
         <v>402</v>
       </c>
-      <c r="O35" s="177" t="s">
-        <v>372</v>
-      </c>
-      <c r="P35" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="36" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N36" s="177" t="s">
+      <c r="O50" s="177" t="s">
+        <v>244</v>
+      </c>
+      <c r="P50" s="177" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q50" s="177"/>
+    </row>
+    <row r="51" spans="14:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N51" s="177" t="s">
         <v>403</v>
       </c>
-      <c r="O36" s="177" t="s">
-        <v>373</v>
-      </c>
-      <c r="P36" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="37" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N37" s="177" t="s">
-        <v>410</v>
-      </c>
-      <c r="O37" s="177" t="s">
+      <c r="O51" s="177" t="s">
+        <v>424</v>
+      </c>
+      <c r="P51" s="177" t="s">
         <v>440</v>
       </c>
-      <c r="P37" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="38" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N38" s="177" t="s">
-        <v>411</v>
-      </c>
-      <c r="O38" s="177" t="s">
-        <v>418</v>
-      </c>
-      <c r="P38" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="39" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N39" s="177" t="s">
-        <v>413</v>
-      </c>
-      <c r="O39" s="177" t="s">
-        <v>446</v>
-      </c>
-      <c r="P39" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="40" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N40" s="177" t="s">
-        <v>414</v>
-      </c>
-      <c r="O40" s="177" t="s">
-        <v>447</v>
-      </c>
-      <c r="P40" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="41" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N41" s="177" t="s">
-        <v>415</v>
-      </c>
-      <c r="O41" s="177" t="s">
+      <c r="Q51" s="177" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="52" spans="14:17" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N52" s="177" t="s">
+        <v>404</v>
+      </c>
+      <c r="O52" s="177" t="s">
+        <v>424</v>
+      </c>
+      <c r="P52" s="177" t="s">
         <v>441</v>
       </c>
-      <c r="P41" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="42" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N42" s="177" t="s">
-        <v>416</v>
-      </c>
-      <c r="O42" s="177" t="s">
+      <c r="Q52" s="177" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="53" spans="14:17" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N53" s="177" t="s">
+        <v>405</v>
+      </c>
+      <c r="O53" s="177" t="s">
+        <v>424</v>
+      </c>
+      <c r="P53" s="177" t="s">
         <v>442</v>
       </c>
-      <c r="P42" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="43" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N43" s="177" t="s">
-        <v>425</v>
-      </c>
-      <c r="O43" s="177" t="s">
-        <v>443</v>
-      </c>
-      <c r="P43" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="44" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N44" s="177" t="s">
-        <v>426</v>
-      </c>
-      <c r="O44" s="177" t="s">
-        <v>444</v>
-      </c>
-      <c r="P44" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="45" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N45" s="177" t="s">
-        <v>427</v>
-      </c>
-      <c r="O45" s="177" t="s">
-        <v>445</v>
-      </c>
-      <c r="P45" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="46" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N46" s="177" t="s">
-        <v>428</v>
-      </c>
-      <c r="O46" s="177" t="s">
-        <v>449</v>
-      </c>
-      <c r="P46" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="47" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N47" s="177" t="s">
-        <v>429</v>
-      </c>
-      <c r="O47" s="177" t="s">
-        <v>453</v>
-      </c>
-      <c r="P47" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="48" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N48" s="177" t="s">
-        <v>430</v>
-      </c>
-      <c r="O48" s="177" t="s">
-        <v>450</v>
-      </c>
-      <c r="P48" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="49" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N49" s="177" t="s">
-        <v>431</v>
-      </c>
-      <c r="O49" s="177" t="s">
-        <v>451</v>
-      </c>
-      <c r="P49" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="50" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N50" s="177" t="s">
-        <v>432</v>
-      </c>
-      <c r="O50" s="177" t="s">
-        <v>452</v>
-      </c>
-      <c r="P50" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="51" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N51" s="177" t="s">
-        <v>433</v>
-      </c>
-      <c r="O51" s="177" t="s">
-        <v>436</v>
-      </c>
-      <c r="P51" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="52" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N52" s="177" t="s">
-        <v>434</v>
-      </c>
-      <c r="O52" s="177" t="s">
-        <v>419</v>
-      </c>
-      <c r="P52" s="177" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="53" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N53" s="177" t="s">
-        <v>435</v>
-      </c>
-      <c r="O53" s="177" t="s">
-        <v>409</v>
-      </c>
-      <c r="P53" s="177" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="54" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="Q53" s="177"/>
+    </row>
+    <row r="54" spans="14:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="14:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="14:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="14:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="14:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="14:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="14:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="14:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="14:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="14:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="14:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="N1:P53" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
+  <autoFilter ref="N1:Q53">
+    <filterColumn colId="3">
       <filters>
-        <filter val="AI-Junior-Flyer"/>
-        <filter val="Commerce-Flyer"/>
-        <filter val="Commerce-Poster"/>
-        <filter val="Generic-Flyer"/>
-        <filter val="Generic-Poster"/>
-        <filter val="IIT-NEET-VIII-XII-Flyer"/>
-        <filter val="IIT-NEET-VIII-XII-Poster"/>
-        <filter val="IT-AI-Flyer"/>
-        <filter val="IT-AI-Poster"/>
+        <filter val="Planned"/>
+        <filter val="WIP"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -4136,50 +4133,47 @@
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="A10:A12"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="O2" location="Generic!A1" display="Generic-Flyer" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W85"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="W2" sqref="W2:W12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.86328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.1328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.46484375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.46484375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="168" t="s">
         <v>184</v>
       </c>
@@ -4250,7 +4244,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="169">
         <v>1</v>
       </c>
@@ -4320,7 +4314,7 @@
         <v>0.6048</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="169">
         <v>2</v>
       </c>
@@ -4390,7 +4384,7 @@
         <v>0.58879999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="169">
         <v>3</v>
       </c>
@@ -4460,7 +4454,7 @@
         <v>0.51200000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="169">
         <v>4</v>
       </c>
@@ -4530,7 +4524,7 @@
         <v>0.312</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="169"/>
       <c r="B6" s="169" t="s">
         <v>215</v>
@@ -4580,7 +4574,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="169"/>
       <c r="B7" s="169" t="s">
         <v>216</v>
@@ -4630,7 +4624,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="169"/>
       <c r="B8" s="169" t="s">
         <v>217</v>
@@ -4680,7 +4674,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="169"/>
       <c r="B9" s="169"/>
       <c r="C9" s="169"/>
@@ -4728,7 +4722,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="169"/>
       <c r="B10" s="169"/>
       <c r="C10" s="169"/>
@@ -4776,7 +4770,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="169"/>
       <c r="B11" s="169"/>
       <c r="C11" s="169"/>
@@ -4824,7 +4818,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="169"/>
       <c r="B12" s="169"/>
       <c r="C12" s="169"/>
@@ -4872,7 +4866,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="169"/>
       <c r="B13" s="169"/>
       <c r="C13" s="169"/>
@@ -4920,7 +4914,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="169"/>
       <c r="B14" s="169"/>
       <c r="C14" s="169"/>
@@ -4968,7 +4962,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="169"/>
       <c r="B15" s="169"/>
       <c r="C15" s="169"/>
@@ -5016,7 +5010,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="169"/>
       <c r="B16" s="169"/>
       <c r="C16" s="169"/>
@@ -5064,7 +5058,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="169"/>
       <c r="B17" s="169"/>
       <c r="C17" s="169"/>
@@ -5112,7 +5106,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="169"/>
       <c r="B18" s="169"/>
       <c r="C18" s="169"/>
@@ -5160,7 +5154,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="169"/>
       <c r="B19" s="169"/>
       <c r="C19" s="169"/>
@@ -5208,7 +5202,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="169"/>
       <c r="B20" s="169"/>
       <c r="C20" s="169"/>
@@ -5256,7 +5250,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="169"/>
       <c r="B21" s="169"/>
       <c r="C21" s="169"/>
@@ -5304,7 +5298,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="169"/>
       <c r="B22" s="169"/>
       <c r="C22" s="169"/>
@@ -5352,7 +5346,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="169"/>
       <c r="B23" s="169"/>
       <c r="C23" s="169"/>
@@ -5400,7 +5394,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="169"/>
       <c r="B24" s="169"/>
       <c r="C24" s="169"/>
@@ -5448,7 +5442,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="169"/>
       <c r="B25" s="169"/>
       <c r="C25" s="169"/>
@@ -5496,7 +5490,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="169"/>
       <c r="B26" s="169"/>
       <c r="C26" s="169"/>
@@ -5544,7 +5538,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="169"/>
       <c r="B27" s="169"/>
       <c r="C27" s="169"/>
@@ -5592,7 +5586,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="169"/>
       <c r="B28" s="169"/>
       <c r="C28" s="169"/>
@@ -5640,7 +5634,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="169"/>
       <c r="B29" s="169"/>
       <c r="C29" s="169"/>
@@ -5688,7 +5682,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="169"/>
       <c r="B30" s="169"/>
       <c r="C30" s="169"/>
@@ -5736,7 +5730,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="169"/>
       <c r="B31" s="169"/>
       <c r="C31" s="169"/>
@@ -5784,7 +5778,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="169"/>
       <c r="B32" s="169"/>
       <c r="C32" s="169"/>
@@ -5832,7 +5826,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="169"/>
       <c r="B33" s="169"/>
       <c r="C33" s="169"/>
@@ -5880,7 +5874,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="169"/>
       <c r="B34" s="169"/>
       <c r="C34" s="169"/>
@@ -5928,7 +5922,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="169"/>
       <c r="B35" s="169"/>
       <c r="C35" s="169"/>
@@ -5976,7 +5970,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="169"/>
       <c r="B36" s="169"/>
       <c r="C36" s="169"/>
@@ -6024,7 +6018,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="169"/>
       <c r="B37" s="169"/>
       <c r="C37" s="169"/>
@@ -6072,7 +6066,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="169"/>
       <c r="B38" s="169"/>
       <c r="C38" s="169"/>
@@ -6120,7 +6114,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="169"/>
       <c r="B39" s="169"/>
       <c r="C39" s="169"/>
@@ -6168,7 +6162,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="169"/>
       <c r="B40" s="169"/>
       <c r="C40" s="169"/>
@@ -6216,7 +6210,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="169"/>
       <c r="B41" s="169"/>
       <c r="C41" s="169"/>
@@ -6264,7 +6258,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="169"/>
       <c r="B42" s="169"/>
       <c r="C42" s="169"/>
@@ -6312,7 +6306,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="169"/>
       <c r="B43" s="169"/>
       <c r="C43" s="169"/>
@@ -6360,7 +6354,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -6380,7 +6374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F56" t="s">
         <v>222</v>
       </c>
@@ -6391,7 +6385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F57" t="s">
         <v>224</v>
       </c>
@@ -6402,7 +6396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F58" t="s">
         <v>225</v>
       </c>
@@ -6413,7 +6407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F59" t="s">
         <v>227</v>
       </c>
@@ -6424,7 +6418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F60" t="s">
         <v>228</v>
       </c>
@@ -6435,7 +6429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F61" t="s">
         <v>229</v>
       </c>
@@ -6446,7 +6440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F62" t="s">
         <v>230</v>
       </c>
@@ -6457,7 +6451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F63" t="s">
         <v>232</v>
       </c>
@@ -6468,7 +6462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F64" t="s">
         <v>233</v>
       </c>
@@ -6479,7 +6473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F65" t="s">
         <v>234</v>
       </c>
@@ -6490,7 +6484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F66" t="s">
         <v>236</v>
       </c>
@@ -6501,7 +6495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F67" t="s">
         <v>238</v>
       </c>
@@ -6512,7 +6506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F68" t="s">
         <v>239</v>
       </c>
@@ -6523,7 +6517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F69" t="s">
         <v>240</v>
       </c>
@@ -6534,7 +6528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F70" t="s">
         <v>242</v>
       </c>
@@ -6545,7 +6539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2</v>
       </c>
@@ -6565,7 +6559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F79" t="s">
         <v>247</v>
       </c>
@@ -6576,7 +6570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F80" t="s">
         <v>249</v>
       </c>
@@ -6587,7 +6581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F81" t="s">
         <v>251</v>
       </c>
@@ -6598,7 +6592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F82" t="s">
         <v>253</v>
       </c>
@@ -6609,7 +6603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F83" t="s">
         <v>254</v>
       </c>
@@ -6620,7 +6614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F84" t="s">
         <v>256</v>
       </c>
@@ -6631,7 +6625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F85" t="s">
         <v>258</v>
       </c>
@@ -6644,7 +6638,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2:V43" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2:V43">
       <formula1>"1, 2, 3, 4, 5"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6653,134 +6647,134 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="174" t="s">
+        <v>329</v>
+      </c>
+      <c r="B1" s="174" t="s">
         <v>330</v>
       </c>
-      <c r="B1" s="174" t="s">
+      <c r="C1" s="174" t="s">
         <v>331</v>
       </c>
-      <c r="C1" s="174" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="174" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="178" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C25" s="178" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C4" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C6" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C8" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C10" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C12" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C13" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C14" s="174" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C15" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C16" t="s">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="178" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C17" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C18" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C20" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C21" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C22" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="C24" s="178" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" ht="43.9" x14ac:dyDescent="0.45">
-      <c r="C25" s="178" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="C26" s="178" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="178" t="s">
-        <v>469</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -6790,263 +6784,263 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="52.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.46484375" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="179" t="s">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="B1" s="174" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1" s="174" t="s">
         <v>330</v>
       </c>
-      <c r="C1" s="174" t="s">
+      <c r="D1" s="174" t="s">
         <v>331</v>
       </c>
-      <c r="D1" s="174" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D8" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D17" t="s">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D18" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
         <v>321</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D21" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D22" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D23" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D24" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D25" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D27" t="s">
-        <v>322</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="MarketingPlan!A1" display="&lt;-- MarketingPlan" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A1" location="MarketingPlan!A1" display="&lt;-- MarketingPlan"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="4" width="52.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="4" width="52.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="174" t="s">
+        <v>329</v>
+      </c>
+      <c r="B1" s="174" t="s">
         <v>330</v>
       </c>
-      <c r="B1" s="174" t="s">
+      <c r="C1" s="174" t="s">
         <v>331</v>
       </c>
-      <c r="C1" s="174" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C11" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.45">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.45">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.45">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.45">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.45">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -7055,31 +7049,31 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="137" customWidth="1"/>
-    <col min="2" max="2" width="3.86328125" style="137" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="95.33203125" style="137" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.86328125" style="137" customWidth="1"/>
-    <col min="5" max="5" width="3.86328125" style="137" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="137" customWidth="1"/>
-    <col min="7" max="16384" width="8.86328125" style="137"/>
+    <col min="2" max="2" width="3.85546875" style="137" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="95.28515625" style="137" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" style="137" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" style="137" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="137" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="137"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="140"/>
       <c r="C1" s="140"/>
       <c r="E1" s="140"/>
       <c r="F1" s="140"/>
     </row>
-    <row r="2" spans="1:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="138"/>
       <c r="B2" s="143" t="s">
         <v>29</v>
@@ -7090,7 +7084,7 @@
       <c r="D2" s="142"/>
       <c r="G2" s="139"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="138"/>
       <c r="B3" s="145">
         <v>1</v>
@@ -7101,7 +7095,7 @@
       <c r="D3" s="142"/>
       <c r="G3" s="139"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="138"/>
       <c r="B4" s="145">
         <v>2</v>
@@ -7112,7 +7106,7 @@
       <c r="D4" s="142"/>
       <c r="G4" s="139"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="138"/>
       <c r="B5" s="145">
         <v>3</v>
@@ -7123,7 +7117,7 @@
       <c r="D5" s="142"/>
       <c r="G5" s="139"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="138"/>
       <c r="B6" s="145">
         <v>4</v>
@@ -7134,7 +7128,7 @@
       <c r="D6" s="142"/>
       <c r="G6" s="139"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="138"/>
       <c r="B7" s="145">
         <v>5</v>
@@ -7145,7 +7139,7 @@
       <c r="D7" s="142"/>
       <c r="G7" s="139"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="138"/>
       <c r="B8" s="145">
         <v>6</v>
@@ -7156,7 +7150,7 @@
       <c r="D8" s="142"/>
       <c r="G8" s="139"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="138"/>
       <c r="B9" s="147">
         <v>7</v>
@@ -7167,7 +7161,7 @@
       <c r="D9" s="142"/>
       <c r="G9" s="139"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="138"/>
       <c r="B10" s="147">
         <v>8</v>
@@ -7178,7 +7172,7 @@
       <c r="D10" s="142"/>
       <c r="G10" s="139"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="138"/>
       <c r="B11" s="147">
         <v>9</v>
@@ -7189,7 +7183,7 @@
       <c r="D11" s="142"/>
       <c r="G11" s="139"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="138"/>
       <c r="B12" s="147">
         <v>10</v>
@@ -7200,7 +7194,7 @@
       <c r="D12" s="142"/>
       <c r="G12" s="139"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="138"/>
       <c r="B13" s="147">
         <v>11</v>
@@ -7211,7 +7205,7 @@
       <c r="D13" s="142"/>
       <c r="G13" s="139"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="138"/>
       <c r="B14" s="147">
         <v>12</v>
@@ -7222,7 +7216,7 @@
       <c r="D14" s="142"/>
       <c r="G14" s="139"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="138"/>
       <c r="B15" s="149">
         <v>13</v>
@@ -7233,7 +7227,7 @@
       <c r="D15" s="142"/>
       <c r="G15" s="139"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="138"/>
       <c r="B16" s="149">
         <v>14</v>
@@ -7244,7 +7238,7 @@
       <c r="D16" s="142"/>
       <c r="G16" s="139"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="138"/>
       <c r="B17" s="149">
         <v>15</v>
@@ -7255,7 +7249,7 @@
       <c r="D17" s="142"/>
       <c r="G17" s="139"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="138"/>
       <c r="B18" s="149">
         <v>16</v>
@@ -7266,7 +7260,7 @@
       <c r="D18" s="142"/>
       <c r="G18" s="139"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="138"/>
       <c r="B19" s="149">
         <v>17</v>
@@ -7277,7 +7271,7 @@
       <c r="D19" s="142"/>
       <c r="G19" s="139"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="138"/>
       <c r="B20" s="149">
         <v>18</v>
@@ -7288,7 +7282,7 @@
       <c r="D20" s="142"/>
       <c r="G20" s="139"/>
     </row>
-    <row r="21" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="138"/>
       <c r="B21" s="151">
         <v>19</v>
@@ -7299,13 +7293,13 @@
       <c r="D21" s="142"/>
       <c r="G21" s="139"/>
     </row>
-    <row r="22" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="141"/>
       <c r="C22" s="141"/>
       <c r="D22" s="138"/>
       <c r="G22" s="139"/>
     </row>
-    <row r="23" spans="1:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B23" s="143" t="s">
         <v>29</v>
       </c>
@@ -7315,7 +7309,7 @@
       <c r="D23" s="138"/>
       <c r="G23" s="139"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="153">
         <v>1</v>
       </c>
@@ -7325,7 +7319,7 @@
       <c r="D24" s="138"/>
       <c r="G24" s="139"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" s="153">
         <v>2</v>
       </c>
@@ -7335,7 +7329,7 @@
       <c r="D25" s="138"/>
       <c r="G25" s="139"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" s="153">
         <v>3</v>
       </c>
@@ -7345,7 +7339,7 @@
       <c r="D26" s="138"/>
       <c r="G26" s="139"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" s="153">
         <v>4</v>
       </c>
@@ -7355,7 +7349,7 @@
       <c r="D27" s="138"/>
       <c r="G27" s="139"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="153">
         <v>5</v>
       </c>
@@ -7365,7 +7359,7 @@
       <c r="D28" s="138"/>
       <c r="G28" s="139"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="153">
         <v>6</v>
       </c>
@@ -7375,7 +7369,7 @@
       <c r="D29" s="138"/>
       <c r="G29" s="139"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="153">
         <v>7</v>
       </c>
@@ -7385,7 +7379,7 @@
       <c r="D30" s="138"/>
       <c r="G30" s="139"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="153">
         <v>8</v>
       </c>
@@ -7395,7 +7389,7 @@
       <c r="D31" s="138"/>
       <c r="G31" s="139"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="154">
         <v>9</v>
       </c>
@@ -7405,7 +7399,7 @@
       <c r="D32" s="138"/>
       <c r="G32" s="139"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="154">
         <v>10</v>
       </c>
@@ -7415,7 +7409,7 @@
       <c r="D33" s="138"/>
       <c r="G33" s="139"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="154">
         <v>11</v>
       </c>
@@ -7425,7 +7419,7 @@
       <c r="D34" s="138"/>
       <c r="G34" s="139"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="154">
         <v>12</v>
       </c>
@@ -7435,7 +7429,7 @@
       <c r="D35" s="138"/>
       <c r="G35" s="139"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="154">
         <v>13</v>
       </c>
@@ -7445,7 +7439,7 @@
       <c r="D36" s="138"/>
       <c r="G36" s="139"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="154">
         <v>14</v>
       </c>
@@ -7455,7 +7449,7 @@
       <c r="D37" s="138"/>
       <c r="G37" s="139"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="154">
         <v>15</v>
       </c>
@@ -7465,7 +7459,7 @@
       <c r="D38" s="138"/>
       <c r="G38" s="139"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="154">
         <v>16</v>
       </c>
@@ -7475,7 +7469,7 @@
       <c r="D39" s="138"/>
       <c r="G39" s="139"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="154">
         <v>17</v>
       </c>
@@ -7485,7 +7479,7 @@
       <c r="D40" s="138"/>
       <c r="G40" s="139"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="154">
         <v>18</v>
       </c>
@@ -7495,7 +7489,7 @@
       <c r="D41" s="138"/>
       <c r="G41" s="139"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="154">
         <v>19</v>
       </c>
@@ -7505,7 +7499,7 @@
       <c r="D42" s="138"/>
       <c r="G42" s="139"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="154">
         <v>20</v>
       </c>
@@ -7515,7 +7509,7 @@
       <c r="D43" s="138"/>
       <c r="G43" s="139"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="154">
         <v>21</v>
       </c>
@@ -7525,7 +7519,7 @@
       <c r="D44" s="138"/>
       <c r="G44" s="139"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="154">
         <v>22</v>
       </c>
@@ -7535,7 +7529,7 @@
       <c r="D45" s="138"/>
       <c r="G45" s="139"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="154">
         <v>23</v>
       </c>
@@ -7545,7 +7539,7 @@
       <c r="D46" s="138"/>
       <c r="G46" s="139"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="154">
         <v>24</v>
       </c>
@@ -7555,7 +7549,7 @@
       <c r="D47" s="138"/>
       <c r="G47" s="139"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="154">
         <v>25</v>
       </c>
@@ -7565,7 +7559,7 @@
       <c r="D48" s="138"/>
       <c r="G48" s="139"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="156">
         <v>26</v>
       </c>
@@ -7575,7 +7569,7 @@
       <c r="D49" s="138"/>
       <c r="G49" s="139"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="156">
         <v>27</v>
       </c>
@@ -7585,7 +7579,7 @@
       <c r="D50" s="138"/>
       <c r="G50" s="139"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="156">
         <v>28</v>
       </c>
@@ -7595,7 +7589,7 @@
       <c r="D51" s="138"/>
       <c r="G51" s="139"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="156">
         <v>29</v>
       </c>
@@ -7605,7 +7599,7 @@
       <c r="D52" s="138"/>
       <c r="G52" s="139"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="156">
         <v>30</v>
       </c>
@@ -7615,7 +7609,7 @@
       <c r="D53" s="138"/>
       <c r="G53" s="139"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="156">
         <v>31</v>
       </c>
@@ -7625,7 +7619,7 @@
       <c r="D54" s="138"/>
       <c r="G54" s="139"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="156">
         <v>32</v>
       </c>
@@ -7635,7 +7629,7 @@
       <c r="D55" s="138"/>
       <c r="G55" s="139"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="156">
         <v>33</v>
       </c>
@@ -7645,7 +7639,7 @@
       <c r="D56" s="138"/>
       <c r="G56" s="139"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="156">
         <v>34</v>
       </c>
@@ -7655,7 +7649,7 @@
       <c r="D57" s="138"/>
       <c r="G57" s="139"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="156">
         <v>35</v>
       </c>
@@ -7665,7 +7659,7 @@
       <c r="D58" s="138"/>
       <c r="G58" s="139"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="156">
         <v>36</v>
       </c>
@@ -7675,7 +7669,7 @@
       <c r="D59" s="138"/>
       <c r="G59" s="139"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="156">
         <v>37</v>
       </c>
@@ -7685,7 +7679,7 @@
       <c r="D60" s="138"/>
       <c r="G60" s="139"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="156">
         <v>38</v>
       </c>
@@ -7695,7 +7689,7 @@
       <c r="D61" s="138"/>
       <c r="G61" s="139"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="156">
         <v>39</v>
       </c>
@@ -7705,7 +7699,7 @@
       <c r="D62" s="138"/>
       <c r="G62" s="139"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="156">
         <v>40</v>
       </c>
@@ -7715,7 +7709,7 @@
       <c r="D63" s="138"/>
       <c r="G63" s="139"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="154">
         <v>41</v>
       </c>
@@ -7725,7 +7719,7 @@
       <c r="D64" s="138"/>
       <c r="G64" s="139"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="154">
         <v>42</v>
       </c>
@@ -7735,7 +7729,7 @@
       <c r="D65" s="138"/>
       <c r="G65" s="139"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="154">
         <v>43</v>
       </c>
@@ -7745,7 +7739,7 @@
       <c r="D66" s="138"/>
       <c r="G66" s="139"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="154">
         <v>44</v>
       </c>
@@ -7755,7 +7749,7 @@
       <c r="D67" s="138"/>
       <c r="G67" s="139"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="154">
         <v>45</v>
       </c>
@@ -7765,7 +7759,7 @@
       <c r="D68" s="138"/>
       <c r="G68" s="139"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="154">
         <v>46</v>
       </c>
@@ -7775,7 +7769,7 @@
       <c r="D69" s="138"/>
       <c r="G69" s="139"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="154">
         <v>47</v>
       </c>
@@ -7785,7 +7779,7 @@
       <c r="D70" s="138"/>
       <c r="G70" s="139"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="154">
         <v>48</v>
       </c>
@@ -7795,7 +7789,7 @@
       <c r="D71" s="138"/>
       <c r="G71" s="139"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="158">
         <v>49</v>
       </c>
@@ -7803,7 +7797,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="158">
         <v>50</v>
       </c>
@@ -7811,7 +7805,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="158">
         <v>51</v>
       </c>
@@ -7821,7 +7815,7 @@
       <c r="D74" s="138"/>
       <c r="G74" s="139"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="154">
         <v>52</v>
       </c>
@@ -7831,7 +7825,7 @@
       <c r="D75" s="138"/>
       <c r="G75" s="139"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="154">
         <v>53</v>
       </c>
@@ -7841,7 +7835,7 @@
       <c r="D76" s="138"/>
       <c r="G76" s="139"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="160">
         <v>54</v>
       </c>
@@ -7851,7 +7845,7 @@
       <c r="D77" s="138"/>
       <c r="G77" s="139"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="160">
         <v>55</v>
       </c>
@@ -7861,7 +7855,7 @@
       <c r="E78" s="141"/>
       <c r="F78" s="141"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="160">
         <v>56</v>
       </c>
@@ -7869,7 +7863,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="160">
         <v>57</v>
       </c>
@@ -7877,7 +7871,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="160">
         <v>58</v>
       </c>
@@ -7885,7 +7879,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="160">
         <v>59</v>
       </c>
@@ -7893,7 +7887,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="160">
         <v>60</v>
       </c>
@@ -7901,7 +7895,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="160">
         <v>61</v>
       </c>
@@ -7909,7 +7903,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="160">
         <v>62</v>
       </c>
@@ -7917,7 +7911,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="160">
         <v>63</v>
       </c>
@@ -7925,7 +7919,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="160">
         <v>64</v>
       </c>
@@ -7933,7 +7927,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="160">
         <v>65</v>
       </c>
@@ -7941,7 +7935,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="160">
         <v>66</v>
       </c>
@@ -7949,7 +7943,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="160">
         <v>67</v>
       </c>
@@ -7957,7 +7951,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="160">
         <v>68</v>
       </c>
@@ -7965,7 +7959,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="160">
         <v>69</v>
       </c>
@@ -7973,7 +7967,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="160">
         <v>70</v>
       </c>
@@ -7981,7 +7975,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="160">
         <v>71</v>
       </c>
@@ -7989,7 +7983,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="160">
         <v>72</v>
       </c>
@@ -7997,7 +7991,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="160">
         <v>73</v>
       </c>
@@ -8005,7 +7999,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="160">
         <v>74</v>
       </c>
@@ -8013,7 +8007,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="160">
         <v>75</v>
       </c>
@@ -8021,7 +8015,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="162">
         <v>76</v>
       </c>
@@ -8029,7 +8023,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="100" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="100" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="164">
         <v>77</v>
       </c>
@@ -8037,7 +8031,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="101" spans="2:3" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="101" spans="2:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8045,7 +8039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -8055,32 +8049,32 @@
       <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="11.65" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.86328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.1328125" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.1328125" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="5.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.86328125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="2.86328125" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.86328125" style="1"/>
+    <col min="14" max="14" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.85546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="2.85546875" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:26" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -8101,7 +8095,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="16.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:26" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="189" t="s">
         <v>29</v>
@@ -8144,7 +8138,7 @@
       </c>
       <c r="U2" s="4"/>
     </row>
-    <row r="3" spans="1:26" ht="25.15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:26" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="190"/>
       <c r="C3" s="192"/>
@@ -8192,7 +8186,7 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="34">
         <v>1</v>
@@ -8257,7 +8251,7 @@
       <c r="U4" s="8"/>
       <c r="V4" s="9"/>
     </row>
-    <row r="5" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="42">
         <v>2</v>
@@ -8322,7 +8316,7 @@
       <c r="U5" s="8"/>
       <c r="V5" s="9"/>
     </row>
-    <row r="6" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="42">
         <v>3</v>
@@ -8387,7 +8381,7 @@
       <c r="U6" s="8"/>
       <c r="V6" s="9"/>
     </row>
-    <row r="7" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="42">
         <v>4</v>
@@ -8452,7 +8446,7 @@
       <c r="U7" s="8"/>
       <c r="V7" s="9"/>
     </row>
-    <row r="8" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="42">
         <v>5</v>
@@ -8517,7 +8511,7 @@
       <c r="U8" s="8"/>
       <c r="V8" s="9"/>
     </row>
-    <row r="9" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="42">
         <v>6</v>
@@ -8582,7 +8576,7 @@
       <c r="U9" s="8"/>
       <c r="V9" s="9"/>
     </row>
-    <row r="10" spans="1:26" ht="12.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:26" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="44">
         <v>7</v>
@@ -8647,7 +8641,7 @@
       <c r="U10" s="8"/>
       <c r="V10" s="9"/>
     </row>
-    <row r="11" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="34">
         <v>8</v>
@@ -8712,7 +8706,7 @@
       <c r="U11" s="8"/>
       <c r="V11" s="9"/>
     </row>
-    <row r="12" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:26" ht="24" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="42">
         <v>9</v>
@@ -8777,7 +8771,7 @@
       <c r="U12" s="8"/>
       <c r="V12" s="9"/>
     </row>
-    <row r="13" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="42">
         <v>10</v>
@@ -8842,7 +8836,7 @@
       <c r="U13" s="8"/>
       <c r="V13" s="9"/>
     </row>
-    <row r="14" spans="1:26" ht="12.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:26" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="44">
         <v>11</v>
@@ -8907,7 +8901,7 @@
       <c r="U14" s="8"/>
       <c r="V14" s="9"/>
     </row>
-    <row r="15" spans="1:26" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="57">
         <v>12</v>
@@ -8953,7 +8947,7 @@
       <c r="U15" s="8"/>
       <c r="V15" s="9"/>
     </row>
-    <row r="16" spans="1:26" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="64">
         <v>13</v>
@@ -8999,7 +8993,7 @@
       <c r="U16" s="8"/>
       <c r="V16" s="9"/>
     </row>
-    <row r="17" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="64">
         <v>14</v>
@@ -9045,7 +9039,7 @@
       <c r="U17" s="8"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="64">
         <v>15</v>
@@ -9091,7 +9085,7 @@
       <c r="U18" s="8"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="64">
         <v>16</v>
@@ -9137,7 +9131,7 @@
       <c r="U19" s="8"/>
       <c r="V19" s="9"/>
     </row>
-    <row r="20" spans="1:22" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:22" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="91">
         <v>17</v>
@@ -9183,7 +9177,7 @@
       <c r="U20" s="8"/>
       <c r="V20" s="9"/>
     </row>
-    <row r="21" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="107">
         <v>18</v>
@@ -9229,7 +9223,7 @@
       <c r="U21" s="8"/>
       <c r="V21" s="9"/>
     </row>
-    <row r="22" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="115">
         <v>19</v>
@@ -9275,7 +9269,7 @@
       <c r="U22" s="8"/>
       <c r="V22" s="9"/>
     </row>
-    <row r="23" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="115">
         <v>20</v>
@@ -9321,7 +9315,7 @@
       <c r="U23" s="8"/>
       <c r="V23" s="9"/>
     </row>
-    <row r="24" spans="1:22" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:22" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="117">
         <v>21</v>
@@ -9367,7 +9361,7 @@
       <c r="U24" s="8"/>
       <c r="V24" s="9"/>
     </row>
-    <row r="25" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="99">
         <v>22</v>
@@ -9413,7 +9407,7 @@
       <c r="U25" s="8"/>
       <c r="V25" s="9"/>
     </row>
-    <row r="26" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="76">
         <v>23</v>
@@ -9459,7 +9453,7 @@
       <c r="U26" s="8"/>
       <c r="V26" s="9"/>
     </row>
-    <row r="27" spans="1:22" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:22" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="78">
         <v>24</v>
@@ -9505,7 +9499,7 @@
       <c r="U27" s="8"/>
       <c r="V27" s="9"/>
     </row>
-    <row r="28" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="71">
         <v>25</v>
@@ -9551,7 +9545,7 @@
       <c r="U28" s="8"/>
       <c r="V28" s="9"/>
     </row>
-    <row r="29" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="76">
         <v>26</v>
@@ -9597,7 +9591,7 @@
       <c r="U29" s="8"/>
       <c r="V29" s="9"/>
     </row>
-    <row r="30" spans="1:22" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:22" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="78">
         <v>27</v>
@@ -9643,7 +9637,7 @@
       <c r="U30" s="8"/>
       <c r="V30" s="9"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -9679,28 +9673,28 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="8">
-    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H5 T22:T23 T6:T16 I21 I24 G6:H27" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H5 T22:T23 T6:T16 I21 I24 G6:H27">
       <formula1>45051</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H27 E4:F30" xr:uid="{00000000-0002-0000-0600-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H27 E4:F30">
       <formula1>"Yes, No, Partial, N/A"</formula1>
     </dataValidation>
-    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Date Field" error="Date Field" sqref="G15:G26 T8 T10:T27" xr:uid="{00000000-0002-0000-0600-000002000000}">
+    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Date Field" error="Date Field" sqref="G15:G26 T8 T10:T27">
       <formula1>45051</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C27" xr:uid="{00000000-0002-0000-0600-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C27">
       <formula1>"Digital, Traditional"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M4:M30" xr:uid="{00000000-0002-0000-0600-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M4:M30">
       <formula1>"New, Planned, WIP, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" errorTitle="Invalid Input" error="Please select 1-5 from dropdown" sqref="O4:Q30" xr:uid="{00000000-0002-0000-0600-000005000000}">
+    <dataValidation type="list" showErrorMessage="1" errorTitle="Invalid Input" error="Please select 1-5 from dropdown" sqref="O4:Q30">
       <formula1>"1, 2, 3, 4, 5"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Value" error="Please enter a positive whole number!" sqref="N4:R30" xr:uid="{00000000-0002-0000-0600-000006000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Value" error="Please enter a positive whole number!" sqref="N4:R30">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I30" xr:uid="{00000000-0002-0000-0600-000007000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I30">
       <formula1>"Daily Twice, Daily, Weekly Twice, Weekly, Fortnightly, Monthly, One off, N/A, TBD"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9710,7 +9704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:QP33"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -9720,14 +9714,14 @@
       <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="458" width="3.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="458" width="3.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:458" ht="51.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:458" ht="51" x14ac:dyDescent="0.25">
       <c r="C1" s="133">
         <v>45052</v>
       </c>
@@ -10212,7 +10206,7 @@
       <c r="QO1" s="128"/>
       <c r="QP1" s="128"/>
     </row>
-    <row r="2" spans="1:458" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:458" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -10248,7 +10242,7 @@
       <c r="AC2" s="132"/>
       <c r="AD2" s="132"/>
     </row>
-    <row r="3" spans="1:458" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:458" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>66</v>
       </c>
@@ -10281,7 +10275,7 @@
       <c r="AC3" s="132"/>
       <c r="AD3" s="132"/>
     </row>
-    <row r="4" spans="1:458" ht="160.9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:458" ht="168" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>61</v>
       </c>
@@ -10326,7 +10320,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:458" ht="99" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:458" ht="108" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>60</v>
       </c>
@@ -10365,7 +10359,7 @@
       <c r="AO5" s="173"/>
       <c r="AP5" s="173"/>
     </row>
-    <row r="6" spans="1:458" ht="99" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:458" ht="120" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>62</v>
       </c>
@@ -10404,7 +10398,7 @@
       <c r="AO6" s="173"/>
       <c r="AP6" s="173"/>
     </row>
-    <row r="7" spans="1:458" ht="123.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:458" ht="144" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>63</v>
       </c>
@@ -10443,7 +10437,7 @@
       <c r="AO7" s="173"/>
       <c r="AP7" s="173"/>
     </row>
-    <row r="8" spans="1:458" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:458" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>67</v>
       </c>
@@ -10476,7 +10470,7 @@
       <c r="AC8" s="132"/>
       <c r="AD8" s="132"/>
     </row>
-    <row r="9" spans="1:458" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:458" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>68</v>
       </c>
@@ -10509,7 +10503,7 @@
       <c r="AC9" s="132"/>
       <c r="AD9" s="132"/>
     </row>
-    <row r="10" spans="1:458" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:458" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>69</v>
       </c>
@@ -10542,7 +10536,7 @@
       <c r="AC10" s="132"/>
       <c r="AD10" s="132"/>
     </row>
-    <row r="11" spans="1:458" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:458" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>70</v>
       </c>
@@ -10575,7 +10569,7 @@
       <c r="AC11" s="132"/>
       <c r="AD11" s="132"/>
     </row>
-    <row r="12" spans="1:458" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:458" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>71</v>
       </c>
@@ -10608,7 +10602,7 @@
       <c r="AC12" s="132"/>
       <c r="AD12" s="132"/>
     </row>
-    <row r="13" spans="1:458" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:458" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>72</v>
       </c>
@@ -10641,7 +10635,7 @@
       <c r="AC13" s="132"/>
       <c r="AD13" s="132"/>
     </row>
-    <row r="14" spans="1:458" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:458" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>73</v>
       </c>
@@ -10674,7 +10668,7 @@
       <c r="AC14" s="132"/>
       <c r="AD14" s="132"/>
     </row>
-    <row r="15" spans="1:458" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:458" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>74</v>
       </c>
@@ -10707,7 +10701,7 @@
       <c r="AC15" s="132"/>
       <c r="AD15" s="132"/>
     </row>
-    <row r="16" spans="1:458" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:458" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>75</v>
       </c>
@@ -10740,7 +10734,7 @@
       <c r="AC16" s="132"/>
       <c r="AD16" s="132"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>76</v>
       </c>
@@ -10773,7 +10767,7 @@
       <c r="AC17" s="132"/>
       <c r="AD17" s="132"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -10809,7 +10803,7 @@
       <c r="AC18" s="132"/>
       <c r="AD18" s="132"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>78</v>
       </c>
@@ -10842,7 +10836,7 @@
       <c r="AC19" s="132"/>
       <c r="AD19" s="132"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>61</v>
       </c>
@@ -10875,7 +10869,7 @@
       <c r="AC20" s="132"/>
       <c r="AD20" s="132"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>60</v>
       </c>
@@ -10908,7 +10902,7 @@
       <c r="AC21" s="132"/>
       <c r="AD21" s="132"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>62</v>
       </c>
@@ -10941,7 +10935,7 @@
       <c r="AC22" s="132"/>
       <c r="AD22" s="132"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>63</v>
       </c>
@@ -10974,7 +10968,7 @@
       <c r="AC23" s="132"/>
       <c r="AD23" s="132"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>79</v>
       </c>
@@ -11007,7 +11001,7 @@
       <c r="AC24" s="132"/>
       <c r="AD24" s="132"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>80</v>
       </c>
@@ -11040,7 +11034,7 @@
       <c r="AC25" s="132"/>
       <c r="AD25" s="132"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>81</v>
       </c>
@@ -11073,7 +11067,7 @@
       <c r="AC26" s="132"/>
       <c r="AD26" s="132"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>82</v>
       </c>
@@ -11106,7 +11100,7 @@
       <c r="AC27" s="132"/>
       <c r="AD27" s="132"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>83</v>
       </c>
@@ -11139,7 +11133,7 @@
       <c r="AC28" s="132"/>
       <c r="AD28" s="132"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>84</v>
       </c>
@@ -11172,7 +11166,7 @@
       <c r="AC29" s="132"/>
       <c r="AD29" s="132"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>85</v>
       </c>
@@ -11205,7 +11199,7 @@
       <c r="AC30" s="132"/>
       <c r="AD30" s="132"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>86</v>
       </c>
@@ -11238,7 +11232,7 @@
       <c r="AC31" s="132"/>
       <c r="AD31" s="132"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>87</v>
       </c>
@@ -11271,7 +11265,7 @@
       <c r="AC32" s="132"/>
       <c r="AD32" s="132"/>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>88</v>
       </c>

--- a/Offline/BusinessManagement/MarketingMasterPlan-May-2023.xlsx
+++ b/Offline/BusinessManagement/MarketingMasterPlan-May-2023.xlsx
@@ -3070,8 +3070,8 @@
   <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3170,7 +3170,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="186"/>
       <c r="B3" s="175" t="s">
         <v>417</v>
@@ -3226,7 +3226,7 @@
       </c>
       <c r="Q4" s="177"/>
     </row>
-    <row r="5" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="185"/>
       <c r="B5" s="175" t="s">
         <v>416</v>
@@ -3284,7 +3284,7 @@
       </c>
       <c r="Q6" s="177"/>
     </row>
-    <row r="7" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="186"/>
       <c r="B7" s="175" t="s">
         <v>275</v>
@@ -3398,7 +3398,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="186"/>
       <c r="B11" s="175" t="s">
         <v>413</v>
@@ -3454,7 +3454,7 @@
       </c>
       <c r="Q12" s="177"/>
     </row>
-    <row r="13" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="184" t="s">
         <v>261</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="185"/>
       <c r="B18" s="175" t="s">
         <v>281</v>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="Q19" s="177"/>
     </row>
-    <row r="20" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N20" s="177" t="s">
         <v>364</v>
       </c>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="Q21" s="177"/>
     </row>
-    <row r="22" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N22" s="177" t="s">
         <v>366</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N25" s="177" t="s">
         <v>368</v>
       </c>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="Q26" s="177"/>
     </row>
-    <row r="27" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N27" s="177" t="s">
         <v>370</v>
       </c>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="Q28" s="177"/>
     </row>
-    <row r="29" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N29" s="177" t="s">
         <v>372</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N32" s="177" t="s">
         <v>374</v>
       </c>
@@ -3839,7 +3839,7 @@
       </c>
       <c r="Q33" s="177"/>
     </row>
-    <row r="34" spans="14:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="14:17" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N34" s="177" t="s">
         <v>376</v>
       </c>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="Q35" s="177"/>
     </row>
-    <row r="36" spans="14:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="14:17" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N36" s="177" t="s">
         <v>378</v>
       </c>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="Q40" s="177"/>
     </row>
-    <row r="41" spans="14:17" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="14:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N41" s="177" t="s">
         <v>388</v>
       </c>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="Q45" s="177"/>
     </row>
-    <row r="46" spans="14:17" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="14:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N46" s="177" t="s">
         <v>398</v>
       </c>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="Q50" s="177"/>
     </row>
-    <row r="51" spans="14:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="14:17" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N51" s="177" t="s">
         <v>403</v>
       </c>
@@ -4119,10 +4119,9 @@
     <row r="83" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="N1:Q53">
-    <filterColumn colId="3">
+    <filterColumn colId="2">
       <filters>
-        <filter val="Planned"/>
-        <filter val="WIP"/>
+        <filter val="Flyer"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Offline/BusinessManagement/MarketingMasterPlan-May-2023.xlsx
+++ b/Offline/BusinessManagement/MarketingMasterPlan-May-2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Offline\BusinessManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED1C167-41BE-451E-92C5-D25C2F0DC686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EAE601-62A2-4F5E-A459-00FD563413A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="779" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25490" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="779" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MarketingPlan" sheetId="14" r:id="rId1"/>
@@ -2344,7 +2344,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2877,6 +2877,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3160,12 +3163,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P24" sqref="P24"/>
+      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6640625" defaultRowHeight="12.4" x14ac:dyDescent="0.4"/>
@@ -3239,7 +3241,7 @@
       <c r="C2" s="181"/>
       <c r="D2" s="181"/>
       <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
+      <c r="F2" s="183"/>
       <c r="G2" s="180"/>
       <c r="H2" s="180"/>
       <c r="I2" s="182"/>
@@ -3257,7 +3259,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="186"/>
       <c r="B3" s="175" t="s">
         <v>464</v>
@@ -3283,7 +3285,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="186"/>
       <c r="B4" s="175" t="s">
         <v>423</v>
@@ -3335,7 +3337,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="184" t="s">
         <v>260</v>
       </c>
@@ -3363,7 +3365,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="186"/>
       <c r="B7" s="175" t="s">
         <v>275</v>
@@ -3389,7 +3391,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="186"/>
       <c r="B8" s="175" t="s">
         <v>284</v>
@@ -3415,7 +3417,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="185"/>
       <c r="B9" s="175" t="s">
         <v>278</v>
@@ -3469,7 +3471,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="186"/>
       <c r="B11" s="175" t="s">
         <v>460</v>
@@ -3495,7 +3497,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="185"/>
       <c r="B12" s="175" t="s">
         <v>277</v>
@@ -3521,7 +3523,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="184" t="s">
         <v>261</v>
       </c>
@@ -3549,7 +3551,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="186"/>
       <c r="B14" s="175" t="s">
         <v>285</v>
@@ -3575,7 +3577,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="186"/>
       <c r="B15" s="175" t="s">
         <v>282</v>
@@ -3601,7 +3603,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="185"/>
       <c r="B16" s="175" t="s">
         <v>279</v>
@@ -3655,7 +3657,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="185"/>
       <c r="B18" s="175" t="s">
         <v>281</v>
@@ -3681,7 +3683,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="175" t="s">
         <v>263</v>
       </c>
@@ -3720,7 +3722,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N21" s="177" t="s">
         <v>390</v>
       </c>
@@ -3731,7 +3733,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N22" s="177" t="s">
         <v>391</v>
       </c>
@@ -3742,7 +3744,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N23" s="177" t="s">
         <v>406</v>
       </c>
@@ -3764,7 +3766,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N25" s="177" t="s">
         <v>393</v>
       </c>
@@ -3775,7 +3777,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N26" s="177" t="s">
         <v>394</v>
       </c>
@@ -3797,7 +3799,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N28" s="177" t="s">
         <v>396</v>
       </c>
@@ -3808,7 +3810,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N29" s="177" t="s">
         <v>397</v>
       </c>
@@ -3819,7 +3821,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N30" s="177" t="s">
         <v>407</v>
       </c>
@@ -3841,7 +3843,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N32" s="177" t="s">
         <v>399</v>
       </c>
@@ -3852,14 +3854,14 @@
         <v>412</v>
       </c>
     </row>
-    <row r="33" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N33" s="177" t="s">
         <v>400</v>
       </c>
       <c r="O33" s="177" t="s">
         <v>371</v>
       </c>
-      <c r="P33" s="177" t="s">
+      <c r="P33" s="198" t="s">
         <v>412</v>
       </c>
     </row>
@@ -3874,7 +3876,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="35" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N35" s="177" t="s">
         <v>402</v>
       </c>
@@ -3885,7 +3887,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="36" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N36" s="177" t="s">
         <v>403</v>
       </c>
@@ -3896,7 +3898,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="37" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N37" s="177" t="s">
         <v>410</v>
       </c>
@@ -3907,7 +3909,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="38" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N38" s="177" t="s">
         <v>411</v>
       </c>
@@ -3918,7 +3920,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="39" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N39" s="177" t="s">
         <v>413</v>
       </c>
@@ -3929,7 +3931,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="40" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N40" s="177" t="s">
         <v>414</v>
       </c>
@@ -3940,7 +3942,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="41" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N41" s="177" t="s">
         <v>415</v>
       </c>
@@ -3951,7 +3953,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="42" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N42" s="177" t="s">
         <v>416</v>
       </c>
@@ -3962,7 +3964,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="43" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N43" s="177" t="s">
         <v>425</v>
       </c>
@@ -3973,7 +3975,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="44" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N44" s="177" t="s">
         <v>426</v>
       </c>
@@ -3984,7 +3986,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="45" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N45" s="177" t="s">
         <v>427</v>
       </c>
@@ -3995,7 +3997,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="46" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N46" s="177" t="s">
         <v>428</v>
       </c>
@@ -4006,7 +4008,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="47" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N47" s="177" t="s">
         <v>429</v>
       </c>
@@ -4017,7 +4019,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="48" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N48" s="177" t="s">
         <v>430</v>
       </c>
@@ -4028,7 +4030,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="49" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N49" s="177" t="s">
         <v>431</v>
       </c>
@@ -4039,7 +4041,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="50" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N50" s="177" t="s">
         <v>432</v>
       </c>
@@ -4050,7 +4052,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="51" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N51" s="177" t="s">
         <v>433</v>
       </c>
@@ -4058,10 +4060,10 @@
         <v>436</v>
       </c>
       <c r="P51" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="52" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N52" s="177" t="s">
         <v>434</v>
       </c>
@@ -4072,7 +4074,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="53" spans="14:16" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N53" s="177" t="s">
         <v>435</v>
       </c>
@@ -4114,21 +4116,7 @@
     <row r="82" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="83" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <autoFilter ref="N1:P53" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="AI-Junior-Flyer"/>
-        <filter val="Commerce-Flyer"/>
-        <filter val="Commerce-Poster"/>
-        <filter val="Generic-Flyer"/>
-        <filter val="Generic-Poster"/>
-        <filter val="IIT-NEET-VIII-XII-Flyer"/>
-        <filter val="IIT-NEET-VIII-XII-Poster"/>
-        <filter val="IT-AI-Flyer"/>
-        <filter val="IT-AI-Poster"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="N1:P53" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="5">
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A2:A5"/>
@@ -6656,9 +6644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>

--- a/Offline/BusinessManagement/MarketingMasterPlan-May-2023.xlsx
+++ b/Offline/BusinessManagement/MarketingMasterPlan-May-2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="none"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Offline\BusinessManagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EAE601-62A2-4F5E-A459-00FD563413A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955E2A1F-2DBA-411A-85F1-738AE7F7CAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="779" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="779" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MarketingPlan" sheetId="14" r:id="rId1"/>
@@ -18,24 +18,32 @@
     <sheet name="Generic" sheetId="17" r:id="rId3"/>
     <sheet name="AI-NExP" sheetId="16" r:id="rId4"/>
     <sheet name="AI-Junior" sheetId="15" r:id="rId5"/>
-    <sheet name="Website" sheetId="5" r:id="rId6"/>
-    <sheet name="Home" sheetId="1" r:id="rId7"/>
-    <sheet name="Artworks" sheetId="12" r:id="rId8"/>
+    <sheet name="Home" sheetId="1" r:id="rId6"/>
+    <sheet name="Artworks" sheetId="12" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MarketingPlan!$N$1:$P$53</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="379">
   <si>
     <t>Medium</t>
   </si>
@@ -302,303 +310,6 @@
   </si>
   <si>
     <t>Teacher Profile Post 10</t>
-  </si>
-  <si>
-    <t>Material UI</t>
-  </si>
-  <si>
-    <t>Skeleton UI</t>
-  </si>
-  <si>
-    <t>React Router 6</t>
-  </si>
-  <si>
-    <t>React JS</t>
-  </si>
-  <si>
-    <t>Firebase Database</t>
-  </si>
-  <si>
-    <t>Firestore File Management</t>
-  </si>
-  <si>
-    <t>Firebase Authentication</t>
-  </si>
-  <si>
-    <t>Authorization</t>
-  </si>
-  <si>
-    <t>Agile</t>
-  </si>
-  <si>
-    <t>Jira</t>
-  </si>
-  <si>
-    <t>Jest Unit Testing</t>
-  </si>
-  <si>
-    <t>Automation Testing (System / Integration Test)</t>
-  </si>
-  <si>
-    <t>React Native</t>
-  </si>
-  <si>
-    <t>Performance / Load Testing</t>
-  </si>
-  <si>
-    <t>Pen Testing</t>
-  </si>
-  <si>
-    <t>HDFC Payment Gateway (G Pay, Pay Pal, Credit / Debit Card)</t>
-  </si>
-  <si>
-    <t>Firebase Hosting</t>
-  </si>
-  <si>
-    <t>CICD (Git / Jenkins / Firebase)</t>
-  </si>
-  <si>
-    <t>Technologies to Use</t>
-  </si>
-  <si>
-    <t>Epics</t>
-  </si>
-  <si>
-    <t>Contact Us</t>
-  </si>
-  <si>
-    <t>My Profile - Student</t>
-  </si>
-  <si>
-    <t>Major Courses Tought</t>
-  </si>
-  <si>
-    <t>Search Courses</t>
-  </si>
-  <si>
-    <t>My Courses</t>
-  </si>
-  <si>
-    <t>Pay monthly tuition fees</t>
-  </si>
-  <si>
-    <t>My class notes</t>
-  </si>
-  <si>
-    <t>My progress card</t>
-  </si>
-  <si>
-    <t>My queries</t>
-  </si>
-  <si>
-    <t>My achievements</t>
-  </si>
-  <si>
-    <t>My own uploads &amp; notes</t>
-  </si>
-  <si>
-    <t>Teachers' profiles (Read Only)</t>
-  </si>
-  <si>
-    <t>Anodiam Policy Docs for Students</t>
-  </si>
-  <si>
-    <t>Anodiam Policy Docs for Teachers</t>
-  </si>
-  <si>
-    <t>Create Chapters</t>
-  </si>
-  <si>
-    <t>Upload materials &amp; Notes</t>
-  </si>
-  <si>
-    <t>Resolve Queries</t>
-  </si>
-  <si>
-    <t>Upload MCQs</t>
-  </si>
-  <si>
-    <t>Upload full length Practice tests</t>
-  </si>
-  <si>
-    <t>My MCQs</t>
-  </si>
-  <si>
-    <t>My practice test question papers</t>
-  </si>
-  <si>
-    <t>Upload my My Answer sheets</t>
-  </si>
-  <si>
-    <t>My answer papers (evaluate, correct and reply)</t>
-  </si>
-  <si>
-    <t>Publish achievements</t>
-  </si>
-  <si>
-    <t>Register, Login, Logout, Authorization, Authentication (Super Admin, Admin, Student, Teacher, Guardian)</t>
-  </si>
-  <si>
-    <t>My Students</t>
-  </si>
-  <si>
-    <t>My attendance Register</t>
-  </si>
-  <si>
-    <t>My attendence</t>
-  </si>
-  <si>
-    <t>My earnings</t>
-  </si>
-  <si>
-    <t>My Children - Guardian</t>
-  </si>
-  <si>
-    <t>My Guardian (Link / accept)</t>
-  </si>
-  <si>
-    <t>Link / approve My Child's Profile - Guardian</t>
-  </si>
-  <si>
-    <t>My Child's Courses</t>
-  </si>
-  <si>
-    <t>My child's progress card</t>
-  </si>
-  <si>
-    <t>My Inspirations</t>
-  </si>
-  <si>
-    <t>My child's achievements</t>
-  </si>
-  <si>
-    <t>My child's attendance</t>
-  </si>
-  <si>
-    <t>Enroll to courses (Buy online, pay yearly / monthly) (Check seats availability)</t>
-  </si>
-  <si>
-    <t>Enroll to courses (Buy online, pay yearly / monthly) - Guardian (Check seats availability)</t>
-  </si>
-  <si>
-    <t>Anodiam Policy Docs for Guardian</t>
-  </si>
-  <si>
-    <t>My payment statements</t>
-  </si>
-  <si>
-    <t>Create a Classroom - Admin</t>
-  </si>
-  <si>
-    <t>Create a period - Admin</t>
-  </si>
-  <si>
-    <t>Approve a Course and assign it to a classroom and period - Admin</t>
-  </si>
-  <si>
-    <t>Approve a Teacher to Join</t>
-  </si>
-  <si>
-    <t>Create / Edit My Profile - Teacher (Pic, CV, qualifications, credentials, testimonials)</t>
-  </si>
-  <si>
-    <t>Create a policy Doc and notify stakeholders</t>
-  </si>
-  <si>
-    <t>Approve a student to join</t>
-  </si>
-  <si>
-    <t>Student's Attendance Register</t>
-  </si>
-  <si>
-    <t>Teacher's Attendance Register</t>
-  </si>
-  <si>
-    <t>Approve a Guardian</t>
-  </si>
-  <si>
-    <t>Approve a material uploaded by teacher</t>
-  </si>
-  <si>
-    <t>Resolve a query by a student / Guardian</t>
-  </si>
-  <si>
-    <t>Raise a Query</t>
-  </si>
-  <si>
-    <t>Assign course fees and Teacher's share</t>
-  </si>
-  <si>
-    <t>Allow discount offers and adjust Teacher's shares</t>
-  </si>
-  <si>
-    <t>Approve an MCQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Approve a Practice Test Question </t>
-  </si>
-  <si>
-    <t>Approve a class note / Doc by a teacher to students</t>
-  </si>
-  <si>
-    <t>Approve a child's achievements</t>
-  </si>
-  <si>
-    <t>Approve an inspiration</t>
-  </si>
-  <si>
-    <t>Approve a communication from a teacher to a parent</t>
-  </si>
-  <si>
-    <t>Run payouts for teachers</t>
-  </si>
-  <si>
-    <t>Approve a teacher's feedback / rating</t>
-  </si>
-  <si>
-    <t>Dashboard of teachers's feedback / ratings</t>
-  </si>
-  <si>
-    <t>Marketing related modules</t>
-  </si>
-  <si>
-    <t>Expense reports</t>
-  </si>
-  <si>
-    <t>Give feedback/rating for a course/teacher/document / overall Anodiam etc.</t>
-  </si>
-  <si>
-    <t>Publish inspirations/encouragements</t>
-  </si>
-  <si>
-    <t>Publish to each parent (academic, behavioral, Special (Alert!, Share news, Share happiness))</t>
-  </si>
-  <si>
-    <t>Teacher's Communication  to parent (academic, behavioral, Special (Alert!, Share news, Share happiness))</t>
-  </si>
-  <si>
-    <t>Demo Lessons</t>
-  </si>
-  <si>
-    <t>About Anodiam (Carousel Control)</t>
-  </si>
-  <si>
-    <t>Home Page (About Anodiam + Login + Explore)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Chakra UI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt; Carausel</t>
-    </r>
   </si>
   <si>
     <t>SlNo</t>
@@ -1478,7 +1189,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1520,21 +1231,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1588,7 +1284,7 @@
       <name val="Oxygen"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1685,20 +1381,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="46">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -2158,133 +1842,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thick">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thick">
-        <color theme="1"/>
-      </right>
-      <top style="thick">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thick">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thick">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thick">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thick">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thick">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
     <border diagonalDown="1">
       <left style="thin">
         <color indexed="64"/>
@@ -2342,9 +1899,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2746,62 +2303,9 @@
     <xf numFmtId="14" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2811,39 +2315,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2877,9 +2384,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3165,956 +2669,956 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6640625" defaultRowHeight="12.4" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="14.6640625" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.19921875" style="172" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="172" customWidth="1"/>
-    <col min="3" max="12" width="11.3984375" style="172" customWidth="1"/>
-    <col min="13" max="13" width="1.46484375" style="172" customWidth="1"/>
-    <col min="14" max="14" width="7.1328125" style="172" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.06640625" style="172" customWidth="1"/>
-    <col min="16" max="16" width="6.796875" style="172" bestFit="1" customWidth="1"/>
-    <col min="17" max="47" width="13.6640625" style="172" customWidth="1"/>
-    <col min="48" max="16384" width="14.6640625" style="172"/>
+    <col min="1" max="1" width="9.21875" style="141" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="141" customWidth="1"/>
+    <col min="3" max="12" width="11.44140625" style="141" customWidth="1"/>
+    <col min="13" max="13" width="1.44140625" style="141" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="141" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.109375" style="141" customWidth="1"/>
+    <col min="16" max="16" width="6.77734375" style="141" bestFit="1" customWidth="1"/>
+    <col min="17" max="47" width="13.6640625" style="141" customWidth="1"/>
+    <col min="48" max="16384" width="14.6640625" style="141"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="37.15" x14ac:dyDescent="0.4">
-      <c r="A1" s="175" t="s">
+    <row r="1" spans="1:16" ht="36" x14ac:dyDescent="0.2">
+      <c r="A1" s="144" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="145" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1" s="144" t="s">
+        <v>326</v>
+      </c>
+      <c r="D1" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="144" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" s="144" t="s">
+        <v>373</v>
+      </c>
+      <c r="G1" s="144" t="s">
+        <v>178</v>
+      </c>
+      <c r="H1" s="144" t="s">
+        <v>193</v>
+      </c>
+      <c r="I1" s="144" t="s">
+        <v>372</v>
+      </c>
+      <c r="J1" s="144" t="s">
+        <v>179</v>
+      </c>
+      <c r="K1" s="144" t="s">
+        <v>194</v>
+      </c>
+      <c r="L1" s="144" t="s">
+        <v>195</v>
+      </c>
+      <c r="M1" s="142"/>
+      <c r="N1" s="144" t="s">
+        <v>239</v>
+      </c>
+      <c r="O1" s="144" t="s">
+        <v>196</v>
+      </c>
+      <c r="P1" s="144" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="154" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="144" t="s">
+        <v>327</v>
+      </c>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="146" t="s">
+        <v>279</v>
+      </c>
+      <c r="O2" s="146" t="s">
+        <v>242</v>
+      </c>
+      <c r="P2" s="146" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="156"/>
+      <c r="B3" s="144" t="s">
+        <v>369</v>
+      </c>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="146" t="s">
+        <v>280</v>
+      </c>
+      <c r="O3" s="146" t="s">
+        <v>263</v>
+      </c>
+      <c r="P3" s="146" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="156"/>
+      <c r="B4" s="144" t="s">
+        <v>328</v>
+      </c>
+      <c r="C4" s="150"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="152"/>
+      <c r="L4" s="152"/>
+      <c r="M4" s="142"/>
+      <c r="N4" s="146" t="s">
+        <v>281</v>
+      </c>
+      <c r="O4" s="146" t="s">
+        <v>265</v>
+      </c>
+      <c r="P4" s="146" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="155"/>
+      <c r="B5" s="144" t="s">
+        <v>368</v>
+      </c>
+      <c r="C5" s="150"/>
+      <c r="D5" s="150"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="149"/>
+      <c r="K5" s="152"/>
+      <c r="L5" s="152"/>
+      <c r="M5" s="142"/>
+      <c r="N5" s="146" t="s">
+        <v>282</v>
+      </c>
+      <c r="O5" s="146" t="s">
+        <v>371</v>
+      </c>
+      <c r="P5" s="146" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="154" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="144" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="149"/>
+      <c r="D6" s="149"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="149"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="149"/>
+      <c r="K6" s="149"/>
+      <c r="L6" s="152"/>
+      <c r="M6" s="142"/>
+      <c r="N6" s="146" t="s">
+        <v>283</v>
+      </c>
+      <c r="O6" s="146" t="s">
+        <v>266</v>
+      </c>
+      <c r="P6" s="146" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="156"/>
+      <c r="B7" s="144" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" s="149"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="152"/>
+      <c r="J7" s="149"/>
+      <c r="K7" s="152"/>
+      <c r="L7" s="152"/>
+      <c r="M7" s="142"/>
+      <c r="N7" s="146" t="s">
+        <v>284</v>
+      </c>
+      <c r="O7" s="146" t="s">
+        <v>267</v>
+      </c>
+      <c r="P7" s="146" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="156"/>
+      <c r="B8" s="144" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="149"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="152"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="152"/>
+      <c r="J8" s="149"/>
+      <c r="K8" s="149"/>
+      <c r="L8" s="152"/>
+      <c r="M8" s="142"/>
+      <c r="N8" s="146" t="s">
+        <v>309</v>
+      </c>
+      <c r="O8" s="146" t="s">
+        <v>353</v>
+      </c>
+      <c r="P8" s="146" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="155"/>
+      <c r="B9" s="144" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" s="149"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="149"/>
+      <c r="F9" s="149"/>
+      <c r="G9" s="152"/>
+      <c r="H9" s="149"/>
+      <c r="I9" s="152"/>
+      <c r="J9" s="149"/>
+      <c r="K9" s="152"/>
+      <c r="L9" s="152"/>
+      <c r="M9" s="142"/>
+      <c r="N9" s="146" t="s">
+        <v>362</v>
+      </c>
+      <c r="O9" s="146" t="s">
+        <v>363</v>
+      </c>
+      <c r="P9" s="146" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="154" t="s">
+        <v>367</v>
+      </c>
+      <c r="B10" s="144" t="s">
+        <v>366</v>
+      </c>
+      <c r="C10" s="149"/>
+      <c r="D10" s="149"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="149"/>
+      <c r="G10" s="152"/>
+      <c r="H10" s="149"/>
+      <c r="I10" s="152"/>
+      <c r="J10" s="149"/>
+      <c r="K10" s="149"/>
+      <c r="L10" s="152"/>
+      <c r="M10" s="142"/>
+      <c r="N10" s="146" t="s">
+        <v>285</v>
+      </c>
+      <c r="O10" s="146" t="s">
+        <v>240</v>
+      </c>
+      <c r="P10" s="146" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="156"/>
+      <c r="B11" s="144" t="s">
+        <v>365</v>
+      </c>
+      <c r="C11" s="149"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="152"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="152"/>
+      <c r="J11" s="149"/>
+      <c r="K11" s="149"/>
+      <c r="L11" s="152"/>
+      <c r="M11" s="142"/>
+      <c r="N11" s="146" t="s">
+        <v>286</v>
+      </c>
+      <c r="O11" s="146" t="s">
+        <v>260</v>
+      </c>
+      <c r="P11" s="146" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="155"/>
+      <c r="B12" s="144" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="149"/>
+      <c r="D12" s="152"/>
+      <c r="E12" s="152"/>
+      <c r="F12" s="152"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="152"/>
+      <c r="J12" s="149"/>
+      <c r="K12" s="149"/>
+      <c r="L12" s="149"/>
+      <c r="M12" s="142"/>
+      <c r="N12" s="146" t="s">
+        <v>287</v>
+      </c>
+      <c r="O12" s="146" t="s">
+        <v>268</v>
+      </c>
+      <c r="P12" s="146" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="154" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" s="144" t="s">
+        <v>329</v>
+      </c>
+      <c r="C13" s="149"/>
+      <c r="D13" s="149"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="149"/>
+      <c r="K13" s="149"/>
+      <c r="L13" s="152"/>
+      <c r="M13" s="142"/>
+      <c r="N13" s="146" t="s">
+        <v>288</v>
+      </c>
+      <c r="O13" s="146" t="s">
+        <v>269</v>
+      </c>
+      <c r="P13" s="146" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="156"/>
+      <c r="B14" s="144" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" s="149"/>
+      <c r="D14" s="149"/>
+      <c r="E14" s="149"/>
+      <c r="F14" s="149"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="149"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="149"/>
+      <c r="K14" s="149"/>
+      <c r="L14" s="152"/>
+      <c r="M14" s="142"/>
+      <c r="N14" s="146" t="s">
+        <v>289</v>
+      </c>
+      <c r="O14" s="146" t="s">
+        <v>342</v>
+      </c>
+      <c r="P14" s="146" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="156"/>
+      <c r="B15" s="144" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="149"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="149"/>
+      <c r="K15" s="149"/>
+      <c r="L15" s="152"/>
+      <c r="M15" s="142"/>
+      <c r="N15" s="146" t="s">
+        <v>290</v>
+      </c>
+      <c r="O15" s="146" t="s">
+        <v>313</v>
+      </c>
+      <c r="P15" s="146" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="155"/>
+      <c r="B16" s="144" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" s="149"/>
+      <c r="D16" s="149"/>
+      <c r="E16" s="149"/>
+      <c r="F16" s="149"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="149"/>
+      <c r="I16" s="152"/>
+      <c r="J16" s="149"/>
+      <c r="K16" s="152"/>
+      <c r="L16" s="152"/>
+      <c r="M16" s="142"/>
+      <c r="N16" s="146" t="s">
+        <v>310</v>
+      </c>
+      <c r="O16" s="146" t="s">
+        <v>322</v>
+      </c>
+      <c r="P16" s="146" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="154" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" s="149"/>
+      <c r="D17" s="149"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="152"/>
+      <c r="J17" s="149"/>
+      <c r="K17" s="149"/>
+      <c r="L17" s="152"/>
+      <c r="M17" s="142"/>
+      <c r="N17" s="146" t="s">
+        <v>291</v>
+      </c>
+      <c r="O17" s="146" t="s">
+        <v>259</v>
+      </c>
+      <c r="P17" s="146" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="155"/>
+      <c r="B18" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" s="149"/>
+      <c r="D18" s="149"/>
+      <c r="E18" s="149"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="149"/>
+      <c r="I18" s="152"/>
+      <c r="J18" s="149"/>
+      <c r="K18" s="152"/>
+      <c r="L18" s="152"/>
+      <c r="M18" s="142"/>
+      <c r="N18" s="146" t="s">
+        <v>292</v>
+      </c>
+      <c r="O18" s="146" t="s">
+        <v>262</v>
+      </c>
+      <c r="P18" s="146" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="144" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="144" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="149"/>
+      <c r="D19" s="149"/>
+      <c r="E19" s="149"/>
+      <c r="F19" s="149"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="149"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="149"/>
+      <c r="K19" s="149"/>
+      <c r="L19" s="152"/>
+      <c r="M19" s="142"/>
+      <c r="N19" s="146" t="s">
+        <v>293</v>
+      </c>
+      <c r="O19" s="146" t="s">
+        <v>270</v>
+      </c>
+      <c r="P19" s="146" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N20" s="146" t="s">
+        <v>294</v>
+      </c>
+      <c r="O20" s="146" t="s">
+        <v>377</v>
+      </c>
+      <c r="P20" s="146" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N21" s="146" t="s">
+        <v>295</v>
+      </c>
+      <c r="O21" s="146" t="s">
+        <v>271</v>
+      </c>
+      <c r="P21" s="146" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N22" s="146" t="s">
+        <v>296</v>
+      </c>
+      <c r="O22" s="146" t="s">
+        <v>272</v>
+      </c>
+      <c r="P22" s="146" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N23" s="146" t="s">
+        <v>311</v>
+      </c>
+      <c r="O23" s="146" t="s">
+        <v>343</v>
+      </c>
+      <c r="P23" s="146" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N24" s="146" t="s">
+        <v>297</v>
+      </c>
+      <c r="O24" s="146" t="s">
+        <v>257</v>
+      </c>
+      <c r="P24" s="146" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N25" s="146" t="s">
+        <v>298</v>
+      </c>
+      <c r="O25" s="146" t="s">
+        <v>261</v>
+      </c>
+      <c r="P25" s="146" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N26" s="146" t="s">
+        <v>299</v>
+      </c>
+      <c r="O26" s="146" t="s">
+        <v>273</v>
+      </c>
+      <c r="P26" s="146" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N27" s="146" t="s">
+        <v>300</v>
+      </c>
+      <c r="O27" s="146" t="s">
+        <v>375</v>
+      </c>
+      <c r="P27" s="146" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N28" s="146" t="s">
+        <v>301</v>
+      </c>
+      <c r="O28" s="146" t="s">
+        <v>274</v>
+      </c>
+      <c r="P28" s="146" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N29" s="146" t="s">
+        <v>302</v>
+      </c>
+      <c r="O29" s="146" t="s">
+        <v>275</v>
+      </c>
+      <c r="P29" s="146" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N30" s="146" t="s">
+        <v>312</v>
+      </c>
+      <c r="O30" s="146" t="s">
+        <v>344</v>
+      </c>
+      <c r="P30" s="146" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N31" s="146" t="s">
+        <v>303</v>
+      </c>
+      <c r="O31" s="146" t="s">
+        <v>258</v>
+      </c>
+      <c r="P31" s="146" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N32" s="146" t="s">
+        <v>304</v>
+      </c>
+      <c r="O32" s="146" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="176" t="s">
-        <v>465</v>
-      </c>
-      <c r="C1" s="175" t="s">
-        <v>421</v>
-      </c>
-      <c r="D1" s="175" t="s">
-        <v>286</v>
-      </c>
-      <c r="E1" s="175" t="s">
-        <v>287</v>
-      </c>
-      <c r="F1" s="175" t="s">
-        <v>468</v>
-      </c>
-      <c r="G1" s="175" t="s">
-        <v>273</v>
-      </c>
-      <c r="H1" s="175" t="s">
-        <v>288</v>
-      </c>
-      <c r="I1" s="175" t="s">
-        <v>467</v>
-      </c>
-      <c r="J1" s="175" t="s">
-        <v>274</v>
-      </c>
-      <c r="K1" s="175" t="s">
-        <v>289</v>
-      </c>
-      <c r="L1" s="175" t="s">
-        <v>290</v>
-      </c>
-      <c r="M1" s="173"/>
-      <c r="N1" s="175" t="s">
+      <c r="P32" s="146" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="33" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N33" s="146" t="s">
+        <v>305</v>
+      </c>
+      <c r="O33" s="146" t="s">
+        <v>276</v>
+      </c>
+      <c r="P33" s="153" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="34" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N34" s="146" t="s">
+        <v>306</v>
+      </c>
+      <c r="O34" s="146" t="s">
+        <v>376</v>
+      </c>
+      <c r="P34" s="146" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N35" s="146" t="s">
+        <v>307</v>
+      </c>
+      <c r="O35" s="146" t="s">
+        <v>277</v>
+      </c>
+      <c r="P35" s="146" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="36" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N36" s="146" t="s">
+        <v>308</v>
+      </c>
+      <c r="O36" s="146" t="s">
+        <v>278</v>
+      </c>
+      <c r="P36" s="146" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="37" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N37" s="146" t="s">
+        <v>315</v>
+      </c>
+      <c r="O37" s="146" t="s">
+        <v>345</v>
+      </c>
+      <c r="P37" s="146" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="38" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N38" s="146" t="s">
+        <v>316</v>
+      </c>
+      <c r="O38" s="146" t="s">
+        <v>323</v>
+      </c>
+      <c r="P38" s="146" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="39" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N39" s="146" t="s">
+        <v>318</v>
+      </c>
+      <c r="O39" s="146" t="s">
+        <v>351</v>
+      </c>
+      <c r="P39" s="146" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="40" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N40" s="146" t="s">
+        <v>319</v>
+      </c>
+      <c r="O40" s="146" t="s">
+        <v>352</v>
+      </c>
+      <c r="P40" s="146" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="41" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N41" s="146" t="s">
+        <v>320</v>
+      </c>
+      <c r="O41" s="146" t="s">
+        <v>346</v>
+      </c>
+      <c r="P41" s="146" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="42" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N42" s="146" t="s">
+        <v>321</v>
+      </c>
+      <c r="O42" s="146" t="s">
+        <v>347</v>
+      </c>
+      <c r="P42" s="146" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="43" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N43" s="146" t="s">
+        <v>330</v>
+      </c>
+      <c r="O43" s="146" t="s">
+        <v>348</v>
+      </c>
+      <c r="P43" s="146" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="44" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N44" s="146" t="s">
+        <v>331</v>
+      </c>
+      <c r="O44" s="146" t="s">
+        <v>349</v>
+      </c>
+      <c r="P44" s="146" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="45" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N45" s="146" t="s">
+        <v>332</v>
+      </c>
+      <c r="O45" s="146" t="s">
+        <v>350</v>
+      </c>
+      <c r="P45" s="146" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="46" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N46" s="146" t="s">
+        <v>333</v>
+      </c>
+      <c r="O46" s="146" t="s">
+        <v>354</v>
+      </c>
+      <c r="P46" s="146" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="47" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N47" s="146" t="s">
         <v>334</v>
       </c>
-      <c r="O1" s="175" t="s">
-        <v>291</v>
-      </c>
-      <c r="P1" s="175" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="184" t="s">
-        <v>265</v>
-      </c>
-      <c r="B2" s="175" t="s">
-        <v>422</v>
-      </c>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="180"/>
-      <c r="K2" s="182"/>
-      <c r="L2" s="182"/>
-      <c r="M2" s="173"/>
-      <c r="N2" s="177" t="s">
-        <v>374</v>
-      </c>
-      <c r="O2" s="177" t="s">
+      <c r="O47" s="146" t="s">
+        <v>358</v>
+      </c>
+      <c r="P47" s="146" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="48" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N48" s="146" t="s">
+        <v>335</v>
+      </c>
+      <c r="O48" s="146" t="s">
+        <v>355</v>
+      </c>
+      <c r="P48" s="146" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="49" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N49" s="146" t="s">
+        <v>336</v>
+      </c>
+      <c r="O49" s="146" t="s">
+        <v>356</v>
+      </c>
+      <c r="P49" s="146" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="50" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N50" s="146" t="s">
         <v>337</v>
       </c>
-      <c r="P2" s="177" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="186"/>
-      <c r="B3" s="175" t="s">
-        <v>464</v>
-      </c>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="183"/>
-      <c r="I3" s="183"/>
-      <c r="J3" s="183"/>
-      <c r="K3" s="183"/>
-      <c r="L3" s="183"/>
-      <c r="M3" s="173"/>
-      <c r="N3" s="177" t="s">
-        <v>375</v>
-      </c>
-      <c r="O3" s="177" t="s">
-        <v>358</v>
-      </c>
-      <c r="P3" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="186"/>
-      <c r="B4" s="175" t="s">
-        <v>423</v>
-      </c>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="183"/>
-      <c r="G4" s="183"/>
-      <c r="H4" s="180"/>
-      <c r="I4" s="183"/>
-      <c r="J4" s="180"/>
-      <c r="K4" s="183"/>
-      <c r="L4" s="183"/>
-      <c r="M4" s="173"/>
-      <c r="N4" s="177" t="s">
-        <v>376</v>
-      </c>
-      <c r="O4" s="177" t="s">
-        <v>360</v>
-      </c>
-      <c r="P4" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="185"/>
-      <c r="B5" s="175" t="s">
-        <v>463</v>
-      </c>
-      <c r="C5" s="181"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="183"/>
-      <c r="F5" s="183"/>
-      <c r="G5" s="183"/>
-      <c r="H5" s="180"/>
-      <c r="I5" s="180"/>
-      <c r="J5" s="180"/>
-      <c r="K5" s="183"/>
-      <c r="L5" s="183"/>
-      <c r="M5" s="173"/>
-      <c r="N5" s="177" t="s">
-        <v>377</v>
-      </c>
-      <c r="O5" s="177" t="s">
-        <v>466</v>
-      </c>
-      <c r="P5" s="177" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="184" t="s">
-        <v>260</v>
-      </c>
-      <c r="B6" s="175" t="s">
-        <v>276</v>
-      </c>
-      <c r="C6" s="180"/>
-      <c r="D6" s="180"/>
-      <c r="E6" s="180"/>
-      <c r="F6" s="180"/>
-      <c r="G6" s="183"/>
-      <c r="H6" s="180"/>
-      <c r="I6" s="183"/>
-      <c r="J6" s="180"/>
-      <c r="K6" s="180"/>
-      <c r="L6" s="183"/>
-      <c r="M6" s="173"/>
-      <c r="N6" s="177" t="s">
+      <c r="O50" s="146" t="s">
+        <v>357</v>
+      </c>
+      <c r="P50" s="146" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="51" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N51" s="146" t="s">
+        <v>338</v>
+      </c>
+      <c r="O51" s="146" t="s">
+        <v>341</v>
+      </c>
+      <c r="P51" s="146" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N52" s="146" t="s">
+        <v>339</v>
+      </c>
+      <c r="O52" s="146" t="s">
+        <v>324</v>
+      </c>
+      <c r="P52" s="146" t="s">
         <v>378</v>
       </c>
-      <c r="O6" s="177" t="s">
-        <v>361</v>
-      </c>
-      <c r="P6" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="186"/>
-      <c r="B7" s="175" t="s">
-        <v>275</v>
-      </c>
-      <c r="C7" s="180"/>
-      <c r="D7" s="180"/>
-      <c r="E7" s="180"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="180"/>
-      <c r="I7" s="183"/>
-      <c r="J7" s="180"/>
-      <c r="K7" s="183"/>
-      <c r="L7" s="183"/>
-      <c r="M7" s="173"/>
-      <c r="N7" s="177" t="s">
-        <v>379</v>
-      </c>
-      <c r="O7" s="177" t="s">
-        <v>362</v>
-      </c>
-      <c r="P7" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="186"/>
-      <c r="B8" s="175" t="s">
-        <v>284</v>
-      </c>
-      <c r="C8" s="180"/>
-      <c r="D8" s="180"/>
-      <c r="E8" s="180"/>
-      <c r="F8" s="180"/>
-      <c r="G8" s="183"/>
-      <c r="H8" s="180"/>
-      <c r="I8" s="183"/>
-      <c r="J8" s="180"/>
-      <c r="K8" s="180"/>
-      <c r="L8" s="183"/>
-      <c r="M8" s="173"/>
-      <c r="N8" s="177" t="s">
-        <v>404</v>
-      </c>
-      <c r="O8" s="177" t="s">
-        <v>448</v>
-      </c>
-      <c r="P8" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="185"/>
-      <c r="B9" s="175" t="s">
-        <v>278</v>
-      </c>
-      <c r="C9" s="180"/>
-      <c r="D9" s="180"/>
-      <c r="E9" s="180"/>
-      <c r="F9" s="180"/>
-      <c r="G9" s="183"/>
-      <c r="H9" s="180"/>
-      <c r="I9" s="183"/>
-      <c r="J9" s="180"/>
-      <c r="K9" s="183"/>
-      <c r="L9" s="183"/>
-      <c r="M9" s="173"/>
-      <c r="N9" s="177" t="s">
-        <v>457</v>
-      </c>
-      <c r="O9" s="177" t="s">
-        <v>458</v>
-      </c>
-      <c r="P9" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="184" t="s">
-        <v>462</v>
-      </c>
-      <c r="B10" s="175" t="s">
-        <v>461</v>
-      </c>
-      <c r="C10" s="180"/>
-      <c r="D10" s="180"/>
-      <c r="E10" s="180"/>
-      <c r="F10" s="180"/>
-      <c r="G10" s="183"/>
-      <c r="H10" s="180"/>
-      <c r="I10" s="183"/>
-      <c r="J10" s="180"/>
-      <c r="K10" s="180"/>
-      <c r="L10" s="183"/>
-      <c r="M10" s="173"/>
-      <c r="N10" s="177" t="s">
-        <v>380</v>
-      </c>
-      <c r="O10" s="177" t="s">
-        <v>335</v>
-      </c>
-      <c r="P10" s="177" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="186"/>
-      <c r="B11" s="175" t="s">
-        <v>460</v>
-      </c>
-      <c r="C11" s="180"/>
-      <c r="D11" s="180"/>
-      <c r="E11" s="180"/>
-      <c r="F11" s="180"/>
-      <c r="G11" s="183"/>
-      <c r="H11" s="180"/>
-      <c r="I11" s="183"/>
-      <c r="J11" s="180"/>
-      <c r="K11" s="180"/>
-      <c r="L11" s="183"/>
-      <c r="M11" s="173"/>
-      <c r="N11" s="177" t="s">
-        <v>381</v>
-      </c>
-      <c r="O11" s="177" t="s">
-        <v>355</v>
-      </c>
-      <c r="P11" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="185"/>
-      <c r="B12" s="175" t="s">
-        <v>277</v>
-      </c>
-      <c r="C12" s="180"/>
-      <c r="D12" s="183"/>
-      <c r="E12" s="183"/>
-      <c r="F12" s="183"/>
-      <c r="G12" s="183"/>
-      <c r="H12" s="180"/>
-      <c r="I12" s="183"/>
-      <c r="J12" s="180"/>
-      <c r="K12" s="180"/>
-      <c r="L12" s="180"/>
-      <c r="M12" s="173"/>
-      <c r="N12" s="177" t="s">
-        <v>382</v>
-      </c>
-      <c r="O12" s="177" t="s">
-        <v>363</v>
-      </c>
-      <c r="P12" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="184" t="s">
-        <v>261</v>
-      </c>
-      <c r="B13" s="175" t="s">
-        <v>424</v>
-      </c>
-      <c r="C13" s="180"/>
-      <c r="D13" s="180"/>
-      <c r="E13" s="180"/>
-      <c r="F13" s="180"/>
-      <c r="G13" s="183"/>
-      <c r="H13" s="180"/>
-      <c r="I13" s="183"/>
-      <c r="J13" s="180"/>
-      <c r="K13" s="180"/>
-      <c r="L13" s="183"/>
-      <c r="M13" s="173"/>
-      <c r="N13" s="177" t="s">
-        <v>383</v>
-      </c>
-      <c r="O13" s="177" t="s">
-        <v>364</v>
-      </c>
-      <c r="P13" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="186"/>
-      <c r="B14" s="175" t="s">
-        <v>285</v>
-      </c>
-      <c r="C14" s="180"/>
-      <c r="D14" s="180"/>
-      <c r="E14" s="180"/>
-      <c r="F14" s="180"/>
-      <c r="G14" s="183"/>
-      <c r="H14" s="180"/>
-      <c r="I14" s="183"/>
-      <c r="J14" s="180"/>
-      <c r="K14" s="180"/>
-      <c r="L14" s="183"/>
-      <c r="M14" s="173"/>
-      <c r="N14" s="177" t="s">
-        <v>384</v>
-      </c>
-      <c r="O14" s="177" t="s">
-        <v>437</v>
-      </c>
-      <c r="P14" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="186"/>
-      <c r="B15" s="175" t="s">
-        <v>282</v>
-      </c>
-      <c r="C15" s="180"/>
-      <c r="D15" s="180"/>
-      <c r="E15" s="180"/>
-      <c r="F15" s="180"/>
-      <c r="G15" s="183"/>
-      <c r="H15" s="180"/>
-      <c r="I15" s="183"/>
-      <c r="J15" s="180"/>
-      <c r="K15" s="180"/>
-      <c r="L15" s="183"/>
-      <c r="M15" s="173"/>
-      <c r="N15" s="177" t="s">
-        <v>385</v>
-      </c>
-      <c r="O15" s="177" t="s">
-        <v>408</v>
-      </c>
-      <c r="P15" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="185"/>
-      <c r="B16" s="175" t="s">
-        <v>279</v>
-      </c>
-      <c r="C16" s="180"/>
-      <c r="D16" s="180"/>
-      <c r="E16" s="180"/>
-      <c r="F16" s="180"/>
-      <c r="G16" s="183"/>
-      <c r="H16" s="180"/>
-      <c r="I16" s="183"/>
-      <c r="J16" s="180"/>
-      <c r="K16" s="183"/>
-      <c r="L16" s="183"/>
-      <c r="M16" s="173"/>
-      <c r="N16" s="177" t="s">
-        <v>405</v>
-      </c>
-      <c r="O16" s="177" t="s">
-        <v>417</v>
-      </c>
-      <c r="P16" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="184" t="s">
-        <v>262</v>
-      </c>
-      <c r="B17" s="175" t="s">
-        <v>280</v>
-      </c>
-      <c r="C17" s="180"/>
-      <c r="D17" s="180"/>
-      <c r="E17" s="180"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="183"/>
-      <c r="H17" s="180"/>
-      <c r="I17" s="183"/>
-      <c r="J17" s="180"/>
-      <c r="K17" s="180"/>
-      <c r="L17" s="183"/>
-      <c r="M17" s="173"/>
-      <c r="N17" s="177" t="s">
-        <v>386</v>
-      </c>
-      <c r="O17" s="177" t="s">
-        <v>354</v>
-      </c>
-      <c r="P17" s="177" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="185"/>
-      <c r="B18" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="C18" s="180"/>
-      <c r="D18" s="180"/>
-      <c r="E18" s="180"/>
-      <c r="F18" s="180"/>
-      <c r="G18" s="183"/>
-      <c r="H18" s="180"/>
-      <c r="I18" s="183"/>
-      <c r="J18" s="180"/>
-      <c r="K18" s="183"/>
-      <c r="L18" s="183"/>
-      <c r="M18" s="173"/>
-      <c r="N18" s="177" t="s">
-        <v>387</v>
-      </c>
-      <c r="O18" s="177" t="s">
-        <v>357</v>
-      </c>
-      <c r="P18" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="175" t="s">
-        <v>263</v>
-      </c>
-      <c r="B19" s="175" t="s">
-        <v>283</v>
-      </c>
-      <c r="C19" s="180"/>
-      <c r="D19" s="180"/>
-      <c r="E19" s="180"/>
-      <c r="F19" s="180"/>
-      <c r="G19" s="183"/>
-      <c r="H19" s="180"/>
-      <c r="I19" s="183"/>
-      <c r="J19" s="180"/>
-      <c r="K19" s="180"/>
-      <c r="L19" s="183"/>
-      <c r="M19" s="173"/>
-      <c r="N19" s="177" t="s">
-        <v>388</v>
-      </c>
-      <c r="O19" s="177" t="s">
-        <v>365</v>
-      </c>
-      <c r="P19" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N20" s="177" t="s">
-        <v>389</v>
-      </c>
-      <c r="O20" s="177" t="s">
-        <v>472</v>
-      </c>
-      <c r="P20" s="177" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N21" s="177" t="s">
-        <v>390</v>
-      </c>
-      <c r="O21" s="177" t="s">
-        <v>366</v>
-      </c>
-      <c r="P21" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N22" s="177" t="s">
-        <v>391</v>
-      </c>
-      <c r="O22" s="177" t="s">
-        <v>367</v>
-      </c>
-      <c r="P22" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N23" s="177" t="s">
-        <v>406</v>
-      </c>
-      <c r="O23" s="177" t="s">
-        <v>438</v>
-      </c>
-      <c r="P23" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N24" s="177" t="s">
-        <v>392</v>
-      </c>
-      <c r="O24" s="177" t="s">
-        <v>352</v>
-      </c>
-      <c r="P24" s="177" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N25" s="177" t="s">
-        <v>393</v>
-      </c>
-      <c r="O25" s="177" t="s">
-        <v>356</v>
-      </c>
-      <c r="P25" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N26" s="177" t="s">
-        <v>394</v>
-      </c>
-      <c r="O26" s="177" t="s">
-        <v>368</v>
-      </c>
-      <c r="P26" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N27" s="177" t="s">
-        <v>395</v>
-      </c>
-      <c r="O27" s="177" t="s">
-        <v>470</v>
-      </c>
-      <c r="P27" s="177" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N28" s="177" t="s">
-        <v>396</v>
-      </c>
-      <c r="O28" s="177" t="s">
-        <v>369</v>
-      </c>
-      <c r="P28" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N29" s="177" t="s">
-        <v>397</v>
-      </c>
-      <c r="O29" s="177" t="s">
-        <v>370</v>
-      </c>
-      <c r="P29" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N30" s="177" t="s">
-        <v>407</v>
-      </c>
-      <c r="O30" s="177" t="s">
-        <v>439</v>
-      </c>
-      <c r="P30" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N31" s="177" t="s">
-        <v>398</v>
-      </c>
-      <c r="O31" s="177" t="s">
-        <v>353</v>
-      </c>
-      <c r="P31" s="177" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N32" s="177" t="s">
-        <v>399</v>
-      </c>
-      <c r="O32" s="177" t="s">
-        <v>359</v>
-      </c>
-      <c r="P32" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="33" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N33" s="177" t="s">
-        <v>400</v>
-      </c>
-      <c r="O33" s="177" t="s">
-        <v>371</v>
-      </c>
-      <c r="P33" s="198" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="34" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N34" s="177" t="s">
-        <v>401</v>
-      </c>
-      <c r="O34" s="177" t="s">
-        <v>471</v>
-      </c>
-      <c r="P34" s="177" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="35" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N35" s="177" t="s">
-        <v>402</v>
-      </c>
-      <c r="O35" s="177" t="s">
-        <v>372</v>
-      </c>
-      <c r="P35" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="36" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N36" s="177" t="s">
-        <v>403</v>
-      </c>
-      <c r="O36" s="177" t="s">
-        <v>373</v>
-      </c>
-      <c r="P36" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="37" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N37" s="177" t="s">
-        <v>410</v>
-      </c>
-      <c r="O37" s="177" t="s">
-        <v>440</v>
-      </c>
-      <c r="P37" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="38" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N38" s="177" t="s">
-        <v>411</v>
-      </c>
-      <c r="O38" s="177" t="s">
-        <v>418</v>
-      </c>
-      <c r="P38" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="39" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N39" s="177" t="s">
-        <v>413</v>
-      </c>
-      <c r="O39" s="177" t="s">
-        <v>446</v>
-      </c>
-      <c r="P39" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="40" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N40" s="177" t="s">
-        <v>414</v>
-      </c>
-      <c r="O40" s="177" t="s">
-        <v>447</v>
-      </c>
-      <c r="P40" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="41" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N41" s="177" t="s">
-        <v>415</v>
-      </c>
-      <c r="O41" s="177" t="s">
-        <v>441</v>
-      </c>
-      <c r="P41" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="42" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N42" s="177" t="s">
-        <v>416</v>
-      </c>
-      <c r="O42" s="177" t="s">
-        <v>442</v>
-      </c>
-      <c r="P42" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="43" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N43" s="177" t="s">
-        <v>425</v>
-      </c>
-      <c r="O43" s="177" t="s">
-        <v>443</v>
-      </c>
-      <c r="P43" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="44" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N44" s="177" t="s">
-        <v>426</v>
-      </c>
-      <c r="O44" s="177" t="s">
-        <v>444</v>
-      </c>
-      <c r="P44" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="45" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N45" s="177" t="s">
-        <v>427</v>
-      </c>
-      <c r="O45" s="177" t="s">
-        <v>445</v>
-      </c>
-      <c r="P45" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="46" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N46" s="177" t="s">
-        <v>428</v>
-      </c>
-      <c r="O46" s="177" t="s">
-        <v>449</v>
-      </c>
-      <c r="P46" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="47" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N47" s="177" t="s">
-        <v>429</v>
-      </c>
-      <c r="O47" s="177" t="s">
-        <v>453</v>
-      </c>
-      <c r="P47" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="48" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N48" s="177" t="s">
-        <v>430</v>
-      </c>
-      <c r="O48" s="177" t="s">
-        <v>450</v>
-      </c>
-      <c r="P48" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="49" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N49" s="177" t="s">
-        <v>431</v>
-      </c>
-      <c r="O49" s="177" t="s">
-        <v>451</v>
-      </c>
-      <c r="P49" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="50" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N50" s="177" t="s">
-        <v>432</v>
-      </c>
-      <c r="O50" s="177" t="s">
-        <v>452</v>
-      </c>
-      <c r="P50" s="177" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="51" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N51" s="177" t="s">
-        <v>433</v>
-      </c>
-      <c r="O51" s="177" t="s">
-        <v>436</v>
-      </c>
-      <c r="P51" s="177" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N52" s="177" t="s">
-        <v>434</v>
-      </c>
-      <c r="O52" s="177" t="s">
-        <v>419</v>
-      </c>
-      <c r="P52" s="177" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="53" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N53" s="177" t="s">
-        <v>435</v>
-      </c>
-      <c r="O53" s="177" t="s">
-        <v>409</v>
-      </c>
-      <c r="P53" s="177" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="54" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    </row>
+    <row r="53" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N53" s="146" t="s">
+        <v>340</v>
+      </c>
+      <c r="O53" s="146" t="s">
+        <v>314</v>
+      </c>
+      <c r="P53" s="146" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="54" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="N1:P53" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="5">
@@ -4140,2491 +3644,2491 @@
       <selection activeCell="W2" sqref="W2:W12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.1328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.46484375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.46484375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A1" s="168" t="s">
-        <v>184</v>
-      </c>
-      <c r="B1" s="168" t="s">
-        <v>185</v>
-      </c>
-      <c r="C1" s="168" t="s">
-        <v>186</v>
-      </c>
-      <c r="D1" s="168" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="137" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="137" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="137" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="168" t="s">
-        <v>187</v>
-      </c>
-      <c r="F1" s="168" t="s">
-        <v>188</v>
-      </c>
-      <c r="G1" s="168" t="s">
-        <v>189</v>
-      </c>
-      <c r="H1" s="168" t="s">
-        <v>190</v>
-      </c>
-      <c r="I1" s="168" t="s">
-        <v>191</v>
-      </c>
-      <c r="J1" s="168" t="s">
-        <v>192</v>
-      </c>
-      <c r="K1" s="168" t="s">
-        <v>193</v>
-      </c>
-      <c r="L1" s="168" t="s">
-        <v>194</v>
-      </c>
-      <c r="M1" s="168" t="s">
-        <v>195</v>
-      </c>
-      <c r="N1" s="168" t="s">
-        <v>196</v>
-      </c>
-      <c r="O1" s="168" t="s">
-        <v>197</v>
-      </c>
-      <c r="P1" s="168" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q1" s="168" t="s">
-        <v>199</v>
-      </c>
-      <c r="R1" s="168" t="s">
-        <v>200</v>
-      </c>
-      <c r="S1" s="168" t="s">
-        <v>201</v>
-      </c>
-      <c r="T1" s="168" t="s">
-        <v>202</v>
-      </c>
-      <c r="U1" s="168" t="s">
-        <v>203</v>
-      </c>
-      <c r="V1" s="168" t="s">
-        <v>204</v>
-      </c>
-      <c r="W1" s="168" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A2" s="169">
-        <v>1</v>
-      </c>
-      <c r="B2" s="169" t="s">
-        <v>206</v>
-      </c>
-      <c r="C2" s="169" t="s">
-        <v>207</v>
-      </c>
-      <c r="D2" s="169" t="s">
-        <v>207</v>
-      </c>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169" t="s">
-        <v>207</v>
-      </c>
-      <c r="G2" s="169" t="s">
-        <v>208</v>
-      </c>
-      <c r="H2" s="169" t="s">
-        <v>209</v>
-      </c>
-      <c r="I2" s="169" t="s">
-        <v>210</v>
-      </c>
-      <c r="J2" s="169" t="s">
-        <v>211</v>
-      </c>
-      <c r="K2" s="169">
+      <c r="E1" s="137" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="137" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="137" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="137" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="137" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="137" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" s="137" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" s="137" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" s="137" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" s="137" t="s">
+        <v>101</v>
+      </c>
+      <c r="O1" s="137" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1" s="137" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q1" s="137" t="s">
+        <v>104</v>
+      </c>
+      <c r="R1" s="137" t="s">
+        <v>105</v>
+      </c>
+      <c r="S1" s="137" t="s">
+        <v>106</v>
+      </c>
+      <c r="T1" s="137" t="s">
+        <v>107</v>
+      </c>
+      <c r="U1" s="137" t="s">
+        <v>108</v>
+      </c>
+      <c r="V1" s="137" t="s">
+        <v>109</v>
+      </c>
+      <c r="W1" s="137" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="138">
+        <v>1</v>
+      </c>
+      <c r="B2" s="138" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="138" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="138" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="138" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" s="138" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" s="138" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" s="138">
         <v>4</v>
       </c>
-      <c r="L2" s="170">
+      <c r="L2" s="139">
         <v>45103</v>
       </c>
-      <c r="M2" s="169">
+      <c r="M2" s="138">
         <v>5</v>
       </c>
-      <c r="N2" s="169">
+      <c r="N2" s="138">
         <v>4</v>
       </c>
-      <c r="O2" s="169">
+      <c r="O2" s="138">
         <v>4</v>
       </c>
-      <c r="P2" s="169">
+      <c r="P2" s="138">
         <v>4</v>
       </c>
-      <c r="Q2" s="169">
+      <c r="Q2" s="138">
         <v>4</v>
       </c>
-      <c r="R2" s="169">
+      <c r="R2" s="138">
         <v>4</v>
       </c>
-      <c r="S2" s="169">
+      <c r="S2" s="138">
         <v>4</v>
       </c>
-      <c r="T2" s="169">
+      <c r="T2" s="138">
         <v>4</v>
       </c>
-      <c r="U2" s="169">
+      <c r="U2" s="138">
         <v>3</v>
       </c>
-      <c r="V2" s="169">
+      <c r="V2" s="138">
         <v>3</v>
       </c>
-      <c r="W2" s="169">
+      <c r="W2" s="138">
         <f t="shared" ref="W2:W43" si="0">(M2+N2+O2+P2+Q2)*(R2+S2+T2+U2+V2)/625</f>
         <v>0.6048</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A3" s="169">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="138">
         <v>2</v>
       </c>
-      <c r="B3" s="169" t="s">
-        <v>212</v>
-      </c>
-      <c r="C3" s="169" t="s">
-        <v>207</v>
-      </c>
-      <c r="D3" s="169" t="s">
-        <v>207</v>
-      </c>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169" t="s">
-        <v>207</v>
-      </c>
-      <c r="G3" s="169" t="s">
-        <v>208</v>
-      </c>
-      <c r="H3" s="169" t="s">
-        <v>209</v>
-      </c>
-      <c r="I3" s="169" t="s">
-        <v>210</v>
-      </c>
-      <c r="J3" s="169" t="s">
-        <v>211</v>
-      </c>
-      <c r="K3" s="169">
+      <c r="B3" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="138" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="138" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="138" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="138" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" s="138" t="s">
+        <v>116</v>
+      </c>
+      <c r="K3" s="138">
         <v>4</v>
       </c>
-      <c r="L3" s="170">
+      <c r="L3" s="139">
         <v>45103</v>
       </c>
-      <c r="M3" s="169">
+      <c r="M3" s="138">
         <v>5</v>
       </c>
-      <c r="N3" s="169">
+      <c r="N3" s="138">
         <v>5</v>
       </c>
-      <c r="O3" s="169">
+      <c r="O3" s="138">
         <v>5</v>
       </c>
-      <c r="P3" s="169">
+      <c r="P3" s="138">
         <v>5</v>
       </c>
-      <c r="Q3" s="169">
+      <c r="Q3" s="138">
         <v>3</v>
       </c>
-      <c r="R3" s="169">
+      <c r="R3" s="138">
         <v>4</v>
       </c>
-      <c r="S3" s="169">
+      <c r="S3" s="138">
         <v>4</v>
       </c>
-      <c r="T3" s="169">
+      <c r="T3" s="138">
         <v>2</v>
       </c>
-      <c r="U3" s="169">
+      <c r="U3" s="138">
         <v>3</v>
       </c>
-      <c r="V3" s="169">
+      <c r="V3" s="138">
         <v>3</v>
       </c>
-      <c r="W3" s="169">
+      <c r="W3" s="138">
         <f t="shared" si="0"/>
         <v>0.58879999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A4" s="169">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="138">
         <v>3</v>
       </c>
-      <c r="B4" s="169" t="s">
-        <v>213</v>
-      </c>
-      <c r="C4" s="169" t="s">
-        <v>207</v>
-      </c>
-      <c r="D4" s="169" t="s">
-        <v>207</v>
-      </c>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169" t="s">
-        <v>207</v>
-      </c>
-      <c r="G4" s="169" t="s">
-        <v>208</v>
-      </c>
-      <c r="H4" s="169" t="s">
-        <v>209</v>
-      </c>
-      <c r="I4" s="169" t="s">
-        <v>210</v>
-      </c>
-      <c r="J4" s="169" t="s">
-        <v>211</v>
-      </c>
-      <c r="K4" s="169">
+      <c r="B4" s="138" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="138" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="138" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="138" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="138" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" s="138" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" s="138">
         <v>4</v>
       </c>
-      <c r="L4" s="170">
+      <c r="L4" s="139">
         <v>45103</v>
       </c>
-      <c r="M4" s="169">
+      <c r="M4" s="138">
         <v>5</v>
       </c>
-      <c r="N4" s="169">
+      <c r="N4" s="138">
         <v>3</v>
       </c>
-      <c r="O4" s="169">
+      <c r="O4" s="138">
         <v>4</v>
       </c>
-      <c r="P4" s="169">
+      <c r="P4" s="138">
         <v>4</v>
       </c>
-      <c r="Q4" s="169">
+      <c r="Q4" s="138">
         <v>4</v>
       </c>
-      <c r="R4" s="169">
+      <c r="R4" s="138">
         <v>3</v>
       </c>
-      <c r="S4" s="169">
+      <c r="S4" s="138">
         <v>3</v>
       </c>
-      <c r="T4" s="169">
+      <c r="T4" s="138">
         <v>4</v>
       </c>
-      <c r="U4" s="169">
+      <c r="U4" s="138">
         <v>3</v>
       </c>
-      <c r="V4" s="169">
+      <c r="V4" s="138">
         <v>3</v>
       </c>
-      <c r="W4" s="169">
+      <c r="W4" s="138">
         <f t="shared" si="0"/>
         <v>0.51200000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A5" s="169">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="138">
         <v>4</v>
       </c>
-      <c r="B5" s="169" t="s">
-        <v>214</v>
-      </c>
-      <c r="C5" s="169" t="s">
-        <v>207</v>
-      </c>
-      <c r="D5" s="169" t="s">
-        <v>207</v>
-      </c>
-      <c r="E5" s="169"/>
-      <c r="F5" s="169" t="s">
-        <v>207</v>
-      </c>
-      <c r="G5" s="169" t="s">
-        <v>208</v>
-      </c>
-      <c r="H5" s="169" t="s">
-        <v>209</v>
-      </c>
-      <c r="I5" s="169" t="s">
-        <v>210</v>
-      </c>
-      <c r="J5" s="169" t="s">
-        <v>211</v>
-      </c>
-      <c r="K5" s="169">
+      <c r="B5" s="138" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="138" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="138" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="138" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="138" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" s="138" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5" s="138">
         <v>4</v>
       </c>
-      <c r="L5" s="170">
+      <c r="L5" s="139">
         <v>45103</v>
       </c>
-      <c r="M5" s="169">
+      <c r="M5" s="138">
         <v>5</v>
       </c>
-      <c r="N5" s="169">
+      <c r="N5" s="138">
         <v>2</v>
       </c>
-      <c r="O5" s="169">
+      <c r="O5" s="138">
         <v>2</v>
       </c>
-      <c r="P5" s="169">
+      <c r="P5" s="138">
         <v>2</v>
       </c>
-      <c r="Q5" s="169">
+      <c r="Q5" s="138">
         <v>4</v>
       </c>
-      <c r="R5" s="169">
+      <c r="R5" s="138">
         <v>2</v>
       </c>
-      <c r="S5" s="169">
+      <c r="S5" s="138">
         <v>2</v>
       </c>
-      <c r="T5" s="169">
+      <c r="T5" s="138">
         <v>4</v>
       </c>
-      <c r="U5" s="169">
+      <c r="U5" s="138">
         <v>2</v>
       </c>
-      <c r="V5" s="169">
+      <c r="V5" s="138">
         <v>3</v>
       </c>
-      <c r="W5" s="169">
+      <c r="W5" s="138">
         <f t="shared" si="0"/>
         <v>0.312</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A6" s="169"/>
-      <c r="B6" s="169" t="s">
-        <v>215</v>
-      </c>
-      <c r="C6" s="169"/>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="169"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="169"/>
-      <c r="K6" s="169"/>
-      <c r="L6" s="169"/>
-      <c r="M6" s="169">
-        <v>1</v>
-      </c>
-      <c r="N6" s="169">
-        <v>1</v>
-      </c>
-      <c r="O6" s="169">
-        <v>1</v>
-      </c>
-      <c r="P6" s="169">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="169">
-        <v>1</v>
-      </c>
-      <c r="R6" s="169">
-        <v>1</v>
-      </c>
-      <c r="S6" s="169">
-        <v>1</v>
-      </c>
-      <c r="T6" s="169">
-        <v>1</v>
-      </c>
-      <c r="U6" s="169">
-        <v>1</v>
-      </c>
-      <c r="V6" s="169">
-        <v>1</v>
-      </c>
-      <c r="W6" s="169">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="138"/>
+      <c r="B6" s="138" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="138"/>
+      <c r="K6" s="138"/>
+      <c r="L6" s="138"/>
+      <c r="M6" s="138">
+        <v>1</v>
+      </c>
+      <c r="N6" s="138">
+        <v>1</v>
+      </c>
+      <c r="O6" s="138">
+        <v>1</v>
+      </c>
+      <c r="P6" s="138">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="138">
+        <v>1</v>
+      </c>
+      <c r="R6" s="138">
+        <v>1</v>
+      </c>
+      <c r="S6" s="138">
+        <v>1</v>
+      </c>
+      <c r="T6" s="138">
+        <v>1</v>
+      </c>
+      <c r="U6" s="138">
+        <v>1</v>
+      </c>
+      <c r="V6" s="138">
+        <v>1</v>
+      </c>
+      <c r="W6" s="138">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A7" s="169"/>
-      <c r="B7" s="169" t="s">
-        <v>216</v>
-      </c>
-      <c r="C7" s="169"/>
-      <c r="D7" s="169"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="169"/>
-      <c r="H7" s="169"/>
-      <c r="I7" s="169"/>
-      <c r="J7" s="169"/>
-      <c r="K7" s="169"/>
-      <c r="L7" s="169"/>
-      <c r="M7" s="169">
-        <v>1</v>
-      </c>
-      <c r="N7" s="169">
-        <v>1</v>
-      </c>
-      <c r="O7" s="169">
-        <v>1</v>
-      </c>
-      <c r="P7" s="169">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="169">
-        <v>1</v>
-      </c>
-      <c r="R7" s="169">
-        <v>1</v>
-      </c>
-      <c r="S7" s="169">
-        <v>1</v>
-      </c>
-      <c r="T7" s="169">
-        <v>1</v>
-      </c>
-      <c r="U7" s="169">
-        <v>1</v>
-      </c>
-      <c r="V7" s="169">
-        <v>1</v>
-      </c>
-      <c r="W7" s="169">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="138"/>
+      <c r="B7" s="138" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="138">
+        <v>1</v>
+      </c>
+      <c r="N7" s="138">
+        <v>1</v>
+      </c>
+      <c r="O7" s="138">
+        <v>1</v>
+      </c>
+      <c r="P7" s="138">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="138">
+        <v>1</v>
+      </c>
+      <c r="R7" s="138">
+        <v>1</v>
+      </c>
+      <c r="S7" s="138">
+        <v>1</v>
+      </c>
+      <c r="T7" s="138">
+        <v>1</v>
+      </c>
+      <c r="U7" s="138">
+        <v>1</v>
+      </c>
+      <c r="V7" s="138">
+        <v>1</v>
+      </c>
+      <c r="W7" s="138">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A8" s="169"/>
-      <c r="B8" s="169" t="s">
-        <v>217</v>
-      </c>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="169"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="169"/>
-      <c r="K8" s="169"/>
-      <c r="L8" s="169"/>
-      <c r="M8" s="169">
-        <v>1</v>
-      </c>
-      <c r="N8" s="169">
-        <v>1</v>
-      </c>
-      <c r="O8" s="169">
-        <v>1</v>
-      </c>
-      <c r="P8" s="169">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="169">
-        <v>1</v>
-      </c>
-      <c r="R8" s="169">
-        <v>1</v>
-      </c>
-      <c r="S8" s="169">
-        <v>1</v>
-      </c>
-      <c r="T8" s="169">
-        <v>1</v>
-      </c>
-      <c r="U8" s="169">
-        <v>1</v>
-      </c>
-      <c r="V8" s="169">
-        <v>1</v>
-      </c>
-      <c r="W8" s="169">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="138"/>
+      <c r="B8" s="138" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="138"/>
+      <c r="M8" s="138">
+        <v>1</v>
+      </c>
+      <c r="N8" s="138">
+        <v>1</v>
+      </c>
+      <c r="O8" s="138">
+        <v>1</v>
+      </c>
+      <c r="P8" s="138">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="138">
+        <v>1</v>
+      </c>
+      <c r="R8" s="138">
+        <v>1</v>
+      </c>
+      <c r="S8" s="138">
+        <v>1</v>
+      </c>
+      <c r="T8" s="138">
+        <v>1</v>
+      </c>
+      <c r="U8" s="138">
+        <v>1</v>
+      </c>
+      <c r="V8" s="138">
+        <v>1</v>
+      </c>
+      <c r="W8" s="138">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A9" s="169"/>
-      <c r="B9" s="169"/>
-      <c r="C9" s="169"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="169"/>
-      <c r="G9" s="169"/>
-      <c r="H9" s="169"/>
-      <c r="I9" s="169"/>
-      <c r="J9" s="169"/>
-      <c r="K9" s="169"/>
-      <c r="L9" s="169"/>
-      <c r="M9" s="169">
-        <v>1</v>
-      </c>
-      <c r="N9" s="169">
-        <v>1</v>
-      </c>
-      <c r="O9" s="169">
-        <v>1</v>
-      </c>
-      <c r="P9" s="169">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="169">
-        <v>1</v>
-      </c>
-      <c r="R9" s="169">
-        <v>1</v>
-      </c>
-      <c r="S9" s="169">
-        <v>1</v>
-      </c>
-      <c r="T9" s="169">
-        <v>1</v>
-      </c>
-      <c r="U9" s="169">
-        <v>1</v>
-      </c>
-      <c r="V9" s="169">
-        <v>1</v>
-      </c>
-      <c r="W9" s="169">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="138"/>
+      <c r="B9" s="138"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="138"/>
+      <c r="K9" s="138"/>
+      <c r="L9" s="138"/>
+      <c r="M9" s="138">
+        <v>1</v>
+      </c>
+      <c r="N9" s="138">
+        <v>1</v>
+      </c>
+      <c r="O9" s="138">
+        <v>1</v>
+      </c>
+      <c r="P9" s="138">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="138">
+        <v>1</v>
+      </c>
+      <c r="R9" s="138">
+        <v>1</v>
+      </c>
+      <c r="S9" s="138">
+        <v>1</v>
+      </c>
+      <c r="T9" s="138">
+        <v>1</v>
+      </c>
+      <c r="U9" s="138">
+        <v>1</v>
+      </c>
+      <c r="V9" s="138">
+        <v>1</v>
+      </c>
+      <c r="W9" s="138">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A10" s="169"/>
-      <c r="B10" s="169"/>
-      <c r="C10" s="169"/>
-      <c r="D10" s="169"/>
-      <c r="E10" s="169"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="169"/>
-      <c r="H10" s="169"/>
-      <c r="I10" s="169"/>
-      <c r="J10" s="169"/>
-      <c r="K10" s="169"/>
-      <c r="L10" s="169"/>
-      <c r="M10" s="169">
-        <v>1</v>
-      </c>
-      <c r="N10" s="169">
-        <v>1</v>
-      </c>
-      <c r="O10" s="169">
-        <v>1</v>
-      </c>
-      <c r="P10" s="169">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="169">
-        <v>1</v>
-      </c>
-      <c r="R10" s="169">
-        <v>1</v>
-      </c>
-      <c r="S10" s="169">
-        <v>1</v>
-      </c>
-      <c r="T10" s="169">
-        <v>1</v>
-      </c>
-      <c r="U10" s="169">
-        <v>1</v>
-      </c>
-      <c r="V10" s="169">
-        <v>1</v>
-      </c>
-      <c r="W10" s="169">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="138"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="138"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="138"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="138"/>
+      <c r="M10" s="138">
+        <v>1</v>
+      </c>
+      <c r="N10" s="138">
+        <v>1</v>
+      </c>
+      <c r="O10" s="138">
+        <v>1</v>
+      </c>
+      <c r="P10" s="138">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="138">
+        <v>1</v>
+      </c>
+      <c r="R10" s="138">
+        <v>1</v>
+      </c>
+      <c r="S10" s="138">
+        <v>1</v>
+      </c>
+      <c r="T10" s="138">
+        <v>1</v>
+      </c>
+      <c r="U10" s="138">
+        <v>1</v>
+      </c>
+      <c r="V10" s="138">
+        <v>1</v>
+      </c>
+      <c r="W10" s="138">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A11" s="169"/>
-      <c r="B11" s="169"/>
-      <c r="C11" s="169"/>
-      <c r="D11" s="169"/>
-      <c r="E11" s="169"/>
-      <c r="F11" s="169"/>
-      <c r="G11" s="169"/>
-      <c r="H11" s="169"/>
-      <c r="I11" s="169"/>
-      <c r="J11" s="169"/>
-      <c r="K11" s="169"/>
-      <c r="L11" s="169"/>
-      <c r="M11" s="169">
-        <v>1</v>
-      </c>
-      <c r="N11" s="169">
-        <v>1</v>
-      </c>
-      <c r="O11" s="169">
-        <v>1</v>
-      </c>
-      <c r="P11" s="169">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="169">
-        <v>1</v>
-      </c>
-      <c r="R11" s="169">
-        <v>1</v>
-      </c>
-      <c r="S11" s="169">
-        <v>1</v>
-      </c>
-      <c r="T11" s="169">
-        <v>1</v>
-      </c>
-      <c r="U11" s="169">
-        <v>1</v>
-      </c>
-      <c r="V11" s="169">
-        <v>1</v>
-      </c>
-      <c r="W11" s="169">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="138"/>
+      <c r="B11" s="138"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="138"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="138"/>
+      <c r="K11" s="138"/>
+      <c r="L11" s="138"/>
+      <c r="M11" s="138">
+        <v>1</v>
+      </c>
+      <c r="N11" s="138">
+        <v>1</v>
+      </c>
+      <c r="O11" s="138">
+        <v>1</v>
+      </c>
+      <c r="P11" s="138">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="138">
+        <v>1</v>
+      </c>
+      <c r="R11" s="138">
+        <v>1</v>
+      </c>
+      <c r="S11" s="138">
+        <v>1</v>
+      </c>
+      <c r="T11" s="138">
+        <v>1</v>
+      </c>
+      <c r="U11" s="138">
+        <v>1</v>
+      </c>
+      <c r="V11" s="138">
+        <v>1</v>
+      </c>
+      <c r="W11" s="138">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A12" s="169"/>
-      <c r="B12" s="169"/>
-      <c r="C12" s="169"/>
-      <c r="D12" s="169"/>
-      <c r="E12" s="169"/>
-      <c r="F12" s="169"/>
-      <c r="G12" s="169"/>
-      <c r="H12" s="169"/>
-      <c r="I12" s="169"/>
-      <c r="J12" s="169"/>
-      <c r="K12" s="169"/>
-      <c r="L12" s="169"/>
-      <c r="M12" s="169">
-        <v>1</v>
-      </c>
-      <c r="N12" s="169">
-        <v>1</v>
-      </c>
-      <c r="O12" s="169">
-        <v>1</v>
-      </c>
-      <c r="P12" s="169">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="169">
-        <v>1</v>
-      </c>
-      <c r="R12" s="169">
-        <v>1</v>
-      </c>
-      <c r="S12" s="169">
-        <v>1</v>
-      </c>
-      <c r="T12" s="169">
-        <v>1</v>
-      </c>
-      <c r="U12" s="169">
-        <v>1</v>
-      </c>
-      <c r="V12" s="169">
-        <v>1</v>
-      </c>
-      <c r="W12" s="169">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="138"/>
+      <c r="B12" s="138"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="138"/>
+      <c r="H12" s="138"/>
+      <c r="I12" s="138"/>
+      <c r="J12" s="138"/>
+      <c r="K12" s="138"/>
+      <c r="L12" s="138"/>
+      <c r="M12" s="138">
+        <v>1</v>
+      </c>
+      <c r="N12" s="138">
+        <v>1</v>
+      </c>
+      <c r="O12" s="138">
+        <v>1</v>
+      </c>
+      <c r="P12" s="138">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="138">
+        <v>1</v>
+      </c>
+      <c r="R12" s="138">
+        <v>1</v>
+      </c>
+      <c r="S12" s="138">
+        <v>1</v>
+      </c>
+      <c r="T12" s="138">
+        <v>1</v>
+      </c>
+      <c r="U12" s="138">
+        <v>1</v>
+      </c>
+      <c r="V12" s="138">
+        <v>1</v>
+      </c>
+      <c r="W12" s="138">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A13" s="169"/>
-      <c r="B13" s="169"/>
-      <c r="C13" s="169"/>
-      <c r="D13" s="169"/>
-      <c r="E13" s="169"/>
-      <c r="F13" s="169"/>
-      <c r="G13" s="169"/>
-      <c r="H13" s="169"/>
-      <c r="I13" s="169"/>
-      <c r="J13" s="169"/>
-      <c r="K13" s="169"/>
-      <c r="L13" s="169"/>
-      <c r="M13" s="169">
-        <v>1</v>
-      </c>
-      <c r="N13" s="169">
-        <v>1</v>
-      </c>
-      <c r="O13" s="169">
-        <v>1</v>
-      </c>
-      <c r="P13" s="169">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="169">
-        <v>1</v>
-      </c>
-      <c r="R13" s="169">
-        <v>1</v>
-      </c>
-      <c r="S13" s="169">
-        <v>1</v>
-      </c>
-      <c r="T13" s="169">
-        <v>1</v>
-      </c>
-      <c r="U13" s="169">
-        <v>1</v>
-      </c>
-      <c r="V13" s="169">
-        <v>1</v>
-      </c>
-      <c r="W13" s="169">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="138"/>
+      <c r="B13" s="138"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="138"/>
+      <c r="K13" s="138"/>
+      <c r="L13" s="138"/>
+      <c r="M13" s="138">
+        <v>1</v>
+      </c>
+      <c r="N13" s="138">
+        <v>1</v>
+      </c>
+      <c r="O13" s="138">
+        <v>1</v>
+      </c>
+      <c r="P13" s="138">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="138">
+        <v>1</v>
+      </c>
+      <c r="R13" s="138">
+        <v>1</v>
+      </c>
+      <c r="S13" s="138">
+        <v>1</v>
+      </c>
+      <c r="T13" s="138">
+        <v>1</v>
+      </c>
+      <c r="U13" s="138">
+        <v>1</v>
+      </c>
+      <c r="V13" s="138">
+        <v>1</v>
+      </c>
+      <c r="W13" s="138">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A14" s="169"/>
-      <c r="B14" s="169"/>
-      <c r="C14" s="169"/>
-      <c r="D14" s="169"/>
-      <c r="E14" s="169"/>
-      <c r="F14" s="169"/>
-      <c r="G14" s="169"/>
-      <c r="H14" s="169"/>
-      <c r="I14" s="169"/>
-      <c r="J14" s="169"/>
-      <c r="K14" s="169"/>
-      <c r="L14" s="169"/>
-      <c r="M14" s="169">
-        <v>1</v>
-      </c>
-      <c r="N14" s="169">
-        <v>1</v>
-      </c>
-      <c r="O14" s="169">
-        <v>1</v>
-      </c>
-      <c r="P14" s="169">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="169">
-        <v>1</v>
-      </c>
-      <c r="R14" s="169">
-        <v>1</v>
-      </c>
-      <c r="S14" s="169">
-        <v>1</v>
-      </c>
-      <c r="T14" s="169">
-        <v>1</v>
-      </c>
-      <c r="U14" s="169">
-        <v>1</v>
-      </c>
-      <c r="V14" s="169">
-        <v>1</v>
-      </c>
-      <c r="W14" s="169">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="138"/>
+      <c r="B14" s="138"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="138"/>
+      <c r="K14" s="138"/>
+      <c r="L14" s="138"/>
+      <c r="M14" s="138">
+        <v>1</v>
+      </c>
+      <c r="N14" s="138">
+        <v>1</v>
+      </c>
+      <c r="O14" s="138">
+        <v>1</v>
+      </c>
+      <c r="P14" s="138">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="138">
+        <v>1</v>
+      </c>
+      <c r="R14" s="138">
+        <v>1</v>
+      </c>
+      <c r="S14" s="138">
+        <v>1</v>
+      </c>
+      <c r="T14" s="138">
+        <v>1</v>
+      </c>
+      <c r="U14" s="138">
+        <v>1</v>
+      </c>
+      <c r="V14" s="138">
+        <v>1</v>
+      </c>
+      <c r="W14" s="138">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A15" s="169"/>
-      <c r="B15" s="169"/>
-      <c r="C15" s="169"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="169"/>
-      <c r="G15" s="169"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="169"/>
-      <c r="J15" s="169"/>
-      <c r="K15" s="169"/>
-      <c r="L15" s="169"/>
-      <c r="M15" s="169">
-        <v>1</v>
-      </c>
-      <c r="N15" s="169">
-        <v>1</v>
-      </c>
-      <c r="O15" s="169">
-        <v>1</v>
-      </c>
-      <c r="P15" s="169">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="169">
-        <v>1</v>
-      </c>
-      <c r="R15" s="169">
-        <v>1</v>
-      </c>
-      <c r="S15" s="169">
-        <v>1</v>
-      </c>
-      <c r="T15" s="169">
-        <v>1</v>
-      </c>
-      <c r="U15" s="169">
-        <v>1</v>
-      </c>
-      <c r="V15" s="169">
-        <v>1</v>
-      </c>
-      <c r="W15" s="169">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="138"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="138"/>
+      <c r="K15" s="138"/>
+      <c r="L15" s="138"/>
+      <c r="M15" s="138">
+        <v>1</v>
+      </c>
+      <c r="N15" s="138">
+        <v>1</v>
+      </c>
+      <c r="O15" s="138">
+        <v>1</v>
+      </c>
+      <c r="P15" s="138">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="138">
+        <v>1</v>
+      </c>
+      <c r="R15" s="138">
+        <v>1</v>
+      </c>
+      <c r="S15" s="138">
+        <v>1</v>
+      </c>
+      <c r="T15" s="138">
+        <v>1</v>
+      </c>
+      <c r="U15" s="138">
+        <v>1</v>
+      </c>
+      <c r="V15" s="138">
+        <v>1</v>
+      </c>
+      <c r="W15" s="138">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A16" s="169"/>
-      <c r="B16" s="169"/>
-      <c r="C16" s="169"/>
-      <c r="D16" s="169"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="169"/>
-      <c r="G16" s="169"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="169"/>
-      <c r="J16" s="169"/>
-      <c r="K16" s="169"/>
-      <c r="L16" s="169"/>
-      <c r="M16" s="169">
-        <v>1</v>
-      </c>
-      <c r="N16" s="169">
-        <v>1</v>
-      </c>
-      <c r="O16" s="169">
-        <v>1</v>
-      </c>
-      <c r="P16" s="169">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="169">
-        <v>1</v>
-      </c>
-      <c r="R16" s="169">
-        <v>1</v>
-      </c>
-      <c r="S16" s="169">
-        <v>1</v>
-      </c>
-      <c r="T16" s="169">
-        <v>1</v>
-      </c>
-      <c r="U16" s="169">
-        <v>1</v>
-      </c>
-      <c r="V16" s="169">
-        <v>1</v>
-      </c>
-      <c r="W16" s="169">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="138"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="138"/>
+      <c r="K16" s="138"/>
+      <c r="L16" s="138"/>
+      <c r="M16" s="138">
+        <v>1</v>
+      </c>
+      <c r="N16" s="138">
+        <v>1</v>
+      </c>
+      <c r="O16" s="138">
+        <v>1</v>
+      </c>
+      <c r="P16" s="138">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="138">
+        <v>1</v>
+      </c>
+      <c r="R16" s="138">
+        <v>1</v>
+      </c>
+      <c r="S16" s="138">
+        <v>1</v>
+      </c>
+      <c r="T16" s="138">
+        <v>1</v>
+      </c>
+      <c r="U16" s="138">
+        <v>1</v>
+      </c>
+      <c r="V16" s="138">
+        <v>1</v>
+      </c>
+      <c r="W16" s="138">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A17" s="169"/>
-      <c r="B17" s="169"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="169"/>
-      <c r="G17" s="169"/>
-      <c r="H17" s="169"/>
-      <c r="I17" s="169"/>
-      <c r="J17" s="169"/>
-      <c r="K17" s="169"/>
-      <c r="L17" s="169"/>
-      <c r="M17" s="169">
-        <v>1</v>
-      </c>
-      <c r="N17" s="169">
-        <v>1</v>
-      </c>
-      <c r="O17" s="169">
-        <v>1</v>
-      </c>
-      <c r="P17" s="169">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="169">
-        <v>1</v>
-      </c>
-      <c r="R17" s="169">
-        <v>1</v>
-      </c>
-      <c r="S17" s="169">
-        <v>1</v>
-      </c>
-      <c r="T17" s="169">
-        <v>1</v>
-      </c>
-      <c r="U17" s="169">
-        <v>1</v>
-      </c>
-      <c r="V17" s="169">
-        <v>1</v>
-      </c>
-      <c r="W17" s="169">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" s="138"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="138"/>
+      <c r="K17" s="138"/>
+      <c r="L17" s="138"/>
+      <c r="M17" s="138">
+        <v>1</v>
+      </c>
+      <c r="N17" s="138">
+        <v>1</v>
+      </c>
+      <c r="O17" s="138">
+        <v>1</v>
+      </c>
+      <c r="P17" s="138">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="138">
+        <v>1</v>
+      </c>
+      <c r="R17" s="138">
+        <v>1</v>
+      </c>
+      <c r="S17" s="138">
+        <v>1</v>
+      </c>
+      <c r="T17" s="138">
+        <v>1</v>
+      </c>
+      <c r="U17" s="138">
+        <v>1</v>
+      </c>
+      <c r="V17" s="138">
+        <v>1</v>
+      </c>
+      <c r="W17" s="138">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A18" s="169"/>
-      <c r="B18" s="169"/>
-      <c r="C18" s="169"/>
-      <c r="D18" s="169"/>
-      <c r="E18" s="169"/>
-      <c r="F18" s="169"/>
-      <c r="G18" s="169"/>
-      <c r="H18" s="169"/>
-      <c r="I18" s="169"/>
-      <c r="J18" s="169"/>
-      <c r="K18" s="169"/>
-      <c r="L18" s="169"/>
-      <c r="M18" s="169">
-        <v>1</v>
-      </c>
-      <c r="N18" s="169">
-        <v>1</v>
-      </c>
-      <c r="O18" s="169">
-        <v>1</v>
-      </c>
-      <c r="P18" s="169">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="169">
-        <v>1</v>
-      </c>
-      <c r="R18" s="169">
-        <v>1</v>
-      </c>
-      <c r="S18" s="169">
-        <v>1</v>
-      </c>
-      <c r="T18" s="169">
-        <v>1</v>
-      </c>
-      <c r="U18" s="169">
-        <v>1</v>
-      </c>
-      <c r="V18" s="169">
-        <v>1</v>
-      </c>
-      <c r="W18" s="169">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" s="138"/>
+      <c r="B18" s="138"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="138"/>
+      <c r="K18" s="138"/>
+      <c r="L18" s="138"/>
+      <c r="M18" s="138">
+        <v>1</v>
+      </c>
+      <c r="N18" s="138">
+        <v>1</v>
+      </c>
+      <c r="O18" s="138">
+        <v>1</v>
+      </c>
+      <c r="P18" s="138">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="138">
+        <v>1</v>
+      </c>
+      <c r="R18" s="138">
+        <v>1</v>
+      </c>
+      <c r="S18" s="138">
+        <v>1</v>
+      </c>
+      <c r="T18" s="138">
+        <v>1</v>
+      </c>
+      <c r="U18" s="138">
+        <v>1</v>
+      </c>
+      <c r="V18" s="138">
+        <v>1</v>
+      </c>
+      <c r="W18" s="138">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A19" s="169"/>
-      <c r="B19" s="169"/>
-      <c r="C19" s="169"/>
-      <c r="D19" s="169"/>
-      <c r="E19" s="169"/>
-      <c r="F19" s="169"/>
-      <c r="G19" s="169"/>
-      <c r="H19" s="169"/>
-      <c r="I19" s="169"/>
-      <c r="J19" s="169"/>
-      <c r="K19" s="169"/>
-      <c r="L19" s="169"/>
-      <c r="M19" s="169">
-        <v>1</v>
-      </c>
-      <c r="N19" s="169">
-        <v>1</v>
-      </c>
-      <c r="O19" s="169">
-        <v>1</v>
-      </c>
-      <c r="P19" s="169">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="169">
-        <v>1</v>
-      </c>
-      <c r="R19" s="169">
-        <v>1</v>
-      </c>
-      <c r="S19" s="169">
-        <v>1</v>
-      </c>
-      <c r="T19" s="169">
-        <v>1</v>
-      </c>
-      <c r="U19" s="169">
-        <v>1</v>
-      </c>
-      <c r="V19" s="169">
-        <v>1</v>
-      </c>
-      <c r="W19" s="169">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" s="138"/>
+      <c r="B19" s="138"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="138"/>
+      <c r="K19" s="138"/>
+      <c r="L19" s="138"/>
+      <c r="M19" s="138">
+        <v>1</v>
+      </c>
+      <c r="N19" s="138">
+        <v>1</v>
+      </c>
+      <c r="O19" s="138">
+        <v>1</v>
+      </c>
+      <c r="P19" s="138">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="138">
+        <v>1</v>
+      </c>
+      <c r="R19" s="138">
+        <v>1</v>
+      </c>
+      <c r="S19" s="138">
+        <v>1</v>
+      </c>
+      <c r="T19" s="138">
+        <v>1</v>
+      </c>
+      <c r="U19" s="138">
+        <v>1</v>
+      </c>
+      <c r="V19" s="138">
+        <v>1</v>
+      </c>
+      <c r="W19" s="138">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A20" s="169"/>
-      <c r="B20" s="169"/>
-      <c r="C20" s="169"/>
-      <c r="D20" s="169"/>
-      <c r="E20" s="169"/>
-      <c r="F20" s="169"/>
-      <c r="G20" s="169"/>
-      <c r="H20" s="169"/>
-      <c r="I20" s="169"/>
-      <c r="J20" s="169"/>
-      <c r="K20" s="169"/>
-      <c r="L20" s="169"/>
-      <c r="M20" s="169">
-        <v>1</v>
-      </c>
-      <c r="N20" s="169">
-        <v>1</v>
-      </c>
-      <c r="O20" s="169">
-        <v>1</v>
-      </c>
-      <c r="P20" s="169">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="169">
-        <v>1</v>
-      </c>
-      <c r="R20" s="169">
-        <v>1</v>
-      </c>
-      <c r="S20" s="169">
-        <v>1</v>
-      </c>
-      <c r="T20" s="169">
-        <v>1</v>
-      </c>
-      <c r="U20" s="169">
-        <v>1</v>
-      </c>
-      <c r="V20" s="169">
-        <v>1</v>
-      </c>
-      <c r="W20" s="169">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" s="138"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="138"/>
+      <c r="K20" s="138"/>
+      <c r="L20" s="138"/>
+      <c r="M20" s="138">
+        <v>1</v>
+      </c>
+      <c r="N20" s="138">
+        <v>1</v>
+      </c>
+      <c r="O20" s="138">
+        <v>1</v>
+      </c>
+      <c r="P20" s="138">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="138">
+        <v>1</v>
+      </c>
+      <c r="R20" s="138">
+        <v>1</v>
+      </c>
+      <c r="S20" s="138">
+        <v>1</v>
+      </c>
+      <c r="T20" s="138">
+        <v>1</v>
+      </c>
+      <c r="U20" s="138">
+        <v>1</v>
+      </c>
+      <c r="V20" s="138">
+        <v>1</v>
+      </c>
+      <c r="W20" s="138">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A21" s="169"/>
-      <c r="B21" s="169"/>
-      <c r="C21" s="169"/>
-      <c r="D21" s="169"/>
-      <c r="E21" s="169"/>
-      <c r="F21" s="169"/>
-      <c r="G21" s="169"/>
-      <c r="H21" s="169"/>
-      <c r="I21" s="169"/>
-      <c r="J21" s="169"/>
-      <c r="K21" s="169"/>
-      <c r="L21" s="169"/>
-      <c r="M21" s="169">
-        <v>1</v>
-      </c>
-      <c r="N21" s="169">
-        <v>1</v>
-      </c>
-      <c r="O21" s="169">
-        <v>1</v>
-      </c>
-      <c r="P21" s="169">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="169">
-        <v>1</v>
-      </c>
-      <c r="R21" s="169">
-        <v>1</v>
-      </c>
-      <c r="S21" s="169">
-        <v>1</v>
-      </c>
-      <c r="T21" s="169">
-        <v>1</v>
-      </c>
-      <c r="U21" s="169">
-        <v>1</v>
-      </c>
-      <c r="V21" s="169">
-        <v>1</v>
-      </c>
-      <c r="W21" s="169">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21" s="138"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="138"/>
+      <c r="J21" s="138"/>
+      <c r="K21" s="138"/>
+      <c r="L21" s="138"/>
+      <c r="M21" s="138">
+        <v>1</v>
+      </c>
+      <c r="N21" s="138">
+        <v>1</v>
+      </c>
+      <c r="O21" s="138">
+        <v>1</v>
+      </c>
+      <c r="P21" s="138">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="138">
+        <v>1</v>
+      </c>
+      <c r="R21" s="138">
+        <v>1</v>
+      </c>
+      <c r="S21" s="138">
+        <v>1</v>
+      </c>
+      <c r="T21" s="138">
+        <v>1</v>
+      </c>
+      <c r="U21" s="138">
+        <v>1</v>
+      </c>
+      <c r="V21" s="138">
+        <v>1</v>
+      </c>
+      <c r="W21" s="138">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A22" s="169"/>
-      <c r="B22" s="169"/>
-      <c r="C22" s="169"/>
-      <c r="D22" s="169"/>
-      <c r="E22" s="169"/>
-      <c r="F22" s="169"/>
-      <c r="G22" s="169"/>
-      <c r="H22" s="169"/>
-      <c r="I22" s="169"/>
-      <c r="J22" s="169"/>
-      <c r="K22" s="169"/>
-      <c r="L22" s="169"/>
-      <c r="M22" s="169">
-        <v>1</v>
-      </c>
-      <c r="N22" s="169">
-        <v>1</v>
-      </c>
-      <c r="O22" s="169">
-        <v>1</v>
-      </c>
-      <c r="P22" s="169">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="169">
-        <v>1</v>
-      </c>
-      <c r="R22" s="169">
-        <v>1</v>
-      </c>
-      <c r="S22" s="169">
-        <v>1</v>
-      </c>
-      <c r="T22" s="169">
-        <v>1</v>
-      </c>
-      <c r="U22" s="169">
-        <v>1</v>
-      </c>
-      <c r="V22" s="169">
-        <v>1</v>
-      </c>
-      <c r="W22" s="169">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" s="138"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="138"/>
+      <c r="K22" s="138"/>
+      <c r="L22" s="138"/>
+      <c r="M22" s="138">
+        <v>1</v>
+      </c>
+      <c r="N22" s="138">
+        <v>1</v>
+      </c>
+      <c r="O22" s="138">
+        <v>1</v>
+      </c>
+      <c r="P22" s="138">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="138">
+        <v>1</v>
+      </c>
+      <c r="R22" s="138">
+        <v>1</v>
+      </c>
+      <c r="S22" s="138">
+        <v>1</v>
+      </c>
+      <c r="T22" s="138">
+        <v>1</v>
+      </c>
+      <c r="U22" s="138">
+        <v>1</v>
+      </c>
+      <c r="V22" s="138">
+        <v>1</v>
+      </c>
+      <c r="W22" s="138">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A23" s="169"/>
-      <c r="B23" s="169"/>
-      <c r="C23" s="169"/>
-      <c r="D23" s="169"/>
-      <c r="E23" s="169"/>
-      <c r="F23" s="169"/>
-      <c r="G23" s="169"/>
-      <c r="H23" s="169"/>
-      <c r="I23" s="169"/>
-      <c r="J23" s="169"/>
-      <c r="K23" s="169"/>
-      <c r="L23" s="169"/>
-      <c r="M23" s="169">
-        <v>1</v>
-      </c>
-      <c r="N23" s="169">
-        <v>1</v>
-      </c>
-      <c r="O23" s="169">
-        <v>1</v>
-      </c>
-      <c r="P23" s="169">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="169">
-        <v>1</v>
-      </c>
-      <c r="R23" s="169">
-        <v>1</v>
-      </c>
-      <c r="S23" s="169">
-        <v>1</v>
-      </c>
-      <c r="T23" s="169">
-        <v>1</v>
-      </c>
-      <c r="U23" s="169">
-        <v>1</v>
-      </c>
-      <c r="V23" s="169">
-        <v>1</v>
-      </c>
-      <c r="W23" s="169">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" s="138"/>
+      <c r="B23" s="138"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="138"/>
+      <c r="K23" s="138"/>
+      <c r="L23" s="138"/>
+      <c r="M23" s="138">
+        <v>1</v>
+      </c>
+      <c r="N23" s="138">
+        <v>1</v>
+      </c>
+      <c r="O23" s="138">
+        <v>1</v>
+      </c>
+      <c r="P23" s="138">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="138">
+        <v>1</v>
+      </c>
+      <c r="R23" s="138">
+        <v>1</v>
+      </c>
+      <c r="S23" s="138">
+        <v>1</v>
+      </c>
+      <c r="T23" s="138">
+        <v>1</v>
+      </c>
+      <c r="U23" s="138">
+        <v>1</v>
+      </c>
+      <c r="V23" s="138">
+        <v>1</v>
+      </c>
+      <c r="W23" s="138">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A24" s="169"/>
-      <c r="B24" s="169"/>
-      <c r="C24" s="169"/>
-      <c r="D24" s="169"/>
-      <c r="E24" s="169"/>
-      <c r="F24" s="169"/>
-      <c r="G24" s="169"/>
-      <c r="H24" s="169"/>
-      <c r="I24" s="169"/>
-      <c r="J24" s="169"/>
-      <c r="K24" s="169"/>
-      <c r="L24" s="169"/>
-      <c r="M24" s="169">
-        <v>1</v>
-      </c>
-      <c r="N24" s="169">
-        <v>1</v>
-      </c>
-      <c r="O24" s="169">
-        <v>1</v>
-      </c>
-      <c r="P24" s="169">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="169">
-        <v>1</v>
-      </c>
-      <c r="R24" s="169">
-        <v>1</v>
-      </c>
-      <c r="S24" s="169">
-        <v>1</v>
-      </c>
-      <c r="T24" s="169">
-        <v>1</v>
-      </c>
-      <c r="U24" s="169">
-        <v>1</v>
-      </c>
-      <c r="V24" s="169">
-        <v>1</v>
-      </c>
-      <c r="W24" s="169">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24" s="138"/>
+      <c r="B24" s="138"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="138"/>
+      <c r="J24" s="138"/>
+      <c r="K24" s="138"/>
+      <c r="L24" s="138"/>
+      <c r="M24" s="138">
+        <v>1</v>
+      </c>
+      <c r="N24" s="138">
+        <v>1</v>
+      </c>
+      <c r="O24" s="138">
+        <v>1</v>
+      </c>
+      <c r="P24" s="138">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="138">
+        <v>1</v>
+      </c>
+      <c r="R24" s="138">
+        <v>1</v>
+      </c>
+      <c r="S24" s="138">
+        <v>1</v>
+      </c>
+      <c r="T24" s="138">
+        <v>1</v>
+      </c>
+      <c r="U24" s="138">
+        <v>1</v>
+      </c>
+      <c r="V24" s="138">
+        <v>1</v>
+      </c>
+      <c r="W24" s="138">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A25" s="169"/>
-      <c r="B25" s="169"/>
-      <c r="C25" s="169"/>
-      <c r="D25" s="169"/>
-      <c r="E25" s="169"/>
-      <c r="F25" s="169"/>
-      <c r="G25" s="169"/>
-      <c r="H25" s="169"/>
-      <c r="I25" s="169"/>
-      <c r="J25" s="169"/>
-      <c r="K25" s="169"/>
-      <c r="L25" s="169"/>
-      <c r="M25" s="169">
-        <v>1</v>
-      </c>
-      <c r="N25" s="169">
-        <v>1</v>
-      </c>
-      <c r="O25" s="169">
-        <v>1</v>
-      </c>
-      <c r="P25" s="169">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="169">
-        <v>1</v>
-      </c>
-      <c r="R25" s="169">
-        <v>1</v>
-      </c>
-      <c r="S25" s="169">
-        <v>1</v>
-      </c>
-      <c r="T25" s="169">
-        <v>1</v>
-      </c>
-      <c r="U25" s="169">
-        <v>1</v>
-      </c>
-      <c r="V25" s="169">
-        <v>1</v>
-      </c>
-      <c r="W25" s="169">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" s="138"/>
+      <c r="B25" s="138"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="138"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="138"/>
+      <c r="H25" s="138"/>
+      <c r="I25" s="138"/>
+      <c r="J25" s="138"/>
+      <c r="K25" s="138"/>
+      <c r="L25" s="138"/>
+      <c r="M25" s="138">
+        <v>1</v>
+      </c>
+      <c r="N25" s="138">
+        <v>1</v>
+      </c>
+      <c r="O25" s="138">
+        <v>1</v>
+      </c>
+      <c r="P25" s="138">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="138">
+        <v>1</v>
+      </c>
+      <c r="R25" s="138">
+        <v>1</v>
+      </c>
+      <c r="S25" s="138">
+        <v>1</v>
+      </c>
+      <c r="T25" s="138">
+        <v>1</v>
+      </c>
+      <c r="U25" s="138">
+        <v>1</v>
+      </c>
+      <c r="V25" s="138">
+        <v>1</v>
+      </c>
+      <c r="W25" s="138">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A26" s="169"/>
-      <c r="B26" s="169"/>
-      <c r="C26" s="169"/>
-      <c r="D26" s="169"/>
-      <c r="E26" s="169"/>
-      <c r="F26" s="169"/>
-      <c r="G26" s="169"/>
-      <c r="H26" s="169"/>
-      <c r="I26" s="169"/>
-      <c r="J26" s="169"/>
-      <c r="K26" s="169"/>
-      <c r="L26" s="169"/>
-      <c r="M26" s="169">
-        <v>1</v>
-      </c>
-      <c r="N26" s="169">
-        <v>1</v>
-      </c>
-      <c r="O26" s="169">
-        <v>1</v>
-      </c>
-      <c r="P26" s="169">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="169">
-        <v>1</v>
-      </c>
-      <c r="R26" s="169">
-        <v>1</v>
-      </c>
-      <c r="S26" s="169">
-        <v>1</v>
-      </c>
-      <c r="T26" s="169">
-        <v>1</v>
-      </c>
-      <c r="U26" s="169">
-        <v>1</v>
-      </c>
-      <c r="V26" s="169">
-        <v>1</v>
-      </c>
-      <c r="W26" s="169">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A26" s="138"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="138"/>
+      <c r="K26" s="138"/>
+      <c r="L26" s="138"/>
+      <c r="M26" s="138">
+        <v>1</v>
+      </c>
+      <c r="N26" s="138">
+        <v>1</v>
+      </c>
+      <c r="O26" s="138">
+        <v>1</v>
+      </c>
+      <c r="P26" s="138">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="138">
+        <v>1</v>
+      </c>
+      <c r="R26" s="138">
+        <v>1</v>
+      </c>
+      <c r="S26" s="138">
+        <v>1</v>
+      </c>
+      <c r="T26" s="138">
+        <v>1</v>
+      </c>
+      <c r="U26" s="138">
+        <v>1</v>
+      </c>
+      <c r="V26" s="138">
+        <v>1</v>
+      </c>
+      <c r="W26" s="138">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A27" s="169"/>
-      <c r="B27" s="169"/>
-      <c r="C27" s="169"/>
-      <c r="D27" s="169"/>
-      <c r="E27" s="169"/>
-      <c r="F27" s="169"/>
-      <c r="G27" s="169"/>
-      <c r="H27" s="169"/>
-      <c r="I27" s="169"/>
-      <c r="J27" s="169"/>
-      <c r="K27" s="169"/>
-      <c r="L27" s="169"/>
-      <c r="M27" s="169">
-        <v>1</v>
-      </c>
-      <c r="N27" s="169">
-        <v>1</v>
-      </c>
-      <c r="O27" s="169">
-        <v>1</v>
-      </c>
-      <c r="P27" s="169">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="169">
-        <v>1</v>
-      </c>
-      <c r="R27" s="169">
-        <v>1</v>
-      </c>
-      <c r="S27" s="169">
-        <v>1</v>
-      </c>
-      <c r="T27" s="169">
-        <v>1</v>
-      </c>
-      <c r="U27" s="169">
-        <v>1</v>
-      </c>
-      <c r="V27" s="169">
-        <v>1</v>
-      </c>
-      <c r="W27" s="169">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A27" s="138"/>
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="138"/>
+      <c r="J27" s="138"/>
+      <c r="K27" s="138"/>
+      <c r="L27" s="138"/>
+      <c r="M27" s="138">
+        <v>1</v>
+      </c>
+      <c r="N27" s="138">
+        <v>1</v>
+      </c>
+      <c r="O27" s="138">
+        <v>1</v>
+      </c>
+      <c r="P27" s="138">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="138">
+        <v>1</v>
+      </c>
+      <c r="R27" s="138">
+        <v>1</v>
+      </c>
+      <c r="S27" s="138">
+        <v>1</v>
+      </c>
+      <c r="T27" s="138">
+        <v>1</v>
+      </c>
+      <c r="U27" s="138">
+        <v>1</v>
+      </c>
+      <c r="V27" s="138">
+        <v>1</v>
+      </c>
+      <c r="W27" s="138">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A28" s="169"/>
-      <c r="B28" s="169"/>
-      <c r="C28" s="169"/>
-      <c r="D28" s="169"/>
-      <c r="E28" s="169"/>
-      <c r="F28" s="169"/>
-      <c r="G28" s="169"/>
-      <c r="H28" s="169"/>
-      <c r="I28" s="169"/>
-      <c r="J28" s="169"/>
-      <c r="K28" s="169"/>
-      <c r="L28" s="169"/>
-      <c r="M28" s="169">
-        <v>1</v>
-      </c>
-      <c r="N28" s="169">
-        <v>1</v>
-      </c>
-      <c r="O28" s="169">
-        <v>1</v>
-      </c>
-      <c r="P28" s="169">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="169">
-        <v>1</v>
-      </c>
-      <c r="R28" s="169">
-        <v>1</v>
-      </c>
-      <c r="S28" s="169">
-        <v>1</v>
-      </c>
-      <c r="T28" s="169">
-        <v>1</v>
-      </c>
-      <c r="U28" s="169">
-        <v>1</v>
-      </c>
-      <c r="V28" s="169">
-        <v>1</v>
-      </c>
-      <c r="W28" s="169">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A28" s="138"/>
+      <c r="B28" s="138"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="138"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="138"/>
+      <c r="J28" s="138"/>
+      <c r="K28" s="138"/>
+      <c r="L28" s="138"/>
+      <c r="M28" s="138">
+        <v>1</v>
+      </c>
+      <c r="N28" s="138">
+        <v>1</v>
+      </c>
+      <c r="O28" s="138">
+        <v>1</v>
+      </c>
+      <c r="P28" s="138">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="138">
+        <v>1</v>
+      </c>
+      <c r="R28" s="138">
+        <v>1</v>
+      </c>
+      <c r="S28" s="138">
+        <v>1</v>
+      </c>
+      <c r="T28" s="138">
+        <v>1</v>
+      </c>
+      <c r="U28" s="138">
+        <v>1</v>
+      </c>
+      <c r="V28" s="138">
+        <v>1</v>
+      </c>
+      <c r="W28" s="138">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A29" s="169"/>
-      <c r="B29" s="169"/>
-      <c r="C29" s="169"/>
-      <c r="D29" s="169"/>
-      <c r="E29" s="169"/>
-      <c r="F29" s="169"/>
-      <c r="G29" s="169"/>
-      <c r="H29" s="169"/>
-      <c r="I29" s="169"/>
-      <c r="J29" s="169"/>
-      <c r="K29" s="169"/>
-      <c r="L29" s="169"/>
-      <c r="M29" s="169">
-        <v>1</v>
-      </c>
-      <c r="N29" s="169">
-        <v>1</v>
-      </c>
-      <c r="O29" s="169">
-        <v>1</v>
-      </c>
-      <c r="P29" s="169">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="169">
-        <v>1</v>
-      </c>
-      <c r="R29" s="169">
-        <v>1</v>
-      </c>
-      <c r="S29" s="169">
-        <v>1</v>
-      </c>
-      <c r="T29" s="169">
-        <v>1</v>
-      </c>
-      <c r="U29" s="169">
-        <v>1</v>
-      </c>
-      <c r="V29" s="169">
-        <v>1</v>
-      </c>
-      <c r="W29" s="169">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A29" s="138"/>
+      <c r="B29" s="138"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="138"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="138"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="138"/>
+      <c r="I29" s="138"/>
+      <c r="J29" s="138"/>
+      <c r="K29" s="138"/>
+      <c r="L29" s="138"/>
+      <c r="M29" s="138">
+        <v>1</v>
+      </c>
+      <c r="N29" s="138">
+        <v>1</v>
+      </c>
+      <c r="O29" s="138">
+        <v>1</v>
+      </c>
+      <c r="P29" s="138">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="138">
+        <v>1</v>
+      </c>
+      <c r="R29" s="138">
+        <v>1</v>
+      </c>
+      <c r="S29" s="138">
+        <v>1</v>
+      </c>
+      <c r="T29" s="138">
+        <v>1</v>
+      </c>
+      <c r="U29" s="138">
+        <v>1</v>
+      </c>
+      <c r="V29" s="138">
+        <v>1</v>
+      </c>
+      <c r="W29" s="138">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A30" s="169"/>
-      <c r="B30" s="169"/>
-      <c r="C30" s="169"/>
-      <c r="D30" s="169"/>
-      <c r="E30" s="169"/>
-      <c r="F30" s="169"/>
-      <c r="G30" s="169"/>
-      <c r="H30" s="169"/>
-      <c r="I30" s="169"/>
-      <c r="J30" s="169"/>
-      <c r="K30" s="169"/>
-      <c r="L30" s="169"/>
-      <c r="M30" s="169">
-        <v>1</v>
-      </c>
-      <c r="N30" s="169">
-        <v>1</v>
-      </c>
-      <c r="O30" s="169">
-        <v>1</v>
-      </c>
-      <c r="P30" s="169">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="169">
-        <v>1</v>
-      </c>
-      <c r="R30" s="169">
-        <v>1</v>
-      </c>
-      <c r="S30" s="169">
-        <v>1</v>
-      </c>
-      <c r="T30" s="169">
-        <v>1</v>
-      </c>
-      <c r="U30" s="169">
-        <v>1</v>
-      </c>
-      <c r="V30" s="169">
-        <v>1</v>
-      </c>
-      <c r="W30" s="169">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A30" s="138"/>
+      <c r="B30" s="138"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="138"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="138"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="138"/>
+      <c r="I30" s="138"/>
+      <c r="J30" s="138"/>
+      <c r="K30" s="138"/>
+      <c r="L30" s="138"/>
+      <c r="M30" s="138">
+        <v>1</v>
+      </c>
+      <c r="N30" s="138">
+        <v>1</v>
+      </c>
+      <c r="O30" s="138">
+        <v>1</v>
+      </c>
+      <c r="P30" s="138">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="138">
+        <v>1</v>
+      </c>
+      <c r="R30" s="138">
+        <v>1</v>
+      </c>
+      <c r="S30" s="138">
+        <v>1</v>
+      </c>
+      <c r="T30" s="138">
+        <v>1</v>
+      </c>
+      <c r="U30" s="138">
+        <v>1</v>
+      </c>
+      <c r="V30" s="138">
+        <v>1</v>
+      </c>
+      <c r="W30" s="138">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A31" s="169"/>
-      <c r="B31" s="169"/>
-      <c r="C31" s="169"/>
-      <c r="D31" s="169"/>
-      <c r="E31" s="169"/>
-      <c r="F31" s="169"/>
-      <c r="G31" s="169"/>
-      <c r="H31" s="169"/>
-      <c r="I31" s="169"/>
-      <c r="J31" s="169"/>
-      <c r="K31" s="169"/>
-      <c r="L31" s="169"/>
-      <c r="M31" s="169">
-        <v>1</v>
-      </c>
-      <c r="N31" s="169">
-        <v>1</v>
-      </c>
-      <c r="O31" s="169">
-        <v>1</v>
-      </c>
-      <c r="P31" s="169">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="169">
-        <v>1</v>
-      </c>
-      <c r="R31" s="169">
-        <v>1</v>
-      </c>
-      <c r="S31" s="169">
-        <v>1</v>
-      </c>
-      <c r="T31" s="169">
-        <v>1</v>
-      </c>
-      <c r="U31" s="169">
-        <v>1</v>
-      </c>
-      <c r="V31" s="169">
-        <v>1</v>
-      </c>
-      <c r="W31" s="169">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A31" s="138"/>
+      <c r="B31" s="138"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="138"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="138"/>
+      <c r="I31" s="138"/>
+      <c r="J31" s="138"/>
+      <c r="K31" s="138"/>
+      <c r="L31" s="138"/>
+      <c r="M31" s="138">
+        <v>1</v>
+      </c>
+      <c r="N31" s="138">
+        <v>1</v>
+      </c>
+      <c r="O31" s="138">
+        <v>1</v>
+      </c>
+      <c r="P31" s="138">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="138">
+        <v>1</v>
+      </c>
+      <c r="R31" s="138">
+        <v>1</v>
+      </c>
+      <c r="S31" s="138">
+        <v>1</v>
+      </c>
+      <c r="T31" s="138">
+        <v>1</v>
+      </c>
+      <c r="U31" s="138">
+        <v>1</v>
+      </c>
+      <c r="V31" s="138">
+        <v>1</v>
+      </c>
+      <c r="W31" s="138">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A32" s="169"/>
-      <c r="B32" s="169"/>
-      <c r="C32" s="169"/>
-      <c r="D32" s="169"/>
-      <c r="E32" s="169"/>
-      <c r="F32" s="169"/>
-      <c r="G32" s="169"/>
-      <c r="H32" s="169"/>
-      <c r="I32" s="169"/>
-      <c r="J32" s="169"/>
-      <c r="K32" s="169"/>
-      <c r="L32" s="169"/>
-      <c r="M32" s="169">
-        <v>1</v>
-      </c>
-      <c r="N32" s="169">
-        <v>1</v>
-      </c>
-      <c r="O32" s="169">
-        <v>1</v>
-      </c>
-      <c r="P32" s="169">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="169">
-        <v>1</v>
-      </c>
-      <c r="R32" s="169">
-        <v>1</v>
-      </c>
-      <c r="S32" s="169">
-        <v>1</v>
-      </c>
-      <c r="T32" s="169">
-        <v>1</v>
-      </c>
-      <c r="U32" s="169">
-        <v>1</v>
-      </c>
-      <c r="V32" s="169">
-        <v>1</v>
-      </c>
-      <c r="W32" s="169">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A32" s="138"/>
+      <c r="B32" s="138"/>
+      <c r="C32" s="138"/>
+      <c r="D32" s="138"/>
+      <c r="E32" s="138"/>
+      <c r="F32" s="138"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="138"/>
+      <c r="I32" s="138"/>
+      <c r="J32" s="138"/>
+      <c r="K32" s="138"/>
+      <c r="L32" s="138"/>
+      <c r="M32" s="138">
+        <v>1</v>
+      </c>
+      <c r="N32" s="138">
+        <v>1</v>
+      </c>
+      <c r="O32" s="138">
+        <v>1</v>
+      </c>
+      <c r="P32" s="138">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="138">
+        <v>1</v>
+      </c>
+      <c r="R32" s="138">
+        <v>1</v>
+      </c>
+      <c r="S32" s="138">
+        <v>1</v>
+      </c>
+      <c r="T32" s="138">
+        <v>1</v>
+      </c>
+      <c r="U32" s="138">
+        <v>1</v>
+      </c>
+      <c r="V32" s="138">
+        <v>1</v>
+      </c>
+      <c r="W32" s="138">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A33" s="169"/>
-      <c r="B33" s="169"/>
-      <c r="C33" s="169"/>
-      <c r="D33" s="169"/>
-      <c r="E33" s="169"/>
-      <c r="F33" s="169"/>
-      <c r="G33" s="169"/>
-      <c r="H33" s="169"/>
-      <c r="I33" s="169"/>
-      <c r="J33" s="169"/>
-      <c r="K33" s="169"/>
-      <c r="L33" s="169"/>
-      <c r="M33" s="169">
-        <v>1</v>
-      </c>
-      <c r="N33" s="169">
-        <v>1</v>
-      </c>
-      <c r="O33" s="169">
-        <v>1</v>
-      </c>
-      <c r="P33" s="169">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="169">
-        <v>1</v>
-      </c>
-      <c r="R33" s="169">
-        <v>1</v>
-      </c>
-      <c r="S33" s="169">
-        <v>1</v>
-      </c>
-      <c r="T33" s="169">
-        <v>1</v>
-      </c>
-      <c r="U33" s="169">
-        <v>1</v>
-      </c>
-      <c r="V33" s="169">
-        <v>1</v>
-      </c>
-      <c r="W33" s="169">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A33" s="138"/>
+      <c r="B33" s="138"/>
+      <c r="C33" s="138"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="138"/>
+      <c r="F33" s="138"/>
+      <c r="G33" s="138"/>
+      <c r="H33" s="138"/>
+      <c r="I33" s="138"/>
+      <c r="J33" s="138"/>
+      <c r="K33" s="138"/>
+      <c r="L33" s="138"/>
+      <c r="M33" s="138">
+        <v>1</v>
+      </c>
+      <c r="N33" s="138">
+        <v>1</v>
+      </c>
+      <c r="O33" s="138">
+        <v>1</v>
+      </c>
+      <c r="P33" s="138">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="138">
+        <v>1</v>
+      </c>
+      <c r="R33" s="138">
+        <v>1</v>
+      </c>
+      <c r="S33" s="138">
+        <v>1</v>
+      </c>
+      <c r="T33" s="138">
+        <v>1</v>
+      </c>
+      <c r="U33" s="138">
+        <v>1</v>
+      </c>
+      <c r="V33" s="138">
+        <v>1</v>
+      </c>
+      <c r="W33" s="138">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A34" s="169"/>
-      <c r="B34" s="169"/>
-      <c r="C34" s="169"/>
-      <c r="D34" s="169"/>
-      <c r="E34" s="169"/>
-      <c r="F34" s="169"/>
-      <c r="G34" s="169"/>
-      <c r="H34" s="169"/>
-      <c r="I34" s="169"/>
-      <c r="J34" s="169"/>
-      <c r="K34" s="169"/>
-      <c r="L34" s="169"/>
-      <c r="M34" s="169">
-        <v>1</v>
-      </c>
-      <c r="N34" s="169">
-        <v>1</v>
-      </c>
-      <c r="O34" s="169">
-        <v>1</v>
-      </c>
-      <c r="P34" s="169">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="169">
-        <v>1</v>
-      </c>
-      <c r="R34" s="169">
-        <v>1</v>
-      </c>
-      <c r="S34" s="169">
-        <v>1</v>
-      </c>
-      <c r="T34" s="169">
-        <v>1</v>
-      </c>
-      <c r="U34" s="169">
-        <v>1</v>
-      </c>
-      <c r="V34" s="169">
-        <v>1</v>
-      </c>
-      <c r="W34" s="169">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A34" s="138"/>
+      <c r="B34" s="138"/>
+      <c r="C34" s="138"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="138"/>
+      <c r="F34" s="138"/>
+      <c r="G34" s="138"/>
+      <c r="H34" s="138"/>
+      <c r="I34" s="138"/>
+      <c r="J34" s="138"/>
+      <c r="K34" s="138"/>
+      <c r="L34" s="138"/>
+      <c r="M34" s="138">
+        <v>1</v>
+      </c>
+      <c r="N34" s="138">
+        <v>1</v>
+      </c>
+      <c r="O34" s="138">
+        <v>1</v>
+      </c>
+      <c r="P34" s="138">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="138">
+        <v>1</v>
+      </c>
+      <c r="R34" s="138">
+        <v>1</v>
+      </c>
+      <c r="S34" s="138">
+        <v>1</v>
+      </c>
+      <c r="T34" s="138">
+        <v>1</v>
+      </c>
+      <c r="U34" s="138">
+        <v>1</v>
+      </c>
+      <c r="V34" s="138">
+        <v>1</v>
+      </c>
+      <c r="W34" s="138">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A35" s="169"/>
-      <c r="B35" s="169"/>
-      <c r="C35" s="169"/>
-      <c r="D35" s="169"/>
-      <c r="E35" s="169"/>
-      <c r="F35" s="169"/>
-      <c r="G35" s="169"/>
-      <c r="H35" s="169"/>
-      <c r="I35" s="169"/>
-      <c r="J35" s="169"/>
-      <c r="K35" s="169"/>
-      <c r="L35" s="169"/>
-      <c r="M35" s="169">
-        <v>1</v>
-      </c>
-      <c r="N35" s="169">
-        <v>1</v>
-      </c>
-      <c r="O35" s="169">
-        <v>1</v>
-      </c>
-      <c r="P35" s="169">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="169">
-        <v>1</v>
-      </c>
-      <c r="R35" s="169">
-        <v>1</v>
-      </c>
-      <c r="S35" s="169">
-        <v>1</v>
-      </c>
-      <c r="T35" s="169">
-        <v>1</v>
-      </c>
-      <c r="U35" s="169">
-        <v>1</v>
-      </c>
-      <c r="V35" s="169">
-        <v>1</v>
-      </c>
-      <c r="W35" s="169">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A35" s="138"/>
+      <c r="B35" s="138"/>
+      <c r="C35" s="138"/>
+      <c r="D35" s="138"/>
+      <c r="E35" s="138"/>
+      <c r="F35" s="138"/>
+      <c r="G35" s="138"/>
+      <c r="H35" s="138"/>
+      <c r="I35" s="138"/>
+      <c r="J35" s="138"/>
+      <c r="K35" s="138"/>
+      <c r="L35" s="138"/>
+      <c r="M35" s="138">
+        <v>1</v>
+      </c>
+      <c r="N35" s="138">
+        <v>1</v>
+      </c>
+      <c r="O35" s="138">
+        <v>1</v>
+      </c>
+      <c r="P35" s="138">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="138">
+        <v>1</v>
+      </c>
+      <c r="R35" s="138">
+        <v>1</v>
+      </c>
+      <c r="S35" s="138">
+        <v>1</v>
+      </c>
+      <c r="T35" s="138">
+        <v>1</v>
+      </c>
+      <c r="U35" s="138">
+        <v>1</v>
+      </c>
+      <c r="V35" s="138">
+        <v>1</v>
+      </c>
+      <c r="W35" s="138">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A36" s="169"/>
-      <c r="B36" s="169"/>
-      <c r="C36" s="169"/>
-      <c r="D36" s="169"/>
-      <c r="E36" s="169"/>
-      <c r="F36" s="169"/>
-      <c r="G36" s="169"/>
-      <c r="H36" s="169"/>
-      <c r="I36" s="169"/>
-      <c r="J36" s="169"/>
-      <c r="K36" s="169"/>
-      <c r="L36" s="169"/>
-      <c r="M36" s="169">
-        <v>1</v>
-      </c>
-      <c r="N36" s="169">
-        <v>1</v>
-      </c>
-      <c r="O36" s="169">
-        <v>1</v>
-      </c>
-      <c r="P36" s="169">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="169">
-        <v>1</v>
-      </c>
-      <c r="R36" s="169">
-        <v>1</v>
-      </c>
-      <c r="S36" s="169">
-        <v>1</v>
-      </c>
-      <c r="T36" s="169">
-        <v>1</v>
-      </c>
-      <c r="U36" s="169">
-        <v>1</v>
-      </c>
-      <c r="V36" s="169">
-        <v>1</v>
-      </c>
-      <c r="W36" s="169">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A36" s="138"/>
+      <c r="B36" s="138"/>
+      <c r="C36" s="138"/>
+      <c r="D36" s="138"/>
+      <c r="E36" s="138"/>
+      <c r="F36" s="138"/>
+      <c r="G36" s="138"/>
+      <c r="H36" s="138"/>
+      <c r="I36" s="138"/>
+      <c r="J36" s="138"/>
+      <c r="K36" s="138"/>
+      <c r="L36" s="138"/>
+      <c r="M36" s="138">
+        <v>1</v>
+      </c>
+      <c r="N36" s="138">
+        <v>1</v>
+      </c>
+      <c r="O36" s="138">
+        <v>1</v>
+      </c>
+      <c r="P36" s="138">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="138">
+        <v>1</v>
+      </c>
+      <c r="R36" s="138">
+        <v>1</v>
+      </c>
+      <c r="S36" s="138">
+        <v>1</v>
+      </c>
+      <c r="T36" s="138">
+        <v>1</v>
+      </c>
+      <c r="U36" s="138">
+        <v>1</v>
+      </c>
+      <c r="V36" s="138">
+        <v>1</v>
+      </c>
+      <c r="W36" s="138">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A37" s="169"/>
-      <c r="B37" s="169"/>
-      <c r="C37" s="169"/>
-      <c r="D37" s="169"/>
-      <c r="E37" s="169"/>
-      <c r="F37" s="169"/>
-      <c r="G37" s="169"/>
-      <c r="H37" s="169"/>
-      <c r="I37" s="169"/>
-      <c r="J37" s="169"/>
-      <c r="K37" s="169"/>
-      <c r="L37" s="169"/>
-      <c r="M37" s="169">
-        <v>1</v>
-      </c>
-      <c r="N37" s="169">
-        <v>1</v>
-      </c>
-      <c r="O37" s="169">
-        <v>1</v>
-      </c>
-      <c r="P37" s="169">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="169">
-        <v>1</v>
-      </c>
-      <c r="R37" s="169">
-        <v>1</v>
-      </c>
-      <c r="S37" s="169">
-        <v>1</v>
-      </c>
-      <c r="T37" s="169">
-        <v>1</v>
-      </c>
-      <c r="U37" s="169">
-        <v>1</v>
-      </c>
-      <c r="V37" s="169">
-        <v>1</v>
-      </c>
-      <c r="W37" s="169">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A37" s="138"/>
+      <c r="B37" s="138"/>
+      <c r="C37" s="138"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="138"/>
+      <c r="F37" s="138"/>
+      <c r="G37" s="138"/>
+      <c r="H37" s="138"/>
+      <c r="I37" s="138"/>
+      <c r="J37" s="138"/>
+      <c r="K37" s="138"/>
+      <c r="L37" s="138"/>
+      <c r="M37" s="138">
+        <v>1</v>
+      </c>
+      <c r="N37" s="138">
+        <v>1</v>
+      </c>
+      <c r="O37" s="138">
+        <v>1</v>
+      </c>
+      <c r="P37" s="138">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="138">
+        <v>1</v>
+      </c>
+      <c r="R37" s="138">
+        <v>1</v>
+      </c>
+      <c r="S37" s="138">
+        <v>1</v>
+      </c>
+      <c r="T37" s="138">
+        <v>1</v>
+      </c>
+      <c r="U37" s="138">
+        <v>1</v>
+      </c>
+      <c r="V37" s="138">
+        <v>1</v>
+      </c>
+      <c r="W37" s="138">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A38" s="169"/>
-      <c r="B38" s="169"/>
-      <c r="C38" s="169"/>
-      <c r="D38" s="169"/>
-      <c r="E38" s="169"/>
-      <c r="F38" s="169"/>
-      <c r="G38" s="169"/>
-      <c r="H38" s="169"/>
-      <c r="I38" s="169"/>
-      <c r="J38" s="169"/>
-      <c r="K38" s="169"/>
-      <c r="L38" s="169"/>
-      <c r="M38" s="169">
-        <v>1</v>
-      </c>
-      <c r="N38" s="169">
-        <v>1</v>
-      </c>
-      <c r="O38" s="169">
-        <v>1</v>
-      </c>
-      <c r="P38" s="169">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="169">
-        <v>1</v>
-      </c>
-      <c r="R38" s="169">
-        <v>1</v>
-      </c>
-      <c r="S38" s="169">
-        <v>1</v>
-      </c>
-      <c r="T38" s="169">
-        <v>1</v>
-      </c>
-      <c r="U38" s="169">
-        <v>1</v>
-      </c>
-      <c r="V38" s="169">
-        <v>1</v>
-      </c>
-      <c r="W38" s="169">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A38" s="138"/>
+      <c r="B38" s="138"/>
+      <c r="C38" s="138"/>
+      <c r="D38" s="138"/>
+      <c r="E38" s="138"/>
+      <c r="F38" s="138"/>
+      <c r="G38" s="138"/>
+      <c r="H38" s="138"/>
+      <c r="I38" s="138"/>
+      <c r="J38" s="138"/>
+      <c r="K38" s="138"/>
+      <c r="L38" s="138"/>
+      <c r="M38" s="138">
+        <v>1</v>
+      </c>
+      <c r="N38" s="138">
+        <v>1</v>
+      </c>
+      <c r="O38" s="138">
+        <v>1</v>
+      </c>
+      <c r="P38" s="138">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="138">
+        <v>1</v>
+      </c>
+      <c r="R38" s="138">
+        <v>1</v>
+      </c>
+      <c r="S38" s="138">
+        <v>1</v>
+      </c>
+      <c r="T38" s="138">
+        <v>1</v>
+      </c>
+      <c r="U38" s="138">
+        <v>1</v>
+      </c>
+      <c r="V38" s="138">
+        <v>1</v>
+      </c>
+      <c r="W38" s="138">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A39" s="169"/>
-      <c r="B39" s="169"/>
-      <c r="C39" s="169"/>
-      <c r="D39" s="169"/>
-      <c r="E39" s="169"/>
-      <c r="F39" s="169"/>
-      <c r="G39" s="169"/>
-      <c r="H39" s="169"/>
-      <c r="I39" s="169"/>
-      <c r="J39" s="169"/>
-      <c r="K39" s="169"/>
-      <c r="L39" s="169"/>
-      <c r="M39" s="169">
-        <v>1</v>
-      </c>
-      <c r="N39" s="169">
-        <v>1</v>
-      </c>
-      <c r="O39" s="169">
-        <v>1</v>
-      </c>
-      <c r="P39" s="169">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="169">
-        <v>1</v>
-      </c>
-      <c r="R39" s="169">
-        <v>1</v>
-      </c>
-      <c r="S39" s="169">
-        <v>1</v>
-      </c>
-      <c r="T39" s="169">
-        <v>1</v>
-      </c>
-      <c r="U39" s="169">
-        <v>1</v>
-      </c>
-      <c r="V39" s="169">
-        <v>1</v>
-      </c>
-      <c r="W39" s="169">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A39" s="138"/>
+      <c r="B39" s="138"/>
+      <c r="C39" s="138"/>
+      <c r="D39" s="138"/>
+      <c r="E39" s="138"/>
+      <c r="F39" s="138"/>
+      <c r="G39" s="138"/>
+      <c r="H39" s="138"/>
+      <c r="I39" s="138"/>
+      <c r="J39" s="138"/>
+      <c r="K39" s="138"/>
+      <c r="L39" s="138"/>
+      <c r="M39" s="138">
+        <v>1</v>
+      </c>
+      <c r="N39" s="138">
+        <v>1</v>
+      </c>
+      <c r="O39" s="138">
+        <v>1</v>
+      </c>
+      <c r="P39" s="138">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="138">
+        <v>1</v>
+      </c>
+      <c r="R39" s="138">
+        <v>1</v>
+      </c>
+      <c r="S39" s="138">
+        <v>1</v>
+      </c>
+      <c r="T39" s="138">
+        <v>1</v>
+      </c>
+      <c r="U39" s="138">
+        <v>1</v>
+      </c>
+      <c r="V39" s="138">
+        <v>1</v>
+      </c>
+      <c r="W39" s="138">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A40" s="169"/>
-      <c r="B40" s="169"/>
-      <c r="C40" s="169"/>
-      <c r="D40" s="169"/>
-      <c r="E40" s="169"/>
-      <c r="F40" s="169"/>
-      <c r="G40" s="169"/>
-      <c r="H40" s="169"/>
-      <c r="I40" s="169"/>
-      <c r="J40" s="169"/>
-      <c r="K40" s="169"/>
-      <c r="L40" s="169"/>
-      <c r="M40" s="169">
-        <v>1</v>
-      </c>
-      <c r="N40" s="169">
-        <v>1</v>
-      </c>
-      <c r="O40" s="169">
-        <v>1</v>
-      </c>
-      <c r="P40" s="169">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="169">
-        <v>1</v>
-      </c>
-      <c r="R40" s="169">
-        <v>1</v>
-      </c>
-      <c r="S40" s="169">
-        <v>1</v>
-      </c>
-      <c r="T40" s="169">
-        <v>1</v>
-      </c>
-      <c r="U40" s="169">
-        <v>1</v>
-      </c>
-      <c r="V40" s="169">
-        <v>1</v>
-      </c>
-      <c r="W40" s="169">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A40" s="138"/>
+      <c r="B40" s="138"/>
+      <c r="C40" s="138"/>
+      <c r="D40" s="138"/>
+      <c r="E40" s="138"/>
+      <c r="F40" s="138"/>
+      <c r="G40" s="138"/>
+      <c r="H40" s="138"/>
+      <c r="I40" s="138"/>
+      <c r="J40" s="138"/>
+      <c r="K40" s="138"/>
+      <c r="L40" s="138"/>
+      <c r="M40" s="138">
+        <v>1</v>
+      </c>
+      <c r="N40" s="138">
+        <v>1</v>
+      </c>
+      <c r="O40" s="138">
+        <v>1</v>
+      </c>
+      <c r="P40" s="138">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="138">
+        <v>1</v>
+      </c>
+      <c r="R40" s="138">
+        <v>1</v>
+      </c>
+      <c r="S40" s="138">
+        <v>1</v>
+      </c>
+      <c r="T40" s="138">
+        <v>1</v>
+      </c>
+      <c r="U40" s="138">
+        <v>1</v>
+      </c>
+      <c r="V40" s="138">
+        <v>1</v>
+      </c>
+      <c r="W40" s="138">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A41" s="169"/>
-      <c r="B41" s="169"/>
-      <c r="C41" s="169"/>
-      <c r="D41" s="169"/>
-      <c r="E41" s="169"/>
-      <c r="F41" s="169"/>
-      <c r="G41" s="169"/>
-      <c r="H41" s="169"/>
-      <c r="I41" s="169"/>
-      <c r="J41" s="169"/>
-      <c r="K41" s="169"/>
-      <c r="L41" s="169"/>
-      <c r="M41" s="169">
-        <v>1</v>
-      </c>
-      <c r="N41" s="169">
-        <v>1</v>
-      </c>
-      <c r="O41" s="169">
-        <v>1</v>
-      </c>
-      <c r="P41" s="169">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="169">
-        <v>1</v>
-      </c>
-      <c r="R41" s="169">
-        <v>1</v>
-      </c>
-      <c r="S41" s="169">
-        <v>1</v>
-      </c>
-      <c r="T41" s="169">
-        <v>1</v>
-      </c>
-      <c r="U41" s="169">
-        <v>1</v>
-      </c>
-      <c r="V41" s="169">
-        <v>1</v>
-      </c>
-      <c r="W41" s="169">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A41" s="138"/>
+      <c r="B41" s="138"/>
+      <c r="C41" s="138"/>
+      <c r="D41" s="138"/>
+      <c r="E41" s="138"/>
+      <c r="F41" s="138"/>
+      <c r="G41" s="138"/>
+      <c r="H41" s="138"/>
+      <c r="I41" s="138"/>
+      <c r="J41" s="138"/>
+      <c r="K41" s="138"/>
+      <c r="L41" s="138"/>
+      <c r="M41" s="138">
+        <v>1</v>
+      </c>
+      <c r="N41" s="138">
+        <v>1</v>
+      </c>
+      <c r="O41" s="138">
+        <v>1</v>
+      </c>
+      <c r="P41" s="138">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="138">
+        <v>1</v>
+      </c>
+      <c r="R41" s="138">
+        <v>1</v>
+      </c>
+      <c r="S41" s="138">
+        <v>1</v>
+      </c>
+      <c r="T41" s="138">
+        <v>1</v>
+      </c>
+      <c r="U41" s="138">
+        <v>1</v>
+      </c>
+      <c r="V41" s="138">
+        <v>1</v>
+      </c>
+      <c r="W41" s="138">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A42" s="169"/>
-      <c r="B42" s="169"/>
-      <c r="C42" s="169"/>
-      <c r="D42" s="169"/>
-      <c r="E42" s="169"/>
-      <c r="F42" s="169"/>
-      <c r="G42" s="169"/>
-      <c r="H42" s="169"/>
-      <c r="I42" s="169"/>
-      <c r="J42" s="169"/>
-      <c r="K42" s="169"/>
-      <c r="L42" s="169"/>
-      <c r="M42" s="169">
-        <v>1</v>
-      </c>
-      <c r="N42" s="169">
-        <v>1</v>
-      </c>
-      <c r="O42" s="169">
-        <v>1</v>
-      </c>
-      <c r="P42" s="169">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="169">
-        <v>1</v>
-      </c>
-      <c r="R42" s="169">
-        <v>1</v>
-      </c>
-      <c r="S42" s="169">
-        <v>1</v>
-      </c>
-      <c r="T42" s="169">
-        <v>1</v>
-      </c>
-      <c r="U42" s="169">
-        <v>1</v>
-      </c>
-      <c r="V42" s="169">
-        <v>1</v>
-      </c>
-      <c r="W42" s="169">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A42" s="138"/>
+      <c r="B42" s="138"/>
+      <c r="C42" s="138"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="138"/>
+      <c r="F42" s="138"/>
+      <c r="G42" s="138"/>
+      <c r="H42" s="138"/>
+      <c r="I42" s="138"/>
+      <c r="J42" s="138"/>
+      <c r="K42" s="138"/>
+      <c r="L42" s="138"/>
+      <c r="M42" s="138">
+        <v>1</v>
+      </c>
+      <c r="N42" s="138">
+        <v>1</v>
+      </c>
+      <c r="O42" s="138">
+        <v>1</v>
+      </c>
+      <c r="P42" s="138">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="138">
+        <v>1</v>
+      </c>
+      <c r="R42" s="138">
+        <v>1</v>
+      </c>
+      <c r="S42" s="138">
+        <v>1</v>
+      </c>
+      <c r="T42" s="138">
+        <v>1</v>
+      </c>
+      <c r="U42" s="138">
+        <v>1</v>
+      </c>
+      <c r="V42" s="138">
+        <v>1</v>
+      </c>
+      <c r="W42" s="138">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="A43" s="169"/>
-      <c r="B43" s="169"/>
-      <c r="C43" s="169"/>
-      <c r="D43" s="169"/>
-      <c r="E43" s="169"/>
-      <c r="F43" s="169"/>
-      <c r="G43" s="169"/>
-      <c r="H43" s="169"/>
-      <c r="I43" s="169"/>
-      <c r="J43" s="169"/>
-      <c r="K43" s="169"/>
-      <c r="L43" s="169"/>
-      <c r="M43" s="169">
-        <v>1</v>
-      </c>
-      <c r="N43" s="169">
-        <v>1</v>
-      </c>
-      <c r="O43" s="169">
-        <v>1</v>
-      </c>
-      <c r="P43" s="169">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="169">
-        <v>1</v>
-      </c>
-      <c r="R43" s="169">
-        <v>1</v>
-      </c>
-      <c r="S43" s="169">
-        <v>1</v>
-      </c>
-      <c r="T43" s="169">
-        <v>1</v>
-      </c>
-      <c r="U43" s="169">
-        <v>1</v>
-      </c>
-      <c r="V43" s="169">
-        <v>1</v>
-      </c>
-      <c r="W43" s="169">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A43" s="138"/>
+      <c r="B43" s="138"/>
+      <c r="C43" s="138"/>
+      <c r="D43" s="138"/>
+      <c r="E43" s="138"/>
+      <c r="F43" s="138"/>
+      <c r="G43" s="138"/>
+      <c r="H43" s="138"/>
+      <c r="I43" s="138"/>
+      <c r="J43" s="138"/>
+      <c r="K43" s="138"/>
+      <c r="L43" s="138"/>
+      <c r="M43" s="138">
+        <v>1</v>
+      </c>
+      <c r="N43" s="138">
+        <v>1</v>
+      </c>
+      <c r="O43" s="138">
+        <v>1</v>
+      </c>
+      <c r="P43" s="138">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="138">
+        <v>1</v>
+      </c>
+      <c r="R43" s="138">
+        <v>1</v>
+      </c>
+      <c r="S43" s="138">
+        <v>1</v>
+      </c>
+      <c r="T43" s="138">
+        <v>1</v>
+      </c>
+      <c r="U43" s="138">
+        <v>1</v>
+      </c>
+      <c r="V43" s="138">
+        <v>1</v>
+      </c>
+      <c r="W43" s="138">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>218</v>
+        <v>123</v>
       </c>
       <c r="D55" t="s">
-        <v>219</v>
+        <v>124</v>
       </c>
       <c r="F55" t="s">
-        <v>220</v>
+        <v>125</v>
       </c>
       <c r="G55" t="s">
-        <v>221</v>
+        <v>126</v>
       </c>
       <c r="H55">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F56" t="s">
-        <v>222</v>
+        <v>127</v>
       </c>
       <c r="G56" t="s">
-        <v>223</v>
+        <v>128</v>
       </c>
       <c r="H56">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F57" t="s">
-        <v>224</v>
+        <v>129</v>
       </c>
       <c r="G57" t="s">
-        <v>223</v>
+        <v>128</v>
       </c>
       <c r="H57">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F58" t="s">
-        <v>225</v>
+        <v>130</v>
       </c>
       <c r="G58" t="s">
-        <v>226</v>
+        <v>131</v>
       </c>
       <c r="H58">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F59" t="s">
-        <v>227</v>
+        <v>132</v>
       </c>
       <c r="G59" t="s">
-        <v>226</v>
+        <v>131</v>
       </c>
       <c r="H59">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F60" t="s">
-        <v>228</v>
+        <v>133</v>
       </c>
       <c r="G60" t="s">
-        <v>226</v>
+        <v>131</v>
       </c>
       <c r="H60">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F61" t="s">
-        <v>229</v>
+        <v>134</v>
       </c>
       <c r="G61" t="s">
-        <v>221</v>
+        <v>126</v>
       </c>
       <c r="H61">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F62" t="s">
-        <v>230</v>
+        <v>135</v>
       </c>
       <c r="G62" t="s">
-        <v>231</v>
+        <v>136</v>
       </c>
       <c r="H62">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F63" t="s">
-        <v>232</v>
+        <v>137</v>
       </c>
       <c r="G63" t="s">
-        <v>232</v>
+        <v>137</v>
       </c>
       <c r="H63">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F64" t="s">
-        <v>233</v>
+        <v>138</v>
       </c>
       <c r="G64" t="s">
-        <v>233</v>
+        <v>138</v>
       </c>
       <c r="H64">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F65" t="s">
-        <v>234</v>
+        <v>139</v>
       </c>
       <c r="G65" t="s">
-        <v>235</v>
+        <v>140</v>
       </c>
       <c r="H65">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F66" t="s">
-        <v>236</v>
+        <v>141</v>
       </c>
       <c r="G66" t="s">
-        <v>237</v>
+        <v>142</v>
       </c>
       <c r="H66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F67" t="s">
-        <v>238</v>
+        <v>143</v>
       </c>
       <c r="G67" t="s">
-        <v>238</v>
+        <v>143</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F68" t="s">
-        <v>239</v>
+        <v>144</v>
       </c>
       <c r="G68" t="s">
-        <v>235</v>
+        <v>140</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F69" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="G69" t="s">
-        <v>241</v>
+        <v>146</v>
       </c>
       <c r="H69">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F70" t="s">
-        <v>242</v>
+        <v>147</v>
       </c>
       <c r="G70" t="s">
-        <v>243</v>
+        <v>148</v>
       </c>
       <c r="H70">
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>218</v>
+        <v>123</v>
       </c>
       <c r="D78" t="s">
-        <v>244</v>
+        <v>149</v>
       </c>
       <c r="F78" t="s">
-        <v>245</v>
+        <v>150</v>
       </c>
       <c r="G78" t="s">
-        <v>246</v>
+        <v>151</v>
       </c>
       <c r="H78">
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F79" t="s">
-        <v>247</v>
+        <v>152</v>
       </c>
       <c r="G79" t="s">
-        <v>248</v>
+        <v>153</v>
       </c>
       <c r="H79">
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F80" t="s">
-        <v>249</v>
+        <v>154</v>
       </c>
       <c r="G80" t="s">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="H80">
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F81" t="s">
-        <v>251</v>
+        <v>156</v>
       </c>
       <c r="G81" t="s">
-        <v>252</v>
+        <v>157</v>
       </c>
       <c r="H81">
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F82" t="s">
-        <v>253</v>
+        <v>158</v>
       </c>
       <c r="G82" t="s">
-        <v>226</v>
+        <v>131</v>
       </c>
       <c r="H82">
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F83" t="s">
-        <v>254</v>
+        <v>159</v>
       </c>
       <c r="G83" t="s">
-        <v>255</v>
+        <v>160</v>
       </c>
       <c r="H83">
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F84" t="s">
-        <v>256</v>
+        <v>161</v>
       </c>
       <c r="G84" t="s">
-        <v>257</v>
+        <v>162</v>
       </c>
       <c r="H84">
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F85" t="s">
-        <v>258</v>
+        <v>163</v>
       </c>
       <c r="G85" t="s">
-        <v>259</v>
+        <v>164</v>
       </c>
       <c r="H85">
         <v>4</v>
@@ -6644,129 +6148,129 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="79.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="174" t="s">
-        <v>330</v>
-      </c>
-      <c r="B1" s="174" t="s">
-        <v>331</v>
-      </c>
-      <c r="C1" s="174" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="143" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="143" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" s="143" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C14" s="174" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14" s="143" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.45">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.45">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.45">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.45">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.45">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="C24" s="178" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" ht="43.9" x14ac:dyDescent="0.45">
-      <c r="C25" s="178" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="C26" s="178" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="C27" s="178" t="s">
-        <v>469</v>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C24" s="147" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="C25" s="147" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C26" s="147" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C27" s="147" t="s">
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -6783,137 +6287,137 @@
       <selection activeCell="D2" sqref="D2:D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="52.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.46484375" customWidth="1"/>
+    <col min="4" max="4" width="52.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="179" t="s">
-        <v>420</v>
-      </c>
-      <c r="B1" s="174" t="s">
-        <v>330</v>
-      </c>
-      <c r="C1" s="174" t="s">
-        <v>331</v>
-      </c>
-      <c r="D1" s="174" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="148" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1" s="143" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="143" t="s">
+        <v>236</v>
+      </c>
+      <c r="D1" s="143" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.45">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.45">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.45">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.45">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.45">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.45">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.45">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.45">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
-        <v>322</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -6932,107 +6436,107 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="4" width="52.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="52.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="174" t="s">
-        <v>330</v>
-      </c>
-      <c r="B1" s="174" t="s">
-        <v>331</v>
-      </c>
-      <c r="C1" s="174" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="143" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="143" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" s="143" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.45">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.45">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.45">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.45">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>327</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -7041,996 +6545,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G101"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="3" style="137" customWidth="1"/>
-    <col min="2" max="2" width="3.86328125" style="137" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="95.33203125" style="137" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.86328125" style="137" customWidth="1"/>
-    <col min="5" max="5" width="3.86328125" style="137" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="137" customWidth="1"/>
-    <col min="7" max="16384" width="8.86328125" style="137"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-    </row>
-    <row r="2" spans="1:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="138"/>
-      <c r="B2" s="143" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="144" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="142"/>
-      <c r="G2" s="139"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="138"/>
-      <c r="B3" s="145">
-        <v>1</v>
-      </c>
-      <c r="C3" s="146" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="142"/>
-      <c r="G3" s="139"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="138"/>
-      <c r="B4" s="145">
-        <v>2</v>
-      </c>
-      <c r="C4" s="146" t="s">
-        <v>183</v>
-      </c>
-      <c r="D4" s="142"/>
-      <c r="G4" s="139"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="138"/>
-      <c r="B5" s="145">
-        <v>3</v>
-      </c>
-      <c r="C5" s="146" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="142"/>
-      <c r="G5" s="139"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="138"/>
-      <c r="B6" s="145">
-        <v>4</v>
-      </c>
-      <c r="C6" s="146" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="142"/>
-      <c r="G6" s="139"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="138"/>
-      <c r="B7" s="145">
-        <v>5</v>
-      </c>
-      <c r="C7" s="146" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="142"/>
-      <c r="G7" s="139"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="138"/>
-      <c r="B8" s="145">
-        <v>6</v>
-      </c>
-      <c r="C8" s="167" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="142"/>
-      <c r="G8" s="139"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="138"/>
-      <c r="B9" s="147">
-        <v>7</v>
-      </c>
-      <c r="C9" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="142"/>
-      <c r="G9" s="139"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="138"/>
-      <c r="B10" s="147">
-        <v>8</v>
-      </c>
-      <c r="C10" s="148" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="142"/>
-      <c r="G10" s="139"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="138"/>
-      <c r="B11" s="147">
-        <v>9</v>
-      </c>
-      <c r="C11" s="148" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="142"/>
-      <c r="G11" s="139"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="138"/>
-      <c r="B12" s="147">
-        <v>10</v>
-      </c>
-      <c r="C12" s="148" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="142"/>
-      <c r="G12" s="139"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="138"/>
-      <c r="B13" s="147">
-        <v>11</v>
-      </c>
-      <c r="C13" s="148" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="142"/>
-      <c r="G13" s="139"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="138"/>
-      <c r="B14" s="147">
-        <v>12</v>
-      </c>
-      <c r="C14" s="148" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="142"/>
-      <c r="G14" s="139"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="138"/>
-      <c r="B15" s="149">
-        <v>13</v>
-      </c>
-      <c r="C15" s="150" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="142"/>
-      <c r="G15" s="139"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="138"/>
-      <c r="B16" s="149">
-        <v>14</v>
-      </c>
-      <c r="C16" s="150" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="142"/>
-      <c r="G16" s="139"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="138"/>
-      <c r="B17" s="149">
-        <v>15</v>
-      </c>
-      <c r="C17" s="150" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="142"/>
-      <c r="G17" s="139"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="138"/>
-      <c r="B18" s="149">
-        <v>16</v>
-      </c>
-      <c r="C18" s="150" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" s="142"/>
-      <c r="G18" s="139"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="138"/>
-      <c r="B19" s="149">
-        <v>17</v>
-      </c>
-      <c r="C19" s="150" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" s="142"/>
-      <c r="G19" s="139"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="138"/>
-      <c r="B20" s="149">
-        <v>18</v>
-      </c>
-      <c r="C20" s="150" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" s="142"/>
-      <c r="G20" s="139"/>
-    </row>
-    <row r="21" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="138"/>
-      <c r="B21" s="151">
-        <v>19</v>
-      </c>
-      <c r="C21" s="152" t="s">
-        <v>106</v>
-      </c>
-      <c r="D21" s="142"/>
-      <c r="G21" s="139"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="141"/>
-      <c r="C22" s="141"/>
-      <c r="D22" s="138"/>
-      <c r="G22" s="139"/>
-    </row>
-    <row r="23" spans="1:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="143" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="144" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="138"/>
-      <c r="G23" s="139"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B24" s="153">
-        <v>1</v>
-      </c>
-      <c r="C24" s="166" t="s">
-        <v>182</v>
-      </c>
-      <c r="D24" s="138"/>
-      <c r="G24" s="139"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B25" s="153">
-        <v>2</v>
-      </c>
-      <c r="C25" s="166" t="s">
-        <v>109</v>
-      </c>
-      <c r="D25" s="138"/>
-      <c r="G25" s="139"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B26" s="153">
-        <v>3</v>
-      </c>
-      <c r="C26" s="166" t="s">
-        <v>181</v>
-      </c>
-      <c r="D26" s="138"/>
-      <c r="G26" s="139"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B27" s="153">
-        <v>4</v>
-      </c>
-      <c r="C27" s="166" t="s">
-        <v>111</v>
-      </c>
-      <c r="D27" s="138"/>
-      <c r="G27" s="139"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B28" s="153">
-        <v>5</v>
-      </c>
-      <c r="C28" s="166" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28" s="138"/>
-      <c r="G28" s="139"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B29" s="153">
-        <v>6</v>
-      </c>
-      <c r="C29" s="166" t="s">
-        <v>180</v>
-      </c>
-      <c r="D29" s="138"/>
-      <c r="G29" s="139"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B30" s="153">
-        <v>7</v>
-      </c>
-      <c r="C30" s="166" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" s="138"/>
-      <c r="G30" s="139"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B31" s="153">
-        <v>8</v>
-      </c>
-      <c r="C31" s="166" t="s">
-        <v>133</v>
-      </c>
-      <c r="D31" s="138"/>
-      <c r="G31" s="139"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B32" s="154">
-        <v>9</v>
-      </c>
-      <c r="C32" s="155" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32" s="138"/>
-      <c r="G32" s="139"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B33" s="154">
-        <v>10</v>
-      </c>
-      <c r="C33" s="155" t="s">
-        <v>139</v>
-      </c>
-      <c r="D33" s="138"/>
-      <c r="G33" s="139"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B34" s="154">
-        <v>11</v>
-      </c>
-      <c r="C34" s="155" t="s">
-        <v>146</v>
-      </c>
-      <c r="D34" s="138"/>
-      <c r="G34" s="139"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B35" s="154">
-        <v>12</v>
-      </c>
-      <c r="C35" s="155" t="s">
-        <v>113</v>
-      </c>
-      <c r="D35" s="138"/>
-      <c r="G35" s="139"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B36" s="154">
-        <v>13</v>
-      </c>
-      <c r="C36" s="155" t="s">
-        <v>114</v>
-      </c>
-      <c r="D36" s="138"/>
-      <c r="G36" s="139"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B37" s="154">
-        <v>14</v>
-      </c>
-      <c r="C37" s="155" t="s">
-        <v>136</v>
-      </c>
-      <c r="D37" s="138"/>
-      <c r="G37" s="139"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B38" s="154">
-        <v>15</v>
-      </c>
-      <c r="C38" s="155" t="s">
-        <v>115</v>
-      </c>
-      <c r="D38" s="138"/>
-      <c r="G38" s="139"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B39" s="154">
-        <v>16</v>
-      </c>
-      <c r="C39" s="155" t="s">
-        <v>128</v>
-      </c>
-      <c r="D39" s="138"/>
-      <c r="G39" s="139"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B40" s="154">
-        <v>17</v>
-      </c>
-      <c r="C40" s="155" t="s">
-        <v>129</v>
-      </c>
-      <c r="D40" s="138"/>
-      <c r="G40" s="139"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B41" s="154">
-        <v>18</v>
-      </c>
-      <c r="C41" s="155" t="s">
-        <v>130</v>
-      </c>
-      <c r="D41" s="138"/>
-      <c r="G41" s="139"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B42" s="154">
-        <v>19</v>
-      </c>
-      <c r="C42" s="155" t="s">
-        <v>116</v>
-      </c>
-      <c r="D42" s="138"/>
-      <c r="G42" s="139"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B43" s="154">
-        <v>20</v>
-      </c>
-      <c r="C43" s="155" t="s">
-        <v>117</v>
-      </c>
-      <c r="D43" s="138"/>
-      <c r="G43" s="139"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B44" s="154">
-        <v>21</v>
-      </c>
-      <c r="C44" s="155" t="s">
-        <v>118</v>
-      </c>
-      <c r="D44" s="138"/>
-      <c r="G44" s="139"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B45" s="154">
-        <v>22</v>
-      </c>
-      <c r="C45" s="155" t="s">
-        <v>143</v>
-      </c>
-      <c r="D45" s="138"/>
-      <c r="G45" s="139"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B46" s="154">
-        <v>23</v>
-      </c>
-      <c r="C46" s="155" t="s">
-        <v>119</v>
-      </c>
-      <c r="D46" s="138"/>
-      <c r="G46" s="139"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B47" s="154">
-        <v>24</v>
-      </c>
-      <c r="C47" s="155" t="s">
-        <v>121</v>
-      </c>
-      <c r="D47" s="138"/>
-      <c r="G47" s="139"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B48" s="154">
-        <v>25</v>
-      </c>
-      <c r="C48" s="155" t="s">
-        <v>176</v>
-      </c>
-      <c r="D48" s="138"/>
-      <c r="G48" s="139"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B49" s="156">
-        <v>26</v>
-      </c>
-      <c r="C49" s="157" t="s">
-        <v>154</v>
-      </c>
-      <c r="D49" s="138"/>
-      <c r="G49" s="139"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B50" s="156">
-        <v>27</v>
-      </c>
-      <c r="C50" s="157" t="s">
-        <v>122</v>
-      </c>
-      <c r="D50" s="138"/>
-      <c r="G50" s="139"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B51" s="156">
-        <v>28</v>
-      </c>
-      <c r="C51" s="157" t="s">
-        <v>113</v>
-      </c>
-      <c r="D51" s="138"/>
-      <c r="G51" s="139"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B52" s="156">
-        <v>29</v>
-      </c>
-      <c r="C52" s="157" t="s">
-        <v>134</v>
-      </c>
-      <c r="D52" s="138"/>
-      <c r="G52" s="139"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B53" s="156">
-        <v>30</v>
-      </c>
-      <c r="C53" s="157" t="s">
-        <v>123</v>
-      </c>
-      <c r="D53" s="138"/>
-      <c r="G53" s="139"/>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B54" s="156">
-        <v>31</v>
-      </c>
-      <c r="C54" s="157" t="s">
-        <v>124</v>
-      </c>
-      <c r="D54" s="138"/>
-      <c r="G54" s="139"/>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B55" s="156">
-        <v>32</v>
-      </c>
-      <c r="C55" s="157" t="s">
-        <v>125</v>
-      </c>
-      <c r="D55" s="138"/>
-      <c r="G55" s="139"/>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B56" s="156">
-        <v>33</v>
-      </c>
-      <c r="C56" s="157" t="s">
-        <v>126</v>
-      </c>
-      <c r="D56" s="138"/>
-      <c r="G56" s="139"/>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B57" s="156">
-        <v>34</v>
-      </c>
-      <c r="C57" s="157" t="s">
-        <v>127</v>
-      </c>
-      <c r="D57" s="138"/>
-      <c r="G57" s="139"/>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B58" s="156">
-        <v>35</v>
-      </c>
-      <c r="C58" s="157" t="s">
-        <v>131</v>
-      </c>
-      <c r="D58" s="138"/>
-      <c r="G58" s="139"/>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B59" s="156">
-        <v>36</v>
-      </c>
-      <c r="C59" s="157" t="s">
-        <v>132</v>
-      </c>
-      <c r="D59" s="138"/>
-      <c r="G59" s="139"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B60" s="156">
-        <v>37</v>
-      </c>
-      <c r="C60" s="157" t="s">
-        <v>177</v>
-      </c>
-      <c r="D60" s="138"/>
-      <c r="G60" s="139"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B61" s="156">
-        <v>38</v>
-      </c>
-      <c r="C61" s="157" t="s">
-        <v>178</v>
-      </c>
-      <c r="D61" s="138"/>
-      <c r="G61" s="139"/>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B62" s="156">
-        <v>39</v>
-      </c>
-      <c r="C62" s="157" t="s">
-        <v>135</v>
-      </c>
-      <c r="D62" s="138"/>
-      <c r="G62" s="139"/>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B63" s="156">
-        <v>40</v>
-      </c>
-      <c r="C63" s="157" t="s">
-        <v>137</v>
-      </c>
-      <c r="D63" s="138"/>
-      <c r="G63" s="139"/>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B64" s="154">
-        <v>41</v>
-      </c>
-      <c r="C64" s="155" t="s">
-        <v>138</v>
-      </c>
-      <c r="D64" s="138"/>
-      <c r="G64" s="139"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B65" s="154">
-        <v>42</v>
-      </c>
-      <c r="C65" s="155" t="s">
-        <v>140</v>
-      </c>
-      <c r="D65" s="138"/>
-      <c r="G65" s="139"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B66" s="154">
-        <v>43</v>
-      </c>
-      <c r="C66" s="155" t="s">
-        <v>147</v>
-      </c>
-      <c r="D66" s="138"/>
-      <c r="G66" s="139"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B67" s="154">
-        <v>44</v>
-      </c>
-      <c r="C67" s="155" t="s">
-        <v>141</v>
-      </c>
-      <c r="D67" s="138"/>
-      <c r="G67" s="139"/>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B68" s="154">
-        <v>45</v>
-      </c>
-      <c r="C68" s="155" t="s">
-        <v>114</v>
-      </c>
-      <c r="D68" s="138"/>
-      <c r="G68" s="139"/>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B69" s="154">
-        <v>46</v>
-      </c>
-      <c r="C69" s="155" t="s">
-        <v>145</v>
-      </c>
-      <c r="D69" s="138"/>
-      <c r="G69" s="139"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B70" s="154">
-        <v>47</v>
-      </c>
-      <c r="C70" s="155" t="s">
-        <v>142</v>
-      </c>
-      <c r="D70" s="138"/>
-      <c r="G70" s="139"/>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B71" s="154">
-        <v>48</v>
-      </c>
-      <c r="C71" s="155" t="s">
-        <v>144</v>
-      </c>
-      <c r="D71" s="138"/>
-      <c r="G71" s="139"/>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B72" s="158">
-        <v>49</v>
-      </c>
-      <c r="C72" s="155" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B73" s="158">
-        <v>50</v>
-      </c>
-      <c r="C73" s="159" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B74" s="158">
-        <v>51</v>
-      </c>
-      <c r="C74" s="159" t="s">
-        <v>162</v>
-      </c>
-      <c r="D74" s="138"/>
-      <c r="G74" s="139"/>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B75" s="154">
-        <v>52</v>
-      </c>
-      <c r="C75" s="155" t="s">
-        <v>148</v>
-      </c>
-      <c r="D75" s="138"/>
-      <c r="G75" s="139"/>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B76" s="154">
-        <v>53</v>
-      </c>
-      <c r="C76" s="155" t="s">
-        <v>176</v>
-      </c>
-      <c r="D76" s="138"/>
-      <c r="G76" s="139"/>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B77" s="160">
-        <v>54</v>
-      </c>
-      <c r="C77" s="161" t="s">
-        <v>150</v>
-      </c>
-      <c r="D77" s="138"/>
-      <c r="G77" s="139"/>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B78" s="160">
-        <v>55</v>
-      </c>
-      <c r="C78" s="161" t="s">
-        <v>151</v>
-      </c>
-      <c r="E78" s="141"/>
-      <c r="F78" s="141"/>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B79" s="160">
-        <v>56</v>
-      </c>
-      <c r="C79" s="161" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B80" s="160">
-        <v>57</v>
-      </c>
-      <c r="C80" s="161" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B81" s="160">
-        <v>58</v>
-      </c>
-      <c r="C81" s="161" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B82" s="160">
-        <v>59</v>
-      </c>
-      <c r="C82" s="161" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B83" s="160">
-        <v>60</v>
-      </c>
-      <c r="C83" s="161" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B84" s="160">
-        <v>61</v>
-      </c>
-      <c r="C84" s="161" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B85" s="160">
-        <v>62</v>
-      </c>
-      <c r="C85" s="161" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B86" s="160">
-        <v>63</v>
-      </c>
-      <c r="C86" s="161" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B87" s="160">
-        <v>64</v>
-      </c>
-      <c r="C87" s="161" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B88" s="160">
-        <v>65</v>
-      </c>
-      <c r="C88" s="161" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B89" s="160">
-        <v>66</v>
-      </c>
-      <c r="C89" s="161" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B90" s="160">
-        <v>67</v>
-      </c>
-      <c r="C90" s="161" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B91" s="160">
-        <v>68</v>
-      </c>
-      <c r="C91" s="161" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B92" s="160">
-        <v>69</v>
-      </c>
-      <c r="C92" s="161" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B93" s="160">
-        <v>70</v>
-      </c>
-      <c r="C93" s="161" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B94" s="160">
-        <v>71</v>
-      </c>
-      <c r="C94" s="161" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B95" s="160">
-        <v>72</v>
-      </c>
-      <c r="C95" s="161" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B96" s="160">
-        <v>73</v>
-      </c>
-      <c r="C96" s="161" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B97" s="160">
-        <v>74</v>
-      </c>
-      <c r="C97" s="161" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B98" s="160">
-        <v>75</v>
-      </c>
-      <c r="C98" s="163" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B99" s="162">
-        <v>76</v>
-      </c>
-      <c r="C99" s="163" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B100" s="164">
-        <v>77</v>
-      </c>
-      <c r="C100" s="165" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Z31"/>
   <sheetViews>
@@ -8041,32 +6555,32 @@
       <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="11.65" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.86328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.53125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.1328125" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.1328125" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="5.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="5.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.86328125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="2.86328125" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.86328125" style="1"/>
+    <col min="20" max="20" width="36.88671875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="2.88671875" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:26" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -8087,59 +6601,59 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="16.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:26" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="189" t="s">
+      <c r="B2" s="159" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="191" t="s">
+      <c r="C2" s="161" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="191" t="s">
+      <c r="D2" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="191" t="s">
+      <c r="E2" s="161" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="191" t="s">
+      <c r="F2" s="161" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="191" t="s">
+      <c r="G2" s="161" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="193" t="s">
+      <c r="H2" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="191" t="s">
+      <c r="I2" s="161" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="195" t="s">
+      <c r="J2" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="196"/>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="196"/>
-      <c r="O2" s="196"/>
-      <c r="P2" s="196"/>
-      <c r="Q2" s="196"/>
-      <c r="R2" s="196"/>
-      <c r="S2" s="197"/>
-      <c r="T2" s="187" t="s">
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="166"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="166"/>
+      <c r="S2" s="167"/>
+      <c r="T2" s="157" t="s">
         <v>24</v>
       </c>
       <c r="U2" s="4"/>
     </row>
-    <row r="3" spans="1:26" ht="25.15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:26" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
-      <c r="B3" s="190"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="194"/>
-      <c r="I3" s="192"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="162"/>
       <c r="J3" s="32" t="s">
         <v>22</v>
       </c>
@@ -8170,7 +6684,7 @@
       <c r="S3" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="T3" s="188"/>
+      <c r="T3" s="158"/>
       <c r="U3" s="5"/>
       <c r="V3" s="6"/>
       <c r="W3" s="7"/>
@@ -8178,7 +6692,7 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="34">
         <v>1</v>
@@ -8243,7 +6757,7 @@
       <c r="U4" s="8"/>
       <c r="V4" s="9"/>
     </row>
-    <row r="5" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="42">
         <v>2</v>
@@ -8308,7 +6822,7 @@
       <c r="U5" s="8"/>
       <c r="V5" s="9"/>
     </row>
-    <row r="6" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="42">
         <v>3</v>
@@ -8373,7 +6887,7 @@
       <c r="U6" s="8"/>
       <c r="V6" s="9"/>
     </row>
-    <row r="7" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="42">
         <v>4</v>
@@ -8438,7 +6952,7 @@
       <c r="U7" s="8"/>
       <c r="V7" s="9"/>
     </row>
-    <row r="8" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="42">
         <v>5</v>
@@ -8503,7 +7017,7 @@
       <c r="U8" s="8"/>
       <c r="V8" s="9"/>
     </row>
-    <row r="9" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="42">
         <v>6</v>
@@ -8568,7 +7082,7 @@
       <c r="U9" s="8"/>
       <c r="V9" s="9"/>
     </row>
-    <row r="10" spans="1:26" ht="12.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:26" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="44">
         <v>7</v>
@@ -8633,7 +7147,7 @@
       <c r="U10" s="8"/>
       <c r="V10" s="9"/>
     </row>
-    <row r="11" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="34">
         <v>8</v>
@@ -8698,7 +7212,7 @@
       <c r="U11" s="8"/>
       <c r="V11" s="9"/>
     </row>
-    <row r="12" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:26" ht="24" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="42">
         <v>9</v>
@@ -8763,7 +7277,7 @@
       <c r="U12" s="8"/>
       <c r="V12" s="9"/>
     </row>
-    <row r="13" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="42">
         <v>10</v>
@@ -8828,7 +7342,7 @@
       <c r="U13" s="8"/>
       <c r="V13" s="9"/>
     </row>
-    <row r="14" spans="1:26" ht="12.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:26" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="44">
         <v>11</v>
@@ -8893,7 +7407,7 @@
       <c r="U14" s="8"/>
       <c r="V14" s="9"/>
     </row>
-    <row r="15" spans="1:26" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="57">
         <v>12</v>
@@ -8939,7 +7453,7 @@
       <c r="U15" s="8"/>
       <c r="V15" s="9"/>
     </row>
-    <row r="16" spans="1:26" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="64">
         <v>13</v>
@@ -8985,7 +7499,7 @@
       <c r="U16" s="8"/>
       <c r="V16" s="9"/>
     </row>
-    <row r="17" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="64">
         <v>14</v>
@@ -9031,7 +7545,7 @@
       <c r="U17" s="8"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="64">
         <v>15</v>
@@ -9077,7 +7591,7 @@
       <c r="U18" s="8"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="64">
         <v>16</v>
@@ -9123,7 +7637,7 @@
       <c r="U19" s="8"/>
       <c r="V19" s="9"/>
     </row>
-    <row r="20" spans="1:22" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:22" ht="12.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="91">
         <v>17</v>
@@ -9169,7 +7683,7 @@
       <c r="U20" s="8"/>
       <c r="V20" s="9"/>
     </row>
-    <row r="21" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="107">
         <v>18</v>
@@ -9215,7 +7729,7 @@
       <c r="U21" s="8"/>
       <c r="V21" s="9"/>
     </row>
-    <row r="22" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="115">
         <v>19</v>
@@ -9261,7 +7775,7 @@
       <c r="U22" s="8"/>
       <c r="V22" s="9"/>
     </row>
-    <row r="23" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="115">
         <v>20</v>
@@ -9307,7 +7821,7 @@
       <c r="U23" s="8"/>
       <c r="V23" s="9"/>
     </row>
-    <row r="24" spans="1:22" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:22" ht="12.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="117">
         <v>21</v>
@@ -9353,7 +7867,7 @@
       <c r="U24" s="8"/>
       <c r="V24" s="9"/>
     </row>
-    <row r="25" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="99">
         <v>22</v>
@@ -9399,7 +7913,7 @@
       <c r="U25" s="8"/>
       <c r="V25" s="9"/>
     </row>
-    <row r="26" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="76">
         <v>23</v>
@@ -9445,7 +7959,7 @@
       <c r="U26" s="8"/>
       <c r="V26" s="9"/>
     </row>
-    <row r="27" spans="1:22" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:22" ht="12.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="78">
         <v>24</v>
@@ -9491,7 +8005,7 @@
       <c r="U27" s="8"/>
       <c r="V27" s="9"/>
     </row>
-    <row r="28" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="71">
         <v>25</v>
@@ -9537,7 +8051,7 @@
       <c r="U28" s="8"/>
       <c r="V28" s="9"/>
     </row>
-    <row r="29" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="76">
         <v>26</v>
@@ -9583,7 +8097,7 @@
       <c r="U29" s="8"/>
       <c r="V29" s="9"/>
     </row>
-    <row r="30" spans="1:22" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:22" ht="12.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="78">
         <v>27</v>
@@ -9629,7 +8143,7 @@
       <c r="U30" s="8"/>
       <c r="V30" s="9"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -9695,7 +8209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:QP33"/>
   <sheetViews>
@@ -9706,14 +8220,14 @@
       <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="458" width="3.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="458" width="3.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:458" ht="51.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:458" ht="55.2" x14ac:dyDescent="0.3">
       <c r="C1" s="133">
         <v>45052</v>
       </c>
@@ -10198,7 +8712,7 @@
       <c r="QO1" s="128"/>
       <c r="QP1" s="128"/>
     </row>
-    <row r="2" spans="1:458" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:458" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -10234,7 +8748,7 @@
       <c r="AC2" s="132"/>
       <c r="AD2" s="132"/>
     </row>
-    <row r="3" spans="1:458" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>66</v>
       </c>
@@ -10267,7 +8781,7 @@
       <c r="AC3" s="132"/>
       <c r="AD3" s="132"/>
     </row>
-    <row r="4" spans="1:458" ht="160.9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:458" ht="168" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>61</v>
       </c>
@@ -10299,20 +8813,20 @@
       <c r="AB4" s="132"/>
       <c r="AC4" s="132"/>
       <c r="AD4" s="132"/>
-      <c r="AM4" s="171" t="s">
-        <v>268</v>
-      </c>
-      <c r="AN4" s="171" t="s">
-        <v>269</v>
-      </c>
-      <c r="AO4" s="171" t="s">
-        <v>271</v>
-      </c>
-      <c r="AP4" s="171" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:458" ht="99" x14ac:dyDescent="0.45">
+      <c r="AM4" s="140" t="s">
+        <v>173</v>
+      </c>
+      <c r="AN4" s="140" t="s">
+        <v>174</v>
+      </c>
+      <c r="AO4" s="140" t="s">
+        <v>176</v>
+      </c>
+      <c r="AP4" s="140" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:458" ht="96" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>60</v>
       </c>
@@ -10344,14 +8858,14 @@
       <c r="AB5" s="132"/>
       <c r="AC5" s="132"/>
       <c r="AD5" s="132"/>
-      <c r="AM5" s="171" t="s">
-        <v>266</v>
-      </c>
-      <c r="AN5" s="173"/>
-      <c r="AO5" s="173"/>
-      <c r="AP5" s="173"/>
-    </row>
-    <row r="6" spans="1:458" ht="99" x14ac:dyDescent="0.45">
+      <c r="AM5" s="140" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN5" s="142"/>
+      <c r="AO5" s="142"/>
+      <c r="AP5" s="142"/>
+    </row>
+    <row r="6" spans="1:458" ht="96" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>62</v>
       </c>
@@ -10383,14 +8897,14 @@
       <c r="AB6" s="132"/>
       <c r="AC6" s="132"/>
       <c r="AD6" s="132"/>
-      <c r="AM6" s="171" t="s">
-        <v>267</v>
-      </c>
-      <c r="AN6" s="173"/>
-      <c r="AO6" s="173"/>
-      <c r="AP6" s="173"/>
-    </row>
-    <row r="7" spans="1:458" ht="123.75" x14ac:dyDescent="0.45">
+      <c r="AM6" s="140" t="s">
+        <v>172</v>
+      </c>
+      <c r="AN6" s="142"/>
+      <c r="AO6" s="142"/>
+      <c r="AP6" s="142"/>
+    </row>
+    <row r="7" spans="1:458" ht="132" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>63</v>
       </c>
@@ -10422,14 +8936,14 @@
       <c r="AB7" s="132"/>
       <c r="AC7" s="132"/>
       <c r="AD7" s="132"/>
-      <c r="AM7" s="171" t="s">
-        <v>270</v>
-      </c>
-      <c r="AN7" s="173"/>
-      <c r="AO7" s="173"/>
-      <c r="AP7" s="173"/>
-    </row>
-    <row r="8" spans="1:458" x14ac:dyDescent="0.45">
+      <c r="AM7" s="140" t="s">
+        <v>175</v>
+      </c>
+      <c r="AN7" s="142"/>
+      <c r="AO7" s="142"/>
+      <c r="AP7" s="142"/>
+    </row>
+    <row r="8" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>67</v>
       </c>
@@ -10462,7 +8976,7 @@
       <c r="AC8" s="132"/>
       <c r="AD8" s="132"/>
     </row>
-    <row r="9" spans="1:458" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>68</v>
       </c>
@@ -10495,7 +9009,7 @@
       <c r="AC9" s="132"/>
       <c r="AD9" s="132"/>
     </row>
-    <row r="10" spans="1:458" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>69</v>
       </c>
@@ -10528,7 +9042,7 @@
       <c r="AC10" s="132"/>
       <c r="AD10" s="132"/>
     </row>
-    <row r="11" spans="1:458" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>70</v>
       </c>
@@ -10561,7 +9075,7 @@
       <c r="AC11" s="132"/>
       <c r="AD11" s="132"/>
     </row>
-    <row r="12" spans="1:458" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>71</v>
       </c>
@@ -10594,7 +9108,7 @@
       <c r="AC12" s="132"/>
       <c r="AD12" s="132"/>
     </row>
-    <row r="13" spans="1:458" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>72</v>
       </c>
@@ -10627,7 +9141,7 @@
       <c r="AC13" s="132"/>
       <c r="AD13" s="132"/>
     </row>
-    <row r="14" spans="1:458" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>73</v>
       </c>
@@ -10660,7 +9174,7 @@
       <c r="AC14" s="132"/>
       <c r="AD14" s="132"/>
     </row>
-    <row r="15" spans="1:458" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>74</v>
       </c>
@@ -10693,7 +9207,7 @@
       <c r="AC15" s="132"/>
       <c r="AD15" s="132"/>
     </row>
-    <row r="16" spans="1:458" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>75</v>
       </c>
@@ -10726,7 +9240,7 @@
       <c r="AC16" s="132"/>
       <c r="AD16" s="132"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>76</v>
       </c>
@@ -10759,7 +9273,7 @@
       <c r="AC17" s="132"/>
       <c r="AD17" s="132"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -10795,7 +9309,7 @@
       <c r="AC18" s="132"/>
       <c r="AD18" s="132"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>78</v>
       </c>
@@ -10828,7 +9342,7 @@
       <c r="AC19" s="132"/>
       <c r="AD19" s="132"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>61</v>
       </c>
@@ -10861,7 +9375,7 @@
       <c r="AC20" s="132"/>
       <c r="AD20" s="132"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>60</v>
       </c>
@@ -10894,7 +9408,7 @@
       <c r="AC21" s="132"/>
       <c r="AD21" s="132"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>62</v>
       </c>
@@ -10927,7 +9441,7 @@
       <c r="AC22" s="132"/>
       <c r="AD22" s="132"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>63</v>
       </c>
@@ -10960,7 +9474,7 @@
       <c r="AC23" s="132"/>
       <c r="AD23" s="132"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>79</v>
       </c>
@@ -10993,7 +9507,7 @@
       <c r="AC24" s="132"/>
       <c r="AD24" s="132"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>80</v>
       </c>
@@ -11026,7 +9540,7 @@
       <c r="AC25" s="132"/>
       <c r="AD25" s="132"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>81</v>
       </c>
@@ -11059,7 +9573,7 @@
       <c r="AC26" s="132"/>
       <c r="AD26" s="132"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>82</v>
       </c>
@@ -11092,7 +9606,7 @@
       <c r="AC27" s="132"/>
       <c r="AD27" s="132"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>83</v>
       </c>
@@ -11125,7 +9639,7 @@
       <c r="AC28" s="132"/>
       <c r="AD28" s="132"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>84</v>
       </c>
@@ -11158,7 +9672,7 @@
       <c r="AC29" s="132"/>
       <c r="AD29" s="132"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>85</v>
       </c>
@@ -11191,7 +9705,7 @@
       <c r="AC30" s="132"/>
       <c r="AD30" s="132"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>86</v>
       </c>
@@ -11224,7 +9738,7 @@
       <c r="AC31" s="132"/>
       <c r="AD31" s="132"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>87</v>
       </c>
@@ -11257,7 +9771,7 @@
       <c r="AC32" s="132"/>
       <c r="AD32" s="132"/>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>88</v>
       </c>
